--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -172,10 +172,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>S</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -213,6 +209,18 @@
   </si>
   <si>
     <t>新开仓时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整单位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -849,8 +857,8 @@
   <dimension ref="A1:AG6644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K196" sqref="K196"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -863,9 +871,9 @@
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="5.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="36"/>
-    <col min="10" max="10" width="6" style="42" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="42" customWidth="1"/>
     <col min="11" max="12" width="9" style="47"/>
-    <col min="13" max="13" width="10.25" style="47" customWidth="1"/>
+    <col min="13" max="13" width="14.625" style="47" customWidth="1"/>
     <col min="14" max="14" width="8" style="47" customWidth="1"/>
     <col min="15" max="15" width="10.5" style="47" customWidth="1"/>
     <col min="16" max="16" width="10.375" style="47" customWidth="1"/>
@@ -882,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>5</v>
@@ -903,25 +911,25 @@
         <v>29</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>30</v>
       </c>
       <c r="L1" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="N1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="O1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="P1" s="35" t="s">
         <v>47</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>48</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>9</v>
@@ -966,7 +974,7 @@
       </c>
       <c r="AE1" s="8"/>
       <c r="AF1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG1">
         <v>2</v>
@@ -1024,7 +1032,7 @@
       <c r="AD2" s="12"/>
       <c r="AE2" s="12"/>
       <c r="AF2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
@@ -2315,6 +2323,7 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="28"/>
       <c r="B31" s="24" t="s">
         <v>24</v>
       </c>
@@ -2435,7 +2444,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="29">
         <v>21</v>
@@ -2456,7 +2465,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="J33" s="45">
-        <f t="shared" ref="J33:J36" si="0">IF(H33="N",1,IF(C33=H33,2,0.5))</f>
+        <f>IF(H33="N",1,IF(C33=H33,2,0.5))</f>
         <v>1</v>
       </c>
       <c r="K33" s="39">
@@ -2468,11 +2477,11 @@
         <v>21.064829801299908</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" ref="M33:M41" si="1">ROUND(L33,0)</f>
+        <f t="shared" ref="M33:M41" si="0">ROUND(L33,0)</f>
         <v>21</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" ref="N33:N41" si="2">M33-D33</f>
+        <f>M33-D33</f>
         <v>0</v>
       </c>
       <c r="O33" s="1"/>
@@ -2520,11 +2529,11 @@
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="J34" s="45">
-        <f t="shared" si="0"/>
+        <f>IF(H34="N",1,IF(C34=H34,2,0.5))</f>
         <v>2</v>
       </c>
       <c r="K34" s="39">
-        <f t="shared" ref="K34:K36" si="3">SUM($I$32:$I$36)/SUM($J$32:$J$36)*J34</f>
+        <f>SUM($I$32:$I$36)/SUM($J$32:$J$36)*J34</f>
         <v>2.0240000000000001E-2</v>
       </c>
       <c r="L34" s="1">
@@ -2532,11 +2541,11 @@
         <v>11.157089477722042</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="2"/>
+        <f>M34-D34</f>
         <v>5</v>
       </c>
       <c r="O34" s="1"/>
@@ -2584,11 +2593,11 @@
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="J35" s="45">
-        <f t="shared" si="0"/>
+        <f>IF(H35="N",1,IF(C35=H35,2,0.5))</f>
         <v>1</v>
       </c>
       <c r="K35" s="39">
-        <f t="shared" si="3"/>
+        <f>SUM($I$32:$I$36)/SUM($J$32:$J$36)*J35</f>
         <v>1.0120000000000001E-2</v>
       </c>
       <c r="L35" s="1">
@@ -2596,11 +2605,11 @@
         <v>10.660102336246593</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="2"/>
+        <f>M35-D35</f>
         <v>1</v>
       </c>
       <c r="O35" s="1"/>
@@ -2627,7 +2636,7 @@
         <v>19</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="29">
         <v>3</v>
@@ -2648,11 +2657,11 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="J36" s="45">
-        <f t="shared" si="0"/>
+        <f>IF(H36="N",1,IF(C36=H36,2,0.5))</f>
         <v>0.5</v>
       </c>
       <c r="K36" s="39">
-        <f t="shared" si="3"/>
+        <f>SUM($I$32:$I$36)/SUM($J$32:$J$36)*J36</f>
         <v>5.0600000000000003E-3</v>
       </c>
       <c r="L36" s="1">
@@ -2660,11 +2669,11 @@
         <v>1.4587727520576133</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="2"/>
+        <f>M36-D36</f>
         <v>-2</v>
       </c>
       <c r="O36" s="1"/>
@@ -2691,7 +2700,7 @@
         <v>20</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" s="29">
         <v>-2</v>
@@ -2724,11 +2733,11 @@
         <v>-1.1561479901960785</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="2"/>
+        <f>M37-D37</f>
         <v>1</v>
       </c>
       <c r="O37" s="1"/>
@@ -2755,7 +2764,7 @@
         <v>21</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" s="29">
         <v>-9</v>
@@ -2776,11 +2785,11 @@
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="J38" s="45">
-        <f t="shared" ref="J38:J41" si="4">IF(H38="N",1,IF(C38=H38,2,0.5))</f>
+        <f>IF(H38="N",1,IF(C38=H38,2,0.5))</f>
         <v>1</v>
       </c>
       <c r="K38" s="39">
-        <f t="shared" ref="K38:K41" si="5">-SUM($I$37:$I$41)/SUM($J$37:$J$41)*J38</f>
+        <f>-SUM($I$37:$I$41)/SUM($J$37:$J$41)*J38</f>
         <v>-1.2624999999999999E-2</v>
       </c>
       <c r="L38" s="1">
@@ -2788,11 +2797,11 @@
         <v>-11.97533547008547</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-12</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="2"/>
+        <f>M38-D38</f>
         <v>-3</v>
       </c>
       <c r="O38" s="1"/>
@@ -2819,7 +2828,7 @@
         <v>22</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39" s="29">
         <v>-6</v>
@@ -2840,11 +2849,11 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="J39" s="45">
-        <f t="shared" si="4"/>
+        <f>IF(H39="N",1,IF(C39=H39,2,0.5))</f>
         <v>1</v>
       </c>
       <c r="K39" s="39">
-        <f t="shared" si="5"/>
+        <f>-SUM($I$37:$I$41)/SUM($J$37:$J$41)*J39</f>
         <v>-1.2624999999999999E-2</v>
       </c>
       <c r="L39" s="1">
@@ -2852,11 +2861,11 @@
         <v>-8.1217036558769493</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-8</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="2"/>
+        <f>M39-D39</f>
         <v>-2</v>
       </c>
       <c r="O39" s="1"/>
@@ -2883,7 +2892,7 @@
         <v>23</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40" s="29">
         <v>-13</v>
@@ -2904,11 +2913,11 @@
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="J40" s="45">
-        <f t="shared" si="4"/>
+        <f>IF(H40="N",1,IF(C40=H40,2,0.5))</f>
         <v>1</v>
       </c>
       <c r="K40" s="39">
-        <f t="shared" si="5"/>
+        <f>-SUM($I$37:$I$41)/SUM($J$37:$J$41)*J40</f>
         <v>-1.2624999999999999E-2</v>
       </c>
       <c r="L40" s="1">
@@ -2916,11 +2925,11 @@
         <v>-16.187667553191488</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-16</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="2"/>
+        <f>M40-D40</f>
         <v>-3</v>
       </c>
       <c r="O40" s="1"/>
@@ -2948,7 +2957,7 @@
         <v>24</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="16">
         <v>-5</v>
@@ -2969,11 +2978,11 @@
         <v>1.06E-2</v>
       </c>
       <c r="J41" s="46">
-        <f t="shared" si="4"/>
+        <f>IF(H41="N",1,IF(C41=H41,2,0.5))</f>
         <v>0.5</v>
       </c>
       <c r="K41" s="40">
-        <f t="shared" si="5"/>
+        <f>-SUM($I$37:$I$41)/SUM($J$37:$J$41)*J41</f>
         <v>-6.3124999999999995E-3</v>
       </c>
       <c r="L41" s="6">
@@ -2981,11 +2990,11 @@
         <v>-3.037794414391207</v>
       </c>
       <c r="M41" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="N41" s="6">
-        <f t="shared" si="2"/>
+        <f>M41-D41</f>
         <v>2</v>
       </c>
       <c r="O41" s="6"/>
@@ -3012,160 +3021,713 @@
       </c>
     </row>
     <row r="42" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="27">
+        <v>43137</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="29">
+        <v>7</v>
+      </c>
+      <c r="E42" s="29">
+        <v>2844</v>
+      </c>
+      <c r="F42" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G42" s="31">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" s="39">
+        <v>5.3E-3</v>
+      </c>
+      <c r="J42" s="45">
+        <f>IF(H42="N",1,IF(C42=H42,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K42" s="39">
+        <f>SUM($I$42:$I$46)/SUM($J$42:$J$46)*J42</f>
+        <v>8.9090909090909099E-3</v>
+      </c>
+      <c r="L42" s="1">
+        <f>(X42*K42)/(W42*E42*0.15)</f>
+        <v>11.595931551804972</v>
+      </c>
+      <c r="M42" s="1">
+        <f>ROUND(L42,0)</f>
+        <v>12</v>
+      </c>
+      <c r="N42" s="1">
+        <f>M42-D42</f>
+        <v>5</v>
+      </c>
       <c r="T42" s="9" t="str">
         <f>IF(Q42="","",D42*(Q42-E42)*W42)</f>
         <v/>
       </c>
       <c r="U42" s="17"/>
+      <c r="W42" s="18">
+        <f>[1]!WSD($B42,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X42" s="1">
+        <v>5552558</v>
+      </c>
+      <c r="Y42" s="1">
+        <f>X42*I42/(E42*W42*0.15)</f>
+        <v>6.8983960150023442</v>
+      </c>
     </row>
     <row r="43" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B43" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="29">
+        <v>21</v>
+      </c>
+      <c r="E43" s="29">
+        <v>1795</v>
+      </c>
+      <c r="F43" s="30">
+        <v>43131</v>
+      </c>
+      <c r="G43" s="31">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="39">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J43" s="45">
+        <f>IF(H43="N",1,IF(C43=H43,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K43" s="39">
+        <f>SUM($I$42:$I$46)/SUM($J$42:$J$46)*J43</f>
+        <v>8.9090909090909099E-3</v>
+      </c>
+      <c r="L43" s="1">
+        <f>(X43*K43)/(W43*E43*0.15)</f>
+        <v>18.372606870937794</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" ref="M43:M51" si="1">ROUND(L43,0)</f>
+        <v>18</v>
+      </c>
+      <c r="N43" s="1">
+        <f>M43-D43</f>
+        <v>-3</v>
+      </c>
       <c r="T43" s="9" t="str">
         <f>IF(Q43="","",D43*(Q43-E43)*W43)</f>
         <v/>
       </c>
       <c r="U43" s="17"/>
+      <c r="W43" s="18">
+        <f>[1]!WSD($B43,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X43" s="1">
+        <v>5552558</v>
+      </c>
+      <c r="Y43" s="1">
+        <f>X43*I43/(E43*W43*0.15)</f>
+        <v>21.240983249767872</v>
+      </c>
     </row>
     <row r="44" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B44" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="29">
+        <v>11</v>
+      </c>
+      <c r="E44" s="29">
+        <v>677.8</v>
+      </c>
+      <c r="F44" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G44" s="31">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="39">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="J44" s="45">
+        <f>IF(H44="N",1,IF(C44=H44,2,0.5))</f>
+        <v>2</v>
+      </c>
+      <c r="K44" s="39">
+        <f>SUM($I$42:$I$46)/SUM($J$42:$J$46)*J44</f>
+        <v>1.781818181818182E-2</v>
+      </c>
+      <c r="L44" s="1">
+        <f>(X44*K44)/(W44*E44*0.15)</f>
+        <v>9.7311387823350071</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N44" s="1">
+        <f>M44-D44</f>
+        <v>-1</v>
+      </c>
       <c r="T44" s="9" t="str">
         <f>IF(Q44="","",D44*(Q44-E44)*W44)</f>
         <v/>
       </c>
       <c r="U44" s="17"/>
+      <c r="W44" s="18">
+        <f>[1]!WSD($B44,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X44" s="1">
+        <v>5552558</v>
+      </c>
+      <c r="Y44" s="1">
+        <f>X44*I44/(E44*W44*0.15)</f>
+        <v>10.704252660568505</v>
+      </c>
     </row>
     <row r="45" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B45" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="29">
+        <v>11</v>
+      </c>
+      <c r="E45" s="29">
+        <v>3547</v>
+      </c>
+      <c r="F45" s="30">
+        <v>43131</v>
+      </c>
+      <c r="G45" s="31">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="39">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J45" s="45">
+        <f>IF(H45="N",1,IF(C45=H45,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K45" s="39">
+        <f>SUM($I$42:$I$46)/SUM($J$42:$J$46)*J45</f>
+        <v>8.9090909090909099E-3</v>
+      </c>
+      <c r="L45" s="1">
+        <f>(X45*K45)/(W45*E45*0.15)</f>
+        <v>9.2976682642608797</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N45" s="1">
+        <f>M45-D45</f>
+        <v>-2</v>
+      </c>
       <c r="T45" s="9" t="str">
         <f>IF(Q45="","",D45*(Q45-E45)*W45)</f>
         <v/>
       </c>
       <c r="U45" s="17"/>
+      <c r="W45" s="18">
+        <f>[1]!WSD($B45,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X45" s="1">
+        <v>5552558</v>
+      </c>
+      <c r="Y45" s="1">
+        <f>X45*I45/(E45*W45*0.15)</f>
+        <v>10.749243003477117</v>
+      </c>
     </row>
     <row r="46" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B46" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="29">
+        <v>1</v>
+      </c>
+      <c r="E46" s="29">
+        <v>12960</v>
+      </c>
+      <c r="F46" s="30">
+        <v>43136</v>
+      </c>
+      <c r="G46" s="31">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="39">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="J46" s="45">
+        <f>IF(H46="N",1,IF(C46=H46,2,0.5))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K46" s="39">
+        <f>SUM($I$42:$I$46)/SUM($J$42:$J$46)*J46</f>
+        <v>4.454545454545455E-3</v>
+      </c>
+      <c r="L46" s="1">
+        <f>(X46*K46)/(W46*E46*0.15)</f>
+        <v>1.2723313786008232</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N46" s="1">
+        <f>M46-D46</f>
+        <v>0</v>
+      </c>
       <c r="T46" s="9" t="str">
         <f>IF(Q46="","",D46*(Q46-E46)*W46)</f>
         <v/>
       </c>
       <c r="U46" s="17"/>
+      <c r="W46" s="18">
+        <f>[1]!WSD($B46,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X46" s="1">
+        <v>5552558</v>
+      </c>
+      <c r="Y46" s="1">
+        <f>X46*I46/(E46*W46*0.15)</f>
+        <v>0.99968894032921818</v>
+      </c>
     </row>
     <row r="47" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="29">
+        <v>2040</v>
+      </c>
+      <c r="F47" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G47" s="31">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" s="39">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="J47" s="45">
+        <f>IF(H47="N",1,IF(C47=H47,2,0.5))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K47" s="39">
+        <f>SUM($I$47:$I$51)/SUM($J$47:$J$51)*J47</f>
+        <v>7.0428571428571424E-3</v>
+      </c>
+      <c r="L47" s="1">
+        <f>-(X47*K47)/(W47*E47*0.15)</f>
+        <v>-1.2779696984126985</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="N47" s="1">
+        <f>M47-D47</f>
+        <v>0</v>
+      </c>
       <c r="T47" s="9" t="str">
         <f>IF(Q47="","",D47*(Q47-E47)*W47)</f>
         <v/>
       </c>
       <c r="U47" s="17"/>
+      <c r="W47" s="18">
+        <f>[1]!WSD($B47,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X47" s="1">
+        <v>5552558</v>
+      </c>
+      <c r="Y47" s="1">
+        <f>X47*I47/(E47*W47*0.15)</f>
+        <v>1.0161544052287581</v>
+      </c>
     </row>
     <row r="48" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B48" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="29">
+        <v>-12</v>
+      </c>
+      <c r="E48" s="29">
+        <v>3939</v>
+      </c>
+      <c r="F48" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G48" s="31">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I48" s="39">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="J48" s="45">
+        <f>IF(H48="N",1,IF(C48=H48,2,0.5))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K48" s="39">
+        <f>SUM($I$47:$I$51)/SUM($J$47:$J$51)*J48</f>
+        <v>7.0428571428571424E-3</v>
+      </c>
+      <c r="L48" s="1">
+        <f>-(X48*K48)/(W48*E48*0.15)</f>
+        <v>-6.6185787884282936</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="N48" s="1">
+        <f>M48-D48</f>
+        <v>5</v>
+      </c>
       <c r="T48" s="9" t="str">
         <f>IF(Q48="","",D48*(Q48-E48)*W48)</f>
         <v/>
       </c>
       <c r="U48" s="17"/>
-    </row>
-    <row r="49" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W48" s="18">
+        <f>[1]!WSD($B48,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X48" s="1">
+        <v>5552558</v>
+      </c>
+      <c r="Y48" s="1">
+        <f>X48*I48/(E48*W48*0.15)</f>
+        <v>12.028897757468055</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B49" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="29">
+        <v>-8</v>
+      </c>
+      <c r="E49" s="32">
+        <v>5808</v>
+      </c>
+      <c r="F49" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G49" s="31">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" s="39">
+        <v>1.21E-2</v>
+      </c>
+      <c r="J49" s="45">
+        <f>IF(H49="N",1,IF(C49=H49,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K49" s="39">
+        <f>SUM($I$47:$I$51)/SUM($J$47:$J$51)*J49</f>
+        <v>1.4085714285714285E-2</v>
+      </c>
+      <c r="L49" s="1">
+        <f>-(X49*K49)/(W49*E49*0.15)</f>
+        <v>-8.9774730880230873</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="N49" s="1">
+        <f>M49-D49</f>
+        <v>-1</v>
+      </c>
       <c r="T49" s="9" t="str">
         <f>IF(Q49="","",D49*(Q49-E49)*W49)</f>
         <v/>
       </c>
       <c r="U49" s="17"/>
-    </row>
-    <row r="50" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W49" s="18">
+        <f>[1]!WSD($B49,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X49" s="1">
+        <v>5552558</v>
+      </c>
+      <c r="Y49" s="1">
+        <f>X49*I49/(E49*W49*0.15)</f>
+        <v>7.7118861111111103</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B50" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="29">
+        <v>-16</v>
+      </c>
+      <c r="E50" s="32">
+        <v>2914</v>
+      </c>
+      <c r="F50" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G50" s="31">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50" s="39">
+        <v>1.23E-2</v>
+      </c>
+      <c r="J50" s="45">
+        <f>IF(H50="N",1,IF(C50=H50,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K50" s="39">
+        <f>SUM($I$47:$I$51)/SUM($J$47:$J$51)*J50</f>
+        <v>1.4085714285714285E-2</v>
+      </c>
+      <c r="L50" s="1">
+        <f>-(X50*K50)/(W50*E50*0.15)</f>
+        <v>-17.893330025819523</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="1"/>
+        <v>-18</v>
+      </c>
+      <c r="N50" s="1">
+        <f>M50-D50</f>
+        <v>-2</v>
+      </c>
       <c r="T50" s="9" t="str">
         <f>IF(Q50="","",D50*(Q50-E50)*W50)</f>
         <v/>
       </c>
       <c r="U50" s="17"/>
-    </row>
-    <row r="51" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W50" s="18">
+        <f>[1]!WSD($B50,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X50" s="1">
+        <v>5552558</v>
+      </c>
+      <c r="Y50" s="1">
+        <f>X50*I50/(E50*W50*0.15)</f>
+        <v>15.624905833905286</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B51" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="16">
+        <v>-3</v>
+      </c>
+      <c r="E51" s="16">
+        <v>1294</v>
+      </c>
+      <c r="F51" s="33">
+        <v>43129</v>
+      </c>
+      <c r="G51" s="34">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" s="40">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="J51" s="46">
+        <f>IF(H51="N",1,IF(C51=H51,2,0.5))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K51" s="40">
+        <f>SUM($I$47:$I$51)/SUM($J$47:$J$51)*J51</f>
+        <v>7.0428571428571424E-3</v>
+      </c>
+      <c r="L51" s="6">
+        <f>-(X51*K51)/(W51*E51*0.15)</f>
+        <v>-3.3578801967567036</v>
+      </c>
+      <c r="M51" s="6">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="N51" s="6">
+        <f>M51-D51</f>
+        <v>0</v>
+      </c>
       <c r="T51" s="9" t="str">
         <f>IF(Q51="","",D51*(Q51-E51)*W51)</f>
         <v/>
       </c>
       <c r="U51" s="17"/>
-    </row>
-    <row r="52" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W51" s="18">
+        <f>[1]!WSD($B51,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X51" s="1">
+        <v>5552558</v>
+      </c>
+      <c r="Y51" s="1">
+        <f>X51*I51/(E51*W51*0.15)</f>
+        <v>3.0990577880817449</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T52" s="9" t="str">
         <f>IF(Q52="","",D52*(Q52-E52)*W52)</f>
         <v/>
       </c>
       <c r="U52" s="17"/>
     </row>
-    <row r="53" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T53" s="9" t="str">
         <f>IF(Q53="","",D53*(Q53-E53)*W53)</f>
         <v/>
       </c>
       <c r="U53" s="17"/>
     </row>
-    <row r="54" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T54" s="9" t="str">
         <f>IF(Q54="","",D54*(Q54-E54)*W54)</f>
         <v/>
       </c>
       <c r="U54" s="17"/>
     </row>
-    <row r="55" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T55" s="9" t="str">
         <f>IF(Q55="","",D55*(Q55-E55)*W55)</f>
         <v/>
       </c>
       <c r="U55" s="17"/>
     </row>
-    <row r="56" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T56" s="9" t="str">
         <f>IF(Q56="","",D56*(Q56-E56)*W56)</f>
         <v/>
       </c>
       <c r="U56" s="17"/>
     </row>
-    <row r="57" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T57" s="9" t="str">
         <f>IF(Q57="","",D57*(Q57-E57)*W57)</f>
         <v/>
       </c>
       <c r="U57" s="17"/>
     </row>
-    <row r="58" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T58" s="9" t="str">
         <f>IF(Q58="","",D58*(Q58-E58)*W58)</f>
         <v/>
       </c>
       <c r="U58" s="17"/>
     </row>
-    <row r="59" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T59" s="9" t="str">
         <f>IF(Q59="","",D59*(Q59-E59)*W59)</f>
         <v/>
       </c>
       <c r="U59" s="17"/>
     </row>
-    <row r="60" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T60" s="9" t="str">
         <f>IF(Q60="","",D60*(Q60-E60)*W60)</f>
         <v/>
       </c>
       <c r="U60" s="17"/>
     </row>
-    <row r="61" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T61" s="9" t="str">
         <f>IF(Q61="","",D61*(Q61-E61)*W61)</f>
         <v/>
       </c>
       <c r="U61" s="17"/>
     </row>
-    <row r="62" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T62" s="9" t="str">
         <f>IF(Q62="","",D62*(Q62-E62)*W62)</f>
         <v/>
       </c>
       <c r="U62" s="17"/>
     </row>
-    <row r="63" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T63" s="9" t="str">
         <f>IF(Q63="","",D63*(Q63-E63)*W63)</f>
         <v/>
       </c>
       <c r="U63" s="17"/>
     </row>
-    <row r="64" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T64" s="9" t="str">
         <f>IF(Q64="","",D64*(Q64-E64)*W64)</f>
         <v/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -857,8 +857,8 @@
   <dimension ref="A1:AG6644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1011,7 +1011,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="9" t="str">
-        <f>IF(Q2="","",D2*(Q2-E2)*W2)</f>
+        <f t="shared" ref="T2:T65" si="0">IF(Q2="","",D2*(Q2-E2)*W2)</f>
         <v/>
       </c>
       <c r="W2" s="18">
@@ -1022,7 +1022,7 @@
         <v>5604431</v>
       </c>
       <c r="Y2" s="1">
-        <f>X2*K2/(E2*W2*0.15)</f>
+        <f t="shared" ref="Y2:Y31" si="1">X2*K2/(E2*W2*0.15)</f>
         <v>13.137437880918894</v>
       </c>
       <c r="Z2" s="10"/>
@@ -1071,7 +1071,7 @@
         <v>0.37847222222222227</v>
       </c>
       <c r="T3" s="9">
-        <f>IF(Q3="","",D3*(Q3-E3)*W3)</f>
+        <f t="shared" si="0"/>
         <v>540</v>
       </c>
       <c r="W3" s="18">
@@ -1082,7 +1082,7 @@
         <v>5604432</v>
       </c>
       <c r="Y3" s="1">
-        <f>X3*K3/(E3*W3*0.15)</f>
+        <f t="shared" si="1"/>
         <v>17.885533748204882</v>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       <c r="O4" s="36"/>
       <c r="P4" s="36"/>
       <c r="T4" s="9" t="str">
-        <f>IF(Q4="","",D4*(Q4-E4)*W4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W4" s="18">
@@ -1124,7 +1124,7 @@
         <v>5604433</v>
       </c>
       <c r="Y4" s="1">
-        <f>X4*K4/(E4*W4*0.15)</f>
+        <f t="shared" si="1"/>
         <v>5.5123763155306387</v>
       </c>
       <c r="Z4" s="10"/>
@@ -1165,7 +1165,7 @@
         <v>0.37847222222222227</v>
       </c>
       <c r="T5" s="9">
-        <f>IF(Q5="","",D5*(Q5-E5)*W5)</f>
+        <f t="shared" si="0"/>
         <v>-2349.7499999999764</v>
       </c>
       <c r="W5" s="18">
@@ -1176,7 +1176,7 @@
         <v>5604434</v>
       </c>
       <c r="Y5" s="1">
-        <f>X5*K5/(E5*W5*0.15)</f>
+        <f t="shared" si="1"/>
         <v>13.031711180674845</v>
       </c>
       <c r="Z5" s="10"/>
@@ -1217,7 +1217,7 @@
         <v>0.37847222222222227</v>
       </c>
       <c r="T6" s="9">
-        <f>IF(Q6="","",D6*(Q6-E6)*W6)</f>
+        <f t="shared" si="0"/>
         <v>-16350</v>
       </c>
       <c r="W6" s="18">
@@ -1228,7 +1228,7 @@
         <v>5604435</v>
       </c>
       <c r="Y6" s="1">
-        <f>X6*K6/(E6*W6*0.15)</f>
+        <f t="shared" si="1"/>
         <v>2.7104026115342763</v>
       </c>
       <c r="Z6" s="10"/>
@@ -1262,7 +1262,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="9" t="str">
-        <f>IF(Q7="","",D7*(Q7-E7)*W7)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W7" s="18">
@@ -1273,7 +1273,7 @@
         <v>5604436</v>
       </c>
       <c r="Y7" s="1">
-        <f>X7*K7/(E7*W7*0.15)</f>
+        <f t="shared" si="1"/>
         <v>1.8315150326797385</v>
       </c>
       <c r="Z7" s="10"/>
@@ -1307,7 +1307,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="9" t="str">
-        <f>IF(Q8="","",D8*(Q8-E8)*W8)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W8" s="18">
@@ -1318,7 +1318,7 @@
         <v>5604437</v>
       </c>
       <c r="Y8" s="1">
-        <f>X8*K8/(E8*W8*0.15)</f>
+        <f t="shared" si="1"/>
         <v>9.4853803841922666</v>
       </c>
       <c r="Z8" s="10"/>
@@ -1352,7 +1352,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="9" t="str">
-        <f>IF(Q9="","",D9*(Q9-E9)*W9)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W9" s="18">
@@ -1363,7 +1363,7 @@
         <v>5604438</v>
       </c>
       <c r="Y9" s="1">
-        <f>X9*K9/(E9*W9*0.15)</f>
+        <f t="shared" si="1"/>
         <v>6.4330096418732792</v>
       </c>
       <c r="Z9" s="10"/>
@@ -1397,7 +1397,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="9" t="str">
-        <f>IF(Q10="","",D10*(Q10-E10)*W10)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W10" s="18">
@@ -1408,7 +1408,7 @@
         <v>5604439</v>
       </c>
       <c r="Y10" s="1">
-        <f>X10*K10/(E10*W10*0.15)</f>
+        <f t="shared" si="1"/>
         <v>12.82186913749714</v>
       </c>
       <c r="Z10" s="1"/>
@@ -1446,7 +1446,7 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
       <c r="T11" s="16" t="str">
-        <f>IF(Q11="","",D11*(Q11-E11)*W11)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U11" s="6"/>
@@ -1459,7 +1459,7 @@
         <v>5604440</v>
       </c>
       <c r="Y11" s="1">
-        <f>X11*K11/(E11*W11*0.15)</f>
+        <f t="shared" si="1"/>
         <v>4.8123304138760092</v>
       </c>
       <c r="Z11" s="1"/>
@@ -1498,7 +1498,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="9" t="str">
-        <f>IF(Q12="","",D12*(Q12-E12)*W12)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W12" s="18">
@@ -1509,7 +1509,7 @@
         <v>5604441</v>
       </c>
       <c r="Y12" s="1">
-        <f>X12*K12/(E12*W12*0.15)</f>
+        <f t="shared" si="1"/>
         <v>13.137461322081576</v>
       </c>
       <c r="Z12" s="1"/>
@@ -1540,7 +1540,7 @@
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
       <c r="T13" s="9" t="str">
-        <f>IF(Q13="","",D13*(Q13-E13)*W13)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U13" s="17"/>
@@ -1552,7 +1552,7 @@
         <v>5604442</v>
       </c>
       <c r="Y13" s="1">
-        <f>X13*K13/(E13*W13*0.15)</f>
+        <f t="shared" si="1"/>
         <v>20.815012070566386</v>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       <c r="O14" s="37"/>
       <c r="P14" s="37"/>
       <c r="T14" s="9" t="str">
-        <f>IF(Q14="","",D14*(Q14-E14)*W14)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U14" s="17"/>
@@ -1597,7 +1597,7 @@
         <v>5604443</v>
       </c>
       <c r="Y14" s="1">
-        <f>X14*K14/(E14*W14*0.15)</f>
+        <f t="shared" si="1"/>
         <v>5.5123861512737289</v>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
       <c r="T15" s="9" t="str">
-        <f>IF(Q15="","",D15*(Q15-E15)*W15)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U15" s="17"/>
@@ -1639,7 +1639,7 @@
         <v>5604444</v>
       </c>
       <c r="Y15" s="1">
-        <f>X15*K15/(E15*W15*0.15)</f>
+        <f t="shared" si="1"/>
         <v>10.533679165491966</v>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
       <c r="T16" s="9" t="str">
-        <f>IF(Q16="","",D16*(Q16-E16)*W16)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U16" s="17"/>
@@ -1681,7 +1681,7 @@
         <v>5604445</v>
       </c>
       <c r="Y16" s="1">
-        <f>X16*K16/(E16*W16*0.15)</f>
+        <f t="shared" si="1"/>
         <v>7.6018243472363523</v>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
       <c r="T17" s="9" t="str">
-        <f>IF(Q17="","",D17*(Q17-E17)*W17)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U17" s="17"/>
@@ -1726,7 +1726,7 @@
         <v>5604446</v>
       </c>
       <c r="Y17" s="1">
-        <f>X17*K17/(E17*W17*0.15)</f>
+        <f t="shared" si="1"/>
         <v>1.8315183006535947</v>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="T18" s="9" t="str">
-        <f>IF(Q18="","",D18*(Q18-E18)*W18)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U18" s="17"/>
@@ -1771,7 +1771,7 @@
         <v>5604447</v>
       </c>
       <c r="Y18" s="1">
-        <f>X18*K18/(E18*W18*0.15)</f>
+        <f t="shared" si="1"/>
         <v>9.4853973089616659</v>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="T19" s="9" t="str">
-        <f>IF(Q19="","",D19*(Q19-E19)*W19)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U19" s="17"/>
@@ -1816,7 +1816,7 @@
         <v>5604448</v>
       </c>
       <c r="Y19" s="1">
-        <f>X19*K19/(E19*W19*0.15)</f>
+        <f t="shared" si="1"/>
         <v>6.4330211202938479</v>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
       <c r="T20" s="9" t="str">
-        <f>IF(Q20="","",D20*(Q20-E20)*W20)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U20" s="17"/>
@@ -1861,7 +1861,7 @@
         <v>5604449</v>
       </c>
       <c r="Y20" s="1">
-        <f>X20*K20/(E20*W20*0.15)</f>
+        <f t="shared" si="1"/>
         <v>12.821892015557081</v>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="16" t="str">
-        <f>IF(Q21="","",D21*(Q21-E21)*W21)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U21" s="19"/>
@@ -1911,7 +1911,7 @@
         <v>5604450</v>
       </c>
       <c r="Y21" s="1">
-        <f>X21*K21/(E21*W21*0.15)</f>
+        <f t="shared" si="1"/>
         <v>4.8123390005151983</v>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="9" t="str">
-        <f>IF(Q22="","",D22*(Q22-E22)*W22)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W22" s="18">
@@ -1960,7 +1960,7 @@
         <v>5604441</v>
       </c>
       <c r="Y22" s="1">
-        <f>X22*K22/(E22*W22*0.15)</f>
+        <f t="shared" si="1"/>
         <v>13.137461322081576</v>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
       <c r="T23" s="9" t="str">
-        <f>IF(Q23="","",D23*(Q23-E23)*W23)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U23" s="17"/>
@@ -2005,7 +2005,7 @@
         <v>5604442</v>
       </c>
       <c r="Y23" s="1">
-        <f>X23*K23/(E23*W23*0.15)</f>
+        <f t="shared" si="1"/>
         <v>20.815012070566386</v>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
       <c r="T24" s="9" t="str">
-        <f>IF(Q24="","",D24*(Q24-E24)*W24)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U24" s="17"/>
@@ -2050,7 +2050,7 @@
         <v>5604443</v>
       </c>
       <c r="Y24" s="1">
-        <f>X24*K24/(E24*W24*0.15)</f>
+        <f t="shared" si="1"/>
         <v>5.5123861512737289</v>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       <c r="O25" s="37"/>
       <c r="P25" s="37"/>
       <c r="T25" s="9" t="str">
-        <f>IF(Q25="","",D25*(Q25-E25)*W25)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U25" s="17"/>
@@ -2095,7 +2095,7 @@
         <v>5604444</v>
       </c>
       <c r="Y25" s="1">
-        <f>X25*K25/(E25*W25*0.15)</f>
+        <f t="shared" si="1"/>
         <v>10.533679165491966</v>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
       <c r="T26" s="9" t="str">
-        <f>IF(Q26="","",D26*(Q26-E26)*W26)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U26" s="17"/>
@@ -2138,7 +2138,7 @@
         <v>5604445</v>
       </c>
       <c r="Y26" s="1">
-        <f>X26*K26/(E26*W26*0.15)</f>
+        <f t="shared" si="1"/>
         <v>2.8547498981255095</v>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
       <c r="T27" s="9" t="str">
-        <f>IF(Q27="","",D27*(Q27-E27)*W27)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U27" s="17"/>
@@ -2183,7 +2183,7 @@
         <v>5604446</v>
       </c>
       <c r="Y27" s="1">
-        <f>X27*K27/(E27*W27*0.15)</f>
+        <f t="shared" si="1"/>
         <v>1.8315183006535947</v>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       <c r="O28" s="37"/>
       <c r="P28" s="37"/>
       <c r="T28" s="9" t="str">
-        <f>IF(Q28="","",D28*(Q28-E28)*W28)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U28" s="17"/>
@@ -2228,7 +2228,7 @@
         <v>5604447</v>
       </c>
       <c r="Y28" s="1">
-        <f>X28*K28/(E28*W28*0.15)</f>
+        <f t="shared" si="1"/>
         <v>9.4853973089616659</v>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       <c r="O29" s="37"/>
       <c r="P29" s="37"/>
       <c r="T29" s="9" t="str">
-        <f>IF(Q29="","",D29*(Q29-E29)*W29)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U29" s="17"/>
@@ -2273,7 +2273,7 @@
         <v>5604448</v>
       </c>
       <c r="Y29" s="1">
-        <f>X29*K29/(E29*W29*0.15)</f>
+        <f t="shared" si="1"/>
         <v>6.4330211202938479</v>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       <c r="O30" s="37"/>
       <c r="P30" s="37"/>
       <c r="T30" s="9" t="str">
-        <f>IF(Q30="","",D30*(Q30-E30)*W30)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U30" s="17"/>
@@ -2318,7 +2318,7 @@
         <v>5604449</v>
       </c>
       <c r="Y30" s="1">
-        <f>X30*K30/(E30*W30*0.15)</f>
+        <f t="shared" si="1"/>
         <v>12.821892015557081</v>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="16" t="str">
-        <f>IF(Q31="","",D31*(Q31-E31)*W31)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U31" s="19"/>
@@ -2368,7 +2368,7 @@
         <v>5604450</v>
       </c>
       <c r="Y31" s="1">
-        <f>X31*K31/(E31*W31*0.15)</f>
+        <f t="shared" si="1"/>
         <v>4.8123390005151983</v>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
       <c r="J32" s="45">
-        <f>IF(H32="N",1,IF(C32=H32,2,0.5))</f>
+        <f t="shared" ref="J32:J51" si="2">IF(H32="N",1,IF(C32=H32,2,0.5))</f>
         <v>0.5</v>
       </c>
       <c r="K32" s="39">
@@ -2409,7 +2409,7 @@
         <v>5.0600000000000003E-3</v>
       </c>
       <c r="L32" s="1">
-        <f>(X32*K32)/(W32*E32*0.15)</f>
+        <f t="shared" ref="L32:L46" si="3">(X32*K32)/(W32*E32*0.15)</f>
         <v>6.6475672902015948</v>
       </c>
       <c r="M32" s="1">
@@ -2417,13 +2417,13 @@
         <v>7</v>
       </c>
       <c r="N32" s="1">
-        <f>M32-D32</f>
+        <f t="shared" ref="N32:N51" si="4">M32-D32</f>
         <v>-6</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="T32" s="9" t="str">
-        <f>IF(Q32="","",D32*(Q32-E32)*W32)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U32" s="17"/>
@@ -2435,7 +2435,7 @@
         <v>5604451</v>
       </c>
       <c r="Y32" s="1">
-        <f>X32*I32/(E32*W32*0.15)</f>
+        <f t="shared" ref="Y32:Y51" si="5">X32*I32/(E32*W32*0.15)</f>
         <v>12.874735067979373</v>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="J33" s="45">
-        <f>IF(H33="N",1,IF(C33=H33,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K33" s="39">
@@ -2473,21 +2473,21 @@
         <v>1.0120000000000001E-2</v>
       </c>
       <c r="L33" s="1">
-        <f>(X33*K33)/(W33*E33*0.15)</f>
+        <f t="shared" si="3"/>
         <v>21.064829801299908</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" ref="M33:M41" si="0">ROUND(L33,0)</f>
+        <f t="shared" ref="M33:M41" si="6">ROUND(L33,0)</f>
         <v>21</v>
       </c>
       <c r="N33" s="1">
-        <f>M33-D33</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="T33" s="9" t="str">
-        <f>IF(Q33="","",D33*(Q33-E33)*W33)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U33" s="17"/>
@@ -2499,7 +2499,7 @@
         <v>5604452</v>
       </c>
       <c r="Y33" s="1">
-        <f>X33*I33/(E33*W33*0.15)</f>
+        <f t="shared" si="5"/>
         <v>21.231350194986074</v>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="J34" s="45">
-        <f>IF(H34="N",1,IF(C34=H34,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K34" s="39">
@@ -2537,21 +2537,21 @@
         <v>2.0240000000000001E-2</v>
       </c>
       <c r="L34" s="1">
-        <f>(X34*K34)/(W34*E34*0.15)</f>
+        <f t="shared" si="3"/>
         <v>11.157089477722042</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="N34" s="1">
-        <f>M34-D34</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="T34" s="9" t="str">
-        <f>IF(Q34="","",D34*(Q34-E34)*W34)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U34" s="17"/>
@@ -2563,7 +2563,7 @@
         <v>5604453</v>
       </c>
       <c r="Y34" s="1">
-        <f>X34*I34/(E34*W34*0.15)</f>
+        <f t="shared" si="5"/>
         <v>5.9533876659781644</v>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="J35" s="45">
-        <f>IF(H35="N",1,IF(C35=H35,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K35" s="39">
@@ -2601,21 +2601,21 @@
         <v>1.0120000000000001E-2</v>
       </c>
       <c r="L35" s="1">
-        <f>(X35*K35)/(W35*E35*0.15)</f>
+        <f t="shared" si="3"/>
         <v>10.660102336246593</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="N35" s="1">
-        <f>M35-D35</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="T35" s="9" t="str">
-        <f>IF(Q35="","",D35*(Q35-E35)*W35)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U35" s="17"/>
@@ -2627,7 +2627,7 @@
         <v>5604454</v>
       </c>
       <c r="Y35" s="1">
-        <f>X35*I35/(E35*W35*0.15)</f>
+        <f t="shared" si="5"/>
         <v>9.7963391034677176</v>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="J36" s="45">
-        <f>IF(H36="N",1,IF(C36=H36,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K36" s="39">
@@ -2665,21 +2665,21 @@
         <v>5.0600000000000003E-3</v>
       </c>
       <c r="L36" s="1">
-        <f>(X36*K36)/(W36*E36*0.15)</f>
+        <f t="shared" si="3"/>
         <v>1.4587727520576133</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N36" s="1">
-        <f>M36-D36</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="T36" s="9" t="str">
-        <f>IF(Q36="","",D36*(Q36-E36)*W36)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U36" s="17"/>
@@ -2691,7 +2691,7 @@
         <v>5604455</v>
       </c>
       <c r="Y36" s="1">
-        <f>X36*I36/(E36*W36*0.15)</f>
+        <f t="shared" si="5"/>
         <v>3.0270976080246914</v>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
         <v>1.09E-2</v>
       </c>
       <c r="J37" s="45">
-        <f>IF(H37="N",1,IF(C37=H37,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K37" s="39">
@@ -2729,21 +2729,21 @@
         <v>-6.3124999999999995E-3</v>
       </c>
       <c r="L37" s="1">
-        <f>(X37*K37)/(W37*E37*0.15)</f>
+        <f t="shared" si="3"/>
         <v>-1.1561479901960785</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="N37" s="1">
-        <f>M37-D37</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="T37" s="9" t="str">
-        <f>IF(Q37="","",D37*(Q37-E37)*W37)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U37" s="17"/>
@@ -2755,7 +2755,7 @@
         <v>5604456</v>
       </c>
       <c r="Y37" s="1">
-        <f>X37*I37/(E37*W37*0.15)</f>
+        <f t="shared" si="5"/>
         <v>1.9963585098039214</v>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="J38" s="45">
-        <f>IF(H38="N",1,IF(C38=H38,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K38" s="39">
@@ -2793,21 +2793,21 @@
         <v>-1.2624999999999999E-2</v>
       </c>
       <c r="L38" s="1">
-        <f>(X38*K38)/(W38*E38*0.15)</f>
+        <f t="shared" si="3"/>
         <v>-11.97533547008547</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-12</v>
       </c>
       <c r="N38" s="1">
-        <f>M38-D38</f>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="T38" s="9" t="str">
-        <f>IF(Q38="","",D38*(Q38-E38)*W38)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U38" s="17"/>
@@ -2819,7 +2819,7 @@
         <v>5604457</v>
       </c>
       <c r="Y38" s="1">
-        <f>X38*I38/(E38*W38*0.15)</f>
+        <f t="shared" si="5"/>
         <v>9.1059976643818228</v>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="J39" s="45">
-        <f>IF(H39="N",1,IF(C39=H39,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K39" s="39">
@@ -2857,21 +2857,21 @@
         <v>-1.2624999999999999E-2</v>
       </c>
       <c r="L39" s="1">
-        <f>(X39*K39)/(W39*E39*0.15)</f>
+        <f t="shared" si="3"/>
         <v>-8.1217036558769493</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-8</v>
       </c>
       <c r="N39" s="1">
-        <f>M39-D39</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="T39" s="9" t="str">
-        <f>IF(Q39="","",D39*(Q39-E39)*W39)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U39" s="17"/>
@@ -2883,7 +2883,7 @@
         <v>5604458</v>
       </c>
       <c r="Y39" s="1">
-        <f>X39*I39/(E39*W39*0.15)</f>
+        <f t="shared" si="5"/>
         <v>5.9183899908172632</v>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="J40" s="45">
-        <f>IF(H40="N",1,IF(C40=H40,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K40" s="39">
@@ -2921,21 +2921,21 @@
         <v>-1.2624999999999999E-2</v>
       </c>
       <c r="L40" s="1">
-        <f>(X40*K40)/(W40*E40*0.15)</f>
+        <f t="shared" si="3"/>
         <v>-16.187667553191488</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-16</v>
       </c>
       <c r="N40" s="1">
-        <f>M40-D40</f>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="T40" s="9" t="str">
-        <f>IF(Q40="","",D40*(Q40-E40)*W40)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U40" s="17"/>
@@ -2947,7 +2947,7 @@
         <v>5604459</v>
       </c>
       <c r="Y40" s="1">
-        <f>X40*I40/(E40*W40*0.15)</f>
+        <f t="shared" si="5"/>
         <v>13.078353191489361</v>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
         <v>1.06E-2</v>
       </c>
       <c r="J41" s="46">
-        <f>IF(H41="N",1,IF(C41=H41,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K41" s="40">
@@ -2986,15 +2986,15 @@
         <v>-6.3124999999999995E-3</v>
       </c>
       <c r="L41" s="6">
-        <f>(X41*K41)/(W41*E41*0.15)</f>
+        <f t="shared" si="3"/>
         <v>-3.037794414391207</v>
       </c>
       <c r="M41" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
       <c r="N41" s="6">
-        <f>M41-D41</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O41" s="6"/>
@@ -3003,7 +3003,7 @@
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
       <c r="T41" s="16" t="str">
-        <f>IF(Q41="","",D41*(Q41-E41)*W41)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U41" s="19"/>
@@ -3016,7 +3016,7 @@
         <v>5604460</v>
       </c>
       <c r="Y41" s="1">
-        <f>X41*I41/(E41*W41*0.15)</f>
+        <f t="shared" si="5"/>
         <v>5.1010884423836504</v>
       </c>
     </row>
@@ -3049,7 +3049,7 @@
         <v>5.3E-3</v>
       </c>
       <c r="J42" s="45">
-        <f>IF(H42="N",1,IF(C42=H42,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K42" s="39">
@@ -3057,7 +3057,7 @@
         <v>8.9090909090909099E-3</v>
       </c>
       <c r="L42" s="1">
-        <f>(X42*K42)/(W42*E42*0.15)</f>
+        <f t="shared" si="3"/>
         <v>11.595931551804972</v>
       </c>
       <c r="M42" s="1">
@@ -3065,11 +3065,11 @@
         <v>12</v>
       </c>
       <c r="N42" s="1">
-        <f>M42-D42</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="T42" s="9" t="str">
-        <f>IF(Q42="","",D42*(Q42-E42)*W42)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U42" s="17"/>
@@ -3081,7 +3081,7 @@
         <v>5552558</v>
       </c>
       <c r="Y42" s="1">
-        <f>X42*I42/(E42*W42*0.15)</f>
+        <f t="shared" si="5"/>
         <v>6.8983960150023442</v>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
         <v>1.03E-2</v>
       </c>
       <c r="J43" s="45">
-        <f>IF(H43="N",1,IF(C43=H43,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K43" s="39">
@@ -3119,19 +3119,19 @@
         <v>8.9090909090909099E-3</v>
       </c>
       <c r="L43" s="1">
-        <f>(X43*K43)/(W43*E43*0.15)</f>
+        <f t="shared" si="3"/>
         <v>18.372606870937794</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" ref="M43:M51" si="1">ROUND(L43,0)</f>
+        <f t="shared" ref="M43:M51" si="7">ROUND(L43,0)</f>
         <v>18</v>
       </c>
       <c r="N43" s="1">
-        <f>M43-D43</f>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
       <c r="T43" s="9" t="str">
-        <f>IF(Q43="","",D43*(Q43-E43)*W43)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U43" s="17"/>
@@ -3143,7 +3143,7 @@
         <v>5552558</v>
       </c>
       <c r="Y43" s="1">
-        <f>X43*I43/(E43*W43*0.15)</f>
+        <f t="shared" si="5"/>
         <v>21.240983249767872</v>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
         <v>1.9599999999999999E-2</v>
       </c>
       <c r="J44" s="45">
-        <f>IF(H44="N",1,IF(C44=H44,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K44" s="39">
@@ -3181,19 +3181,19 @@
         <v>1.781818181818182E-2</v>
       </c>
       <c r="L44" s="1">
-        <f>(X44*K44)/(W44*E44*0.15)</f>
+        <f t="shared" si="3"/>
         <v>9.7311387823350071</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="N44" s="1">
-        <f>M44-D44</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="T44" s="9" t="str">
-        <f>IF(Q44="","",D44*(Q44-E44)*W44)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U44" s="17"/>
@@ -3205,7 +3205,7 @@
         <v>5552558</v>
       </c>
       <c r="Y44" s="1">
-        <f>X44*I44/(E44*W44*0.15)</f>
+        <f t="shared" si="5"/>
         <v>10.704252660568505</v>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
         <v>1.03E-2</v>
       </c>
       <c r="J45" s="45">
-        <f>IF(H45="N",1,IF(C45=H45,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K45" s="39">
@@ -3243,19 +3243,19 @@
         <v>8.9090909090909099E-3</v>
       </c>
       <c r="L45" s="1">
-        <f>(X45*K45)/(W45*E45*0.15)</f>
+        <f t="shared" si="3"/>
         <v>9.2976682642608797</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="N45" s="1">
-        <f>M45-D45</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="T45" s="9" t="str">
-        <f>IF(Q45="","",D45*(Q45-E45)*W45)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U45" s="17"/>
@@ -3267,7 +3267,7 @@
         <v>5552558</v>
       </c>
       <c r="Y45" s="1">
-        <f>X45*I45/(E45*W45*0.15)</f>
+        <f t="shared" si="5"/>
         <v>10.749243003477117</v>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="J46" s="45">
-        <f>IF(H46="N",1,IF(C46=H46,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K46" s="39">
@@ -3305,19 +3305,19 @@
         <v>4.454545454545455E-3</v>
       </c>
       <c r="L46" s="1">
-        <f>(X46*K46)/(W46*E46*0.15)</f>
+        <f t="shared" si="3"/>
         <v>1.2723313786008232</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N46" s="1">
-        <f>M46-D46</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T46" s="9" t="str">
-        <f>IF(Q46="","",D46*(Q46-E46)*W46)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U46" s="17"/>
@@ -3329,7 +3329,7 @@
         <v>5552558</v>
       </c>
       <c r="Y46" s="1">
-        <f>X46*I46/(E46*W46*0.15)</f>
+        <f t="shared" si="5"/>
         <v>0.99968894032921818</v>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="J47" s="45">
-        <f>IF(H47="N",1,IF(C47=H47,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K47" s="39">
@@ -3371,15 +3371,15 @@
         <v>-1.2779696984126985</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="N47" s="1">
-        <f>M47-D47</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T47" s="9" t="str">
-        <f>IF(Q47="","",D47*(Q47-E47)*W47)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U47" s="17"/>
@@ -3391,7 +3391,7 @@
         <v>5552558</v>
       </c>
       <c r="Y47" s="1">
-        <f>X47*I47/(E47*W47*0.15)</f>
+        <f t="shared" si="5"/>
         <v>1.0161544052287581</v>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="J48" s="45">
-        <f>IF(H48="N",1,IF(C48=H48,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K48" s="39">
@@ -3433,15 +3433,15 @@
         <v>-6.6185787884282936</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-7</v>
       </c>
       <c r="N48" s="1">
-        <f>M48-D48</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="T48" s="9" t="str">
-        <f>IF(Q48="","",D48*(Q48-E48)*W48)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U48" s="17"/>
@@ -3453,7 +3453,7 @@
         <v>5552558</v>
       </c>
       <c r="Y48" s="1">
-        <f>X48*I48/(E48*W48*0.15)</f>
+        <f t="shared" si="5"/>
         <v>12.028897757468055</v>
       </c>
     </row>
@@ -3483,7 +3483,7 @@
         <v>1.21E-2</v>
       </c>
       <c r="J49" s="45">
-        <f>IF(H49="N",1,IF(C49=H49,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K49" s="39">
@@ -3495,15 +3495,15 @@
         <v>-8.9774730880230873</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-9</v>
       </c>
       <c r="N49" s="1">
-        <f>M49-D49</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="T49" s="9" t="str">
-        <f>IF(Q49="","",D49*(Q49-E49)*W49)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U49" s="17"/>
@@ -3515,7 +3515,7 @@
         <v>5552558</v>
       </c>
       <c r="Y49" s="1">
-        <f>X49*I49/(E49*W49*0.15)</f>
+        <f t="shared" si="5"/>
         <v>7.7118861111111103</v>
       </c>
     </row>
@@ -3545,7 +3545,7 @@
         <v>1.23E-2</v>
       </c>
       <c r="J50" s="45">
-        <f>IF(H50="N",1,IF(C50=H50,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K50" s="39">
@@ -3557,15 +3557,15 @@
         <v>-17.893330025819523</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-18</v>
       </c>
       <c r="N50" s="1">
-        <f>M50-D50</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="T50" s="9" t="str">
-        <f>IF(Q50="","",D50*(Q50-E50)*W50)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U50" s="17"/>
@@ -3577,7 +3577,7 @@
         <v>5552558</v>
       </c>
       <c r="Y50" s="1">
-        <f>X50*I50/(E50*W50*0.15)</f>
+        <f t="shared" si="5"/>
         <v>15.624905833905286</v>
       </c>
     </row>
@@ -3607,7 +3607,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="J51" s="46">
-        <f>IF(H51="N",1,IF(C51=H51,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K51" s="40">
@@ -3619,15 +3619,15 @@
         <v>-3.3578801967567036</v>
       </c>
       <c r="M51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-3</v>
       </c>
       <c r="N51" s="6">
-        <f>M51-D51</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T51" s="9" t="str">
-        <f>IF(Q51="","",D51*(Q51-E51)*W51)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U51" s="17"/>
@@ -3639,2078 +3639,2078 @@
         <v>5552558</v>
       </c>
       <c r="Y51" s="1">
-        <f>X51*I51/(E51*W51*0.15)</f>
+        <f t="shared" si="5"/>
         <v>3.0990577880817449</v>
       </c>
     </row>
     <row r="52" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T52" s="9" t="str">
-        <f>IF(Q52="","",D52*(Q52-E52)*W52)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U52" s="17"/>
     </row>
     <row r="53" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T53" s="9" t="str">
-        <f>IF(Q53="","",D53*(Q53-E53)*W53)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U53" s="17"/>
     </row>
     <row r="54" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T54" s="9" t="str">
-        <f>IF(Q54="","",D54*(Q54-E54)*W54)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U54" s="17"/>
     </row>
     <row r="55" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T55" s="9" t="str">
-        <f>IF(Q55="","",D55*(Q55-E55)*W55)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U55" s="17"/>
     </row>
     <row r="56" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T56" s="9" t="str">
-        <f>IF(Q56="","",D56*(Q56-E56)*W56)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U56" s="17"/>
     </row>
     <row r="57" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T57" s="9" t="str">
-        <f>IF(Q57="","",D57*(Q57-E57)*W57)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U57" s="17"/>
     </row>
     <row r="58" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T58" s="9" t="str">
-        <f>IF(Q58="","",D58*(Q58-E58)*W58)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U58" s="17"/>
     </row>
     <row r="59" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T59" s="9" t="str">
-        <f>IF(Q59="","",D59*(Q59-E59)*W59)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U59" s="17"/>
     </row>
     <row r="60" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T60" s="9" t="str">
-        <f>IF(Q60="","",D60*(Q60-E60)*W60)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U60" s="17"/>
     </row>
     <row r="61" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T61" s="9" t="str">
-        <f>IF(Q61="","",D61*(Q61-E61)*W61)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U61" s="17"/>
     </row>
     <row r="62" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T62" s="9" t="str">
-        <f>IF(Q62="","",D62*(Q62-E62)*W62)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U62" s="17"/>
     </row>
     <row r="63" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T63" s="9" t="str">
-        <f>IF(Q63="","",D63*(Q63-E63)*W63)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U63" s="17"/>
     </row>
     <row r="64" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T64" s="9" t="str">
-        <f>IF(Q64="","",D64*(Q64-E64)*W64)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U64" s="17"/>
     </row>
     <row r="65" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T65" s="9" t="str">
-        <f>IF(Q65="","",D65*(Q65-E65)*W65)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U65" s="17"/>
     </row>
     <row r="66" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T66" s="9" t="str">
-        <f>IF(Q66="","",D66*(Q66-E66)*W66)</f>
+        <f t="shared" ref="T66:T129" si="8">IF(Q66="","",D66*(Q66-E66)*W66)</f>
         <v/>
       </c>
       <c r="U66" s="17"/>
     </row>
     <row r="67" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T67" s="9" t="str">
-        <f>IF(Q67="","",D67*(Q67-E67)*W67)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U67" s="17"/>
     </row>
     <row r="68" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T68" s="9" t="str">
-        <f>IF(Q68="","",D68*(Q68-E68)*W68)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U68" s="17"/>
     </row>
     <row r="69" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T69" s="9" t="str">
-        <f>IF(Q69="","",D69*(Q69-E69)*W69)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U69" s="17"/>
     </row>
     <row r="70" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T70" s="9" t="str">
-        <f>IF(Q70="","",D70*(Q70-E70)*W70)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U70" s="17"/>
     </row>
     <row r="71" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T71" s="9" t="str">
-        <f>IF(Q71="","",D71*(Q71-E71)*W71)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U71" s="17"/>
     </row>
     <row r="72" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T72" s="9" t="str">
-        <f>IF(Q72="","",D72*(Q72-E72)*W72)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U72" s="17"/>
     </row>
     <row r="73" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T73" s="9" t="str">
-        <f>IF(Q73="","",D73*(Q73-E73)*W73)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U73" s="17"/>
     </row>
     <row r="74" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T74" s="9" t="str">
-        <f>IF(Q74="","",D74*(Q74-E74)*W74)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U74" s="17"/>
     </row>
     <row r="75" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T75" s="9" t="str">
-        <f>IF(Q75="","",D75*(Q75-E75)*W75)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U75" s="17"/>
     </row>
     <row r="76" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T76" s="9" t="str">
-        <f>IF(Q76="","",D76*(Q76-E76)*W76)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U76" s="17"/>
     </row>
     <row r="77" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T77" s="9" t="str">
-        <f>IF(Q77="","",D77*(Q77-E77)*W77)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U77" s="17"/>
     </row>
     <row r="78" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T78" s="9" t="str">
-        <f>IF(Q78="","",D78*(Q78-E78)*W78)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U78" s="17"/>
     </row>
     <row r="79" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T79" s="9" t="str">
-        <f>IF(Q79="","",D79*(Q79-E79)*W79)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U79" s="17"/>
     </row>
     <row r="80" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T80" s="9" t="str">
-        <f>IF(Q80="","",D80*(Q80-E80)*W80)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U80" s="17"/>
     </row>
     <row r="81" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T81" s="9" t="str">
-        <f>IF(Q81="","",D81*(Q81-E81)*W81)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U81" s="17"/>
     </row>
     <row r="82" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T82" s="9" t="str">
-        <f>IF(Q82="","",D82*(Q82-E82)*W82)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U82" s="17"/>
     </row>
     <row r="83" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T83" s="9" t="str">
-        <f>IF(Q83="","",D83*(Q83-E83)*W83)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U83" s="17"/>
     </row>
     <row r="84" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T84" s="9" t="str">
-        <f>IF(Q84="","",D84*(Q84-E84)*W84)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U84" s="17"/>
     </row>
     <row r="85" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T85" s="9" t="str">
-        <f>IF(Q85="","",D85*(Q85-E85)*W85)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U85" s="17"/>
     </row>
     <row r="86" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T86" s="9" t="str">
-        <f>IF(Q86="","",D86*(Q86-E86)*W86)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U86" s="17"/>
     </row>
     <row r="87" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T87" s="9" t="str">
-        <f>IF(Q87="","",D87*(Q87-E87)*W87)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U87" s="17"/>
     </row>
     <row r="88" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T88" s="9" t="str">
-        <f>IF(Q88="","",D88*(Q88-E88)*W88)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U88" s="17"/>
     </row>
     <row r="89" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T89" s="9" t="str">
-        <f>IF(Q89="","",D89*(Q89-E89)*W89)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U89" s="17"/>
     </row>
     <row r="90" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T90" s="9" t="str">
-        <f>IF(Q90="","",D90*(Q90-E90)*W90)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U90" s="17"/>
     </row>
     <row r="91" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T91" s="9" t="str">
-        <f>IF(Q91="","",D91*(Q91-E91)*W91)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U91" s="17"/>
     </row>
     <row r="92" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T92" s="9" t="str">
-        <f>IF(Q92="","",D92*(Q92-E92)*W92)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U92" s="17"/>
     </row>
     <row r="93" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T93" s="9" t="str">
-        <f>IF(Q93="","",D93*(Q93-E93)*W93)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U93" s="17"/>
     </row>
     <row r="94" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T94" s="9" t="str">
-        <f>IF(Q94="","",D94*(Q94-E94)*W94)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U94" s="17"/>
     </row>
     <row r="95" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T95" s="9" t="str">
-        <f>IF(Q95="","",D95*(Q95-E95)*W95)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U95" s="17"/>
     </row>
     <row r="96" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T96" s="9" t="str">
-        <f>IF(Q96="","",D96*(Q96-E96)*W96)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U96" s="17"/>
     </row>
     <row r="97" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T97" s="9" t="str">
-        <f>IF(Q97="","",D97*(Q97-E97)*W97)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U97" s="17"/>
     </row>
     <row r="98" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T98" s="9" t="str">
-        <f>IF(Q98="","",D98*(Q98-E98)*W98)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U98" s="17"/>
     </row>
     <row r="99" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T99" s="9" t="str">
-        <f>IF(Q99="","",D99*(Q99-E99)*W99)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U99" s="17"/>
     </row>
     <row r="100" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T100" s="9" t="str">
-        <f>IF(Q100="","",D100*(Q100-E100)*W100)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U100" s="17"/>
     </row>
     <row r="101" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T101" s="9" t="str">
-        <f>IF(Q101="","",D101*(Q101-E101)*W101)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U101" s="17"/>
     </row>
     <row r="102" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T102" s="9" t="str">
-        <f>IF(Q102="","",D102*(Q102-E102)*W102)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U102" s="17"/>
     </row>
     <row r="103" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T103" s="9" t="str">
-        <f>IF(Q103="","",D103*(Q103-E103)*W103)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U103" s="17"/>
     </row>
     <row r="104" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T104" s="9" t="str">
-        <f>IF(Q104="","",D104*(Q104-E104)*W104)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U104" s="17"/>
     </row>
     <row r="105" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T105" s="9" t="str">
-        <f>IF(Q105="","",D105*(Q105-E105)*W105)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U105" s="17"/>
     </row>
     <row r="106" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T106" s="9" t="str">
-        <f>IF(Q106="","",D106*(Q106-E106)*W106)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U106" s="17"/>
     </row>
     <row r="107" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T107" s="9" t="str">
-        <f>IF(Q107="","",D107*(Q107-E107)*W107)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U107" s="17"/>
     </row>
     <row r="108" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T108" s="9" t="str">
-        <f>IF(Q108="","",D108*(Q108-E108)*W108)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U108" s="17"/>
     </row>
     <row r="109" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T109" s="9" t="str">
-        <f>IF(Q109="","",D109*(Q109-E109)*W109)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U109" s="17"/>
     </row>
     <row r="110" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T110" s="9" t="str">
-        <f>IF(Q110="","",D110*(Q110-E110)*W110)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U110" s="17"/>
     </row>
     <row r="111" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T111" s="9" t="str">
-        <f>IF(Q111="","",D111*(Q111-E111)*W111)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U111" s="17"/>
     </row>
     <row r="112" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T112" s="9" t="str">
-        <f>IF(Q112="","",D112*(Q112-E112)*W112)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U112" s="17"/>
     </row>
     <row r="113" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T113" s="9" t="str">
-        <f>IF(Q113="","",D113*(Q113-E113)*W113)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U113" s="17"/>
     </row>
     <row r="114" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T114" s="9" t="str">
-        <f>IF(Q114="","",D114*(Q114-E114)*W114)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U114" s="17"/>
     </row>
     <row r="115" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T115" s="9" t="str">
-        <f>IF(Q115="","",D115*(Q115-E115)*W115)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U115" s="17"/>
     </row>
     <row r="116" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T116" s="9" t="str">
-        <f>IF(Q116="","",D116*(Q116-E116)*W116)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U116" s="17"/>
     </row>
     <row r="117" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T117" s="9" t="str">
-        <f>IF(Q117="","",D117*(Q117-E117)*W117)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U117" s="17"/>
     </row>
     <row r="118" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T118" s="9" t="str">
-        <f>IF(Q118="","",D118*(Q118-E118)*W118)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U118" s="17"/>
     </row>
     <row r="119" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T119" s="9" t="str">
-        <f>IF(Q119="","",D119*(Q119-E119)*W119)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U119" s="17"/>
     </row>
     <row r="120" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T120" s="9" t="str">
-        <f>IF(Q120="","",D120*(Q120-E120)*W120)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U120" s="17"/>
     </row>
     <row r="121" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T121" s="9" t="str">
-        <f>IF(Q121="","",D121*(Q121-E121)*W121)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U121" s="17"/>
     </row>
     <row r="122" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T122" s="9" t="str">
-        <f>IF(Q122="","",D122*(Q122-E122)*W122)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U122" s="17"/>
     </row>
     <row r="123" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T123" s="9" t="str">
-        <f>IF(Q123="","",D123*(Q123-E123)*W123)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U123" s="17"/>
     </row>
     <row r="124" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T124" s="9" t="str">
-        <f>IF(Q124="","",D124*(Q124-E124)*W124)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U124" s="17"/>
     </row>
     <row r="125" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T125" s="9" t="str">
-        <f>IF(Q125="","",D125*(Q125-E125)*W125)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U125" s="17"/>
     </row>
     <row r="126" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T126" s="9" t="str">
-        <f>IF(Q126="","",D126*(Q126-E126)*W126)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U126" s="17"/>
     </row>
     <row r="127" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T127" s="9" t="str">
-        <f>IF(Q127="","",D127*(Q127-E127)*W127)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U127" s="17"/>
     </row>
     <row r="128" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T128" s="9" t="str">
-        <f>IF(Q128="","",D128*(Q128-E128)*W128)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U128" s="17"/>
     </row>
     <row r="129" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T129" s="9" t="str">
-        <f>IF(Q129="","",D129*(Q129-E129)*W129)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U129" s="17"/>
     </row>
     <row r="130" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T130" s="9" t="str">
-        <f>IF(Q130="","",D130*(Q130-E130)*W130)</f>
+        <f t="shared" ref="T130:T193" si="9">IF(Q130="","",D130*(Q130-E130)*W130)</f>
         <v/>
       </c>
       <c r="U130" s="17"/>
     </row>
     <row r="131" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T131" s="9" t="str">
-        <f>IF(Q131="","",D131*(Q131-E131)*W131)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U131" s="17"/>
     </row>
     <row r="132" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T132" s="9" t="str">
-        <f>IF(Q132="","",D132*(Q132-E132)*W132)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U132" s="17"/>
     </row>
     <row r="133" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T133" s="9" t="str">
-        <f>IF(Q133="","",D133*(Q133-E133)*W133)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U133" s="17"/>
     </row>
     <row r="134" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T134" s="9" t="str">
-        <f>IF(Q134="","",D134*(Q134-E134)*W134)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U134" s="17"/>
     </row>
     <row r="135" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T135" s="9" t="str">
-        <f>IF(Q135="","",D135*(Q135-E135)*W135)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U135" s="17"/>
     </row>
     <row r="136" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T136" s="9" t="str">
-        <f>IF(Q136="","",D136*(Q136-E136)*W136)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U136" s="17"/>
     </row>
     <row r="137" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T137" s="9" t="str">
-        <f>IF(Q137="","",D137*(Q137-E137)*W137)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U137" s="17"/>
     </row>
     <row r="138" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T138" s="9" t="str">
-        <f>IF(Q138="","",D138*(Q138-E138)*W138)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U138" s="17"/>
     </row>
     <row r="139" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T139" s="9" t="str">
-        <f>IF(Q139="","",D139*(Q139-E139)*W139)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U139" s="17"/>
     </row>
     <row r="140" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T140" s="9" t="str">
-        <f>IF(Q140="","",D140*(Q140-E140)*W140)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U140" s="17"/>
     </row>
     <row r="141" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T141" s="9" t="str">
-        <f>IF(Q141="","",D141*(Q141-E141)*W141)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U141" s="17"/>
     </row>
     <row r="142" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T142" s="9" t="str">
-        <f>IF(Q142="","",D142*(Q142-E142)*W142)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U142" s="17"/>
     </row>
     <row r="143" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T143" s="9" t="str">
-        <f>IF(Q143="","",D143*(Q143-E143)*W143)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U143" s="17"/>
     </row>
     <row r="144" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T144" s="9" t="str">
-        <f>IF(Q144="","",D144*(Q144-E144)*W144)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U144" s="17"/>
     </row>
     <row r="145" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T145" s="9" t="str">
-        <f>IF(Q145="","",D145*(Q145-E145)*W145)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U145" s="17"/>
     </row>
     <row r="146" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T146" s="9" t="str">
-        <f>IF(Q146="","",D146*(Q146-E146)*W146)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U146" s="17"/>
     </row>
     <row r="147" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T147" s="9" t="str">
-        <f>IF(Q147="","",D147*(Q147-E147)*W147)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U147" s="17"/>
     </row>
     <row r="148" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T148" s="9" t="str">
-        <f>IF(Q148="","",D148*(Q148-E148)*W148)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U148" s="17"/>
     </row>
     <row r="149" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T149" s="9" t="str">
-        <f>IF(Q149="","",D149*(Q149-E149)*W149)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U149" s="17"/>
     </row>
     <row r="150" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T150" s="9" t="str">
-        <f>IF(Q150="","",D150*(Q150-E150)*W150)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U150" s="17"/>
     </row>
     <row r="151" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T151" s="9" t="str">
-        <f>IF(Q151="","",D151*(Q151-E151)*W151)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U151" s="17"/>
     </row>
     <row r="152" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T152" s="9" t="str">
-        <f>IF(Q152="","",D152*(Q152-E152)*W152)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U152" s="17"/>
     </row>
     <row r="153" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T153" s="9" t="str">
-        <f>IF(Q153="","",D153*(Q153-E153)*W153)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U153" s="17"/>
     </row>
     <row r="154" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T154" s="9" t="str">
-        <f>IF(Q154="","",D154*(Q154-E154)*W154)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U154" s="17"/>
     </row>
     <row r="155" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T155" s="9" t="str">
-        <f>IF(Q155="","",D155*(Q155-E155)*W155)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U155" s="17"/>
     </row>
     <row r="156" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T156" s="9" t="str">
-        <f>IF(Q156="","",D156*(Q156-E156)*W156)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U156" s="17"/>
     </row>
     <row r="157" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T157" s="9" t="str">
-        <f>IF(Q157="","",D157*(Q157-E157)*W157)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U157" s="17"/>
     </row>
     <row r="158" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T158" s="9" t="str">
-        <f>IF(Q158="","",D158*(Q158-E158)*W158)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U158" s="17"/>
     </row>
     <row r="159" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T159" s="9" t="str">
-        <f>IF(Q159="","",D159*(Q159-E159)*W159)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U159" s="17"/>
     </row>
     <row r="160" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T160" s="9" t="str">
-        <f>IF(Q160="","",D160*(Q160-E160)*W160)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U160" s="17"/>
     </row>
     <row r="161" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T161" s="9" t="str">
-        <f>IF(Q161="","",D161*(Q161-E161)*W161)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U161" s="17"/>
     </row>
     <row r="162" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T162" s="9" t="str">
-        <f>IF(Q162="","",D162*(Q162-E162)*W162)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U162" s="17"/>
     </row>
     <row r="163" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T163" s="9" t="str">
-        <f>IF(Q163="","",D163*(Q163-E163)*W163)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U163" s="17"/>
     </row>
     <row r="164" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T164" s="9" t="str">
-        <f>IF(Q164="","",D164*(Q164-E164)*W164)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U164" s="17"/>
     </row>
     <row r="165" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T165" s="9" t="str">
-        <f>IF(Q165="","",D165*(Q165-E165)*W165)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U165" s="17"/>
     </row>
     <row r="166" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T166" s="9" t="str">
-        <f>IF(Q166="","",D166*(Q166-E166)*W166)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U166" s="17"/>
     </row>
     <row r="167" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T167" s="9" t="str">
-        <f>IF(Q167="","",D167*(Q167-E167)*W167)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U167" s="17"/>
     </row>
     <row r="168" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T168" s="9" t="str">
-        <f>IF(Q168="","",D168*(Q168-E168)*W168)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U168" s="17"/>
     </row>
     <row r="169" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T169" s="9" t="str">
-        <f>IF(Q169="","",D169*(Q169-E169)*W169)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U169" s="17"/>
     </row>
     <row r="170" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T170" s="9" t="str">
-        <f>IF(Q170="","",D170*(Q170-E170)*W170)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U170" s="17"/>
     </row>
     <row r="171" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T171" s="9" t="str">
-        <f>IF(Q171="","",D171*(Q171-E171)*W171)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U171" s="17"/>
     </row>
     <row r="172" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T172" s="9" t="str">
-        <f>IF(Q172="","",D172*(Q172-E172)*W172)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U172" s="17"/>
     </row>
     <row r="173" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T173" s="9" t="str">
-        <f>IF(Q173="","",D173*(Q173-E173)*W173)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U173" s="17"/>
     </row>
     <row r="174" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T174" s="9" t="str">
-        <f>IF(Q174="","",D174*(Q174-E174)*W174)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U174" s="17"/>
     </row>
     <row r="175" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T175" s="9" t="str">
-        <f>IF(Q175="","",D175*(Q175-E175)*W175)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U175" s="17"/>
     </row>
     <row r="176" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T176" s="9" t="str">
-        <f>IF(Q176="","",D176*(Q176-E176)*W176)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U176" s="17"/>
     </row>
     <row r="177" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T177" s="9" t="str">
-        <f>IF(Q177="","",D177*(Q177-E177)*W177)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U177" s="17"/>
     </row>
     <row r="178" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T178" s="9" t="str">
-        <f>IF(Q178="","",D178*(Q178-E178)*W178)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U178" s="17"/>
     </row>
     <row r="179" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T179" s="9" t="str">
-        <f>IF(Q179="","",D179*(Q179-E179)*W179)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U179" s="17"/>
     </row>
     <row r="180" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T180" s="9" t="str">
-        <f>IF(Q180="","",D180*(Q180-E180)*W180)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U180" s="17"/>
     </row>
     <row r="181" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T181" s="9" t="str">
-        <f>IF(Q181="","",D181*(Q181-E181)*W181)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U181" s="17"/>
     </row>
     <row r="182" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T182" s="9" t="str">
-        <f>IF(Q182="","",D182*(Q182-E182)*W182)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U182" s="17"/>
     </row>
     <row r="183" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T183" s="9" t="str">
-        <f>IF(Q183="","",D183*(Q183-E183)*W183)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U183" s="17"/>
     </row>
     <row r="184" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T184" s="9" t="str">
-        <f>IF(Q184="","",D184*(Q184-E184)*W184)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U184" s="17"/>
     </row>
     <row r="185" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T185" s="9" t="str">
-        <f>IF(Q185="","",D185*(Q185-E185)*W185)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U185" s="17"/>
     </row>
     <row r="186" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T186" s="9" t="str">
-        <f>IF(Q186="","",D186*(Q186-E186)*W186)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U186" s="17"/>
     </row>
     <row r="187" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T187" s="9" t="str">
-        <f>IF(Q187="","",D187*(Q187-E187)*W187)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U187" s="17"/>
     </row>
     <row r="188" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T188" s="9" t="str">
-        <f>IF(Q188="","",D188*(Q188-E188)*W188)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U188" s="17"/>
     </row>
     <row r="189" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T189" s="9" t="str">
-        <f>IF(Q189="","",D189*(Q189-E189)*W189)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U189" s="17"/>
     </row>
     <row r="190" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T190" s="9" t="str">
-        <f>IF(Q190="","",D190*(Q190-E190)*W190)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U190" s="17"/>
     </row>
     <row r="191" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T191" s="9" t="str">
-        <f>IF(Q191="","",D191*(Q191-E191)*W191)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U191" s="17"/>
     </row>
     <row r="192" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T192" s="9" t="str">
-        <f>IF(Q192="","",D192*(Q192-E192)*W192)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U192" s="17"/>
     </row>
     <row r="193" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T193" s="9" t="str">
-        <f>IF(Q193="","",D193*(Q193-E193)*W193)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U193" s="17"/>
     </row>
     <row r="194" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T194" s="9" t="str">
-        <f>IF(Q194="","",D194*(Q194-E194)*W194)</f>
+        <f t="shared" ref="T194:T257" si="10">IF(Q194="","",D194*(Q194-E194)*W194)</f>
         <v/>
       </c>
       <c r="U194" s="17"/>
     </row>
     <row r="195" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T195" s="9" t="str">
-        <f>IF(Q195="","",D195*(Q195-E195)*W195)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U195" s="17"/>
     </row>
     <row r="196" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T196" s="9" t="str">
-        <f>IF(Q196="","",D196*(Q196-E196)*W196)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U196" s="17"/>
     </row>
     <row r="197" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T197" s="9" t="str">
-        <f>IF(Q197="","",D197*(Q197-E197)*W197)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U197" s="17"/>
     </row>
     <row r="198" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T198" s="9" t="str">
-        <f>IF(Q198="","",D198*(Q198-E198)*W198)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U198" s="17"/>
     </row>
     <row r="199" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T199" s="9" t="str">
-        <f>IF(Q199="","",D199*(Q199-E199)*W199)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U199" s="17"/>
     </row>
     <row r="200" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T200" s="9" t="str">
-        <f>IF(Q200="","",D200*(Q200-E200)*W200)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U200" s="17"/>
     </row>
     <row r="201" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T201" s="9" t="str">
-        <f>IF(Q201="","",D201*(Q201-E201)*W201)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U201" s="17"/>
     </row>
     <row r="202" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T202" s="9" t="str">
-        <f>IF(Q202="","",D202*(Q202-E202)*W202)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U202" s="17"/>
     </row>
     <row r="203" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T203" s="9" t="str">
-        <f>IF(Q203="","",D203*(Q203-E203)*W203)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U203" s="17"/>
     </row>
     <row r="204" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T204" s="9" t="str">
-        <f>IF(Q204="","",D204*(Q204-E204)*W204)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U204" s="17"/>
     </row>
     <row r="205" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T205" s="9" t="str">
-        <f>IF(Q205="","",D205*(Q205-E205)*W205)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U205" s="17"/>
     </row>
     <row r="206" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T206" s="9" t="str">
-        <f>IF(Q206="","",D206*(Q206-E206)*W206)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U206" s="17"/>
     </row>
     <row r="207" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T207" s="9" t="str">
-        <f>IF(Q207="","",D207*(Q207-E207)*W207)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U207" s="17"/>
     </row>
     <row r="208" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T208" s="9" t="str">
-        <f>IF(Q208="","",D208*(Q208-E208)*W208)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U208" s="17"/>
     </row>
     <row r="209" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T209" s="9" t="str">
-        <f>IF(Q209="","",D209*(Q209-E209)*W209)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U209" s="17"/>
     </row>
     <row r="210" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T210" s="9" t="str">
-        <f>IF(Q210="","",D210*(Q210-E210)*W210)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U210" s="17"/>
     </row>
     <row r="211" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T211" s="9" t="str">
-        <f>IF(Q211="","",D211*(Q211-E211)*W211)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U211" s="17"/>
     </row>
     <row r="212" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T212" s="9" t="str">
-        <f>IF(Q212="","",D212*(Q212-E212)*W212)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U212" s="17"/>
     </row>
     <row r="213" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T213" s="9" t="str">
-        <f>IF(Q213="","",D213*(Q213-E213)*W213)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U213" s="17"/>
     </row>
     <row r="214" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T214" s="9" t="str">
-        <f>IF(Q214="","",D214*(Q214-E214)*W214)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U214" s="17"/>
     </row>
     <row r="215" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T215" s="9" t="str">
-        <f>IF(Q215="","",D215*(Q215-E215)*W215)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U215" s="17"/>
     </row>
     <row r="216" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T216" s="9" t="str">
-        <f>IF(Q216="","",D216*(Q216-E216)*W216)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U216" s="17"/>
     </row>
     <row r="217" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T217" s="9" t="str">
-        <f>IF(Q217="","",D217*(Q217-E217)*W217)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U217" s="17"/>
     </row>
     <row r="218" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T218" s="9" t="str">
-        <f>IF(Q218="","",D218*(Q218-E218)*W218)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U218" s="17"/>
     </row>
     <row r="219" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T219" s="9" t="str">
-        <f>IF(Q219="","",D219*(Q219-E219)*W219)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U219" s="17"/>
     </row>
     <row r="220" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T220" s="9" t="str">
-        <f>IF(Q220="","",D220*(Q220-E220)*W220)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U220" s="17"/>
     </row>
     <row r="221" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T221" s="9" t="str">
-        <f>IF(Q221="","",D221*(Q221-E221)*W221)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U221" s="17"/>
     </row>
     <row r="222" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T222" s="9" t="str">
-        <f>IF(Q222="","",D222*(Q222-E222)*W222)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U222" s="17"/>
     </row>
     <row r="223" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T223" s="9" t="str">
-        <f>IF(Q223="","",D223*(Q223-E223)*W223)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U223" s="17"/>
     </row>
     <row r="224" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T224" s="9" t="str">
-        <f>IF(Q224="","",D224*(Q224-E224)*W224)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U224" s="17"/>
     </row>
     <row r="225" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T225" s="9" t="str">
-        <f>IF(Q225="","",D225*(Q225-E225)*W225)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U225" s="17"/>
     </row>
     <row r="226" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T226" s="9" t="str">
-        <f>IF(Q226="","",D226*(Q226-E226)*W226)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U226" s="17"/>
     </row>
     <row r="227" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T227" s="9" t="str">
-        <f>IF(Q227="","",D227*(Q227-E227)*W227)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U227" s="17"/>
     </row>
     <row r="228" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T228" s="9" t="str">
-        <f>IF(Q228="","",D228*(Q228-E228)*W228)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U228" s="17"/>
     </row>
     <row r="229" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T229" s="9" t="str">
-        <f>IF(Q229="","",D229*(Q229-E229)*W229)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U229" s="17"/>
     </row>
     <row r="230" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T230" s="9" t="str">
-        <f>IF(Q230="","",D230*(Q230-E230)*W230)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U230" s="17"/>
     </row>
     <row r="231" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T231" s="9" t="str">
-        <f>IF(Q231="","",D231*(Q231-E231)*W231)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U231" s="17"/>
     </row>
     <row r="232" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T232" s="9" t="str">
-        <f>IF(Q232="","",D232*(Q232-E232)*W232)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U232" s="17"/>
     </row>
     <row r="233" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T233" s="9" t="str">
-        <f>IF(Q233="","",D233*(Q233-E233)*W233)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U233" s="17"/>
     </row>
     <row r="234" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T234" s="9" t="str">
-        <f>IF(Q234="","",D234*(Q234-E234)*W234)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U234" s="17"/>
     </row>
     <row r="235" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T235" s="9" t="str">
-        <f>IF(Q235="","",D235*(Q235-E235)*W235)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U235" s="17"/>
     </row>
     <row r="236" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T236" s="9" t="str">
-        <f>IF(Q236="","",D236*(Q236-E236)*W236)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U236" s="17"/>
     </row>
     <row r="237" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T237" s="9" t="str">
-        <f>IF(Q237="","",D237*(Q237-E237)*W237)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U237" s="17"/>
     </row>
     <row r="238" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T238" s="9" t="str">
-        <f>IF(Q238="","",D238*(Q238-E238)*W238)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U238" s="17"/>
     </row>
     <row r="239" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T239" s="9" t="str">
-        <f>IF(Q239="","",D239*(Q239-E239)*W239)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U239" s="17"/>
     </row>
     <row r="240" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T240" s="9" t="str">
-        <f>IF(Q240="","",D240*(Q240-E240)*W240)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U240" s="17"/>
     </row>
     <row r="241" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T241" s="9" t="str">
-        <f>IF(Q241="","",D241*(Q241-E241)*W241)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U241" s="17"/>
     </row>
     <row r="242" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T242" s="9" t="str">
-        <f>IF(Q242="","",D242*(Q242-E242)*W242)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U242" s="17"/>
     </row>
     <row r="243" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T243" s="9" t="str">
-        <f>IF(Q243="","",D243*(Q243-E243)*W243)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U243" s="17"/>
     </row>
     <row r="244" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T244" s="9" t="str">
-        <f>IF(Q244="","",D244*(Q244-E244)*W244)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U244" s="17"/>
     </row>
     <row r="245" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T245" s="9" t="str">
-        <f>IF(Q245="","",D245*(Q245-E245)*W245)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U245" s="17"/>
     </row>
     <row r="246" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T246" s="9" t="str">
-        <f>IF(Q246="","",D246*(Q246-E246)*W246)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U246" s="17"/>
     </row>
     <row r="247" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T247" s="9" t="str">
-        <f>IF(Q247="","",D247*(Q247-E247)*W247)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U247" s="17"/>
     </row>
     <row r="248" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T248" s="9" t="str">
-        <f>IF(Q248="","",D248*(Q248-E248)*W248)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U248" s="17"/>
     </row>
     <row r="249" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T249" s="9" t="str">
-        <f>IF(Q249="","",D249*(Q249-E249)*W249)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U249" s="17"/>
     </row>
     <row r="250" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T250" s="9" t="str">
-        <f>IF(Q250="","",D250*(Q250-E250)*W250)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U250" s="17"/>
     </row>
     <row r="251" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T251" s="9" t="str">
-        <f>IF(Q251="","",D251*(Q251-E251)*W251)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U251" s="17"/>
     </row>
     <row r="252" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T252" s="9" t="str">
-        <f>IF(Q252="","",D252*(Q252-E252)*W252)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U252" s="17"/>
     </row>
     <row r="253" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T253" s="9" t="str">
-        <f>IF(Q253="","",D253*(Q253-E253)*W253)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U253" s="17"/>
     </row>
     <row r="254" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T254" s="9" t="str">
-        <f>IF(Q254="","",D254*(Q254-E254)*W254)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U254" s="17"/>
     </row>
     <row r="255" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T255" s="9" t="str">
-        <f>IF(Q255="","",D255*(Q255-E255)*W255)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U255" s="17"/>
     </row>
     <row r="256" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T256" s="9" t="str">
-        <f>IF(Q256="","",D256*(Q256-E256)*W256)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
     </row>
     <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T257" s="9" t="str">
-        <f>IF(Q257="","",D257*(Q257-E257)*W257)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U257" s="17"/>
     </row>
     <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T258" s="9" t="str">
-        <f>IF(Q258="","",D258*(Q258-E258)*W258)</f>
+        <f t="shared" ref="T258:T321" si="11">IF(Q258="","",D258*(Q258-E258)*W258)</f>
         <v/>
       </c>
       <c r="U258" s="17"/>
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f>IF(Q259="","",D259*(Q259-E259)*W259)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f>IF(Q260="","",D260*(Q260-E260)*W260)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f>IF(Q261="","",D261*(Q261-E261)*W261)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f>IF(Q262="","",D262*(Q262-E262)*W262)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f>IF(Q263="","",D263*(Q263-E263)*W263)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f>IF(Q264="","",D264*(Q264-E264)*W264)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f>IF(Q265="","",D265*(Q265-E265)*W265)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f>IF(Q266="","",D266*(Q266-E266)*W266)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f>IF(Q267="","",D267*(Q267-E267)*W267)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f>IF(Q268="","",D268*(Q268-E268)*W268)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f>IF(Q269="","",D269*(Q269-E269)*W269)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f>IF(Q270="","",D270*(Q270-E270)*W270)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f>IF(Q271="","",D271*(Q271-E271)*W271)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f>IF(Q272="","",D272*(Q272-E272)*W272)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f>IF(Q273="","",D273*(Q273-E273)*W273)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f>IF(Q274="","",D274*(Q274-E274)*W274)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f>IF(Q275="","",D275*(Q275-E275)*W275)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f>IF(Q276="","",D276*(Q276-E276)*W276)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f>IF(Q277="","",D277*(Q277-E277)*W277)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f>IF(Q278="","",D278*(Q278-E278)*W278)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f>IF(Q279="","",D279*(Q279-E279)*W279)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f>IF(Q280="","",D280*(Q280-E280)*W280)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f>IF(Q281="","",D281*(Q281-E281)*W281)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f>IF(Q282="","",D282*(Q282-E282)*W282)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f>IF(Q283="","",D283*(Q283-E283)*W283)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f>IF(Q284="","",D284*(Q284-E284)*W284)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f>IF(Q285="","",D285*(Q285-E285)*W285)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f>IF(Q286="","",D286*(Q286-E286)*W286)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f>IF(Q287="","",D287*(Q287-E287)*W287)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f>IF(Q288="","",D288*(Q288-E288)*W288)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f>IF(Q289="","",D289*(Q289-E289)*W289)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f>IF(Q290="","",D290*(Q290-E290)*W290)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f>IF(Q291="","",D291*(Q291-E291)*W291)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f>IF(Q292="","",D292*(Q292-E292)*W292)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f>IF(Q293="","",D293*(Q293-E293)*W293)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f>IF(Q294="","",D294*(Q294-E294)*W294)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f>IF(Q295="","",D295*(Q295-E295)*W295)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f>IF(Q296="","",D296*(Q296-E296)*W296)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f>IF(Q297="","",D297*(Q297-E297)*W297)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f>IF(Q298="","",D298*(Q298-E298)*W298)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f>IF(Q299="","",D299*(Q299-E299)*W299)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f>IF(Q300="","",D300*(Q300-E300)*W300)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f>IF(Q301="","",D301*(Q301-E301)*W301)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f>IF(Q302="","",D302*(Q302-E302)*W302)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f>IF(Q303="","",D303*(Q303-E303)*W303)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f>IF(Q304="","",D304*(Q304-E304)*W304)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f>IF(Q305="","",D305*(Q305-E305)*W305)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f>IF(Q306="","",D306*(Q306-E306)*W306)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f>IF(Q307="","",D307*(Q307-E307)*W307)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f>IF(Q308="","",D308*(Q308-E308)*W308)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f>IF(Q309="","",D309*(Q309-E309)*W309)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f>IF(Q310="","",D310*(Q310-E310)*W310)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f>IF(Q311="","",D311*(Q311-E311)*W311)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f>IF(Q312="","",D312*(Q312-E312)*W312)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f>IF(Q313="","",D313*(Q313-E313)*W313)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f>IF(Q314="","",D314*(Q314-E314)*W314)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f>IF(Q315="","",D315*(Q315-E315)*W315)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f>IF(Q316="","",D316*(Q316-E316)*W316)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f>IF(Q317="","",D317*(Q317-E317)*W317)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f>IF(Q318="","",D318*(Q318-E318)*W318)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f>IF(Q319="","",D319*(Q319-E319)*W319)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f>IF(Q320="","",D320*(Q320-E320)*W320)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f>IF(Q321="","",D321*(Q321-E321)*W321)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f>IF(Q322="","",D322*(Q322-E322)*W322)</f>
+        <f t="shared" ref="T322:T347" si="12">IF(Q322="","",D322*(Q322-E322)*W322)</f>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f>IF(Q323="","",D323*(Q323-E323)*W323)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f>IF(Q324="","",D324*(Q324-E324)*W324)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f>IF(Q325="","",D325*(Q325-E325)*W325)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f>IF(Q326="","",D326*(Q326-E326)*W326)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f>IF(Q327="","",D327*(Q327-E327)*W327)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f>IF(Q328="","",D328*(Q328-E328)*W328)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f>IF(Q329="","",D329*(Q329-E329)*W329)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f>IF(Q330="","",D330*(Q330-E330)*W330)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f>IF(Q331="","",D331*(Q331-E331)*W331)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f>IF(Q332="","",D332*(Q332-E332)*W332)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f>IF(Q333="","",D333*(Q333-E333)*W333)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f>IF(Q334="","",D334*(Q334-E334)*W334)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f>IF(Q335="","",D335*(Q335-E335)*W335)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f>IF(Q336="","",D336*(Q336-E336)*W336)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f>IF(Q337="","",D337*(Q337-E337)*W337)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f>IF(Q338="","",D338*(Q338-E338)*W338)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f>IF(Q339="","",D339*(Q339-E339)*W339)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f>IF(Q340="","",D340*(Q340-E340)*W340)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f>IF(Q341="","",D341*(Q341-E341)*W341)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f>IF(Q342="","",D342*(Q342-E342)*W342)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f>IF(Q343="","",D343*(Q343-E343)*W343)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f>IF(Q344="","",D344*(Q344-E344)*W344)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f>IF(Q345="","",D345*(Q345-E345)*W345)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f>IF(Q346="","",D346*(Q346-E346)*W346)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f>IF(Q347="","",D347*(Q347-E347)*W347)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U347" s="17"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -221,6 +221,22 @@
   </si>
   <si>
     <t>调整单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I1805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -857,8 +873,8 @@
   <dimension ref="A1:AG6644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3457,7 +3473,7 @@
         <v>12.028897757468055</v>
       </c>
     </row>
-    <row r="49" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B49" s="29" t="s">
         <v>22</v>
       </c>
@@ -3519,7 +3535,7 @@
         <v>7.7118861111111103</v>
       </c>
     </row>
-    <row r="50" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B50" s="29" t="s">
         <v>23</v>
       </c>
@@ -3581,7 +3597,7 @@
         <v>15.624905833905286</v>
       </c>
     </row>
-    <row r="51" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
         <v>24</v>
       </c>
@@ -3643,91 +3659,644 @@
         <v>3.0990577880817449</v>
       </c>
     </row>
-    <row r="52" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="27">
+        <v>43139</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="29">
+        <v>12</v>
+      </c>
+      <c r="E52" s="29">
+        <v>2844</v>
+      </c>
+      <c r="F52" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G52" s="31">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H52" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="39">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="J52" s="45">
+        <f>IF(H52="N",1,IF(C52=H52,2,0.5))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K52" s="39">
+        <f>SUM($I$52:$I$56)/SUM($J$52:$J$56)*J52</f>
+        <v>4.7827272727272736E-3</v>
+      </c>
+      <c r="L52" s="1">
+        <f>(X52*K52)/(W52*E52*0.15)</f>
+        <v>6.2139118823253643</v>
+      </c>
+      <c r="M52" s="1">
+        <f>ROUND(L52,0)</f>
+        <v>6</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" ref="N52:N61" si="8">M52-D52</f>
+        <v>-6</v>
+      </c>
       <c r="T52" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U52" s="17"/>
-    </row>
-    <row r="53" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W52" s="18">
+        <f>[1]!WSD($B52,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X52" s="1">
+        <v>5542559</v>
+      </c>
+      <c r="Y52" s="1">
+        <f t="shared" ref="Y52:Y61" si="9">X52*I52/(E52*W52*0.15)</f>
+        <v>11.823086474449132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B53" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="29">
+        <v>18</v>
+      </c>
+      <c r="E53" s="29">
+        <v>1824</v>
+      </c>
+      <c r="F53" s="30">
+        <v>43131</v>
+      </c>
+      <c r="G53" s="31">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" s="39">
+        <v>8.9090909090909099E-3</v>
+      </c>
+      <c r="J53" s="45">
+        <f t="shared" ref="J53:J56" si="10">IF(H53="N",1,IF(C53=H53,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K53" s="39">
+        <f t="shared" ref="K53:K56" si="11">SUM($I$52:$I$56)/SUM($J$52:$J$56)*J53</f>
+        <v>9.5654545454545471E-3</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" ref="L52:L61" si="12">(X53*K53)/(W53*E53*0.15)</f>
+        <v>19.377593633040938</v>
+      </c>
+      <c r="M53" s="1">
+        <f>ROUND(L53,0)+2</f>
+        <v>21</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
       <c r="T53" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U53" s="17"/>
-    </row>
-    <row r="54" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W53" s="18">
+        <f>[1]!WSD($B53,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X53" s="1">
+        <v>5542559</v>
+      </c>
+      <c r="Y53" s="1">
+        <f t="shared" si="9"/>
+        <v>18.047939327485381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B54" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="29">
+        <v>10</v>
+      </c>
+      <c r="E54" s="29">
+        <v>646.4</v>
+      </c>
+      <c r="F54" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G54" s="31">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H54" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" s="39">
+        <v>1.781818181818182E-2</v>
+      </c>
+      <c r="J54" s="45">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="K54" s="39">
+        <f t="shared" si="11"/>
+        <v>1.9130909090909094E-2</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" si="12"/>
+        <v>10.935869674092411</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" ref="M53:M61" si="13">ROUND(L54,0)</f>
+        <v>11</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="T54" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U54" s="17"/>
-    </row>
-    <row r="55" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W54" s="18">
+        <f>[1]!WSD($B54,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X54" s="1">
+        <v>5542559</v>
+      </c>
+      <c r="Y54" s="1">
+        <f t="shared" si="9"/>
+        <v>10.185470709570957</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B55" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="29">
+        <v>9</v>
+      </c>
+      <c r="E55" s="29">
+        <v>3529</v>
+      </c>
+      <c r="F55" s="30">
+        <v>43131</v>
+      </c>
+      <c r="G55" s="31">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="H55" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55" s="39">
+        <v>8.6E-3</v>
+      </c>
+      <c r="J55" s="45">
+        <f>IF(H55="N",1,IF(C55=H55,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K55" s="39">
+        <f t="shared" si="11"/>
+        <v>9.5654545454545471E-3</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" si="12"/>
+        <v>10.015508865589876</v>
+      </c>
+      <c r="M55" s="1">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="N55" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="T55" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U55" s="17"/>
-    </row>
-    <row r="56" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W55" s="18">
+        <f>[1]!WSD($B55,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X55" s="1">
+        <v>5542559</v>
+      </c>
+      <c r="Y55" s="1">
+        <f t="shared" si="9"/>
+        <v>9.0046297156890525</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B56" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="29">
+        <v>1</v>
+      </c>
+      <c r="E56" s="29">
+        <v>12355</v>
+      </c>
+      <c r="F56" s="30">
+        <v>43136</v>
+      </c>
+      <c r="G56" s="31">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" s="39">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="J56" s="45">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="K56" s="39">
+        <f t="shared" si="11"/>
+        <v>4.7827272727272736E-3</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" si="12"/>
+        <v>1.4303816587076759</v>
+      </c>
+      <c r="M56" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="N56" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="T56" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U56" s="17"/>
-    </row>
-    <row r="57" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W56" s="18">
+        <f>[1]!WSD($B56,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X56" s="1">
+        <v>5542559</v>
+      </c>
+      <c r="Y56" s="1">
+        <f t="shared" si="9"/>
+        <v>1.0168461135842439</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E57" s="29">
+        <v>2151</v>
+      </c>
+      <c r="F57" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G57" s="31">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H57" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I57" s="39">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="J57" s="45">
+        <f>IF(H57="N",1,IF(C57=H57,2,0.5))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K57" s="39">
+        <f>SUM($I$57:$I$61)/SUM($J$57:$J$61)*J57</f>
+        <v>9.4799999999999988E-3</v>
+      </c>
+      <c r="L57" s="1">
+        <f>-(X57*K57)/(W57*E57*0.15)</f>
+        <v>-1.6284971120409111</v>
+      </c>
+      <c r="M57" s="1">
+        <f t="shared" si="13"/>
+        <v>-2</v>
+      </c>
+      <c r="N57" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
       <c r="T57" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U57" s="17"/>
-    </row>
-    <row r="58" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W57" s="18">
+        <f>[1]!WSD($B57,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X57" s="1">
+        <v>5542559</v>
+      </c>
+      <c r="Y57" s="1">
+        <f t="shared" si="9"/>
+        <v>0.99633789555245622</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B58" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="29">
+        <v>-7</v>
+      </c>
+      <c r="E58" s="29">
+        <v>3939</v>
+      </c>
+      <c r="F58" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G58" s="31">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H58" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" s="39">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J58" s="45">
+        <f t="shared" ref="J52:J61" si="14">IF(H58="N",1,IF(C58=H58,2,0.5))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K58" s="39">
+        <f>SUM($I$57:$I$61)/SUM($J$57:$J$61)*J58</f>
+        <v>9.4799999999999988E-3</v>
+      </c>
+      <c r="L58" s="1">
+        <f>-(X58*K58)/(W58*E58*0.15)</f>
+        <v>-8.8928593247016998</v>
+      </c>
+      <c r="M58" s="1">
+        <f t="shared" si="13"/>
+        <v>-9</v>
+      </c>
+      <c r="N58" s="1">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
       <c r="T58" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U58" s="17"/>
-    </row>
-    <row r="59" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W58" s="18">
+        <f>[1]!WSD($B58,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X58" s="1">
+        <v>5542559</v>
+      </c>
+      <c r="Y58" s="1">
+        <f t="shared" si="9"/>
+        <v>7.0354899720741297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B59" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" s="29">
+        <v>0</v>
+      </c>
+      <c r="E59" s="32">
+        <v>2336</v>
+      </c>
+      <c r="F59" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G59" s="31">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H59" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I59" s="39">
+        <v>1.37E-2</v>
+      </c>
+      <c r="J59" s="45">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="K59" s="39">
+        <f>SUM($I$57:$I$61)/SUM($J$57:$J$61)*J59</f>
+        <v>9.4799999999999988E-3</v>
+      </c>
+      <c r="L59" s="1">
+        <f>-(X59*K59)/(W59*E59*0.15)</f>
+        <v>-14.995279486301369</v>
+      </c>
+      <c r="M59" s="1">
+        <f>ROUND(L59,0)+2</f>
+        <v>-13</v>
+      </c>
+      <c r="N59" s="1">
+        <f t="shared" si="8"/>
+        <v>-13</v>
+      </c>
       <c r="T59" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U59" s="17"/>
-    </row>
-    <row r="60" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W59" s="18">
+        <f>[1]!WSD($B59,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X59" s="1">
+        <v>5542559</v>
+      </c>
+      <c r="Y59" s="1">
+        <f t="shared" si="9"/>
+        <v>21.670393350456621</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B60" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="29">
+        <v>0</v>
+      </c>
+      <c r="E60" s="32">
+        <v>524</v>
+      </c>
+      <c r="F60" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G60" s="31">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="I60" s="39">
+        <v>1.37E-2</v>
+      </c>
+      <c r="J60" s="45">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="K60" s="39">
+        <f>SUM($I$57:$I$61)/SUM($J$57:$J$61)*J60</f>
+        <v>9.4799999999999988E-3</v>
+      </c>
+      <c r="L60" s="1">
+        <f>-(X60*K60)/(W60*E60*0.15)</f>
+        <v>-6.6849184885496173</v>
+      </c>
+      <c r="M60" s="1">
+        <f t="shared" si="13"/>
+        <v>-7</v>
+      </c>
+      <c r="N60" s="1">
+        <f t="shared" si="8"/>
+        <v>-7</v>
+      </c>
       <c r="T60" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U60" s="17"/>
-    </row>
-    <row r="61" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W60" s="18">
+        <f>[1]!WSD($B60,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X60" s="1">
+        <v>5542559</v>
+      </c>
+      <c r="Y60" s="1">
+        <f t="shared" si="9"/>
+        <v>9.6606944402035637</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B61" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="16">
+        <v>-3</v>
+      </c>
+      <c r="E61" s="16">
+        <v>1367</v>
+      </c>
+      <c r="F61" s="33">
+        <v>43129</v>
+      </c>
+      <c r="G61" s="34">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H61" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I61" s="40">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="J61" s="46">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="K61" s="40">
+        <f>SUM($I$57:$I$61)/SUM($J$57:$J$61)*J61</f>
+        <v>9.4799999999999988E-3</v>
+      </c>
+      <c r="L61" s="6">
+        <f>-(X61*K61)/(W61*E61*0.15)</f>
+        <v>-4.2707843062667639</v>
+      </c>
+      <c r="M61" s="6">
+        <f>ROUND(L61,0)+1</f>
+        <v>-3</v>
+      </c>
+      <c r="N61" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="T61" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U61" s="17"/>
-    </row>
-    <row r="62" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W61" s="18">
+        <f>[1]!WSD($B61,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X61" s="1">
+        <v>5542559</v>
+      </c>
+      <c r="Y61" s="1">
+        <f t="shared" si="9"/>
+        <v>3.0183813135007727</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T62" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U62" s="17"/>
     </row>
-    <row r="63" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T63" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U63" s="17"/>
     </row>
-    <row r="64" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T64" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3743,1974 +4312,1974 @@
     </row>
     <row r="66" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T66" s="9" t="str">
-        <f t="shared" ref="T66:T129" si="8">IF(Q66="","",D66*(Q66-E66)*W66)</f>
+        <f t="shared" ref="T66:T129" si="15">IF(Q66="","",D66*(Q66-E66)*W66)</f>
         <v/>
       </c>
       <c r="U66" s="17"/>
     </row>
     <row r="67" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T67" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U67" s="17"/>
     </row>
     <row r="68" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T68" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U68" s="17"/>
     </row>
     <row r="69" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T69" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U69" s="17"/>
     </row>
     <row r="70" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T70" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U70" s="17"/>
     </row>
     <row r="71" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T71" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U71" s="17"/>
     </row>
     <row r="72" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T72" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U72" s="17"/>
     </row>
     <row r="73" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T73" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U73" s="17"/>
     </row>
     <row r="74" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T74" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U74" s="17"/>
     </row>
     <row r="75" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T75" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U75" s="17"/>
     </row>
     <row r="76" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T76" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U76" s="17"/>
     </row>
     <row r="77" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T77" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U77" s="17"/>
     </row>
     <row r="78" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T78" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U78" s="17"/>
     </row>
     <row r="79" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T79" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U79" s="17"/>
     </row>
     <row r="80" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T80" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U80" s="17"/>
     </row>
     <row r="81" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T81" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U81" s="17"/>
     </row>
     <row r="82" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T82" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U82" s="17"/>
     </row>
     <row r="83" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T83" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U83" s="17"/>
     </row>
     <row r="84" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T84" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U84" s="17"/>
     </row>
     <row r="85" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T85" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U85" s="17"/>
     </row>
     <row r="86" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T86" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U86" s="17"/>
     </row>
     <row r="87" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T87" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U87" s="17"/>
     </row>
     <row r="88" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T88" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U88" s="17"/>
     </row>
     <row r="89" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T89" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U89" s="17"/>
     </row>
     <row r="90" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T90" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U90" s="17"/>
     </row>
     <row r="91" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T91" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U91" s="17"/>
     </row>
     <row r="92" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T92" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U92" s="17"/>
     </row>
     <row r="93" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T93" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U93" s="17"/>
     </row>
     <row r="94" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T94" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U94" s="17"/>
     </row>
     <row r="95" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T95" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U95" s="17"/>
     </row>
     <row r="96" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T96" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U96" s="17"/>
     </row>
     <row r="97" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T97" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U97" s="17"/>
     </row>
     <row r="98" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T98" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U98" s="17"/>
     </row>
     <row r="99" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T99" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U99" s="17"/>
     </row>
     <row r="100" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T100" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U100" s="17"/>
     </row>
     <row r="101" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T101" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U101" s="17"/>
     </row>
     <row r="102" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T102" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U102" s="17"/>
     </row>
     <row r="103" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T103" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U103" s="17"/>
     </row>
     <row r="104" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T104" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U104" s="17"/>
     </row>
     <row r="105" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T105" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U105" s="17"/>
     </row>
     <row r="106" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T106" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U106" s="17"/>
     </row>
     <row r="107" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T107" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U107" s="17"/>
     </row>
     <row r="108" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T108" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U108" s="17"/>
     </row>
     <row r="109" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T109" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U109" s="17"/>
     </row>
     <row r="110" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T110" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U110" s="17"/>
     </row>
     <row r="111" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T111" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U111" s="17"/>
     </row>
     <row r="112" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T112" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U112" s="17"/>
     </row>
     <row r="113" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T113" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U113" s="17"/>
     </row>
     <row r="114" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T114" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U114" s="17"/>
     </row>
     <row r="115" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T115" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U115" s="17"/>
     </row>
     <row r="116" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T116" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U116" s="17"/>
     </row>
     <row r="117" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T117" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U117" s="17"/>
     </row>
     <row r="118" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T118" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U118" s="17"/>
     </row>
     <row r="119" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T119" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U119" s="17"/>
     </row>
     <row r="120" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T120" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U120" s="17"/>
     </row>
     <row r="121" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T121" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U121" s="17"/>
     </row>
     <row r="122" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T122" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U122" s="17"/>
     </row>
     <row r="123" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T123" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U123" s="17"/>
     </row>
     <row r="124" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T124" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U124" s="17"/>
     </row>
     <row r="125" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T125" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U125" s="17"/>
     </row>
     <row r="126" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T126" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U126" s="17"/>
     </row>
     <row r="127" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T127" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U127" s="17"/>
     </row>
     <row r="128" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T128" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U128" s="17"/>
     </row>
     <row r="129" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T129" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U129" s="17"/>
     </row>
     <row r="130" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T130" s="9" t="str">
-        <f t="shared" ref="T130:T193" si="9">IF(Q130="","",D130*(Q130-E130)*W130)</f>
+        <f t="shared" ref="T130:T193" si="16">IF(Q130="","",D130*(Q130-E130)*W130)</f>
         <v/>
       </c>
       <c r="U130" s="17"/>
     </row>
     <row r="131" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T131" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U131" s="17"/>
     </row>
     <row r="132" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T132" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U132" s="17"/>
     </row>
     <row r="133" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T133" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U133" s="17"/>
     </row>
     <row r="134" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T134" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U134" s="17"/>
     </row>
     <row r="135" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T135" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U135" s="17"/>
     </row>
     <row r="136" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T136" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U136" s="17"/>
     </row>
     <row r="137" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T137" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U137" s="17"/>
     </row>
     <row r="138" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T138" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U138" s="17"/>
     </row>
     <row r="139" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T139" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U139" s="17"/>
     </row>
     <row r="140" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T140" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U140" s="17"/>
     </row>
     <row r="141" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T141" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U141" s="17"/>
     </row>
     <row r="142" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T142" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U142" s="17"/>
     </row>
     <row r="143" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T143" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U143" s="17"/>
     </row>
     <row r="144" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T144" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U144" s="17"/>
     </row>
     <row r="145" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T145" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U145" s="17"/>
     </row>
     <row r="146" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T146" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U146" s="17"/>
     </row>
     <row r="147" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T147" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U147" s="17"/>
     </row>
     <row r="148" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T148" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U148" s="17"/>
     </row>
     <row r="149" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T149" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U149" s="17"/>
     </row>
     <row r="150" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T150" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U150" s="17"/>
     </row>
     <row r="151" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T151" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U151" s="17"/>
     </row>
     <row r="152" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T152" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U152" s="17"/>
     </row>
     <row r="153" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T153" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U153" s="17"/>
     </row>
     <row r="154" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T154" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U154" s="17"/>
     </row>
     <row r="155" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T155" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U155" s="17"/>
     </row>
     <row r="156" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T156" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U156" s="17"/>
     </row>
     <row r="157" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T157" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U157" s="17"/>
     </row>
     <row r="158" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T158" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U158" s="17"/>
     </row>
     <row r="159" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T159" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U159" s="17"/>
     </row>
     <row r="160" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T160" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U160" s="17"/>
     </row>
     <row r="161" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T161" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U161" s="17"/>
     </row>
     <row r="162" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T162" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U162" s="17"/>
     </row>
     <row r="163" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T163" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U163" s="17"/>
     </row>
     <row r="164" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T164" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U164" s="17"/>
     </row>
     <row r="165" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T165" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U165" s="17"/>
     </row>
     <row r="166" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T166" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U166" s="17"/>
     </row>
     <row r="167" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T167" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U167" s="17"/>
     </row>
     <row r="168" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T168" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U168" s="17"/>
     </row>
     <row r="169" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T169" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U169" s="17"/>
     </row>
     <row r="170" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T170" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U170" s="17"/>
     </row>
     <row r="171" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T171" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U171" s="17"/>
     </row>
     <row r="172" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T172" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U172" s="17"/>
     </row>
     <row r="173" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T173" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U173" s="17"/>
     </row>
     <row r="174" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T174" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U174" s="17"/>
     </row>
     <row r="175" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T175" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U175" s="17"/>
     </row>
     <row r="176" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T176" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U176" s="17"/>
     </row>
     <row r="177" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T177" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U177" s="17"/>
     </row>
     <row r="178" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T178" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U178" s="17"/>
     </row>
     <row r="179" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T179" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U179" s="17"/>
     </row>
     <row r="180" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T180" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U180" s="17"/>
     </row>
     <row r="181" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T181" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U181" s="17"/>
     </row>
     <row r="182" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T182" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U182" s="17"/>
     </row>
     <row r="183" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T183" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U183" s="17"/>
     </row>
     <row r="184" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T184" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U184" s="17"/>
     </row>
     <row r="185" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T185" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U185" s="17"/>
     </row>
     <row r="186" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T186" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U186" s="17"/>
     </row>
     <row r="187" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T187" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U187" s="17"/>
     </row>
     <row r="188" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T188" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U188" s="17"/>
     </row>
     <row r="189" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T189" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U189" s="17"/>
     </row>
     <row r="190" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T190" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U190" s="17"/>
     </row>
     <row r="191" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T191" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U191" s="17"/>
     </row>
     <row r="192" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T192" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U192" s="17"/>
     </row>
     <row r="193" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T193" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U193" s="17"/>
     </row>
     <row r="194" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T194" s="9" t="str">
-        <f t="shared" ref="T194:T257" si="10">IF(Q194="","",D194*(Q194-E194)*W194)</f>
+        <f t="shared" ref="T194:T257" si="17">IF(Q194="","",D194*(Q194-E194)*W194)</f>
         <v/>
       </c>
       <c r="U194" s="17"/>
     </row>
     <row r="195" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T195" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U195" s="17"/>
     </row>
     <row r="196" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T196" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U196" s="17"/>
     </row>
     <row r="197" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T197" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U197" s="17"/>
     </row>
     <row r="198" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T198" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U198" s="17"/>
     </row>
     <row r="199" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T199" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U199" s="17"/>
     </row>
     <row r="200" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T200" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U200" s="17"/>
     </row>
     <row r="201" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T201" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U201" s="17"/>
     </row>
     <row r="202" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T202" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U202" s="17"/>
     </row>
     <row r="203" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T203" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U203" s="17"/>
     </row>
     <row r="204" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T204" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U204" s="17"/>
     </row>
     <row r="205" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T205" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U205" s="17"/>
     </row>
     <row r="206" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T206" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U206" s="17"/>
     </row>
     <row r="207" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T207" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U207" s="17"/>
     </row>
     <row r="208" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T208" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U208" s="17"/>
     </row>
     <row r="209" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T209" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U209" s="17"/>
     </row>
     <row r="210" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T210" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U210" s="17"/>
     </row>
     <row r="211" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T211" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U211" s="17"/>
     </row>
     <row r="212" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T212" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U212" s="17"/>
     </row>
     <row r="213" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T213" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U213" s="17"/>
     </row>
     <row r="214" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T214" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U214" s="17"/>
     </row>
     <row r="215" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T215" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U215" s="17"/>
     </row>
     <row r="216" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T216" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U216" s="17"/>
     </row>
     <row r="217" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T217" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U217" s="17"/>
     </row>
     <row r="218" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T218" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U218" s="17"/>
     </row>
     <row r="219" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T219" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U219" s="17"/>
     </row>
     <row r="220" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T220" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U220" s="17"/>
     </row>
     <row r="221" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T221" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U221" s="17"/>
     </row>
     <row r="222" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T222" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U222" s="17"/>
     </row>
     <row r="223" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T223" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U223" s="17"/>
     </row>
     <row r="224" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T224" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U224" s="17"/>
     </row>
     <row r="225" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T225" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U225" s="17"/>
     </row>
     <row r="226" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T226" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U226" s="17"/>
     </row>
     <row r="227" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T227" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U227" s="17"/>
     </row>
     <row r="228" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T228" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U228" s="17"/>
     </row>
     <row r="229" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T229" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U229" s="17"/>
     </row>
     <row r="230" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T230" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U230" s="17"/>
     </row>
     <row r="231" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T231" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U231" s="17"/>
     </row>
     <row r="232" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T232" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U232" s="17"/>
     </row>
     <row r="233" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T233" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U233" s="17"/>
     </row>
     <row r="234" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T234" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U234" s="17"/>
     </row>
     <row r="235" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T235" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U235" s="17"/>
     </row>
     <row r="236" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T236" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U236" s="17"/>
     </row>
     <row r="237" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T237" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U237" s="17"/>
     </row>
     <row r="238" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T238" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U238" s="17"/>
     </row>
     <row r="239" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T239" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U239" s="17"/>
     </row>
     <row r="240" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T240" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U240" s="17"/>
     </row>
     <row r="241" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T241" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U241" s="17"/>
     </row>
     <row r="242" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T242" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U242" s="17"/>
     </row>
     <row r="243" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T243" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U243" s="17"/>
     </row>
     <row r="244" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T244" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U244" s="17"/>
     </row>
     <row r="245" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T245" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U245" s="17"/>
     </row>
     <row r="246" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T246" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U246" s="17"/>
     </row>
     <row r="247" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T247" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U247" s="17"/>
     </row>
     <row r="248" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T248" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U248" s="17"/>
     </row>
     <row r="249" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T249" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U249" s="17"/>
     </row>
     <row r="250" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T250" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U250" s="17"/>
     </row>
     <row r="251" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T251" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U251" s="17"/>
     </row>
     <row r="252" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T252" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U252" s="17"/>
     </row>
     <row r="253" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T253" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U253" s="17"/>
     </row>
     <row r="254" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T254" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U254" s="17"/>
     </row>
     <row r="255" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T255" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U255" s="17"/>
     </row>
     <row r="256" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T256" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
     </row>
     <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T257" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U257" s="17"/>
     </row>
     <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T258" s="9" t="str">
-        <f t="shared" ref="T258:T321" si="11">IF(Q258="","",D258*(Q258-E258)*W258)</f>
+        <f t="shared" ref="T258:T321" si="18">IF(Q258="","",D258*(Q258-E258)*W258)</f>
         <v/>
       </c>
       <c r="U258" s="17"/>
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" ref="T322:T347" si="12">IF(Q322="","",D322*(Q322-E322)*W322)</f>
+        <f t="shared" ref="T322:T347" si="19">IF(Q322="","",D322*(Q322-E322)*W322)</f>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U347" s="17"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="净值" sheetId="1" r:id="rId1"/>
-    <sheet name="成交记录" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="成交记录" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="56">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -239,6 +240,10 @@
     <t>L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Y1805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -332,7 +337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,6 +470,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -482,6 +488,863 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>净值!$A$5:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>净值!$B$5:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5589832</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5579241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5557681</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5558068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5556305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5551055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5546532</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5554791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="653718304"/>
+        <c:axId val="653718864"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="653718304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="653718864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="653718864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="653718304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -792,16 +1655,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -831,50 +1694,139 @@
       <c r="A3" s="3">
         <v>43129</v>
       </c>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>43130</v>
       </c>
-      <c r="B4" s="4"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>43131</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="4">
+        <v>5589832</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" ref="C3:C12" si="0">B5/$B$2</f>
+        <v>0.99739509684390792</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>43132</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="4">
+        <v>5579241</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99550534211233932</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="A7" s="14">
         <v>43133</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="48">
+        <v>5557681</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99165838601635026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>43136</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5558068</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99172743852141276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>43137</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5556305</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99141286599835021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>43138</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5551055</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99047610720874246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>43139</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5546532</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.98966906720771475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>43140</v>
+      </c>
+      <c r="B12" s="4">
+        <v>5554791</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99114272260645198</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG6644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M62" sqref="M62"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3758,7 +4710,7 @@
         <v>9.5654545454545471E-3</v>
       </c>
       <c r="L53" s="1">
-        <f t="shared" ref="L52:L61" si="12">(X53*K53)/(W53*E53*0.15)</f>
+        <f t="shared" ref="L53:L56" si="12">(X53*K53)/(W53*E53*0.15)</f>
         <v>19.377593633040938</v>
       </c>
       <c r="M53" s="1">
@@ -3824,7 +4776,7 @@
         <v>10.935869674092411</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" ref="M53:M61" si="13">ROUND(L54,0)</f>
+        <f t="shared" ref="M54:M60" si="13">ROUND(L54,0)</f>
         <v>11</v>
       </c>
       <c r="N54" s="1">
@@ -4060,7 +5012,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="J58" s="45">
-        <f t="shared" ref="J52:J61" si="14">IF(H58="N",1,IF(C58=H58,2,0.5))</f>
+        <f t="shared" ref="J58:J61" si="14">IF(H58="N",1,IF(C58=H58,2,0.5))</f>
         <v>0.5</v>
       </c>
       <c r="K58" s="39">
@@ -4283,2003 +5235,2556 @@
       </c>
     </row>
     <row r="62" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="27">
+        <v>43140</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="29">
+        <v>6</v>
+      </c>
+      <c r="E62" s="29">
+        <v>2844</v>
+      </c>
+      <c r="F62" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G62" s="31">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H62" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="39">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J62" s="45">
+        <f>IF(H62="N",1,IF(C62=H62,2,0.5))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K62" s="39">
+        <f>SUM($I$62:$I$66)/SUM($J$62:$J$66)*J62</f>
+        <v>4.7100000000000006E-3</v>
+      </c>
+      <c r="L62" s="1">
+        <f>(X62*K62)/(W62*E62*0.15)</f>
+        <v>6.1194227848101281</v>
+      </c>
+      <c r="M62" s="1">
+        <f>ROUND(L62,0)</f>
+        <v>6</v>
+      </c>
+      <c r="N62" s="1">
+        <f t="shared" ref="N62:N71" si="15">M62-D62</f>
+        <v>0</v>
+      </c>
       <c r="T62" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U62" s="17"/>
+      <c r="W62" s="18">
+        <f>[1]!WSD($B62,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X62" s="1">
+        <v>5542560</v>
+      </c>
+      <c r="Y62" s="1">
+        <f t="shared" ref="Y62:Y71" si="16">X62*I62/(E62*W62*0.15)</f>
+        <v>5.8465822784810122</v>
+      </c>
     </row>
     <row r="63" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B63" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="29">
+        <v>21</v>
+      </c>
+      <c r="E63" s="29">
+        <v>1824</v>
+      </c>
+      <c r="F63" s="30">
+        <v>43131</v>
+      </c>
+      <c r="G63" s="31">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="H63" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="39">
+        <v>1.04E-2</v>
+      </c>
+      <c r="J63" s="45">
+        <f t="shared" ref="J63:J64" si="17">IF(H63="N",1,IF(C63=H63,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K63" s="39">
+        <f t="shared" ref="K63:K65" si="18">SUM($I$62:$I$66)/SUM($J$62:$J$66)*J63</f>
+        <v>9.4200000000000013E-3</v>
+      </c>
+      <c r="L63" s="1">
+        <f t="shared" ref="L63:L66" si="19">(X63*K63)/(W63*E63*0.15)</f>
+        <v>19.082940285087719</v>
+      </c>
+      <c r="M63" s="1">
+        <f>ROUND(L63,0)</f>
+        <v>19</v>
+      </c>
+      <c r="N63" s="1">
+        <f t="shared" si="15"/>
+        <v>-2</v>
+      </c>
       <c r="T63" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U63" s="17"/>
+      <c r="W63" s="18">
+        <f>[1]!WSD($B63,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X63" s="1">
+        <v>5542561</v>
+      </c>
+      <c r="Y63" s="1">
+        <f t="shared" si="16"/>
+        <v>21.068214327485379</v>
+      </c>
     </row>
     <row r="64" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B64" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="29">
+        <v>11</v>
+      </c>
+      <c r="E64" s="29">
+        <v>646.4</v>
+      </c>
+      <c r="F64" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G64" s="31">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H64" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" s="39">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="J64" s="45">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="K64" s="39">
+        <f t="shared" si="18"/>
+        <v>1.8840000000000003E-2</v>
+      </c>
+      <c r="L64" s="1">
+        <f t="shared" si="19"/>
+        <v>10.769582103960397</v>
+      </c>
+      <c r="M64" s="1">
+        <f t="shared" ref="M64:M68" si="20">ROUND(L64,0)</f>
+        <v>11</v>
+      </c>
+      <c r="N64" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="T64" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U64" s="17"/>
-    </row>
-    <row r="65" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W64" s="18">
+        <f>[1]!WSD($B64,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X64" s="1">
+        <v>5542562</v>
+      </c>
+      <c r="Y64" s="1">
+        <f t="shared" si="16"/>
+        <v>11.0325336839934</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B65" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="29">
+        <v>10</v>
+      </c>
+      <c r="E65" s="29">
+        <v>3529</v>
+      </c>
+      <c r="F65" s="30">
+        <v>43131</v>
+      </c>
+      <c r="G65" s="31">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="H65" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" s="39">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="J65" s="45">
+        <f>IF(H65="N",1,IF(C65=H65,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K65" s="39">
+        <f t="shared" si="18"/>
+        <v>9.4200000000000013E-3</v>
+      </c>
+      <c r="L65" s="1">
+        <f t="shared" si="19"/>
+        <v>9.8632178067441227</v>
+      </c>
+      <c r="M65" s="1">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="N65" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="T65" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U65" s="17"/>
-    </row>
-    <row r="66" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W65" s="18">
+        <f>[1]!WSD($B65,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X65" s="1">
+        <v>5542563</v>
+      </c>
+      <c r="Y65" s="1">
+        <f t="shared" si="16"/>
+        <v>9.9469818645508639</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B66" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="29">
+        <v>1</v>
+      </c>
+      <c r="E66" s="29">
+        <v>12355</v>
+      </c>
+      <c r="F66" s="30">
+        <v>43136</v>
+      </c>
+      <c r="G66" s="31">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="H66" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="39">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="J66" s="45">
+        <f t="shared" ref="J66" si="21">IF(H66="N",1,IF(C66=H66,2,0.5))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K66" s="39">
+        <f>SUM($I$62:$I$66)/SUM($J$62:$J$66)*J66</f>
+        <v>4.7100000000000006E-3</v>
+      </c>
+      <c r="L66" s="1">
+        <f t="shared" si="19"/>
+        <v>1.4086322104411171</v>
+      </c>
+      <c r="M66" s="1">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="N66" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="T66" s="9" t="str">
-        <f t="shared" ref="T66:T129" si="15">IF(Q66="","",D66*(Q66-E66)*W66)</f>
+        <f t="shared" ref="T66:T129" si="22">IF(Q66="","",D66*(Q66-E66)*W66)</f>
         <v/>
       </c>
       <c r="U66" s="17"/>
-    </row>
-    <row r="67" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W66" s="18">
+        <f>[1]!WSD($B66,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X66" s="1">
+        <v>5542564</v>
+      </c>
+      <c r="Y66" s="1">
+        <f t="shared" si="16"/>
+        <v>1.0168470308916768</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B67" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="29">
+        <v>-2</v>
+      </c>
+      <c r="E67" s="29">
+        <v>2151</v>
+      </c>
+      <c r="F67" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G67" s="31">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H67" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I67" s="39">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="J67" s="45">
+        <f>IF(H67="N",1,IF(C67=H67,2,0.5))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K67" s="39">
+        <f>SUM($I$67:$I$71)/SUM($J$67:$J$71)*J67</f>
+        <v>8.0333333333333316E-3</v>
+      </c>
+      <c r="L67" s="1">
+        <f>-(X67*K67)/(W67*E67*0.15)</f>
+        <v>-1.3799867400175625</v>
+      </c>
+      <c r="M67" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="N67" s="1">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="T67" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="U67" s="17"/>
+      <c r="W67" s="18">
+        <f>[1]!WSD($B67,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X67" s="1">
+        <v>5542565</v>
+      </c>
+      <c r="Y67" s="1">
+        <f t="shared" si="16"/>
+        <v>1.9926779482411279</v>
+      </c>
+    </row>
+    <row r="68" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B68" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="29">
+        <v>-9</v>
+      </c>
+      <c r="E68" s="29">
+        <v>3939</v>
+      </c>
+      <c r="F68" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G68" s="31">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H68" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I68" s="39">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="J68" s="45">
+        <f t="shared" ref="J68:J71" si="23">IF(H68="N",1,IF(C68=H68,2,0.5))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K68" s="39">
+        <f t="shared" ref="K68:K71" si="24">SUM($I$67:$I$71)/SUM($J$67:$J$71)*J68</f>
+        <v>8.0333333333333316E-3</v>
+      </c>
+      <c r="L68" s="1">
+        <f>-(X68*K68)/(W68*E68*0.15)</f>
+        <v>-7.5358009985613936</v>
+      </c>
+      <c r="M68" s="1">
+        <f t="shared" si="20"/>
+        <v>-8</v>
+      </c>
+      <c r="N68" s="1">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="U67" s="17"/>
-    </row>
-    <row r="68" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
       <c r="T68" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="U68" s="17"/>
+      <c r="W68" s="18">
+        <f>[1]!WSD($B68,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X68" s="1">
+        <v>5542566</v>
+      </c>
+      <c r="Y68" s="1">
+        <f t="shared" si="16"/>
+        <v>9.0054385376999235</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B69" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="29">
+        <v>-13</v>
+      </c>
+      <c r="E69" s="32">
+        <v>2336</v>
+      </c>
+      <c r="F69" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G69" s="31">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H69" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69" s="39">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="J69" s="45">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="K69" s="39">
+        <f t="shared" si="24"/>
+        <v>8.0333333333333316E-3</v>
+      </c>
+      <c r="L69" s="1">
+        <f>-(X69*K69)/(W69*E69*0.15)</f>
+        <v>-12.706988651065446</v>
+      </c>
+      <c r="M69" s="1">
+        <f>ROUND(L69,0)+2</f>
+        <v>-11</v>
+      </c>
+      <c r="N69" s="1">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="U68" s="17"/>
-    </row>
-    <row r="69" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
       <c r="T69" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="U69" s="17"/>
+      <c r="W69" s="18">
+        <f>[1]!WSD($B69,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X69" s="1">
+        <v>5542567</v>
+      </c>
+      <c r="Y69" s="1">
+        <f t="shared" si="16"/>
+        <v>12.970619121004567</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B70" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="29">
+        <v>0</v>
+      </c>
+      <c r="E70" s="32">
+        <v>5660</v>
+      </c>
+      <c r="F70" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G70" s="31">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H70" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" s="39">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="J70" s="45">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="K70" s="39">
+        <f t="shared" si="24"/>
+        <v>1.6066666666666663E-2</v>
+      </c>
+      <c r="L70" s="1">
+        <f>-(X70*K70)/(W70*E70*0.15)</f>
+        <v>-10.488880157047504</v>
+      </c>
+      <c r="M70" s="1">
+        <f t="shared" ref="M70" si="25">ROUND(L70,0)</f>
+        <v>-10</v>
+      </c>
+      <c r="N70" s="1">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="U69" s="17"/>
-    </row>
-    <row r="70" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+        <v>-10</v>
+      </c>
       <c r="T70" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="U70" s="17"/>
+      <c r="W70" s="18">
+        <f>[1]!WSD($B70,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X70" s="1">
+        <v>5542568</v>
+      </c>
+      <c r="Y70" s="1">
+        <f t="shared" si="16"/>
+        <v>6.4630651590106014</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B71" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" s="16">
+        <v>-3</v>
+      </c>
+      <c r="E71" s="16">
+        <v>1367</v>
+      </c>
+      <c r="F71" s="33">
+        <v>43129</v>
+      </c>
+      <c r="G71" s="34">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H71" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" s="40">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="J71" s="46">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="K71" s="40">
+        <f t="shared" si="24"/>
+        <v>8.0333333333333316E-3</v>
+      </c>
+      <c r="L71" s="6">
+        <f>-(X71*K71)/(W71*E71*0.15)</f>
+        <v>-3.6190607412826132</v>
+      </c>
+      <c r="M71" s="6">
+        <f>ROUND(L71,0)+1</f>
+        <v>-3</v>
+      </c>
+      <c r="N71" s="6">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="U70" s="17"/>
-    </row>
-    <row r="71" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
       <c r="T71" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U71" s="17"/>
-    </row>
-    <row r="72" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W71" s="18">
+        <f>[1]!WSD($B71,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X71" s="1">
+        <v>5542569</v>
+      </c>
+      <c r="Y71" s="1">
+        <f t="shared" si="16"/>
+        <v>4.0094988295537677</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T72" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U72" s="17"/>
     </row>
-    <row r="73" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T73" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U73" s="17"/>
     </row>
-    <row r="74" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T74" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U74" s="17"/>
     </row>
-    <row r="75" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T75" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U75" s="17"/>
     </row>
-    <row r="76" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T76" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U76" s="17"/>
     </row>
-    <row r="77" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T77" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U77" s="17"/>
     </row>
-    <row r="78" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T78" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U78" s="17"/>
     </row>
-    <row r="79" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T79" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U79" s="17"/>
     </row>
-    <row r="80" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T80" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U80" s="17"/>
     </row>
     <row r="81" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T81" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U81" s="17"/>
     </row>
     <row r="82" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T82" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U82" s="17"/>
     </row>
     <row r="83" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T83" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U83" s="17"/>
     </row>
     <row r="84" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T84" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U84" s="17"/>
     </row>
     <row r="85" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T85" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U85" s="17"/>
     </row>
     <row r="86" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T86" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U86" s="17"/>
     </row>
     <row r="87" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T87" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U87" s="17"/>
     </row>
     <row r="88" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T88" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U88" s="17"/>
     </row>
     <row r="89" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T89" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U89" s="17"/>
     </row>
     <row r="90" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T90" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U90" s="17"/>
     </row>
     <row r="91" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T91" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U91" s="17"/>
     </row>
     <row r="92" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T92" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U92" s="17"/>
     </row>
     <row r="93" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T93" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U93" s="17"/>
     </row>
     <row r="94" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T94" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U94" s="17"/>
     </row>
     <row r="95" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T95" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U95" s="17"/>
     </row>
     <row r="96" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T96" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U96" s="17"/>
     </row>
     <row r="97" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T97" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U97" s="17"/>
     </row>
     <row r="98" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T98" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U98" s="17"/>
     </row>
     <row r="99" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T99" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U99" s="17"/>
     </row>
     <row r="100" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T100" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U100" s="17"/>
     </row>
     <row r="101" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T101" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U101" s="17"/>
     </row>
     <row r="102" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T102" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U102" s="17"/>
     </row>
     <row r="103" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T103" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U103" s="17"/>
     </row>
     <row r="104" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T104" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U104" s="17"/>
     </row>
     <row r="105" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T105" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U105" s="17"/>
     </row>
     <row r="106" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T106" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U106" s="17"/>
     </row>
     <row r="107" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T107" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U107" s="17"/>
     </row>
     <row r="108" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T108" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U108" s="17"/>
     </row>
     <row r="109" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T109" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U109" s="17"/>
     </row>
     <row r="110" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T110" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U110" s="17"/>
     </row>
     <row r="111" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T111" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U111" s="17"/>
     </row>
     <row r="112" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T112" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U112" s="17"/>
     </row>
     <row r="113" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T113" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U113" s="17"/>
     </row>
     <row r="114" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T114" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U114" s="17"/>
     </row>
     <row r="115" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T115" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U115" s="17"/>
     </row>
     <row r="116" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T116" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U116" s="17"/>
     </row>
     <row r="117" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T117" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U117" s="17"/>
     </row>
     <row r="118" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T118" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U118" s="17"/>
     </row>
     <row r="119" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T119" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U119" s="17"/>
     </row>
     <row r="120" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T120" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U120" s="17"/>
     </row>
     <row r="121" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T121" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U121" s="17"/>
     </row>
     <row r="122" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T122" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U122" s="17"/>
     </row>
     <row r="123" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T123" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U123" s="17"/>
     </row>
     <row r="124" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T124" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U124" s="17"/>
     </row>
     <row r="125" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T125" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U125" s="17"/>
     </row>
     <row r="126" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T126" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U126" s="17"/>
     </row>
     <row r="127" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T127" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U127" s="17"/>
     </row>
     <row r="128" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T128" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U128" s="17"/>
     </row>
     <row r="129" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T129" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U129" s="17"/>
     </row>
     <row r="130" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T130" s="9" t="str">
-        <f t="shared" ref="T130:T193" si="16">IF(Q130="","",D130*(Q130-E130)*W130)</f>
+        <f t="shared" ref="T130:T193" si="26">IF(Q130="","",D130*(Q130-E130)*W130)</f>
         <v/>
       </c>
       <c r="U130" s="17"/>
     </row>
     <row r="131" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T131" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U131" s="17"/>
     </row>
     <row r="132" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T132" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U132" s="17"/>
     </row>
     <row r="133" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T133" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U133" s="17"/>
     </row>
     <row r="134" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T134" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U134" s="17"/>
     </row>
     <row r="135" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T135" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U135" s="17"/>
     </row>
     <row r="136" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T136" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U136" s="17"/>
     </row>
     <row r="137" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T137" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U137" s="17"/>
     </row>
     <row r="138" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T138" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U138" s="17"/>
     </row>
     <row r="139" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T139" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U139" s="17"/>
     </row>
     <row r="140" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T140" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U140" s="17"/>
     </row>
     <row r="141" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T141" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U141" s="17"/>
     </row>
     <row r="142" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T142" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U142" s="17"/>
     </row>
     <row r="143" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T143" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U143" s="17"/>
     </row>
     <row r="144" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T144" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U144" s="17"/>
     </row>
     <row r="145" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T145" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U145" s="17"/>
     </row>
     <row r="146" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T146" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U146" s="17"/>
     </row>
     <row r="147" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T147" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U147" s="17"/>
     </row>
     <row r="148" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T148" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U148" s="17"/>
     </row>
     <row r="149" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T149" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U149" s="17"/>
     </row>
     <row r="150" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T150" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U150" s="17"/>
     </row>
     <row r="151" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T151" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U151" s="17"/>
     </row>
     <row r="152" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T152" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U152" s="17"/>
     </row>
     <row r="153" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T153" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U153" s="17"/>
     </row>
     <row r="154" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T154" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U154" s="17"/>
     </row>
     <row r="155" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T155" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U155" s="17"/>
     </row>
     <row r="156" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T156" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U156" s="17"/>
     </row>
     <row r="157" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T157" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U157" s="17"/>
     </row>
     <row r="158" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T158" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U158" s="17"/>
     </row>
     <row r="159" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T159" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U159" s="17"/>
     </row>
     <row r="160" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T160" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U160" s="17"/>
     </row>
     <row r="161" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T161" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U161" s="17"/>
     </row>
     <row r="162" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T162" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U162" s="17"/>
     </row>
     <row r="163" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T163" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U163" s="17"/>
     </row>
     <row r="164" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T164" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U164" s="17"/>
     </row>
     <row r="165" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T165" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U165" s="17"/>
     </row>
     <row r="166" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T166" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U166" s="17"/>
     </row>
     <row r="167" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T167" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U167" s="17"/>
     </row>
     <row r="168" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T168" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U168" s="17"/>
     </row>
     <row r="169" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T169" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U169" s="17"/>
     </row>
     <row r="170" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T170" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U170" s="17"/>
     </row>
     <row r="171" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T171" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U171" s="17"/>
     </row>
     <row r="172" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T172" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U172" s="17"/>
     </row>
     <row r="173" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T173" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U173" s="17"/>
     </row>
     <row r="174" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T174" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U174" s="17"/>
     </row>
     <row r="175" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T175" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U175" s="17"/>
     </row>
     <row r="176" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T176" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U176" s="17"/>
     </row>
     <row r="177" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T177" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U177" s="17"/>
     </row>
     <row r="178" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T178" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U178" s="17"/>
     </row>
     <row r="179" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T179" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U179" s="17"/>
     </row>
     <row r="180" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T180" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U180" s="17"/>
     </row>
     <row r="181" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T181" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U181" s="17"/>
     </row>
     <row r="182" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T182" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U182" s="17"/>
     </row>
     <row r="183" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T183" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U183" s="17"/>
     </row>
     <row r="184" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T184" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U184" s="17"/>
     </row>
     <row r="185" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T185" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U185" s="17"/>
     </row>
     <row r="186" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T186" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U186" s="17"/>
     </row>
     <row r="187" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T187" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U187" s="17"/>
     </row>
     <row r="188" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T188" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U188" s="17"/>
     </row>
     <row r="189" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T189" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U189" s="17"/>
     </row>
     <row r="190" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T190" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U190" s="17"/>
     </row>
     <row r="191" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T191" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U191" s="17"/>
     </row>
     <row r="192" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T192" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U192" s="17"/>
     </row>
     <row r="193" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T193" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U193" s="17"/>
     </row>
     <row r="194" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T194" s="9" t="str">
-        <f t="shared" ref="T194:T257" si="17">IF(Q194="","",D194*(Q194-E194)*W194)</f>
+        <f t="shared" ref="T194:T257" si="27">IF(Q194="","",D194*(Q194-E194)*W194)</f>
         <v/>
       </c>
       <c r="U194" s="17"/>
     </row>
     <row r="195" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T195" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U195" s="17"/>
     </row>
     <row r="196" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T196" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U196" s="17"/>
     </row>
     <row r="197" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T197" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U197" s="17"/>
     </row>
     <row r="198" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T198" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U198" s="17"/>
     </row>
     <row r="199" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T199" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U199" s="17"/>
     </row>
     <row r="200" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T200" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U200" s="17"/>
     </row>
     <row r="201" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T201" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U201" s="17"/>
     </row>
     <row r="202" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T202" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U202" s="17"/>
     </row>
     <row r="203" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T203" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U203" s="17"/>
     </row>
     <row r="204" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T204" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U204" s="17"/>
     </row>
     <row r="205" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T205" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U205" s="17"/>
     </row>
     <row r="206" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T206" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U206" s="17"/>
     </row>
     <row r="207" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T207" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U207" s="17"/>
     </row>
     <row r="208" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T208" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U208" s="17"/>
     </row>
     <row r="209" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T209" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U209" s="17"/>
     </row>
     <row r="210" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T210" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U210" s="17"/>
     </row>
     <row r="211" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T211" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U211" s="17"/>
     </row>
     <row r="212" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T212" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U212" s="17"/>
     </row>
     <row r="213" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T213" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U213" s="17"/>
     </row>
     <row r="214" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T214" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U214" s="17"/>
     </row>
     <row r="215" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T215" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U215" s="17"/>
     </row>
     <row r="216" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T216" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U216" s="17"/>
     </row>
     <row r="217" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T217" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U217" s="17"/>
     </row>
     <row r="218" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T218" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U218" s="17"/>
     </row>
     <row r="219" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T219" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U219" s="17"/>
     </row>
     <row r="220" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T220" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U220" s="17"/>
     </row>
     <row r="221" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T221" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U221" s="17"/>
     </row>
     <row r="222" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T222" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U222" s="17"/>
     </row>
     <row r="223" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T223" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U223" s="17"/>
     </row>
     <row r="224" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T224" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U224" s="17"/>
     </row>
     <row r="225" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T225" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U225" s="17"/>
     </row>
     <row r="226" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T226" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U226" s="17"/>
     </row>
     <row r="227" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T227" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U227" s="17"/>
     </row>
     <row r="228" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T228" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U228" s="17"/>
     </row>
     <row r="229" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T229" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U229" s="17"/>
     </row>
     <row r="230" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T230" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U230" s="17"/>
     </row>
     <row r="231" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T231" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U231" s="17"/>
     </row>
     <row r="232" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T232" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U232" s="17"/>
     </row>
     <row r="233" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T233" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U233" s="17"/>
     </row>
     <row r="234" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T234" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U234" s="17"/>
     </row>
     <row r="235" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T235" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U235" s="17"/>
     </row>
     <row r="236" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T236" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U236" s="17"/>
     </row>
     <row r="237" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T237" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U237" s="17"/>
     </row>
     <row r="238" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T238" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U238" s="17"/>
     </row>
     <row r="239" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T239" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U239" s="17"/>
     </row>
     <row r="240" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T240" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U240" s="17"/>
     </row>
     <row r="241" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T241" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U241" s="17"/>
     </row>
     <row r="242" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T242" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U242" s="17"/>
     </row>
     <row r="243" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T243" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U243" s="17"/>
     </row>
     <row r="244" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T244" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U244" s="17"/>
     </row>
     <row r="245" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T245" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U245" s="17"/>
     </row>
     <row r="246" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T246" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U246" s="17"/>
     </row>
     <row r="247" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T247" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U247" s="17"/>
     </row>
     <row r="248" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T248" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U248" s="17"/>
     </row>
     <row r="249" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T249" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U249" s="17"/>
     </row>
     <row r="250" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T250" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U250" s="17"/>
     </row>
     <row r="251" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T251" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U251" s="17"/>
     </row>
     <row r="252" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T252" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U252" s="17"/>
     </row>
     <row r="253" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T253" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U253" s="17"/>
     </row>
     <row r="254" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T254" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U254" s="17"/>
     </row>
     <row r="255" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T255" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U255" s="17"/>
     </row>
     <row r="256" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T256" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
     </row>
     <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T257" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U257" s="17"/>
     </row>
     <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T258" s="9" t="str">
-        <f t="shared" ref="T258:T321" si="18">IF(Q258="","",D258*(Q258-E258)*W258)</f>
+        <f t="shared" ref="T258:T321" si="28">IF(Q258="","",D258*(Q258-E258)*W258)</f>
         <v/>
       </c>
       <c r="U258" s="17"/>
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" ref="T322:T347" si="19">IF(Q322="","",D322*(Q322-E322)*W322)</f>
+        <f t="shared" ref="T322:T347" si="29">IF(Q322="","",D322*(Q322-E322)*W322)</f>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="U347" s="17"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="净值" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="58">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -242,6 +242,14 @@
   </si>
   <si>
     <t>Y1805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I1805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -602,11 +610,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="653718304"/>
-        <c:axId val="653718864"/>
+        <c:axId val="263559488"/>
+        <c:axId val="263560608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="653718304"/>
+        <c:axId val="263559488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -649,14 +657,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653718864"/>
+        <c:crossAx val="263560608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="653718864"/>
+        <c:axId val="263560608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -707,7 +715,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653718304"/>
+        <c:crossAx val="263559488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1710,7 +1718,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C3:C12" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C12" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -1808,6 +1816,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1825,8 +1834,8 @@
   <dimension ref="A1:AG6644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5423,7 +5432,7 @@
         <v>11.0325336839934</v>
       </c>
     </row>
-    <row r="65" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B65" s="29" t="s">
         <v>26</v>
       </c>
@@ -5485,7 +5494,7 @@
         <v>9.9469818645508639</v>
       </c>
     </row>
-    <row r="66" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B66" s="29" t="s">
         <v>19</v>
       </c>
@@ -5547,7 +5556,7 @@
         <v>1.0168470308916768</v>
       </c>
     </row>
-    <row r="67" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B67" s="29" t="s">
         <v>20</v>
       </c>
@@ -5609,7 +5618,7 @@
         <v>1.9926779482411279</v>
       </c>
     </row>
-    <row r="68" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B68" s="29" t="s">
         <v>21</v>
       </c>
@@ -5671,7 +5680,7 @@
         <v>9.0054385376999235</v>
       </c>
     </row>
-    <row r="69" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B69" s="29" t="s">
         <v>51</v>
       </c>
@@ -5733,7 +5742,7 @@
         <v>12.970619121004567</v>
       </c>
     </row>
-    <row r="70" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B70" s="29" t="s">
         <v>55</v>
       </c>
@@ -5795,7 +5804,7 @@
         <v>6.4630651590106014</v>
       </c>
     </row>
-    <row r="71" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B71" s="16" t="s">
         <v>24</v>
       </c>
@@ -5857,175 +5866,728 @@
         <v>4.0094988295537677</v>
       </c>
     </row>
-    <row r="72" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="27">
+        <v>43143</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="29">
+        <v>6</v>
+      </c>
+      <c r="E72" s="29">
+        <v>2844</v>
+      </c>
+      <c r="F72" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G72" s="31">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H72" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" s="39">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="J72" s="45">
+        <f>IF(H72="N",1,IF(C72=H72,2,0.5))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K72" s="39">
+        <f>SUM($I$72:$I$76)/SUM($J$72:$J$76)*J72</f>
+        <v>4.7100000000000006E-3</v>
+      </c>
+      <c r="L72" s="1">
+        <f>(X72*K72)/(W72*E72*0.15)</f>
+        <v>6.119433825597751</v>
+      </c>
+      <c r="M72" s="1">
+        <f>ROUND(L72,0)</f>
+        <v>6</v>
+      </c>
+      <c r="N72" s="1">
+        <f t="shared" ref="N72:N81" si="26">M72-D72</f>
+        <v>0</v>
+      </c>
       <c r="T72" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U72" s="17"/>
-    </row>
-    <row r="73" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W72" s="18">
+        <f>[1]!WSD($B72,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X72" s="1">
+        <v>5542570</v>
+      </c>
+      <c r="Y72" s="1">
+        <f t="shared" ref="Y72:Y81" si="27">X72*I72/(E72*W72*0.15)</f>
+        <v>5.8465928270042191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B73" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="29">
+        <v>19</v>
+      </c>
+      <c r="E73" s="29">
+        <v>1824</v>
+      </c>
+      <c r="F73" s="30">
+        <v>43131</v>
+      </c>
+      <c r="G73" s="31">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="H73" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I73" s="39">
+        <v>1.04E-2</v>
+      </c>
+      <c r="J73" s="45">
+        <f t="shared" ref="J73:J74" si="28">IF(H73="N",1,IF(C73=H73,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K73" s="39">
+        <f t="shared" ref="K73:K76" si="29">SUM($I$72:$I$76)/SUM($J$72:$J$76)*J73</f>
+        <v>9.4200000000000013E-3</v>
+      </c>
+      <c r="L73" s="1">
+        <f t="shared" ref="L73:L76" si="30">(X73*K73)/(W73*E73*0.15)</f>
+        <v>19.082974714912282</v>
+      </c>
+      <c r="M73" s="1">
+        <f>ROUND(L73,0)</f>
+        <v>19</v>
+      </c>
+      <c r="N73" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="T73" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U73" s="17"/>
-    </row>
-    <row r="74" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W73" s="18">
+        <f>[1]!WSD($B73,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X73" s="1">
+        <v>5542571</v>
+      </c>
+      <c r="Y73" s="1">
+        <f t="shared" si="27"/>
+        <v>21.068252339181285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B74" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="29">
+        <v>11</v>
+      </c>
+      <c r="E74" s="29">
+        <v>646.4</v>
+      </c>
+      <c r="F74" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G74" s="31">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H74" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" s="39">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="J74" s="45">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="K74" s="39">
+        <f t="shared" si="29"/>
+        <v>1.8840000000000003E-2</v>
+      </c>
+      <c r="L74" s="1">
+        <f t="shared" si="30"/>
+        <v>10.769601534653466</v>
+      </c>
+      <c r="M74" s="1">
+        <f t="shared" ref="M74:M78" si="31">ROUND(L74,0)</f>
+        <v>11</v>
+      </c>
+      <c r="N74" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="T74" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U74" s="17"/>
-    </row>
-    <row r="75" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W74" s="18">
+        <f>[1]!WSD($B74,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X74" s="1">
+        <v>5542572</v>
+      </c>
+      <c r="Y74" s="1">
+        <f t="shared" si="27"/>
+        <v>11.032553589108911</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B75" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="29">
+        <v>10</v>
+      </c>
+      <c r="E75" s="29">
+        <v>3529</v>
+      </c>
+      <c r="F75" s="30">
+        <v>43131</v>
+      </c>
+      <c r="G75" s="31">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="H75" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" s="39">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="J75" s="45">
+        <f>IF(H75="N",1,IF(C75=H75,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K75" s="39">
+        <f t="shared" si="29"/>
+        <v>9.4200000000000013E-3</v>
+      </c>
+      <c r="L75" s="1">
+        <f t="shared" si="30"/>
+        <v>9.863235602153587</v>
+      </c>
+      <c r="M75" s="1">
+        <f t="shared" si="31"/>
+        <v>10</v>
+      </c>
+      <c r="N75" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="T75" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U75" s="17"/>
-    </row>
-    <row r="76" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W75" s="18">
+        <f>[1]!WSD($B75,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X75" s="1">
+        <v>5542573</v>
+      </c>
+      <c r="Y75" s="1">
+        <f t="shared" si="27"/>
+        <v>9.9469998110890714</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B76" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="29">
+        <v>1</v>
+      </c>
+      <c r="E76" s="29">
+        <v>12355</v>
+      </c>
+      <c r="F76" s="30">
+        <v>43136</v>
+      </c>
+      <c r="G76" s="31">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="H76" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="39">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="J76" s="45">
+        <f t="shared" ref="J76" si="32">IF(H76="N",1,IF(C76=H76,2,0.5))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K76" s="39">
+        <f t="shared" si="29"/>
+        <v>4.7100000000000006E-3</v>
+      </c>
+      <c r="L76" s="1">
+        <f t="shared" si="30"/>
+        <v>1.4086347519222988</v>
+      </c>
+      <c r="M76" s="1">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="N76" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="T76" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U76" s="17"/>
-    </row>
-    <row r="77" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W76" s="18">
+        <f>[1]!WSD($B76,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X76" s="1">
+        <v>5542574</v>
+      </c>
+      <c r="Y76" s="1">
+        <f t="shared" si="27"/>
+        <v>1.0168488655065426</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B77" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E77" s="29">
+        <v>2151</v>
+      </c>
+      <c r="F77" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G77" s="31">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H77" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" s="39">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="J77" s="45">
+        <f>IF(H77="N",1,IF(C77=H77,2,0.5))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K77" s="39">
+        <f>SUM($I$77:$I$81)/SUM($J$77:$J$81)*J77</f>
+        <v>8.0333333333333316E-3</v>
+      </c>
+      <c r="L77" s="1">
+        <f>-(X77*K77)/(W77*E77*0.15)</f>
+        <v>-1.3799892298155894</v>
+      </c>
+      <c r="M77" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="N77" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="T77" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U77" s="17"/>
-    </row>
-    <row r="78" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W77" s="18">
+        <f>[1]!WSD($B77,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X77" s="1">
+        <v>5542575</v>
+      </c>
+      <c r="Y77" s="1">
+        <f t="shared" si="27"/>
+        <v>1.9926815434681542</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B78" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" s="29">
+        <v>-8</v>
+      </c>
+      <c r="E78" s="29">
+        <v>3939</v>
+      </c>
+      <c r="F78" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G78" s="31">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H78" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I78" s="39">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="J78" s="45">
+        <f t="shared" ref="J78:J81" si="33">IF(H78="N",1,IF(C78=H78,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K78" s="39">
+        <f t="shared" ref="K78:K81" si="34">SUM($I$77:$I$81)/SUM($J$77:$J$81)*J78</f>
+        <v>1.6066666666666663E-2</v>
+      </c>
+      <c r="L78" s="1">
+        <f>-(X78*K78)/(W78*E78*0.15)</f>
+        <v>-15.071629189585623</v>
+      </c>
+      <c r="M78" s="1">
+        <f t="shared" si="31"/>
+        <v>-15</v>
+      </c>
+      <c r="N78" s="1">
+        <f t="shared" si="26"/>
+        <v>-7</v>
+      </c>
       <c r="T78" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U78" s="17"/>
-    </row>
-    <row r="79" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W78" s="18">
+        <f>[1]!WSD($B78,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X78" s="1">
+        <v>5542576</v>
+      </c>
+      <c r="Y78" s="1">
+        <f t="shared" si="27"/>
+        <v>9.0054547854785483</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B79" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" s="29">
+        <v>-11</v>
+      </c>
+      <c r="E79" s="32">
+        <v>2336</v>
+      </c>
+      <c r="F79" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G79" s="31">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H79" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I79" s="39">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="J79" s="45">
+        <f t="shared" si="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="K79" s="39">
+        <f t="shared" si="34"/>
+        <v>8.0333333333333316E-3</v>
+      </c>
+      <c r="L79" s="1">
+        <f>-(X79*K79)/(W79*E79*0.15)</f>
+        <v>-12.707011577245051</v>
+      </c>
+      <c r="M79" s="1">
+        <f>ROUND(L79,0)+2</f>
+        <v>-11</v>
+      </c>
+      <c r="N79" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="T79" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U79" s="17"/>
-    </row>
-    <row r="80" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W79" s="18">
+        <f>[1]!WSD($B79,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X79" s="1">
+        <v>5542577</v>
+      </c>
+      <c r="Y79" s="1">
+        <f t="shared" si="27"/>
+        <v>12.970642522831051</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B80" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="29">
+        <v>0</v>
+      </c>
+      <c r="E80" s="32">
+        <v>521.5</v>
+      </c>
+      <c r="F80" s="30">
+        <v>43129</v>
+      </c>
+      <c r="G80" s="31">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H80" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" s="39">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="J80" s="45">
+        <f t="shared" si="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="K80" s="39">
+        <f t="shared" si="34"/>
+        <v>8.0333333333333316E-3</v>
+      </c>
+      <c r="L80" s="1">
+        <f>-(X80*K80)/(W80*E80*0.15)</f>
+        <v>-5.6919624928092025</v>
+      </c>
+      <c r="M80" s="1">
+        <f t="shared" ref="M80" si="35">ROUND(L80,0)</f>
+        <v>-6</v>
+      </c>
+      <c r="N80" s="1">
+        <f t="shared" si="26"/>
+        <v>-6</v>
+      </c>
       <c r="T80" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U80" s="17"/>
-    </row>
-    <row r="81" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W80" s="18">
+        <f>[1]!WSD($B80,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X80" s="1">
+        <v>5542578</v>
+      </c>
+      <c r="Y80" s="1">
+        <f t="shared" si="27"/>
+        <v>7.0145761840843726</v>
+      </c>
+    </row>
+    <row r="81" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B81" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="16">
+        <v>-3</v>
+      </c>
+      <c r="E81" s="16">
+        <v>1367</v>
+      </c>
+      <c r="F81" s="33">
+        <v>43129</v>
+      </c>
+      <c r="G81" s="34">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="H81" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I81" s="40">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="J81" s="46">
+        <f t="shared" si="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="K81" s="40">
+        <f t="shared" si="34"/>
+        <v>8.0333333333333316E-3</v>
+      </c>
+      <c r="L81" s="6">
+        <f>-(X81*K81)/(W81*E81*0.15)</f>
+        <v>-3.619067270855346</v>
+      </c>
+      <c r="M81" s="6">
+        <f>ROUND(L81,0)+1</f>
+        <v>-3</v>
+      </c>
+      <c r="N81" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="T81" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U81" s="17"/>
-    </row>
-    <row r="82" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W81" s="18">
+        <f>[1]!WSD($B81,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X81" s="1">
+        <v>5542579</v>
+      </c>
+      <c r="Y81" s="1">
+        <f t="shared" si="27"/>
+        <v>4.0095060635617328</v>
+      </c>
+    </row>
+    <row r="82" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T82" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U82" s="17"/>
     </row>
-    <row r="83" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T83" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U83" s="17"/>
     </row>
-    <row r="84" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T84" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U84" s="17"/>
     </row>
-    <row r="85" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T85" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U85" s="17"/>
     </row>
-    <row r="86" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T86" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U86" s="17"/>
     </row>
-    <row r="87" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T87" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U87" s="17"/>
     </row>
-    <row r="88" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T88" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U88" s="17"/>
     </row>
-    <row r="89" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T89" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U89" s="17"/>
     </row>
-    <row r="90" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T90" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U90" s="17"/>
     </row>
-    <row r="91" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T91" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U91" s="17"/>
     </row>
-    <row r="92" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T92" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U92" s="17"/>
     </row>
-    <row r="93" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T93" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U93" s="17"/>
     </row>
-    <row r="94" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T94" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U94" s="17"/>
     </row>
-    <row r="95" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T95" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U95" s="17"/>
     </row>
-    <row r="96" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T96" s="9" t="str">
         <f t="shared" si="22"/>
         <v/>
@@ -6265,1526 +6827,1526 @@
     </row>
     <row r="130" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T130" s="9" t="str">
-        <f t="shared" ref="T130:T193" si="26">IF(Q130="","",D130*(Q130-E130)*W130)</f>
+        <f t="shared" ref="T130:T193" si="36">IF(Q130="","",D130*(Q130-E130)*W130)</f>
         <v/>
       </c>
       <c r="U130" s="17"/>
     </row>
     <row r="131" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T131" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U131" s="17"/>
     </row>
     <row r="132" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T132" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U132" s="17"/>
     </row>
     <row r="133" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T133" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U133" s="17"/>
     </row>
     <row r="134" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T134" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U134" s="17"/>
     </row>
     <row r="135" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T135" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U135" s="17"/>
     </row>
     <row r="136" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T136" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U136" s="17"/>
     </row>
     <row r="137" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T137" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U137" s="17"/>
     </row>
     <row r="138" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T138" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U138" s="17"/>
     </row>
     <row r="139" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T139" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U139" s="17"/>
     </row>
     <row r="140" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T140" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U140" s="17"/>
     </row>
     <row r="141" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T141" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U141" s="17"/>
     </row>
     <row r="142" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T142" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U142" s="17"/>
     </row>
     <row r="143" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T143" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U143" s="17"/>
     </row>
     <row r="144" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T144" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U144" s="17"/>
     </row>
     <row r="145" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T145" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U145" s="17"/>
     </row>
     <row r="146" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T146" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U146" s="17"/>
     </row>
     <row r="147" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T147" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U147" s="17"/>
     </row>
     <row r="148" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T148" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U148" s="17"/>
     </row>
     <row r="149" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T149" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U149" s="17"/>
     </row>
     <row r="150" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T150" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U150" s="17"/>
     </row>
     <row r="151" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T151" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U151" s="17"/>
     </row>
     <row r="152" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T152" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U152" s="17"/>
     </row>
     <row r="153" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T153" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U153" s="17"/>
     </row>
     <row r="154" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T154" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U154" s="17"/>
     </row>
     <row r="155" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T155" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U155" s="17"/>
     </row>
     <row r="156" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T156" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U156" s="17"/>
     </row>
     <row r="157" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T157" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U157" s="17"/>
     </row>
     <row r="158" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T158" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U158" s="17"/>
     </row>
     <row r="159" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T159" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U159" s="17"/>
     </row>
     <row r="160" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T160" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U160" s="17"/>
     </row>
     <row r="161" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T161" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U161" s="17"/>
     </row>
     <row r="162" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T162" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U162" s="17"/>
     </row>
     <row r="163" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T163" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U163" s="17"/>
     </row>
     <row r="164" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T164" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U164" s="17"/>
     </row>
     <row r="165" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T165" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U165" s="17"/>
     </row>
     <row r="166" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T166" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U166" s="17"/>
     </row>
     <row r="167" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T167" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U167" s="17"/>
     </row>
     <row r="168" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T168" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U168" s="17"/>
     </row>
     <row r="169" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T169" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U169" s="17"/>
     </row>
     <row r="170" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T170" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U170" s="17"/>
     </row>
     <row r="171" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T171" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U171" s="17"/>
     </row>
     <row r="172" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T172" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U172" s="17"/>
     </row>
     <row r="173" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T173" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U173" s="17"/>
     </row>
     <row r="174" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T174" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U174" s="17"/>
     </row>
     <row r="175" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T175" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U175" s="17"/>
     </row>
     <row r="176" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T176" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U176" s="17"/>
     </row>
     <row r="177" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T177" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U177" s="17"/>
     </row>
     <row r="178" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T178" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U178" s="17"/>
     </row>
     <row r="179" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T179" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U179" s="17"/>
     </row>
     <row r="180" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T180" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U180" s="17"/>
     </row>
     <row r="181" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T181" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U181" s="17"/>
     </row>
     <row r="182" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T182" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U182" s="17"/>
     </row>
     <row r="183" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T183" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U183" s="17"/>
     </row>
     <row r="184" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T184" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U184" s="17"/>
     </row>
     <row r="185" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T185" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U185" s="17"/>
     </row>
     <row r="186" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T186" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U186" s="17"/>
     </row>
     <row r="187" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T187" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U187" s="17"/>
     </row>
     <row r="188" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T188" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U188" s="17"/>
     </row>
     <row r="189" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T189" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U189" s="17"/>
     </row>
     <row r="190" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T190" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U190" s="17"/>
     </row>
     <row r="191" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T191" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U191" s="17"/>
     </row>
     <row r="192" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T192" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U192" s="17"/>
     </row>
     <row r="193" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T193" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U193" s="17"/>
     </row>
     <row r="194" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T194" s="9" t="str">
-        <f t="shared" ref="T194:T257" si="27">IF(Q194="","",D194*(Q194-E194)*W194)</f>
+        <f t="shared" ref="T194:T257" si="37">IF(Q194="","",D194*(Q194-E194)*W194)</f>
         <v/>
       </c>
       <c r="U194" s="17"/>
     </row>
     <row r="195" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T195" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U195" s="17"/>
     </row>
     <row r="196" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T196" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U196" s="17"/>
     </row>
     <row r="197" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T197" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U197" s="17"/>
     </row>
     <row r="198" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T198" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U198" s="17"/>
     </row>
     <row r="199" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T199" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U199" s="17"/>
     </row>
     <row r="200" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T200" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U200" s="17"/>
     </row>
     <row r="201" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T201" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U201" s="17"/>
     </row>
     <row r="202" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T202" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U202" s="17"/>
     </row>
     <row r="203" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T203" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U203" s="17"/>
     </row>
     <row r="204" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T204" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U204" s="17"/>
     </row>
     <row r="205" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T205" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U205" s="17"/>
     </row>
     <row r="206" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T206" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U206" s="17"/>
     </row>
     <row r="207" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T207" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U207" s="17"/>
     </row>
     <row r="208" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T208" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U208" s="17"/>
     </row>
     <row r="209" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T209" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U209" s="17"/>
     </row>
     <row r="210" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T210" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U210" s="17"/>
     </row>
     <row r="211" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T211" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U211" s="17"/>
     </row>
     <row r="212" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T212" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U212" s="17"/>
     </row>
     <row r="213" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T213" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U213" s="17"/>
     </row>
     <row r="214" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T214" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U214" s="17"/>
     </row>
     <row r="215" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T215" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U215" s="17"/>
     </row>
     <row r="216" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T216" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U216" s="17"/>
     </row>
     <row r="217" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T217" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U217" s="17"/>
     </row>
     <row r="218" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T218" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U218" s="17"/>
     </row>
     <row r="219" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T219" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U219" s="17"/>
     </row>
     <row r="220" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T220" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U220" s="17"/>
     </row>
     <row r="221" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T221" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U221" s="17"/>
     </row>
     <row r="222" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T222" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U222" s="17"/>
     </row>
     <row r="223" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T223" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U223" s="17"/>
     </row>
     <row r="224" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T224" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U224" s="17"/>
     </row>
     <row r="225" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T225" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U225" s="17"/>
     </row>
     <row r="226" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T226" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U226" s="17"/>
     </row>
     <row r="227" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T227" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U227" s="17"/>
     </row>
     <row r="228" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T228" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U228" s="17"/>
     </row>
     <row r="229" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T229" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U229" s="17"/>
     </row>
     <row r="230" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T230" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U230" s="17"/>
     </row>
     <row r="231" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T231" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U231" s="17"/>
     </row>
     <row r="232" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T232" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U232" s="17"/>
     </row>
     <row r="233" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T233" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U233" s="17"/>
     </row>
     <row r="234" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T234" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U234" s="17"/>
     </row>
     <row r="235" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T235" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U235" s="17"/>
     </row>
     <row r="236" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T236" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U236" s="17"/>
     </row>
     <row r="237" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T237" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U237" s="17"/>
     </row>
     <row r="238" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T238" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U238" s="17"/>
     </row>
     <row r="239" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T239" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U239" s="17"/>
     </row>
     <row r="240" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T240" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U240" s="17"/>
     </row>
     <row r="241" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T241" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U241" s="17"/>
     </row>
     <row r="242" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T242" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U242" s="17"/>
     </row>
     <row r="243" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T243" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U243" s="17"/>
     </row>
     <row r="244" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T244" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U244" s="17"/>
     </row>
     <row r="245" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T245" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U245" s="17"/>
     </row>
     <row r="246" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T246" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U246" s="17"/>
     </row>
     <row r="247" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T247" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U247" s="17"/>
     </row>
     <row r="248" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T248" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U248" s="17"/>
     </row>
     <row r="249" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T249" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U249" s="17"/>
     </row>
     <row r="250" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T250" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U250" s="17"/>
     </row>
     <row r="251" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T251" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U251" s="17"/>
     </row>
     <row r="252" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T252" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U252" s="17"/>
     </row>
     <row r="253" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T253" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U253" s="17"/>
     </row>
     <row r="254" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T254" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U254" s="17"/>
     </row>
     <row r="255" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T255" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U255" s="17"/>
     </row>
     <row r="256" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T256" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
     </row>
     <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T257" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U257" s="17"/>
     </row>
     <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T258" s="9" t="str">
-        <f t="shared" ref="T258:T321" si="28">IF(Q258="","",D258*(Q258-E258)*W258)</f>
+        <f t="shared" ref="T258:T321" si="38">IF(Q258="","",D258*(Q258-E258)*W258)</f>
         <v/>
       </c>
       <c r="U258" s="17"/>
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" ref="T322:T347" si="29">IF(Q322="","",D322*(Q322-E322)*W322)</f>
+        <f t="shared" ref="T322:T347" si="39">IF(Q322="","",D322*(Q322-E322)*W322)</f>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U347" s="17"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="净值" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="成交记录" sheetId="2" r:id="rId3"/>
+    <sheet name="成交记录" sheetId="2" r:id="rId2"/>
+    <sheet name="持仓" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="96">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -252,6 +252,158 @@
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA 13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB 9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BU 13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JM 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC 11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB 12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y 8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BU 16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JM 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA 12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A 9 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y 9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BU 18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM 13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ZC 11 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB 8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM 11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB 15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -318,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -335,6 +487,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -345,7 +512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -479,6 +646,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -535,10 +719,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$12</c:f>
+              <c:f>净值!$A$5:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -563,15 +747,24 @@
                 <c:pt idx="7">
                   <c:v>43140</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>43143</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43145</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$12</c:f>
+              <c:f>净值!$B$5:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -596,6 +789,15 @@
                 <c:pt idx="7">
                   <c:v>5554791</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>5550851</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5537479</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5517289</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -610,11 +812,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="263559488"/>
-        <c:axId val="263560608"/>
+        <c:axId val="275124112"/>
+        <c:axId val="556016032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="263559488"/>
+        <c:axId val="275124112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -657,14 +859,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263560608"/>
+        <c:crossAx val="556016032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="263560608"/>
+        <c:axId val="556016032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,7 +917,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263559488"/>
+        <c:crossAx val="275124112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1663,16 +1865,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B12"/>
+      <selection activeCell="A6" sqref="A6:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -1718,7 +1921,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C12" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C15" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -1795,15 +1998,56 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="A12" s="14">
         <v>43140</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="48">
         <v>5554791</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="49">
         <f t="shared" si="0"/>
         <v>0.99114272260645198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="27">
+        <v>43143</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5550851</v>
+      </c>
+      <c r="C13" s="51">
+        <f t="shared" si="0"/>
+        <v>0.99043970743863208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="27">
+        <v>43144</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5537479</v>
+      </c>
+      <c r="C14" s="51">
+        <f t="shared" si="0"/>
+        <v>0.98805373819393971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="50">
+        <v>43145</v>
+      </c>
+      <c r="B15" s="48">
+        <v>5517289</v>
+      </c>
+      <c r="C15" s="49">
+        <f t="shared" si="0"/>
+        <v>0.98445123153447689</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="27">
+        <v>43153</v>
       </c>
     </row>
   </sheetData>
@@ -1816,26 +2060,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG6644"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73:D76"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27246,4 +27476,873 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:I52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="27">
+        <v>43132</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="20">
+        <v>13</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="20">
+        <v>21</v>
+      </c>
+      <c r="E2" s="54">
+        <v>43132</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="20">
+        <v>6</v>
+      </c>
+      <c r="E3" s="54">
+        <v>43133</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="20">
+        <v>10</v>
+      </c>
+      <c r="E4" s="54">
+        <v>43136</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="54">
+        <v>43137</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="20">
+        <v>-2</v>
+      </c>
+      <c r="E6" s="54">
+        <v>43138</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="20">
+        <v>-9</v>
+      </c>
+      <c r="E7" s="54">
+        <v>43139</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="20">
+        <v>-6</v>
+      </c>
+      <c r="E8" s="54">
+        <v>43140</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" s="55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="20">
+        <v>-13</v>
+      </c>
+      <c r="E9" s="54">
+        <v>43143</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="28"/>
+      <c r="B10" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="24">
+        <v>-5</v>
+      </c>
+      <c r="E10" s="54">
+        <v>43144</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="27">
+        <v>43136</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="29">
+        <v>7</v>
+      </c>
+      <c r="E11" s="54">
+        <v>43145</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B12" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B13" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B15" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="29">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="29">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="29">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="28"/>
+      <c r="B20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="16">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="27">
+        <v>43137</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="29">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="29">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="29">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="16">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="27">
+        <v>43139</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B32" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="29">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="29">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="29">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="29">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B40" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="16">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="27">
+        <v>43140</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B42" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B43" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B44" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B45" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B47" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="29">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B48" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="29">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B49" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="29">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B50" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="16">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="27">
+        <v>43143</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B52" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B53" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B54" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B55" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B56" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B57" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="29">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B58" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="29">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B59" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="29">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B60" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="16">
+        <v>-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="净值" sheetId="1" r:id="rId1"/>
@@ -654,13 +654,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -812,11 +812,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="275124112"/>
-        <c:axId val="556016032"/>
+        <c:axId val="275937360"/>
+        <c:axId val="547393808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="275124112"/>
+        <c:axId val="275937360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,14 +859,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556016032"/>
+        <c:crossAx val="547393808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="556016032"/>
+        <c:axId val="547393808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,7 +917,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275124112"/>
+        <c:crossAx val="275937360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2063,9 +2063,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG6644"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27482,7 +27482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="G22" sqref="G22:I52"/>
     </sheetView>
   </sheetViews>
@@ -27503,20 +27503,20 @@
         <v>13</v>
       </c>
       <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B2" s="20" t="s">
@@ -27525,37 +27525,37 @@
       <c r="C2" s="20">
         <v>21</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="53">
         <v>43132</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="O2" s="54" t="s">
         <v>69</v>
       </c>
     </row>
@@ -27566,37 +27566,37 @@
       <c r="C3" s="20">
         <v>6</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="53">
         <v>43133</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="54" t="s">
         <v>69</v>
       </c>
     </row>
@@ -27607,37 +27607,37 @@
       <c r="C4" s="20">
         <v>10</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="53">
         <v>43136</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="55" t="s">
+      <c r="N4" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="O4" s="55" t="s">
+      <c r="O4" s="54" t="s">
         <v>78</v>
       </c>
     </row>
@@ -27648,37 +27648,37 @@
       <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="53">
         <v>43137</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="N5" s="55" t="s">
+      <c r="N5" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="O5" s="55" t="s">
+      <c r="O5" s="54" t="s">
         <v>78</v>
       </c>
     </row>
@@ -27689,37 +27689,37 @@
       <c r="C6" s="20">
         <v>-2</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="53">
         <v>43138</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="55" t="s">
+      <c r="L6" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="M6" s="55" t="s">
+      <c r="M6" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="N6" s="55" t="s">
+      <c r="N6" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="O6" s="55" t="s">
+      <c r="O6" s="54" t="s">
         <v>78</v>
       </c>
     </row>
@@ -27730,37 +27730,37 @@
       <c r="C7" s="20">
         <v>-9</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="53">
         <v>43139</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="55" t="s">
+      <c r="J7" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="55" t="s">
+      <c r="L7" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="55" t="s">
+      <c r="M7" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="N7" s="55" t="s">
+      <c r="N7" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="55" t="s">
+      <c r="O7" s="54" t="s">
         <v>78</v>
       </c>
     </row>
@@ -27771,37 +27771,37 @@
       <c r="C8" s="20">
         <v>-6</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="53">
         <v>43140</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="55" t="s">
+      <c r="J8" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="L8" s="55" t="s">
+      <c r="L8" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="55" t="s">
+      <c r="M8" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="N8" s="55" t="s">
+      <c r="N8" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="O8" s="55" t="s">
+      <c r="O8" s="54" t="s">
         <v>78</v>
       </c>
     </row>
@@ -27812,37 +27812,37 @@
       <c r="C9" s="20">
         <v>-13</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="53">
         <v>43143</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="N9" s="55" t="s">
+      <c r="N9" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="54" t="s">
         <v>78</v>
       </c>
     </row>
@@ -27854,37 +27854,37 @@
       <c r="C10" s="24">
         <v>-5</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="53">
         <v>43144</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="H10" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="55" t="s">
+      <c r="J10" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="55" t="s">
+      <c r="K10" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="55" t="s">
+      <c r="L10" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="55" t="s">
+      <c r="M10" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="N10" s="55" t="s">
+      <c r="N10" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="O10" s="55" t="s">
+      <c r="O10" s="54" t="s">
         <v>78</v>
       </c>
     </row>
@@ -27898,37 +27898,37 @@
       <c r="C11" s="29">
         <v>7</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="53">
         <v>43145</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="55" t="s">
+      <c r="J11" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="55" t="s">
+      <c r="L11" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="M11" s="55" t="s">
+      <c r="M11" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="N11" s="55" t="s">
+      <c r="N11" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="O11" s="55" t="s">
+      <c r="O11" s="54" t="s">
         <v>78</v>
       </c>
     </row>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="净值" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="111">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -448,6 +448,22 @@
     <t>新仓位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>MA805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -556,7 +572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -704,9 +720,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,6 +727,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -749,7 +774,64 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>基差策略权益曲线</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -772,10 +854,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$15</c:f>
+              <c:f>净值!$A$5:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -809,15 +891,24 @@
                 <c:pt idx="10">
                   <c:v>43145</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>43153</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43154</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43157</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$15</c:f>
+              <c:f>净值!$B$5:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -851,6 +942,15 @@
                 <c:pt idx="10">
                   <c:v>5517289</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>5511469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5519409</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5512178</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -865,11 +965,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="548008384"/>
-        <c:axId val="474482384"/>
+        <c:axId val="303008720"/>
+        <c:axId val="472638784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="548008384"/>
+        <c:axId val="303008720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,14 +1012,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474482384"/>
+        <c:crossAx val="472638784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474482384"/>
+        <c:axId val="472638784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -970,7 +1070,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548008384"/>
+        <c:crossAx val="303008720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1582,13 +1682,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1918,10 +2018,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1974,7 +2074,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C15" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C18" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2101,6 +2201,42 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="27">
         <v>43153</v>
+      </c>
+      <c r="B16" s="4">
+        <v>5511469</v>
+      </c>
+      <c r="C16" s="51">
+        <f t="shared" si="0"/>
+        <v>0.98341276750485462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="50">
+        <v>43154</v>
+      </c>
+      <c r="B17" s="48">
+        <v>5519409</v>
+      </c>
+      <c r="C17" s="61">
+        <f t="shared" si="0"/>
+        <v>0.98482950365523281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="27">
+        <v>43157</v>
+      </c>
+      <c r="B18" s="4">
+        <v>5512178</v>
+      </c>
+      <c r="C18" s="51">
+        <f t="shared" si="0"/>
+        <v>0.98353927454901313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="27">
+        <v>43158</v>
       </c>
     </row>
   </sheetData>
@@ -2116,9 +2252,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG6644"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q88" sqref="Q88"/>
+      <selection pane="bottomLeft" activeCell="M82" sqref="M82:M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2134,7 +2270,7 @@
     <col min="9" max="9" width="5.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.375" style="42" customWidth="1"/>
     <col min="11" max="11" width="9" style="47"/>
-    <col min="12" max="12" width="10.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="55" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.625" style="47" customWidth="1"/>
     <col min="14" max="14" width="8" style="47" customWidth="1"/>
     <col min="15" max="16" width="10.5" style="47" customWidth="1"/>
@@ -2271,7 +2407,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="9" t="str">
-        <f>IF(Q2="","",D2*(Q2-G2)*W2)</f>
+        <f t="shared" ref="T2:T65" si="0">IF(Q2="","",D2*(Q2-G2)*W2)</f>
         <v/>
       </c>
       <c r="W2" s="18">
@@ -2282,7 +2418,7 @@
         <v>5604431</v>
       </c>
       <c r="Y2" s="1">
-        <f>X2*K2/(G2*W2*0.15)</f>
+        <f t="shared" ref="Y2:Y31" si="1">X2*K2/(G2*W2*0.15)</f>
         <v>13.137437880918894</v>
       </c>
       <c r="Z2" s="10"/>
@@ -2328,7 +2464,7 @@
         <v>0.37847222222222227</v>
       </c>
       <c r="T3" s="9">
-        <f>IF(Q3="","",D3*(Q3-G3)*W3)</f>
+        <f t="shared" si="0"/>
         <v>540</v>
       </c>
       <c r="W3" s="18">
@@ -2339,7 +2475,7 @@
         <v>5604432</v>
       </c>
       <c r="Y3" s="1">
-        <f>X3*K3/(G3*W3*0.15)</f>
+        <f t="shared" si="1"/>
         <v>17.885533748204882</v>
       </c>
     </row>
@@ -2367,7 +2503,7 @@
       <c r="O4" s="36"/>
       <c r="P4" s="36"/>
       <c r="T4" s="9" t="str">
-        <f>IF(Q4="","",D4*(Q4-G4)*W4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W4" s="18">
@@ -2378,7 +2514,7 @@
         <v>5604433</v>
       </c>
       <c r="Y4" s="1">
-        <f>X4*K4/(G4*W4*0.15)</f>
+        <f t="shared" si="1"/>
         <v>5.5123763155306387</v>
       </c>
       <c r="Z4" s="10"/>
@@ -2416,7 +2552,7 @@
         <v>0.37847222222222227</v>
       </c>
       <c r="T5" s="9">
-        <f>IF(Q5="","",D5*(Q5-G5)*W5)</f>
+        <f t="shared" si="0"/>
         <v>-2349.7499999999764</v>
       </c>
       <c r="W5" s="18">
@@ -2427,7 +2563,7 @@
         <v>5604434</v>
       </c>
       <c r="Y5" s="1">
-        <f>X5*K5/(G5*W5*0.15)</f>
+        <f t="shared" si="1"/>
         <v>13.031711180674845</v>
       </c>
       <c r="Z5" s="10"/>
@@ -2465,7 +2601,7 @@
         <v>0.37847222222222227</v>
       </c>
       <c r="T6" s="9">
-        <f>IF(Q6="","",D6*(Q6-G6)*W6)</f>
+        <f t="shared" si="0"/>
         <v>-16350</v>
       </c>
       <c r="W6" s="18">
@@ -2476,7 +2612,7 @@
         <v>5604435</v>
       </c>
       <c r="Y6" s="1">
-        <f>X6*K6/(G6*W6*0.15)</f>
+        <f t="shared" si="1"/>
         <v>2.7104026115342763</v>
       </c>
       <c r="Z6" s="10"/>
@@ -2507,7 +2643,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="9" t="str">
-        <f>IF(Q7="","",D7*(Q7-G7)*W7)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W7" s="18">
@@ -2518,7 +2654,7 @@
         <v>5604436</v>
       </c>
       <c r="Y7" s="1">
-        <f>X7*K7/(G7*W7*0.15)</f>
+        <f t="shared" si="1"/>
         <v>1.8315150326797385</v>
       </c>
       <c r="Z7" s="10"/>
@@ -2549,7 +2685,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="9" t="str">
-        <f>IF(Q8="","",D8*(Q8-G8)*W8)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W8" s="18">
@@ -2560,7 +2696,7 @@
         <v>5604437</v>
       </c>
       <c r="Y8" s="1">
-        <f>X8*K8/(G8*W8*0.15)</f>
+        <f t="shared" si="1"/>
         <v>9.4853803841922666</v>
       </c>
       <c r="Z8" s="10"/>
@@ -2591,7 +2727,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="9" t="str">
-        <f>IF(Q9="","",D9*(Q9-G9)*W9)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W9" s="18">
@@ -2602,7 +2738,7 @@
         <v>5604438</v>
       </c>
       <c r="Y9" s="1">
-        <f>X9*K9/(G9*W9*0.15)</f>
+        <f t="shared" si="1"/>
         <v>6.4330096418732792</v>
       </c>
       <c r="Z9" s="10"/>
@@ -2633,7 +2769,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="9" t="str">
-        <f>IF(Q10="","",D10*(Q10-G10)*W10)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W10" s="18">
@@ -2644,7 +2780,7 @@
         <v>5604439</v>
       </c>
       <c r="Y10" s="1">
-        <f>X10*K10/(G10*W10*0.15)</f>
+        <f t="shared" si="1"/>
         <v>12.82186913749714</v>
       </c>
       <c r="Z10" s="1"/>
@@ -2680,7 +2816,7 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
       <c r="T11" s="16" t="str">
-        <f>IF(Q11="","",D11*(Q11-G11)*W11)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U11" s="6"/>
@@ -2693,7 +2829,7 @@
         <v>5604440</v>
       </c>
       <c r="Y11" s="1">
-        <f>X11*K11/(G11*W11*0.15)</f>
+        <f t="shared" si="1"/>
         <v>4.8123304138760092</v>
       </c>
       <c r="Z11" s="1"/>
@@ -2730,7 +2866,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="9" t="str">
-        <f>IF(Q12="","",D12*(Q12-G12)*W12)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W12" s="18">
@@ -2741,7 +2877,7 @@
         <v>5604441</v>
       </c>
       <c r="Y12" s="1">
-        <f>X12*K12/(G12*W12*0.15)</f>
+        <f t="shared" si="1"/>
         <v>13.137461322081576</v>
       </c>
       <c r="Z12" s="1"/>
@@ -2769,7 +2905,7 @@
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
       <c r="T13" s="9" t="str">
-        <f>IF(Q13="","",D13*(Q13-G13)*W13)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U13" s="17"/>
@@ -2781,7 +2917,7 @@
         <v>5604442</v>
       </c>
       <c r="Y13" s="1">
-        <f>X13*K13/(G13*W13*0.15)</f>
+        <f t="shared" si="1"/>
         <v>20.815012070566386</v>
       </c>
     </row>
@@ -2812,7 +2948,7 @@
       <c r="O14" s="37"/>
       <c r="P14" s="37"/>
       <c r="T14" s="9" t="str">
-        <f>IF(Q14="","",D14*(Q14-G14)*W14)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U14" s="17"/>
@@ -2824,7 +2960,7 @@
         <v>5604443</v>
       </c>
       <c r="Y14" s="1">
-        <f>X14*K14/(G14*W14*0.15)</f>
+        <f t="shared" si="1"/>
         <v>5.5123861512737289</v>
       </c>
     </row>
@@ -2851,7 +2987,7 @@
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
       <c r="T15" s="9" t="str">
-        <f>IF(Q15="","",D15*(Q15-G15)*W15)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U15" s="17"/>
@@ -2863,7 +2999,7 @@
         <v>5604444</v>
       </c>
       <c r="Y15" s="1">
-        <f>X15*K15/(G15*W15*0.15)</f>
+        <f t="shared" si="1"/>
         <v>10.533679165491966</v>
       </c>
     </row>
@@ -2890,7 +3026,7 @@
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
       <c r="T16" s="9" t="str">
-        <f>IF(Q16="","",D16*(Q16-G16)*W16)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U16" s="17"/>
@@ -2902,7 +3038,7 @@
         <v>5604445</v>
       </c>
       <c r="Y16" s="1">
-        <f>X16*K16/(G16*W16*0.15)</f>
+        <f t="shared" si="1"/>
         <v>7.6018243472363523</v>
       </c>
     </row>
@@ -2933,7 +3069,7 @@
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
       <c r="T17" s="9" t="str">
-        <f>IF(Q17="","",D17*(Q17-G17)*W17)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U17" s="17"/>
@@ -2945,7 +3081,7 @@
         <v>5604446</v>
       </c>
       <c r="Y17" s="1">
-        <f>X17*K17/(G17*W17*0.15)</f>
+        <f t="shared" si="1"/>
         <v>1.8315183006535947</v>
       </c>
     </row>
@@ -2976,7 +3112,7 @@
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="T18" s="9" t="str">
-        <f>IF(Q18="","",D18*(Q18-G18)*W18)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U18" s="17"/>
@@ -2988,7 +3124,7 @@
         <v>5604447</v>
       </c>
       <c r="Y18" s="1">
-        <f>X18*K18/(G18*W18*0.15)</f>
+        <f t="shared" si="1"/>
         <v>9.4853973089616659</v>
       </c>
     </row>
@@ -3019,7 +3155,7 @@
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="T19" s="9" t="str">
-        <f>IF(Q19="","",D19*(Q19-G19)*W19)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U19" s="17"/>
@@ -3031,7 +3167,7 @@
         <v>5604448</v>
       </c>
       <c r="Y19" s="1">
-        <f>X19*K19/(G19*W19*0.15)</f>
+        <f t="shared" si="1"/>
         <v>6.4330211202938479</v>
       </c>
     </row>
@@ -3062,7 +3198,7 @@
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
       <c r="T20" s="9" t="str">
-        <f>IF(Q20="","",D20*(Q20-G20)*W20)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U20" s="17"/>
@@ -3074,7 +3210,7 @@
         <v>5604449</v>
       </c>
       <c r="Y20" s="1">
-        <f>X20*K20/(G20*W20*0.15)</f>
+        <f t="shared" si="1"/>
         <v>12.821892015557081</v>
       </c>
     </row>
@@ -3109,7 +3245,7 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="16" t="str">
-        <f>IF(Q21="","",D21*(Q21-G21)*W21)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U21" s="19"/>
@@ -3122,7 +3258,7 @@
         <v>5604450</v>
       </c>
       <c r="Y21" s="1">
-        <f>X21*K21/(G21*W21*0.15)</f>
+        <f t="shared" si="1"/>
         <v>4.8123390005151983</v>
       </c>
     </row>
@@ -3158,7 +3294,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="9" t="str">
-        <f>IF(Q22="","",D22*(Q22-G22)*W22)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W22" s="18">
@@ -3169,7 +3305,7 @@
         <v>5604441</v>
       </c>
       <c r="Y22" s="1">
-        <f>X22*K22/(G22*W22*0.15)</f>
+        <f t="shared" si="1"/>
         <v>13.137461322081576</v>
       </c>
     </row>
@@ -3200,7 +3336,7 @@
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
       <c r="T23" s="9" t="str">
-        <f>IF(Q23="","",D23*(Q23-G23)*W23)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U23" s="17"/>
@@ -3212,7 +3348,7 @@
         <v>5604442</v>
       </c>
       <c r="Y23" s="1">
-        <f>X23*K23/(G23*W23*0.15)</f>
+        <f t="shared" si="1"/>
         <v>20.815012070566386</v>
       </c>
     </row>
@@ -3243,7 +3379,7 @@
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
       <c r="T24" s="9" t="str">
-        <f>IF(Q24="","",D24*(Q24-G24)*W24)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U24" s="17"/>
@@ -3255,7 +3391,7 @@
         <v>5604443</v>
       </c>
       <c r="Y24" s="1">
-        <f>X24*K24/(G24*W24*0.15)</f>
+        <f t="shared" si="1"/>
         <v>5.5123861512737289</v>
       </c>
     </row>
@@ -3286,7 +3422,7 @@
       <c r="O25" s="37"/>
       <c r="P25" s="37"/>
       <c r="T25" s="9" t="str">
-        <f>IF(Q25="","",D25*(Q25-G25)*W25)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U25" s="17"/>
@@ -3298,7 +3434,7 @@
         <v>5604444</v>
       </c>
       <c r="Y25" s="1">
-        <f>X25*K25/(G25*W25*0.15)</f>
+        <f t="shared" si="1"/>
         <v>10.533679165491966</v>
       </c>
     </row>
@@ -3326,7 +3462,7 @@
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
       <c r="T26" s="9" t="str">
-        <f>IF(Q26="","",D26*(Q26-G26)*W26)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U26" s="17"/>
@@ -3338,7 +3474,7 @@
         <v>5604445</v>
       </c>
       <c r="Y26" s="1">
-        <f>X26*K26/(G26*W26*0.15)</f>
+        <f t="shared" si="1"/>
         <v>2.8547498981255095</v>
       </c>
     </row>
@@ -3369,7 +3505,7 @@
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
       <c r="T27" s="9" t="str">
-        <f>IF(Q27="","",D27*(Q27-G27)*W27)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U27" s="17"/>
@@ -3381,7 +3517,7 @@
         <v>5604446</v>
       </c>
       <c r="Y27" s="1">
-        <f>X27*K27/(G27*W27*0.15)</f>
+        <f t="shared" si="1"/>
         <v>1.8315183006535947</v>
       </c>
     </row>
@@ -3412,7 +3548,7 @@
       <c r="O28" s="37"/>
       <c r="P28" s="37"/>
       <c r="T28" s="9" t="str">
-        <f>IF(Q28="","",D28*(Q28-G28)*W28)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U28" s="17"/>
@@ -3424,7 +3560,7 @@
         <v>5604447</v>
       </c>
       <c r="Y28" s="1">
-        <f>X28*K28/(G28*W28*0.15)</f>
+        <f t="shared" si="1"/>
         <v>9.4853973089616659</v>
       </c>
     </row>
@@ -3455,7 +3591,7 @@
       <c r="O29" s="37"/>
       <c r="P29" s="37"/>
       <c r="T29" s="9" t="str">
-        <f>IF(Q29="","",D29*(Q29-G29)*W29)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U29" s="17"/>
@@ -3467,7 +3603,7 @@
         <v>5604448</v>
       </c>
       <c r="Y29" s="1">
-        <f>X29*K29/(G29*W29*0.15)</f>
+        <f t="shared" si="1"/>
         <v>6.4330211202938479</v>
       </c>
     </row>
@@ -3498,7 +3634,7 @@
       <c r="O30" s="37"/>
       <c r="P30" s="37"/>
       <c r="T30" s="9" t="str">
-        <f>IF(Q30="","",D30*(Q30-G30)*W30)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U30" s="17"/>
@@ -3510,7 +3646,7 @@
         <v>5604449</v>
       </c>
       <c r="Y30" s="1">
-        <f>X30*K30/(G30*W30*0.15)</f>
+        <f t="shared" si="1"/>
         <v>12.821892015557081</v>
       </c>
     </row>
@@ -3545,7 +3681,7 @@
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="16" t="str">
-        <f>IF(Q31="","",D31*(Q31-G31)*W31)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U31" s="19"/>
@@ -3558,7 +3694,7 @@
         <v>5604450</v>
       </c>
       <c r="Y31" s="1">
-        <f>X31*K31/(G31*W31*0.15)</f>
+        <f t="shared" si="1"/>
         <v>4.8123390005151983</v>
       </c>
     </row>
@@ -3587,15 +3723,15 @@
         <v>30</v>
       </c>
       <c r="J32" s="45">
-        <f>IF(I32="N",1,IF(C32=I32,2,0.5))</f>
+        <f t="shared" ref="J32:J63" si="2">IF(I32="N",1,IF(C32=I32,2,0.5))</f>
         <v>0.5</v>
       </c>
       <c r="K32" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$32:$J$36)*J32</f>
         <v>#REF!</v>
       </c>
-      <c r="L32" s="56" t="e">
-        <f>(X32*K32)/(W32*G32*0.15)</f>
+      <c r="L32" s="55" t="e">
+        <f t="shared" ref="L32:L46" si="3">(X32*K32)/(W32*G32*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M32" s="1" t="e">
@@ -3603,13 +3739,13 @@
         <v>#REF!</v>
       </c>
       <c r="N32" s="1" t="e">
-        <f>M32-D32</f>
+        <f t="shared" ref="N32:N63" si="4">M32-D32</f>
         <v>#REF!</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="T32" s="9" t="str">
-        <f>IF(Q32="","",D32*(Q32-G32)*W32)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U32" s="17"/>
@@ -3647,29 +3783,29 @@
         <v>31</v>
       </c>
       <c r="J33" s="45">
-        <f>IF(I33="N",1,IF(C33=I33,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K33" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$32:$J$36)*J33</f>
         <v>#REF!</v>
       </c>
-      <c r="L33" s="56" t="e">
-        <f>(X33*K33)/(W33*G33*0.15)</f>
+      <c r="L33" s="55" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="M33" s="1" t="e">
-        <f t="shared" ref="M33:M41" si="0">ROUND(L33,0)</f>
+        <f t="shared" ref="M33:M41" si="5">ROUND(L33,0)</f>
         <v>#REF!</v>
       </c>
       <c r="N33" s="1" t="e">
-        <f>M33-D33</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="T33" s="9" t="str">
-        <f>IF(Q33="","",D33*(Q33-G33)*W33)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U33" s="17"/>
@@ -3707,29 +3843,29 @@
         <v>32</v>
       </c>
       <c r="J34" s="45">
-        <f>IF(I34="N",1,IF(C34=I34,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K34" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$32:$J$36)*J34</f>
         <v>#REF!</v>
       </c>
-      <c r="L34" s="56" t="e">
-        <f>(X34*K34)/(W34*G34*0.15)</f>
+      <c r="L34" s="55" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="M34" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="N34" s="1" t="e">
-        <f>M34-D34</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="T34" s="9" t="str">
-        <f>IF(Q34="","",D34*(Q34-G34)*W34)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U34" s="17"/>
@@ -3767,29 +3903,29 @@
         <v>33</v>
       </c>
       <c r="J35" s="45">
-        <f>IF(I35="N",1,IF(C35=I35,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K35" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$32:$J$36)*J35</f>
         <v>#REF!</v>
       </c>
-      <c r="L35" s="56" t="e">
-        <f>(X35*K35)/(W35*G35*0.15)</f>
+      <c r="L35" s="55" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="M35" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="N35" s="1" t="e">
-        <f>M35-D35</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="T35" s="9" t="str">
-        <f>IF(Q35="","",D35*(Q35-G35)*W35)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U35" s="17"/>
@@ -3827,29 +3963,29 @@
         <v>34</v>
       </c>
       <c r="J36" s="45">
-        <f>IF(I36="N",1,IF(C36=I36,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K36" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$32:$J$36)*J36</f>
         <v>#REF!</v>
       </c>
-      <c r="L36" s="56" t="e">
-        <f>(X36*K36)/(W36*G36*0.15)</f>
+      <c r="L36" s="55" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="M36" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="N36" s="1" t="e">
-        <f>M36-D36</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="T36" s="9" t="str">
-        <f>IF(Q36="","",D36*(Q36-G36)*W36)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U36" s="17"/>
@@ -3887,29 +4023,29 @@
         <v>35</v>
       </c>
       <c r="J37" s="45">
-        <f>IF(I37="N",1,IF(C37=I37,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K37" s="39" t="e">
         <f>-SUM(#REF!)/SUM($J$37:$J$41)*J37</f>
         <v>#REF!</v>
       </c>
-      <c r="L37" s="56" t="e">
-        <f>(X37*K37)/(W37*G37*0.15)</f>
+      <c r="L37" s="55" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="M37" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="N37" s="1" t="e">
-        <f>M37-D37</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="T37" s="9" t="str">
-        <f>IF(Q37="","",D37*(Q37-G37)*W37)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U37" s="17"/>
@@ -3947,29 +4083,29 @@
         <v>33</v>
       </c>
       <c r="J38" s="45">
-        <f>IF(I38="N",1,IF(C38=I38,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K38" s="39" t="e">
         <f>-SUM(#REF!)/SUM($J$37:$J$41)*J38</f>
         <v>#REF!</v>
       </c>
-      <c r="L38" s="56" t="e">
-        <f>(X38*K38)/(W38*G38*0.15)</f>
+      <c r="L38" s="55" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="M38" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="N38" s="1" t="e">
-        <f>M38-D38</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="T38" s="9" t="str">
-        <f>IF(Q38="","",D38*(Q38-G38)*W38)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U38" s="17"/>
@@ -4007,29 +4143,29 @@
         <v>33</v>
       </c>
       <c r="J39" s="45">
-        <f>IF(I39="N",1,IF(C39=I39,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K39" s="39" t="e">
         <f>-SUM(#REF!)/SUM($J$37:$J$41)*J39</f>
         <v>#REF!</v>
       </c>
-      <c r="L39" s="56" t="e">
-        <f>(X39*K39)/(W39*G39*0.15)</f>
+      <c r="L39" s="55" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="M39" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="N39" s="1" t="e">
-        <f>M39-D39</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="T39" s="9" t="str">
-        <f>IF(Q39="","",D39*(Q39-G39)*W39)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U39" s="17"/>
@@ -4067,29 +4203,29 @@
         <v>33</v>
       </c>
       <c r="J40" s="45">
-        <f>IF(I40="N",1,IF(C40=I40,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K40" s="39" t="e">
         <f>-SUM(#REF!)/SUM($J$37:$J$41)*J40</f>
         <v>#REF!</v>
       </c>
-      <c r="L40" s="56" t="e">
-        <f>(X40*K40)/(W40*G40*0.15)</f>
+      <c r="L40" s="55" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="M40" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="N40" s="1" t="e">
-        <f>M40-D40</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="T40" s="9" t="str">
-        <f>IF(Q40="","",D40*(Q40-G40)*W40)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U40" s="17"/>
@@ -4128,23 +4264,23 @@
         <v>35</v>
       </c>
       <c r="J41" s="46">
-        <f>IF(I41="N",1,IF(C41=I41,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K41" s="40" t="e">
         <f>-SUM(#REF!)/SUM($J$37:$J$41)*J41</f>
         <v>#REF!</v>
       </c>
-      <c r="L41" s="57" t="e">
-        <f>(X41*K41)/(W41*G41*0.15)</f>
+      <c r="L41" s="56" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="M41" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
       <c r="N41" s="6" t="e">
-        <f>M41-D41</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="O41" s="6"/>
@@ -4153,7 +4289,7 @@
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
       <c r="T41" s="16" t="str">
-        <f>IF(Q41="","",D41*(Q41-G41)*W41)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U41" s="19"/>
@@ -4195,15 +4331,15 @@
         <v>44</v>
       </c>
       <c r="J42" s="45">
-        <f>IF(I42="N",1,IF(C42=I42,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K42" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$42:$J$46)*J42</f>
         <v>#REF!</v>
       </c>
-      <c r="L42" s="56" t="e">
-        <f>(X42*K42)/(W42*G42*0.15)</f>
+      <c r="L42" s="55" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="M42" s="1" t="e">
@@ -4211,11 +4347,11 @@
         <v>#REF!</v>
       </c>
       <c r="N42" s="1" t="e">
-        <f>M42-D42</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T42" s="9" t="str">
-        <f>IF(Q42="","",D42*(Q42-G42)*W42)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U42" s="17"/>
@@ -4253,27 +4389,27 @@
         <v>31</v>
       </c>
       <c r="J43" s="45">
-        <f>IF(I43="N",1,IF(C43=I43,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K43" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$42:$J$46)*J43</f>
         <v>#REF!</v>
       </c>
-      <c r="L43" s="56" t="e">
-        <f>(X43*K43)/(W43*G43*0.15)</f>
+      <c r="L43" s="55" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="M43" s="1" t="e">
-        <f t="shared" ref="M43:M51" si="1">ROUND(L43,0)</f>
+        <f t="shared" ref="M43:M51" si="6">ROUND(L43,0)</f>
         <v>#REF!</v>
       </c>
       <c r="N43" s="1" t="e">
-        <f>M43-D43</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T43" s="9" t="str">
-        <f>IF(Q43="","",D43*(Q43-G43)*W43)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U43" s="17"/>
@@ -4311,27 +4447,27 @@
         <v>32</v>
       </c>
       <c r="J44" s="45">
-        <f>IF(I44="N",1,IF(C44=I44,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K44" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$42:$J$46)*J44</f>
         <v>#REF!</v>
       </c>
-      <c r="L44" s="56" t="e">
-        <f>(X44*K44)/(W44*G44*0.15)</f>
+      <c r="L44" s="55" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="M44" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="N44" s="1" t="e">
-        <f>M44-D44</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T44" s="9" t="str">
-        <f>IF(Q44="","",D44*(Q44-G44)*W44)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U44" s="17"/>
@@ -4369,27 +4505,27 @@
         <v>33</v>
       </c>
       <c r="J45" s="45">
-        <f>IF(I45="N",1,IF(C45=I45,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K45" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$42:$J$46)*J45</f>
         <v>#REF!</v>
       </c>
-      <c r="L45" s="56" t="e">
-        <f>(X45*K45)/(W45*G45*0.15)</f>
+      <c r="L45" s="55" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="M45" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="N45" s="1" t="e">
-        <f>M45-D45</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T45" s="9" t="str">
-        <f>IF(Q45="","",D45*(Q45-G45)*W45)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U45" s="17"/>
@@ -4427,27 +4563,27 @@
         <v>30</v>
       </c>
       <c r="J46" s="45">
-        <f>IF(I46="N",1,IF(C46=I46,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K46" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$42:$J$46)*J46</f>
         <v>#REF!</v>
       </c>
-      <c r="L46" s="56" t="e">
-        <f>(X46*K46)/(W46*G46*0.15)</f>
+      <c r="L46" s="55" t="e">
+        <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="M46" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="N46" s="1" t="e">
-        <f>M46-D46</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T46" s="9" t="str">
-        <f>IF(Q46="","",D46*(Q46-G46)*W46)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U46" s="17"/>
@@ -4485,27 +4621,27 @@
         <v>35</v>
       </c>
       <c r="J47" s="45">
-        <f>IF(I47="N",1,IF(C47=I47,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K47" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$47:$J$51)*J47</f>
         <v>#REF!</v>
       </c>
-      <c r="L47" s="56" t="e">
+      <c r="L47" s="55" t="e">
         <f>-(X47*K47)/(W47*G47*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M47" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="N47" s="1" t="e">
-        <f>M47-D47</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T47" s="9" t="str">
-        <f>IF(Q47="","",D47*(Q47-G47)*W47)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U47" s="17"/>
@@ -4543,27 +4679,27 @@
         <v>45</v>
       </c>
       <c r="J48" s="45">
-        <f>IF(I48="N",1,IF(C48=I48,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K48" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$47:$J$51)*J48</f>
         <v>#REF!</v>
       </c>
-      <c r="L48" s="56" t="e">
+      <c r="L48" s="55" t="e">
         <f>-(X48*K48)/(W48*G48*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M48" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="N48" s="1" t="e">
-        <f>M48-D48</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T48" s="9" t="str">
-        <f>IF(Q48="","",D48*(Q48-G48)*W48)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U48" s="17"/>
@@ -4601,27 +4737,27 @@
         <v>33</v>
       </c>
       <c r="J49" s="45">
-        <f>IF(I49="N",1,IF(C49=I49,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K49" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$47:$J$51)*J49</f>
         <v>#REF!</v>
       </c>
-      <c r="L49" s="56" t="e">
+      <c r="L49" s="55" t="e">
         <f>-(X49*K49)/(W49*G49*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M49" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="N49" s="1" t="e">
-        <f>M49-D49</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T49" s="9" t="str">
-        <f>IF(Q49="","",D49*(Q49-G49)*W49)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U49" s="17"/>
@@ -4659,27 +4795,27 @@
         <v>33</v>
       </c>
       <c r="J50" s="45">
-        <f>IF(I50="N",1,IF(C50=I50,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K50" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$47:$J$51)*J50</f>
         <v>#REF!</v>
       </c>
-      <c r="L50" s="56" t="e">
+      <c r="L50" s="55" t="e">
         <f>-(X50*K50)/(W50*G50*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M50" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="N50" s="1" t="e">
-        <f>M50-D50</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T50" s="9" t="str">
-        <f>IF(Q50="","",D50*(Q50-G50)*W50)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U50" s="17"/>
@@ -4717,27 +4853,27 @@
         <v>35</v>
       </c>
       <c r="J51" s="46">
-        <f>IF(I51="N",1,IF(C51=I51,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K51" s="40" t="e">
         <f>SUM(#REF!)/SUM($J$47:$J$51)*J51</f>
         <v>#REF!</v>
       </c>
-      <c r="L51" s="57" t="e">
+      <c r="L51" s="56" t="e">
         <f>-(X51*K51)/(W51*G51*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M51" s="6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
       <c r="N51" s="6" t="e">
-        <f>M51-D51</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T51" s="9" t="str">
-        <f>IF(Q51="","",D51*(Q51-G51)*W51)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U51" s="17"/>
@@ -4778,14 +4914,14 @@
         <v>30</v>
       </c>
       <c r="J52" s="45">
-        <f>IF(I52="N",1,IF(C52=I52,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K52" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$52:$J$56)*J52</f>
         <v>#REF!</v>
       </c>
-      <c r="L52" s="56" t="e">
+      <c r="L52" s="55" t="e">
         <f>(X52*K52)/(W52*G52*0.15)</f>
         <v>#REF!</v>
       </c>
@@ -4794,11 +4930,11 @@
         <v>#REF!</v>
       </c>
       <c r="N52" s="1" t="e">
-        <f>M52-D52</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T52" s="9" t="str">
-        <f>IF(Q52="","",D52*(Q52-G52)*W52)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U52" s="17"/>
@@ -4836,14 +4972,14 @@
         <v>31</v>
       </c>
       <c r="J53" s="45">
-        <f>IF(I53="N",1,IF(C53=I53,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K53" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$52:$J$56)*J53</f>
         <v>#REF!</v>
       </c>
-      <c r="L53" s="56" t="e">
+      <c r="L53" s="55" t="e">
         <f>(X53*K53)/(W53*G53*0.15)</f>
         <v>#REF!</v>
       </c>
@@ -4852,11 +4988,11 @@
         <v>#REF!</v>
       </c>
       <c r="N53" s="1" t="e">
-        <f>M53-D53</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T53" s="9" t="str">
-        <f>IF(Q53="","",D53*(Q53-G53)*W53)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U53" s="17"/>
@@ -4894,27 +5030,27 @@
         <v>32</v>
       </c>
       <c r="J54" s="45">
-        <f>IF(I54="N",1,IF(C54=I54,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K54" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$52:$J$56)*J54</f>
         <v>#REF!</v>
       </c>
-      <c r="L54" s="56" t="e">
+      <c r="L54" s="55" t="e">
         <f>(X54*K54)/(W54*G54*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M54" s="1" t="e">
-        <f t="shared" ref="M54:M60" si="2">ROUND(L54,0)</f>
+        <f t="shared" ref="M54:M60" si="7">ROUND(L54,0)</f>
         <v>#REF!</v>
       </c>
       <c r="N54" s="1" t="e">
-        <f>M54-D54</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T54" s="9" t="str">
-        <f>IF(Q54="","",D54*(Q54-G54)*W54)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U54" s="17"/>
@@ -4952,27 +5088,27 @@
         <v>33</v>
       </c>
       <c r="J55" s="45">
-        <f>IF(I55="N",1,IF(C55=I55,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K55" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$52:$J$56)*J55</f>
         <v>#REF!</v>
       </c>
-      <c r="L55" s="56" t="e">
+      <c r="L55" s="55" t="e">
         <f>(X55*K55)/(W55*G55*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M55" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
       <c r="N55" s="1" t="e">
-        <f>M55-D55</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T55" s="9" t="str">
-        <f>IF(Q55="","",D55*(Q55-G55)*W55)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U55" s="17"/>
@@ -5010,27 +5146,27 @@
         <v>30</v>
       </c>
       <c r="J56" s="45">
-        <f>IF(I56="N",1,IF(C56=I56,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K56" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$52:$J$56)*J56</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="56" t="e">
+      <c r="L56" s="55" t="e">
         <f>(X56*K56)/(W56*G56*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M56" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
       <c r="N56" s="1" t="e">
-        <f>M56-D56</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T56" s="9" t="str">
-        <f>IF(Q56="","",D56*(Q56-G56)*W56)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U56" s="17"/>
@@ -5068,27 +5204,27 @@
         <v>35</v>
       </c>
       <c r="J57" s="45">
-        <f>IF(I57="N",1,IF(C57=I57,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K57" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$57:$J$61)*J57</f>
         <v>#REF!</v>
       </c>
-      <c r="L57" s="56" t="e">
+      <c r="L57" s="55" t="e">
         <f>-(X57*K57)/(W57*G57*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M57" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
       <c r="N57" s="1" t="e">
-        <f>M57-D57</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T57" s="9" t="str">
-        <f>IF(Q57="","",D57*(Q57-G57)*W57)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U57" s="17"/>
@@ -5126,27 +5262,27 @@
         <v>37</v>
       </c>
       <c r="J58" s="45">
-        <f>IF(I58="N",1,IF(C58=I58,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K58" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$57:$J$61)*J58</f>
         <v>#REF!</v>
       </c>
-      <c r="L58" s="56" t="e">
+      <c r="L58" s="55" t="e">
         <f>-(X58*K58)/(W58*G58*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M58" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
       <c r="N58" s="1" t="e">
-        <f>M58-D58</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T58" s="9" t="str">
-        <f>IF(Q58="","",D58*(Q58-G58)*W58)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U58" s="17"/>
@@ -5184,14 +5320,14 @@
         <v>49</v>
       </c>
       <c r="J59" s="45">
-        <f>IF(I59="N",1,IF(C59=I59,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K59" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$57:$J$61)*J59</f>
         <v>#REF!</v>
       </c>
-      <c r="L59" s="56" t="e">
+      <c r="L59" s="55" t="e">
         <f>-(X59*K59)/(W59*G59*0.15)</f>
         <v>#REF!</v>
       </c>
@@ -5200,11 +5336,11 @@
         <v>#REF!</v>
       </c>
       <c r="N59" s="1" t="e">
-        <f>M59-D59</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T59" s="9" t="str">
-        <f>IF(Q59="","",D59*(Q59-G59)*W59)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U59" s="17"/>
@@ -5242,27 +5378,27 @@
         <v>50</v>
       </c>
       <c r="J60" s="45">
-        <f>IF(I60="N",1,IF(C60=I60,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K60" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$57:$J$61)*J60</f>
         <v>#REF!</v>
       </c>
-      <c r="L60" s="56" t="e">
+      <c r="L60" s="55" t="e">
         <f>-(X60*K60)/(W60*G60*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M60" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
       <c r="N60" s="1" t="e">
-        <f>M60-D60</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T60" s="9" t="str">
-        <f>IF(Q60="","",D60*(Q60-G60)*W60)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U60" s="17"/>
@@ -5300,14 +5436,14 @@
         <v>35</v>
       </c>
       <c r="J61" s="46">
-        <f>IF(I61="N",1,IF(C61=I61,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K61" s="40" t="e">
         <f>SUM(#REF!)/SUM($J$57:$J$61)*J61</f>
         <v>#REF!</v>
       </c>
-      <c r="L61" s="57" t="e">
+      <c r="L61" s="56" t="e">
         <f>-(X61*K61)/(W61*G61*0.15)</f>
         <v>#REF!</v>
       </c>
@@ -5316,11 +5452,11 @@
         <v>#REF!</v>
       </c>
       <c r="N61" s="6" t="e">
-        <f>M61-D61</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T61" s="9" t="str">
-        <f>IF(Q61="","",D61*(Q61-G61)*W61)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U61" s="17"/>
@@ -5361,14 +5497,14 @@
         <v>30</v>
       </c>
       <c r="J62" s="45">
-        <f>IF(I62="N",1,IF(C62=I62,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K62" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$62:$J$66)*J62</f>
         <v>#REF!</v>
       </c>
-      <c r="L62" s="56" t="e">
+      <c r="L62" s="55" t="e">
         <f>(X62*K62)/(W62*G62*0.15)</f>
         <v>#REF!</v>
       </c>
@@ -5377,11 +5513,11 @@
         <v>#REF!</v>
       </c>
       <c r="N62" s="1" t="e">
-        <f>M62-D62</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T62" s="9" t="str">
-        <f>IF(Q62="","",D62*(Q62-G62)*W62)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U62" s="17"/>
@@ -5419,14 +5555,14 @@
         <v>31</v>
       </c>
       <c r="J63" s="45">
-        <f>IF(I63="N",1,IF(C63=I63,2,0.5))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K63" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$62:$J$66)*J63</f>
         <v>#REF!</v>
       </c>
-      <c r="L63" s="56" t="e">
+      <c r="L63" s="55" t="e">
         <f>(X63*K63)/(W63*G63*0.15)</f>
         <v>#REF!</v>
       </c>
@@ -5435,11 +5571,11 @@
         <v>#REF!</v>
       </c>
       <c r="N63" s="1" t="e">
-        <f>M63-D63</f>
+        <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="T63" s="9" t="str">
-        <f>IF(Q63="","",D63*(Q63-G63)*W63)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U63" s="17"/>
@@ -5477,27 +5613,27 @@
         <v>32</v>
       </c>
       <c r="J64" s="45">
-        <f>IF(I64="N",1,IF(C64=I64,2,0.5))</f>
+        <f t="shared" ref="J64:J101" si="8">IF(I64="N",1,IF(C64=I64,2,0.5))</f>
         <v>2</v>
       </c>
       <c r="K64" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$62:$J$66)*J64</f>
         <v>#REF!</v>
       </c>
-      <c r="L64" s="56" t="e">
+      <c r="L64" s="55" t="e">
         <f>(X64*K64)/(W64*G64*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M64" s="1" t="e">
-        <f t="shared" ref="M64:M68" si="3">ROUND(L64,0)</f>
+        <f t="shared" ref="M64:M68" si="9">ROUND(L64,0)</f>
         <v>#REF!</v>
       </c>
       <c r="N64" s="1" t="e">
-        <f>M64-D64</f>
+        <f t="shared" ref="N64:N95" si="10">M64-D64</f>
         <v>#REF!</v>
       </c>
       <c r="T64" s="9" t="str">
-        <f>IF(Q64="","",D64*(Q64-G64)*W64)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U64" s="17"/>
@@ -5535,27 +5671,27 @@
         <v>31</v>
       </c>
       <c r="J65" s="45">
-        <f>IF(I65="N",1,IF(C65=I65,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K65" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$62:$J$66)*J65</f>
         <v>#REF!</v>
       </c>
-      <c r="L65" s="56" t="e">
+      <c r="L65" s="55" t="e">
         <f>(X65*K65)/(W65*G65*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M65" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
       <c r="N65" s="1" t="e">
-        <f>M65-D65</f>
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="T65" s="9" t="str">
-        <f>IF(Q65="","",D65*(Q65-G65)*W65)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U65" s="17"/>
@@ -5593,27 +5729,27 @@
         <v>30</v>
       </c>
       <c r="J66" s="45">
-        <f>IF(I66="N",1,IF(C66=I66,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="K66" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$62:$J$66)*J66</f>
         <v>#REF!</v>
       </c>
-      <c r="L66" s="56" t="e">
+      <c r="L66" s="55" t="e">
         <f>(X66*K66)/(W66*G66*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M66" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
       <c r="N66" s="1" t="e">
-        <f>M66-D66</f>
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="T66" s="9" t="str">
-        <f>IF(Q66="","",D66*(Q66-G66)*W66)</f>
+        <f t="shared" ref="T66:T129" si="11">IF(Q66="","",D66*(Q66-G66)*W66)</f>
         <v/>
       </c>
       <c r="U66" s="17"/>
@@ -5651,27 +5787,27 @@
         <v>35</v>
       </c>
       <c r="J67" s="45">
-        <f>IF(I67="N",1,IF(C67=I67,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="K67" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$67:$J$71)*J67</f>
         <v>#REF!</v>
       </c>
-      <c r="L67" s="56" t="e">
+      <c r="L67" s="55" t="e">
         <f>-(X67*K67)/(W67*G67*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M67" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
       <c r="N67" s="1" t="e">
-        <f>M67-D67</f>
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="T67" s="9" t="str">
-        <f>IF(Q67="","",D67*(Q67-G67)*W67)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U67" s="17"/>
@@ -5709,27 +5845,27 @@
         <v>37</v>
       </c>
       <c r="J68" s="45">
-        <f>IF(I68="N",1,IF(C68=I68,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="K68" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$67:$J$71)*J68</f>
         <v>#REF!</v>
       </c>
-      <c r="L68" s="56" t="e">
+      <c r="L68" s="55" t="e">
         <f>-(X68*K68)/(W68*G68*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M68" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
       <c r="N68" s="1" t="e">
-        <f>M68-D68</f>
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="T68" s="9" t="str">
-        <f>IF(Q68="","",D68*(Q68-G68)*W68)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U68" s="17"/>
@@ -5767,14 +5903,14 @@
         <v>35</v>
       </c>
       <c r="J69" s="45">
-        <f>IF(I69="N",1,IF(C69=I69,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="K69" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$67:$J$71)*J69</f>
         <v>#REF!</v>
       </c>
-      <c r="L69" s="56" t="e">
+      <c r="L69" s="55" t="e">
         <f>-(X69*K69)/(W69*G69*0.15)</f>
         <v>#REF!</v>
       </c>
@@ -5783,11 +5919,11 @@
         <v>#REF!</v>
       </c>
       <c r="N69" s="1" t="e">
-        <f>M69-D69</f>
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="T69" s="9" t="str">
-        <f>IF(Q69="","",D69*(Q69-G69)*W69)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U69" s="17"/>
@@ -5825,27 +5961,27 @@
         <v>31</v>
       </c>
       <c r="J70" s="45">
-        <f>IF(I70="N",1,IF(C70=I70,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K70" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$67:$J$71)*J70</f>
         <v>#REF!</v>
       </c>
-      <c r="L70" s="56" t="e">
+      <c r="L70" s="55" t="e">
         <f>-(X70*K70)/(W70*G70*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M70" s="1" t="e">
-        <f t="shared" ref="M70" si="4">ROUND(L70,0)</f>
+        <f t="shared" ref="M70" si="12">ROUND(L70,0)</f>
         <v>#REF!</v>
       </c>
       <c r="N70" s="1" t="e">
-        <f>M70-D70</f>
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="T70" s="9" t="str">
-        <f>IF(Q70="","",D70*(Q70-G70)*W70)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U70" s="17"/>
@@ -5883,14 +6019,14 @@
         <v>35</v>
       </c>
       <c r="J71" s="46">
-        <f>IF(I71="N",1,IF(C71=I71,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="K71" s="40" t="e">
         <f>SUM(#REF!)/SUM($J$67:$J$71)*J71</f>
         <v>#REF!</v>
       </c>
-      <c r="L71" s="57" t="e">
+      <c r="L71" s="56" t="e">
         <f>-(X71*K71)/(W71*G71*0.15)</f>
         <v>#REF!</v>
       </c>
@@ -5899,11 +6035,11 @@
         <v>#REF!</v>
       </c>
       <c r="N71" s="6" t="e">
-        <f>M71-D71</f>
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="T71" s="9" t="str">
-        <f>IF(Q71="","",D71*(Q71-G71)*W71)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U71" s="17"/>
@@ -5944,14 +6080,14 @@
         <v>30</v>
       </c>
       <c r="J72" s="45">
-        <f>IF(I72="N",1,IF(C72=I72,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="K72" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$72:$J$76)*J72</f>
         <v>#REF!</v>
       </c>
-      <c r="L72" s="56" t="e">
+      <c r="L72" s="55" t="e">
         <f>(X72*K72)/(W72*G72*0.15)</f>
         <v>#REF!</v>
       </c>
@@ -5960,11 +6096,11 @@
         <v>#REF!</v>
       </c>
       <c r="N72" s="1" t="e">
-        <f>M72-D72</f>
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="T72" s="9" t="str">
-        <f>IF(Q72="","",D72*(Q72-G72)*W72)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U72" s="17"/>
@@ -6002,14 +6138,14 @@
         <v>31</v>
       </c>
       <c r="J73" s="45">
-        <f>IF(I73="N",1,IF(C73=I73,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K73" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$72:$J$76)*J73</f>
         <v>#REF!</v>
       </c>
-      <c r="L73" s="56" t="e">
+      <c r="L73" s="55" t="e">
         <f>(X73*K73)/(W73*G73*0.15)</f>
         <v>#REF!</v>
       </c>
@@ -6018,11 +6154,11 @@
         <v>#REF!</v>
       </c>
       <c r="N73" s="1" t="e">
-        <f>M73-D73</f>
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="T73" s="9" t="str">
-        <f>IF(Q73="","",D73*(Q73-G73)*W73)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U73" s="17"/>
@@ -6060,27 +6196,27 @@
         <v>32</v>
       </c>
       <c r="J74" s="45">
-        <f>IF(I74="N",1,IF(C74=I74,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="K74" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$72:$J$76)*J74</f>
         <v>#REF!</v>
       </c>
-      <c r="L74" s="56" t="e">
+      <c r="L74" s="55" t="e">
         <f>(X74*K74)/(W74*G74*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M74" s="1" t="e">
-        <f t="shared" ref="M74:M78" si="5">ROUND(L74,0)</f>
+        <f t="shared" ref="M74:M78" si="13">ROUND(L74,0)</f>
         <v>#REF!</v>
       </c>
       <c r="N74" s="1" t="e">
-        <f>M74-D74</f>
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="T74" s="9" t="str">
-        <f>IF(Q74="","",D74*(Q74-G74)*W74)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U74" s="17"/>
@@ -6118,27 +6254,27 @@
         <v>31</v>
       </c>
       <c r="J75" s="45">
-        <f>IF(I75="N",1,IF(C75=I75,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K75" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$72:$J$76)*J75</f>
         <v>#REF!</v>
       </c>
-      <c r="L75" s="56" t="e">
+      <c r="L75" s="55" t="e">
         <f>(X75*K75)/(W75*G75*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M75" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="N75" s="1" t="e">
-        <f>M75-D75</f>
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="T75" s="9" t="str">
-        <f>IF(Q75="","",D75*(Q75-G75)*W75)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U75" s="17"/>
@@ -6176,27 +6312,27 @@
         <v>30</v>
       </c>
       <c r="J76" s="45">
-        <f>IF(I76="N",1,IF(C76=I76,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="K76" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$72:$J$76)*J76</f>
         <v>#REF!</v>
       </c>
-      <c r="L76" s="56" t="e">
+      <c r="L76" s="55" t="e">
         <f>(X76*K76)/(W76*G76*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M76" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="N76" s="1" t="e">
-        <f>M76-D76</f>
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="T76" s="9" t="str">
-        <f>IF(Q76="","",D76*(Q76-G76)*W76)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U76" s="17"/>
@@ -6234,27 +6370,27 @@
         <v>35</v>
       </c>
       <c r="J77" s="45">
-        <f>IF(I77="N",1,IF(C77=I77,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="K77" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$77:$J$81)*J77</f>
         <v>#REF!</v>
       </c>
-      <c r="L77" s="56" t="e">
+      <c r="L77" s="55" t="e">
         <f>-(X77*K77)/(W77*G77*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M77" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="N77" s="1" t="e">
-        <f>M77-D77</f>
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="T77" s="9" t="str">
-        <f>IF(Q77="","",D77*(Q77-G77)*W77)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U77" s="17"/>
@@ -6292,27 +6428,27 @@
         <v>53</v>
       </c>
       <c r="J78" s="45">
-        <f>IF(I78="N",1,IF(C78=I78,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K78" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$77:$J$81)*J78</f>
         <v>#REF!</v>
       </c>
-      <c r="L78" s="56" t="e">
+      <c r="L78" s="55" t="e">
         <f>-(X78*K78)/(W78*G78*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M78" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
       <c r="N78" s="1" t="e">
-        <f>M78-D78</f>
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="T78" s="9" t="str">
-        <f>IF(Q78="","",D78*(Q78-G78)*W78)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U78" s="17"/>
@@ -6350,14 +6486,14 @@
         <v>35</v>
       </c>
       <c r="J79" s="45">
-        <f>IF(I79="N",1,IF(C79=I79,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="K79" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$77:$J$81)*J79</f>
         <v>#REF!</v>
       </c>
-      <c r="L79" s="56" t="e">
+      <c r="L79" s="55" t="e">
         <f>-(X79*K79)/(W79*G79*0.15)</f>
         <v>#REF!</v>
       </c>
@@ -6366,11 +6502,11 @@
         <v>#REF!</v>
       </c>
       <c r="N79" s="1" t="e">
-        <f>M79-D79</f>
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="T79" s="9" t="str">
-        <f>IF(Q79="","",D79*(Q79-G79)*W79)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U79" s="17"/>
@@ -6408,27 +6544,27 @@
         <v>32</v>
       </c>
       <c r="J80" s="45">
-        <f>IF(I80="N",1,IF(C80=I80,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="K80" s="39" t="e">
         <f>SUM(#REF!)/SUM($J$77:$J$81)*J80</f>
         <v>#REF!</v>
       </c>
-      <c r="L80" s="56" t="e">
+      <c r="L80" s="55" t="e">
         <f>-(X80*K80)/(W80*G80*0.15)</f>
         <v>#REF!</v>
       </c>
       <c r="M80" s="1" t="e">
-        <f t="shared" ref="M80" si="6">ROUND(L80,0)</f>
+        <f t="shared" ref="M80" si="14">ROUND(L80,0)</f>
         <v>#REF!</v>
       </c>
       <c r="N80" s="1" t="e">
-        <f>M80-D80</f>
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="T80" s="9" t="str">
-        <f>IF(Q80="","",D80*(Q80-G80)*W80)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U80" s="17"/>
@@ -6466,27 +6602,28 @@
         <v>35</v>
       </c>
       <c r="J81" s="46">
-        <f>IF(I81="N",1,IF(C81=I81,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="K81" s="40" t="e">
         <f>SUM(#REF!)/SUM($J$77:$J$81)*J81</f>
         <v>#REF!</v>
       </c>
-      <c r="L81" s="57" t="e">
+      <c r="L81" s="56" t="e">
         <f>-(X81*K81)/(W81*G81*0.15)</f>
         <v>#REF!</v>
       </c>
-      <c r="M81" s="58" t="e">
+      <c r="M81" s="6" t="e">
         <f>ROUND(L81,0)+1</f>
         <v>#REF!</v>
       </c>
-      <c r="N81" s="58" t="e">
-        <f>M81-D81</f>
+      <c r="N81" s="6" t="e">
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
+      <c r="O81" s="59"/>
       <c r="T81" s="9" t="str">
-        <f>IF(Q81="","",D81*(Q81-G81)*W81)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U81" s="17"/>
@@ -6531,30 +6668,30 @@
         <v>32</v>
       </c>
       <c r="J82" s="42">
-        <f>IF(I82="N",1,IF(C82=I82,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="K82" s="47">
         <f>SUM($F$82:$F$86)/SUM($J$82:$J$86)*J82</f>
         <v>5.4373333333333343E-2</v>
       </c>
-      <c r="L82" s="56">
+      <c r="L82" s="55">
         <f>(X82*K82)/(W82*G82*0.15)</f>
         <v>31.068751134788823</v>
       </c>
-      <c r="M82" s="58">
+      <c r="M82" s="57">
         <f>ROUND(L82,0)</f>
         <v>31</v>
       </c>
-      <c r="N82" s="58">
-        <f>M82-D82</f>
+      <c r="N82" s="57">
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="O82" s="47">
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="T82" s="9" t="str">
-        <f>IF(Q82="","",D82*(Q82-G82)*W82)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U82" s="17"/>
@@ -6596,30 +6733,30 @@
         <v>31</v>
       </c>
       <c r="J83" s="42">
-        <f>IF(I83="N",1,IF(C83=I83,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K83" s="47">
-        <f t="shared" ref="K83:K86" si="7">SUM($F$82:$F$86)/SUM($J$82:$J$86)*J83</f>
+        <f t="shared" ref="K83:K86" si="15">SUM($F$82:$F$86)/SUM($J$82:$J$86)*J83</f>
         <v>2.7186666666666671E-2</v>
       </c>
-      <c r="L83" s="56">
+      <c r="L83" s="55">
         <f>(X83*K83)/(W83*G83*0.15)</f>
         <v>55.256436420975447</v>
       </c>
-      <c r="M83" s="58">
-        <f t="shared" ref="M83:M91" si="8">ROUND(L83,0)</f>
+      <c r="M83" s="57">
+        <f t="shared" ref="M83:M91" si="16">ROUND(L83,0)</f>
         <v>55</v>
       </c>
-      <c r="N83" s="58">
-        <f>M83-D83</f>
+      <c r="N83" s="57">
+        <f t="shared" si="10"/>
         <v>-26</v>
       </c>
       <c r="O83" s="47">
         <v>2.75E-2</v>
       </c>
       <c r="T83" s="9" t="str">
-        <f>IF(Q83="","",D83*(Q83-G83)*W83)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U83" s="17"/>
@@ -6661,30 +6798,30 @@
         <v>30</v>
       </c>
       <c r="J84" s="42">
-        <f>IF(I84="N",1,IF(C84=I84,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="K84" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.3593333333333336E-2</v>
       </c>
-      <c r="L84" s="56">
+      <c r="L84" s="55">
         <f>(X84*K84)/(W84*G84*0.15)</f>
         <v>3.8861206784440148</v>
       </c>
-      <c r="M84" s="58">
-        <f t="shared" si="8"/>
+      <c r="M84" s="57">
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="N84" s="58">
-        <f>M84-D84</f>
+      <c r="N84" s="57">
+        <f t="shared" si="10"/>
         <v>-7</v>
       </c>
       <c r="O84" s="47">
         <v>1.4200000000000001E-2</v>
       </c>
       <c r="T84" s="9" t="str">
-        <f>IF(Q84="","",D84*(Q84-G84)*W84)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U84" s="17"/>
@@ -6726,30 +6863,30 @@
         <v>32</v>
       </c>
       <c r="J85" s="42">
-        <f>IF(I85="N",1,IF(C85=I85,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="K85" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>5.4373333333333343E-2</v>
       </c>
-      <c r="L85" s="56">
+      <c r="L85" s="55">
         <f>(X85*K85)/(W85*G85*0.15)</f>
         <v>68.829213882988853</v>
       </c>
-      <c r="M85" s="58">
-        <f t="shared" si="8"/>
+      <c r="M85" s="57">
+        <f t="shared" si="16"/>
         <v>69</v>
       </c>
-      <c r="N85" s="58">
-        <f>M85-D85</f>
+      <c r="N85" s="57">
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="O85" s="47">
         <v>5.6099999999999997E-2</v>
       </c>
       <c r="T85" s="9" t="str">
-        <f>IF(Q85="","",D85*(Q85-G85)*W85)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U85" s="17"/>
@@ -6791,30 +6928,30 @@
         <v>32</v>
       </c>
       <c r="J86" s="42">
-        <f>IF(I86="N",1,IF(C86=I86,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="K86" s="47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>5.4373333333333343E-2</v>
       </c>
-      <c r="L86" s="56">
+      <c r="L86" s="55">
         <f>(X86*K86)/(W86*G86*0.15)</f>
         <v>7.5191808223552909</v>
       </c>
-      <c r="M86" s="58">
-        <f t="shared" si="8"/>
+      <c r="M86" s="57">
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="N86" s="58">
-        <f>M86-D86</f>
+      <c r="N86" s="57">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="O86" s="47">
         <v>5.8700000000000002E-2</v>
       </c>
       <c r="T86" s="9" t="str">
-        <f>IF(Q86="","",D86*(Q86-G86)*W86)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U86" s="17"/>
@@ -6856,30 +6993,30 @@
         <v>31</v>
       </c>
       <c r="J87" s="42">
-        <f>IF(I87="N",1,IF(C87=I87,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K87" s="47">
         <f>SUM($F$87:$F$91)/SUM($J$87:$J$91)*J87</f>
         <v>6.6633333333333336E-2</v>
       </c>
-      <c r="L87" s="56">
+      <c r="L87" s="55">
         <f>-(X87*K87)/(W87*G87*0.15)</f>
         <v>-46.684479058694649</v>
       </c>
-      <c r="M87" s="58">
-        <f t="shared" si="8"/>
+      <c r="M87" s="57">
+        <f t="shared" si="16"/>
         <v>-47</v>
       </c>
-      <c r="N87" s="58">
-        <f>M87-D87</f>
+      <c r="N87" s="57">
+        <f t="shared" si="10"/>
         <v>-19</v>
       </c>
       <c r="O87" s="47">
         <v>6.8099999999999994E-2</v>
       </c>
       <c r="T87" s="9" t="str">
-        <f>IF(Q87="","",D87*(Q87-G87)*W87)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U87" s="17"/>
@@ -6921,30 +7058,30 @@
         <v>32</v>
       </c>
       <c r="J88" s="42">
-        <f>IF(I88="N",1,IF(C88=I88,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="K88" s="47">
-        <f t="shared" ref="K88:K91" si="9">SUM($F$87:$F$91)/SUM($J$87:$J$91)*J88</f>
+        <f t="shared" ref="K88:K101" si="17">SUM($F$87:$F$91)/SUM($J$87:$J$91)*J88</f>
         <v>3.3316666666666668E-2</v>
       </c>
-      <c r="L88" s="56">
+      <c r="L88" s="55">
         <f>-(X88*K88)/(W88*G88*0.15)</f>
         <v>-22.221478969113519</v>
       </c>
-      <c r="M88" s="58">
-        <f t="shared" si="8"/>
+      <c r="M88" s="57">
+        <f t="shared" si="16"/>
         <v>-22</v>
       </c>
-      <c r="N88" s="58">
-        <f>M88-D88</f>
+      <c r="N88" s="57">
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="O88" s="47">
         <v>3.3500000000000002E-2</v>
       </c>
       <c r="T88" s="9" t="str">
-        <f>IF(Q88="","",D88*(Q88-G88)*W88)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U88" s="17"/>
@@ -6986,30 +7123,30 @@
         <v>32</v>
       </c>
       <c r="J89" s="42">
-        <f>IF(I89="N",1,IF(C89=I89,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="K89" s="47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>3.3316666666666668E-2</v>
       </c>
-      <c r="L89" s="56">
+      <c r="L89" s="55">
         <f>-(X89*K89)/(W89*G89*0.15)</f>
         <v>-30.517356395637087</v>
       </c>
-      <c r="M89" s="58">
-        <f t="shared" si="8"/>
+      <c r="M89" s="57">
+        <f t="shared" si="16"/>
         <v>-31</v>
       </c>
-      <c r="N89" s="58">
-        <f>M89-D89</f>
+      <c r="N89" s="57">
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="O89" s="47">
         <v>3.3300000000000003E-2</v>
       </c>
       <c r="T89" s="9" t="str">
-        <f>IF(Q89="","",D89*(Q89-G89)*W89)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U89" s="17"/>
@@ -7051,30 +7188,30 @@
         <v>32</v>
       </c>
       <c r="J90" s="42">
-        <f>IF(I90="N",1,IF(C90=I90,2,0.5))</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="K90" s="47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>3.3316666666666668E-2</v>
       </c>
-      <c r="L90" s="56">
+      <c r="L90" s="55">
         <f>-(X90*K90)/(W90*G90*0.15)</f>
         <v>-5.4136780084041831</v>
       </c>
-      <c r="M90" s="58">
-        <f t="shared" si="8"/>
+      <c r="M90" s="57">
+        <f t="shared" si="16"/>
         <v>-5</v>
       </c>
-      <c r="N90" s="58">
-        <f>M90-D90</f>
+      <c r="N90" s="57">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O90" s="47">
         <v>3.1300000000000001E-2</v>
       </c>
       <c r="T90" s="9" t="str">
-        <f>IF(Q90="","",D90*(Q90-G90)*W90)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U90" s="17"/>
@@ -7091,55 +7228,56 @@
       </c>
     </row>
     <row r="91" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B91" s="1" t="s">
+      <c r="A91" s="28"/>
+      <c r="B91" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="6">
         <v>-17</v>
       </c>
-      <c r="E91" s="36">
+      <c r="E91" s="35">
         <v>0.04</v>
       </c>
-      <c r="F91" s="36">
+      <c r="F91" s="35">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="G91" s="1">
+      <c r="G91" s="6">
         <v>1421</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="14">
         <v>43157</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="I91" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J91" s="42">
-        <f>IF(I91="N",1,IF(C91=I91,2,0.5))</f>
+      <c r="J91" s="41">
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="K91" s="47">
-        <f t="shared" si="9"/>
+      <c r="K91" s="59">
+        <f t="shared" si="17"/>
         <v>3.3316666666666668E-2</v>
       </c>
       <c r="L91" s="56">
         <f>-(X91*K91)/(W91*G91*0.15)</f>
         <v>-14.439017138426253</v>
       </c>
-      <c r="M91" s="58">
-        <f t="shared" si="8"/>
+      <c r="M91" s="6">
+        <f t="shared" si="16"/>
         <v>-14</v>
       </c>
-      <c r="N91" s="58">
-        <f>M91-D91</f>
+      <c r="N91" s="6">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="O91" s="47">
+      <c r="O91" s="59">
         <v>3.2800000000000003E-2</v>
       </c>
       <c r="T91" s="9" t="str">
-        <f>IF(Q91="","",D91*(Q91-G91)*W91)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U91" s="17"/>
@@ -7156,1793 +7294,2348 @@
       </c>
     </row>
     <row r="92" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A92" s="27">
+        <v>43158</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" s="1">
+        <v>31</v>
+      </c>
+      <c r="E92" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F92" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G92" s="1">
+        <v>640.79999999999995</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J92" s="42">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K92" s="47">
+        <f>SUM($F$92:$F$96)/SUM($J$92:$J$96)*J92</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L92" s="60">
+        <f>(X92*K92)/(W92*G92*0.15)</f>
+        <v>38.026487723678741</v>
+      </c>
+      <c r="M92" s="57">
+        <f t="shared" ref="M92:M101" si="18">ROUND(L92,0)</f>
+        <v>38</v>
+      </c>
+      <c r="N92" s="57">
+        <f t="shared" ref="N92:N101" si="19">M92-D92</f>
+        <v>7</v>
+      </c>
+      <c r="O92" s="47">
+        <v>6.6799999999999998E-2</v>
+      </c>
       <c r="T92" s="9" t="str">
-        <f>IF(Q92="","",D92*(Q92-G92)*W92)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U92" s="17"/>
+      <c r="W92" s="18">
+        <f>[1]!WSD($B92,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X92" s="1">
+        <v>5482659</v>
+      </c>
+      <c r="Y92" s="1" t="e">
+        <f>X92*#REF!/(G92*W92*0.15)</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="93" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" s="1">
+        <v>55</v>
+      </c>
+      <c r="E93" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F93" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1829</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J93" s="42">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K93" s="47">
+        <f t="shared" ref="K93:K96" si="20">SUM($F$92:$F$96)/SUM($J$92:$J$96)*J93</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L93" s="60">
+        <f t="shared" ref="L93:L96" si="21">(X93*K93)/(W93*G93*0.15)</f>
+        <v>66.61393596986818</v>
+      </c>
+      <c r="M93" s="57">
+        <f t="shared" si="18"/>
+        <v>67</v>
+      </c>
+      <c r="N93" s="57">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="O93" s="47">
+        <v>3.3399999999999999E-2</v>
+      </c>
       <c r="T93" s="9" t="str">
-        <f>IF(Q93="","",D93*(Q93-G93)*W93)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U93" s="17"/>
+      <c r="W93" s="18">
+        <f>[1]!WSD($B93,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X93" s="1">
+        <v>5482660</v>
+      </c>
+      <c r="Y93" s="1" t="e">
+        <f>X93*#REF!/(G93*W93*0.15)</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="94" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" s="1">
+        <v>4</v>
+      </c>
+      <c r="E94" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F94" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G94" s="1">
+        <v>12815</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J94" s="42">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="K94" s="47">
+        <f t="shared" si="20"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="L94" s="60">
+        <f t="shared" si="21"/>
+        <v>4.7536836172887673</v>
+      </c>
+      <c r="M94" s="57">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="N94" s="57">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="O94" s="47">
+        <v>1.7600000000000001E-2</v>
+      </c>
       <c r="T94" s="9" t="str">
-        <f>IF(Q94="","",D94*(Q94-G94)*W94)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U94" s="17"/>
+      <c r="W94" s="18">
+        <f>[1]!WSD($B94,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X94" s="1">
+        <v>5482661</v>
+      </c>
+      <c r="Y94" s="1" t="e">
+        <f>X94*#REF!/(G94*W94*0.15)</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="95" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D95" s="1">
+        <v>69</v>
+      </c>
+      <c r="E95" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F95" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G95" s="1">
+        <v>5826</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J95" s="42">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K95" s="47">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L95" s="60">
+        <f t="shared" si="21"/>
+        <v>83.650486325666549</v>
+      </c>
+      <c r="M95" s="57">
+        <f t="shared" si="18"/>
+        <v>84</v>
+      </c>
+      <c r="N95" s="57">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="O95" s="47">
+        <v>6.6699999999999995E-2</v>
+      </c>
       <c r="T95" s="9" t="str">
-        <f>IF(Q95="","",D95*(Q95-G95)*W95)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U95" s="17"/>
+      <c r="W95" s="18">
+        <f>[1]!WSD($B95,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X95" s="1">
+        <v>5482662</v>
+      </c>
+      <c r="Y95" s="1" t="e">
+        <f>X95*#REF!/(G95*W95*0.15)</f>
+        <v>#REF!</v>
+      </c>
     </row>
     <row r="96" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F96" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G96" s="1">
+        <v>2678</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J96" s="42">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="K96" s="47">
+        <f t="shared" si="20"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="L96" s="60">
+        <f t="shared" si="21"/>
+        <v>22.747751223964816</v>
+      </c>
+      <c r="M96" s="57">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="N96" s="57">
+        <f t="shared" si="19"/>
+        <v>23</v>
+      </c>
+      <c r="O96" s="47">
+        <v>1.6899999999999998E-2</v>
+      </c>
       <c r="T96" s="9" t="str">
-        <f>IF(Q96="","",D96*(Q96-G96)*W96)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U96" s="17"/>
-    </row>
-    <row r="97" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W96" s="18">
+        <f>[1]!WSD($B96,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X96" s="1">
+        <v>5482663</v>
+      </c>
+      <c r="Y96" s="1" t="e">
+        <f>X96*#REF!/(G96*W96*0.15)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="1">
+        <v>-47</v>
+      </c>
+      <c r="E97" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F97" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G97" s="1">
+        <v>5286</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J97" s="42">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K97" s="47">
+        <f>SUM($F$97:$F$101)/SUM($J$97:$J$101)*J97</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L97" s="60">
+        <f t="shared" ref="L92:L101" si="22">-(X97*K97)/(W97*G97*0.15)</f>
+        <v>-46.097986295035106</v>
+      </c>
+      <c r="M97" s="57">
+        <f t="shared" si="18"/>
+        <v>-46</v>
+      </c>
+      <c r="N97" s="57">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="O97" s="47">
+        <v>6.6100000000000006E-2</v>
+      </c>
       <c r="T97" s="9" t="str">
-        <f>IF(Q97="","",D97*(Q97-G97)*W97)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U97" s="17"/>
-    </row>
-    <row r="98" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W97" s="18">
+        <f>[1]!WSD($B97,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X97" s="1">
+        <v>5482664</v>
+      </c>
+      <c r="Y97" s="1" t="e">
+        <f>X97*#REF!/(G97*W97*0.15)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98" s="1">
+        <v>-22</v>
+      </c>
+      <c r="E98" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F98" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G98" s="1">
+        <v>546.5</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J98" s="42">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="K98" s="47">
+        <f t="shared" ref="K98:K101" si="23">SUM($F$97:$F$101)/SUM($J$97:$J$101)*J98</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L98" s="60">
+        <f t="shared" si="22"/>
+        <v>-22.294053064958828</v>
+      </c>
+      <c r="M98" s="57">
+        <f t="shared" si="18"/>
+        <v>-22</v>
+      </c>
+      <c r="N98" s="57">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O98" s="47">
+        <v>3.3000000000000002E-2</v>
+      </c>
       <c r="T98" s="9" t="str">
-        <f>IF(Q98="","",D98*(Q98-G98)*W98)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U98" s="17"/>
-    </row>
-    <row r="99" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W98" s="18">
+        <f>[1]!WSD($B98,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X98" s="1">
+        <v>5482665</v>
+      </c>
+      <c r="Y98" s="1" t="e">
+        <f>X98*#REF!/(G98*W98*0.15)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" s="1">
+        <v>-31</v>
+      </c>
+      <c r="E99" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F99" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G99" s="1">
+        <v>4016</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J99" s="42">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="K99" s="47">
+        <f t="shared" si="23"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L99" s="60">
+        <f t="shared" si="22"/>
+        <v>-30.337903939796369</v>
+      </c>
+      <c r="M99" s="57">
+        <f>ROUND(L99,0)-1</f>
+        <v>-31</v>
+      </c>
+      <c r="N99" s="57">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O99" s="47">
+        <v>3.2800000000000003E-2</v>
+      </c>
       <c r="T99" s="9" t="str">
-        <f>IF(Q99="","",D99*(Q99-G99)*W99)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U99" s="17"/>
-    </row>
-    <row r="100" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W99" s="18">
+        <f>[1]!WSD($B99,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X99" s="1">
+        <v>5482666</v>
+      </c>
+      <c r="Y99" s="1" t="e">
+        <f>X99*#REF!/(G99*W99*0.15)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" s="1">
+        <v>-5</v>
+      </c>
+      <c r="E100" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F100" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G100" s="1">
+        <v>2268.5</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J100" s="42">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="K100" s="47">
+        <f t="shared" si="23"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L100" s="60">
+        <f t="shared" si="22"/>
+        <v>-5.370819680160654</v>
+      </c>
+      <c r="M100" s="57">
+        <f>ROUND(L100,0)-1</f>
+        <v>-6</v>
+      </c>
+      <c r="N100" s="57">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="O100" s="47">
+        <v>3.6999999999999998E-2</v>
+      </c>
       <c r="T100" s="9" t="str">
-        <f>IF(Q100="","",D100*(Q100-G100)*W100)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U100" s="17"/>
-    </row>
-    <row r="101" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W100" s="18">
+        <f>[1]!WSD($B100,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X100" s="1">
+        <v>5482667</v>
+      </c>
+      <c r="Y100" s="1" t="e">
+        <f>X100*#REF!/(G100*W100*0.15)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="28"/>
+      <c r="B101" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="6">
+        <v>-14</v>
+      </c>
+      <c r="E101" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F101" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G101" s="6">
+        <v>1414</v>
+      </c>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J101" s="41">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="K101" s="59">
+        <f t="shared" si="23"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L101" s="56">
+        <f t="shared" si="22"/>
+        <v>-14.360804651893762</v>
+      </c>
+      <c r="M101" s="6">
+        <f t="shared" si="18"/>
+        <v>-14</v>
+      </c>
+      <c r="N101" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O101" s="59">
+        <v>3.2399999999999998E-2</v>
+      </c>
       <c r="T101" s="9" t="str">
-        <f>IF(Q101="","",D101*(Q101-G101)*W101)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U101" s="17"/>
-    </row>
-    <row r="102" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W101" s="18">
+        <f>[1]!WSD($B101,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X101" s="1">
+        <v>5482668</v>
+      </c>
+      <c r="Y101" s="1" t="e">
+        <f>X101*#REF!/(G101*W101*0.15)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T102" s="9" t="str">
-        <f>IF(Q102="","",D102*(Q102-G102)*W102)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U102" s="17"/>
     </row>
-    <row r="103" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T103" s="9" t="str">
-        <f>IF(Q103="","",D103*(Q103-G103)*W103)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U103" s="17"/>
     </row>
-    <row r="104" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T104" s="9" t="str">
-        <f>IF(Q104="","",D104*(Q104-G104)*W104)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U104" s="17"/>
     </row>
-    <row r="105" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T105" s="9" t="str">
-        <f>IF(Q105="","",D105*(Q105-G105)*W105)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U105" s="17"/>
     </row>
-    <row r="106" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T106" s="9" t="str">
-        <f>IF(Q106="","",D106*(Q106-G106)*W106)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U106" s="17"/>
     </row>
-    <row r="107" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T107" s="9" t="str">
-        <f>IF(Q107="","",D107*(Q107-G107)*W107)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U107" s="17"/>
     </row>
-    <row r="108" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T108" s="9" t="str">
-        <f>IF(Q108="","",D108*(Q108-G108)*W108)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U108" s="17"/>
     </row>
-    <row r="109" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T109" s="9" t="str">
-        <f>IF(Q109="","",D109*(Q109-G109)*W109)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U109" s="17"/>
     </row>
-    <row r="110" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T110" s="9" t="str">
-        <f>IF(Q110="","",D110*(Q110-G110)*W110)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U110" s="17"/>
     </row>
-    <row r="111" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T111" s="9" t="str">
-        <f>IF(Q111="","",D111*(Q111-G111)*W111)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U111" s="17"/>
     </row>
-    <row r="112" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T112" s="9" t="str">
-        <f>IF(Q112="","",D112*(Q112-G112)*W112)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U112" s="17"/>
     </row>
     <row r="113" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T113" s="9" t="str">
-        <f>IF(Q113="","",D113*(Q113-G113)*W113)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U113" s="17"/>
     </row>
     <row r="114" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T114" s="9" t="str">
-        <f>IF(Q114="","",D114*(Q114-G114)*W114)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U114" s="17"/>
     </row>
     <row r="115" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T115" s="9" t="str">
-        <f>IF(Q115="","",D115*(Q115-G115)*W115)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U115" s="17"/>
     </row>
     <row r="116" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T116" s="9" t="str">
-        <f>IF(Q116="","",D116*(Q116-G116)*W116)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U116" s="17"/>
     </row>
     <row r="117" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T117" s="9" t="str">
-        <f>IF(Q117="","",D117*(Q117-G117)*W117)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U117" s="17"/>
     </row>
     <row r="118" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T118" s="9" t="str">
-        <f>IF(Q118="","",D118*(Q118-G118)*W118)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U118" s="17"/>
     </row>
     <row r="119" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T119" s="9" t="str">
-        <f>IF(Q119="","",D119*(Q119-G119)*W119)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U119" s="17"/>
     </row>
     <row r="120" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T120" s="9" t="str">
-        <f>IF(Q120="","",D120*(Q120-G120)*W120)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U120" s="17"/>
     </row>
     <row r="121" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T121" s="9" t="str">
-        <f>IF(Q121="","",D121*(Q121-G121)*W121)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U121" s="17"/>
     </row>
     <row r="122" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T122" s="9" t="str">
-        <f>IF(Q122="","",D122*(Q122-G122)*W122)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U122" s="17"/>
     </row>
     <row r="123" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T123" s="9" t="str">
-        <f>IF(Q123="","",D123*(Q123-G123)*W123)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U123" s="17"/>
     </row>
     <row r="124" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T124" s="9" t="str">
-        <f>IF(Q124="","",D124*(Q124-G124)*W124)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U124" s="17"/>
     </row>
     <row r="125" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T125" s="9" t="str">
-        <f>IF(Q125="","",D125*(Q125-G125)*W125)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U125" s="17"/>
     </row>
     <row r="126" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T126" s="9" t="str">
-        <f>IF(Q126="","",D126*(Q126-G126)*W126)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U126" s="17"/>
     </row>
     <row r="127" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T127" s="9" t="str">
-        <f>IF(Q127="","",D127*(Q127-G127)*W127)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U127" s="17"/>
     </row>
     <row r="128" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T128" s="9" t="str">
-        <f>IF(Q128="","",D128*(Q128-G128)*W128)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U128" s="17"/>
     </row>
     <row r="129" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T129" s="9" t="str">
-        <f>IF(Q129="","",D129*(Q129-G129)*W129)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U129" s="17"/>
     </row>
     <row r="130" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T130" s="9" t="str">
-        <f>IF(Q130="","",D130*(Q130-G130)*W130)</f>
+        <f t="shared" ref="T130:T193" si="24">IF(Q130="","",D130*(Q130-G130)*W130)</f>
         <v/>
       </c>
       <c r="U130" s="17"/>
     </row>
     <row r="131" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T131" s="9" t="str">
-        <f>IF(Q131="","",D131*(Q131-G131)*W131)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U131" s="17"/>
     </row>
     <row r="132" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T132" s="9" t="str">
-        <f>IF(Q132="","",D132*(Q132-G132)*W132)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U132" s="17"/>
     </row>
     <row r="133" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T133" s="9" t="str">
-        <f>IF(Q133="","",D133*(Q133-G133)*W133)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U133" s="17"/>
     </row>
     <row r="134" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T134" s="9" t="str">
-        <f>IF(Q134="","",D134*(Q134-G134)*W134)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U134" s="17"/>
     </row>
     <row r="135" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T135" s="9" t="str">
-        <f>IF(Q135="","",D135*(Q135-G135)*W135)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U135" s="17"/>
     </row>
     <row r="136" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T136" s="9" t="str">
-        <f>IF(Q136="","",D136*(Q136-G136)*W136)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U136" s="17"/>
     </row>
     <row r="137" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T137" s="9" t="str">
-        <f>IF(Q137="","",D137*(Q137-G137)*W137)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U137" s="17"/>
     </row>
     <row r="138" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T138" s="9" t="str">
-        <f>IF(Q138="","",D138*(Q138-G138)*W138)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U138" s="17"/>
     </row>
     <row r="139" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T139" s="9" t="str">
-        <f>IF(Q139="","",D139*(Q139-G139)*W139)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U139" s="17"/>
     </row>
     <row r="140" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T140" s="9" t="str">
-        <f>IF(Q140="","",D140*(Q140-G140)*W140)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U140" s="17"/>
     </row>
     <row r="141" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T141" s="9" t="str">
-        <f>IF(Q141="","",D141*(Q141-G141)*W141)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U141" s="17"/>
     </row>
     <row r="142" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T142" s="9" t="str">
-        <f>IF(Q142="","",D142*(Q142-G142)*W142)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U142" s="17"/>
     </row>
     <row r="143" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T143" s="9" t="str">
-        <f>IF(Q143="","",D143*(Q143-G143)*W143)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U143" s="17"/>
     </row>
     <row r="144" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T144" s="9" t="str">
-        <f>IF(Q144="","",D144*(Q144-G144)*W144)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U144" s="17"/>
     </row>
     <row r="145" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T145" s="9" t="str">
-        <f>IF(Q145="","",D145*(Q145-G145)*W145)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U145" s="17"/>
     </row>
     <row r="146" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T146" s="9" t="str">
-        <f>IF(Q146="","",D146*(Q146-G146)*W146)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U146" s="17"/>
     </row>
     <row r="147" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T147" s="9" t="str">
-        <f>IF(Q147="","",D147*(Q147-G147)*W147)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U147" s="17"/>
     </row>
     <row r="148" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T148" s="9" t="str">
-        <f>IF(Q148="","",D148*(Q148-G148)*W148)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U148" s="17"/>
     </row>
     <row r="149" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T149" s="9" t="str">
-        <f>IF(Q149="","",D149*(Q149-G149)*W149)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U149" s="17"/>
     </row>
     <row r="150" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T150" s="9" t="str">
-        <f>IF(Q150="","",D150*(Q150-G150)*W150)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U150" s="17"/>
     </row>
     <row r="151" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T151" s="9" t="str">
-        <f>IF(Q151="","",D151*(Q151-G151)*W151)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U151" s="17"/>
     </row>
     <row r="152" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T152" s="9" t="str">
-        <f>IF(Q152="","",D152*(Q152-G152)*W152)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U152" s="17"/>
     </row>
     <row r="153" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T153" s="9" t="str">
-        <f>IF(Q153="","",D153*(Q153-G153)*W153)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U153" s="17"/>
     </row>
     <row r="154" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T154" s="9" t="str">
-        <f>IF(Q154="","",D154*(Q154-G154)*W154)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U154" s="17"/>
     </row>
     <row r="155" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T155" s="9" t="str">
-        <f>IF(Q155="","",D155*(Q155-G155)*W155)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U155" s="17"/>
     </row>
     <row r="156" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T156" s="9" t="str">
-        <f>IF(Q156="","",D156*(Q156-G156)*W156)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U156" s="17"/>
     </row>
     <row r="157" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T157" s="9" t="str">
-        <f>IF(Q157="","",D157*(Q157-G157)*W157)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U157" s="17"/>
     </row>
     <row r="158" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T158" s="9" t="str">
-        <f>IF(Q158="","",D158*(Q158-G158)*W158)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U158" s="17"/>
     </row>
     <row r="159" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T159" s="9" t="str">
-        <f>IF(Q159="","",D159*(Q159-G159)*W159)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U159" s="17"/>
     </row>
     <row r="160" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T160" s="9" t="str">
-        <f>IF(Q160="","",D160*(Q160-G160)*W160)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U160" s="17"/>
     </row>
     <row r="161" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T161" s="9" t="str">
-        <f>IF(Q161="","",D161*(Q161-G161)*W161)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U161" s="17"/>
     </row>
     <row r="162" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T162" s="9" t="str">
-        <f>IF(Q162="","",D162*(Q162-G162)*W162)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U162" s="17"/>
     </row>
     <row r="163" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T163" s="9" t="str">
-        <f>IF(Q163="","",D163*(Q163-G163)*W163)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U163" s="17"/>
     </row>
     <row r="164" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T164" s="9" t="str">
-        <f>IF(Q164="","",D164*(Q164-G164)*W164)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U164" s="17"/>
     </row>
     <row r="165" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T165" s="9" t="str">
-        <f>IF(Q165="","",D165*(Q165-G165)*W165)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U165" s="17"/>
     </row>
     <row r="166" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T166" s="9" t="str">
-        <f>IF(Q166="","",D166*(Q166-G166)*W166)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U166" s="17"/>
     </row>
     <row r="167" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T167" s="9" t="str">
-        <f>IF(Q167="","",D167*(Q167-G167)*W167)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U167" s="17"/>
     </row>
     <row r="168" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T168" s="9" t="str">
-        <f>IF(Q168="","",D168*(Q168-G168)*W168)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U168" s="17"/>
     </row>
     <row r="169" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T169" s="9" t="str">
-        <f>IF(Q169="","",D169*(Q169-G169)*W169)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U169" s="17"/>
     </row>
     <row r="170" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T170" s="9" t="str">
-        <f>IF(Q170="","",D170*(Q170-G170)*W170)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U170" s="17"/>
     </row>
     <row r="171" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T171" s="9" t="str">
-        <f>IF(Q171="","",D171*(Q171-G171)*W171)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U171" s="17"/>
     </row>
     <row r="172" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T172" s="9" t="str">
-        <f>IF(Q172="","",D172*(Q172-G172)*W172)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U172" s="17"/>
     </row>
     <row r="173" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T173" s="9" t="str">
-        <f>IF(Q173="","",D173*(Q173-G173)*W173)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U173" s="17"/>
     </row>
     <row r="174" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T174" s="9" t="str">
-        <f>IF(Q174="","",D174*(Q174-G174)*W174)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U174" s="17"/>
     </row>
     <row r="175" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T175" s="9" t="str">
-        <f>IF(Q175="","",D175*(Q175-G175)*W175)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U175" s="17"/>
     </row>
     <row r="176" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T176" s="9" t="str">
-        <f>IF(Q176="","",D176*(Q176-G176)*W176)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U176" s="17"/>
     </row>
     <row r="177" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T177" s="9" t="str">
-        <f>IF(Q177="","",D177*(Q177-G177)*W177)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U177" s="17"/>
     </row>
     <row r="178" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T178" s="9" t="str">
-        <f>IF(Q178="","",D178*(Q178-G178)*W178)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U178" s="17"/>
     </row>
     <row r="179" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T179" s="9" t="str">
-        <f>IF(Q179="","",D179*(Q179-G179)*W179)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U179" s="17"/>
     </row>
     <row r="180" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T180" s="9" t="str">
-        <f>IF(Q180="","",D180*(Q180-G180)*W180)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U180" s="17"/>
     </row>
     <row r="181" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T181" s="9" t="str">
-        <f>IF(Q181="","",D181*(Q181-G181)*W181)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U181" s="17"/>
     </row>
     <row r="182" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T182" s="9" t="str">
-        <f>IF(Q182="","",D182*(Q182-G182)*W182)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U182" s="17"/>
     </row>
     <row r="183" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T183" s="9" t="str">
-        <f>IF(Q183="","",D183*(Q183-G183)*W183)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U183" s="17"/>
     </row>
     <row r="184" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T184" s="9" t="str">
-        <f>IF(Q184="","",D184*(Q184-G184)*W184)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U184" s="17"/>
     </row>
     <row r="185" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T185" s="9" t="str">
-        <f>IF(Q185="","",D185*(Q185-G185)*W185)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U185" s="17"/>
     </row>
     <row r="186" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T186" s="9" t="str">
-        <f>IF(Q186="","",D186*(Q186-G186)*W186)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U186" s="17"/>
     </row>
     <row r="187" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T187" s="9" t="str">
-        <f>IF(Q187="","",D187*(Q187-G187)*W187)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U187" s="17"/>
     </row>
     <row r="188" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T188" s="9" t="str">
-        <f>IF(Q188="","",D188*(Q188-G188)*W188)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U188" s="17"/>
     </row>
     <row r="189" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T189" s="9" t="str">
-        <f>IF(Q189="","",D189*(Q189-G189)*W189)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U189" s="17"/>
     </row>
     <row r="190" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T190" s="9" t="str">
-        <f>IF(Q190="","",D190*(Q190-G190)*W190)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U190" s="17"/>
     </row>
     <row r="191" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T191" s="9" t="str">
-        <f>IF(Q191="","",D191*(Q191-G191)*W191)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U191" s="17"/>
     </row>
     <row r="192" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T192" s="9" t="str">
-        <f>IF(Q192="","",D192*(Q192-G192)*W192)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U192" s="17"/>
     </row>
     <row r="193" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T193" s="9" t="str">
-        <f>IF(Q193="","",D193*(Q193-G193)*W193)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U193" s="17"/>
     </row>
     <row r="194" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T194" s="9" t="str">
-        <f>IF(Q194="","",D194*(Q194-G194)*W194)</f>
+        <f t="shared" ref="T194:T257" si="25">IF(Q194="","",D194*(Q194-G194)*W194)</f>
         <v/>
       </c>
       <c r="U194" s="17"/>
     </row>
     <row r="195" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T195" s="9" t="str">
-        <f>IF(Q195="","",D195*(Q195-G195)*W195)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U195" s="17"/>
     </row>
     <row r="196" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T196" s="9" t="str">
-        <f>IF(Q196="","",D196*(Q196-G196)*W196)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U196" s="17"/>
     </row>
     <row r="197" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T197" s="9" t="str">
-        <f>IF(Q197="","",D197*(Q197-G197)*W197)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U197" s="17"/>
     </row>
     <row r="198" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T198" s="9" t="str">
-        <f>IF(Q198="","",D198*(Q198-G198)*W198)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U198" s="17"/>
     </row>
     <row r="199" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T199" s="9" t="str">
-        <f>IF(Q199="","",D199*(Q199-G199)*W199)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U199" s="17"/>
     </row>
     <row r="200" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T200" s="9" t="str">
-        <f>IF(Q200="","",D200*(Q200-G200)*W200)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U200" s="17"/>
     </row>
     <row r="201" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T201" s="9" t="str">
-        <f>IF(Q201="","",D201*(Q201-G201)*W201)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U201" s="17"/>
     </row>
     <row r="202" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T202" s="9" t="str">
-        <f>IF(Q202="","",D202*(Q202-G202)*W202)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U202" s="17"/>
     </row>
     <row r="203" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T203" s="9" t="str">
-        <f>IF(Q203="","",D203*(Q203-G203)*W203)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U203" s="17"/>
     </row>
     <row r="204" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T204" s="9" t="str">
-        <f>IF(Q204="","",D204*(Q204-G204)*W204)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U204" s="17"/>
     </row>
     <row r="205" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T205" s="9" t="str">
-        <f>IF(Q205="","",D205*(Q205-G205)*W205)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U205" s="17"/>
     </row>
     <row r="206" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T206" s="9" t="str">
-        <f>IF(Q206="","",D206*(Q206-G206)*W206)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U206" s="17"/>
     </row>
     <row r="207" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T207" s="9" t="str">
-        <f>IF(Q207="","",D207*(Q207-G207)*W207)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U207" s="17"/>
     </row>
     <row r="208" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T208" s="9" t="str">
-        <f>IF(Q208="","",D208*(Q208-G208)*W208)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U208" s="17"/>
     </row>
     <row r="209" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T209" s="9" t="str">
-        <f>IF(Q209="","",D209*(Q209-G209)*W209)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U209" s="17"/>
     </row>
     <row r="210" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T210" s="9" t="str">
-        <f>IF(Q210="","",D210*(Q210-G210)*W210)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U210" s="17"/>
     </row>
     <row r="211" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T211" s="9" t="str">
-        <f>IF(Q211="","",D211*(Q211-G211)*W211)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U211" s="17"/>
     </row>
     <row r="212" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T212" s="9" t="str">
-        <f>IF(Q212="","",D212*(Q212-G212)*W212)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U212" s="17"/>
     </row>
     <row r="213" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T213" s="9" t="str">
-        <f>IF(Q213="","",D213*(Q213-G213)*W213)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U213" s="17"/>
     </row>
     <row r="214" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T214" s="9" t="str">
-        <f>IF(Q214="","",D214*(Q214-G214)*W214)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U214" s="17"/>
     </row>
     <row r="215" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T215" s="9" t="str">
-        <f>IF(Q215="","",D215*(Q215-G215)*W215)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U215" s="17"/>
     </row>
     <row r="216" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T216" s="9" t="str">
-        <f>IF(Q216="","",D216*(Q216-G216)*W216)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U216" s="17"/>
     </row>
     <row r="217" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T217" s="9" t="str">
-        <f>IF(Q217="","",D217*(Q217-G217)*W217)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U217" s="17"/>
     </row>
     <row r="218" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T218" s="9" t="str">
-        <f>IF(Q218="","",D218*(Q218-G218)*W218)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U218" s="17"/>
     </row>
     <row r="219" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T219" s="9" t="str">
-        <f>IF(Q219="","",D219*(Q219-G219)*W219)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U219" s="17"/>
     </row>
     <row r="220" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T220" s="9" t="str">
-        <f>IF(Q220="","",D220*(Q220-G220)*W220)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U220" s="17"/>
     </row>
     <row r="221" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T221" s="9" t="str">
-        <f>IF(Q221="","",D221*(Q221-G221)*W221)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U221" s="17"/>
     </row>
     <row r="222" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T222" s="9" t="str">
-        <f>IF(Q222="","",D222*(Q222-G222)*W222)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U222" s="17"/>
     </row>
     <row r="223" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T223" s="9" t="str">
-        <f>IF(Q223="","",D223*(Q223-G223)*W223)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U223" s="17"/>
     </row>
     <row r="224" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T224" s="9" t="str">
-        <f>IF(Q224="","",D224*(Q224-G224)*W224)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U224" s="17"/>
     </row>
     <row r="225" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T225" s="9" t="str">
-        <f>IF(Q225="","",D225*(Q225-G225)*W225)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U225" s="17"/>
     </row>
     <row r="226" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T226" s="9" t="str">
-        <f>IF(Q226="","",D226*(Q226-G226)*W226)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U226" s="17"/>
     </row>
     <row r="227" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T227" s="9" t="str">
-        <f>IF(Q227="","",D227*(Q227-G227)*W227)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U227" s="17"/>
     </row>
     <row r="228" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T228" s="9" t="str">
-        <f>IF(Q228="","",D228*(Q228-G228)*W228)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U228" s="17"/>
     </row>
     <row r="229" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T229" s="9" t="str">
-        <f>IF(Q229="","",D229*(Q229-G229)*W229)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U229" s="17"/>
     </row>
     <row r="230" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T230" s="9" t="str">
-        <f>IF(Q230="","",D230*(Q230-G230)*W230)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U230" s="17"/>
     </row>
     <row r="231" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T231" s="9" t="str">
-        <f>IF(Q231="","",D231*(Q231-G231)*W231)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U231" s="17"/>
     </row>
     <row r="232" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T232" s="9" t="str">
-        <f>IF(Q232="","",D232*(Q232-G232)*W232)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U232" s="17"/>
     </row>
     <row r="233" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T233" s="9" t="str">
-        <f>IF(Q233="","",D233*(Q233-G233)*W233)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U233" s="17"/>
     </row>
     <row r="234" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T234" s="9" t="str">
-        <f>IF(Q234="","",D234*(Q234-G234)*W234)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U234" s="17"/>
     </row>
     <row r="235" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T235" s="9" t="str">
-        <f>IF(Q235="","",D235*(Q235-G235)*W235)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U235" s="17"/>
     </row>
     <row r="236" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T236" s="9" t="str">
-        <f>IF(Q236="","",D236*(Q236-G236)*W236)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U236" s="17"/>
     </row>
     <row r="237" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T237" s="9" t="str">
-        <f>IF(Q237="","",D237*(Q237-G237)*W237)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U237" s="17"/>
     </row>
     <row r="238" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T238" s="9" t="str">
-        <f>IF(Q238="","",D238*(Q238-G238)*W238)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U238" s="17"/>
     </row>
     <row r="239" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T239" s="9" t="str">
-        <f>IF(Q239="","",D239*(Q239-G239)*W239)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U239" s="17"/>
     </row>
     <row r="240" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T240" s="9" t="str">
-        <f>IF(Q240="","",D240*(Q240-G240)*W240)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U240" s="17"/>
     </row>
     <row r="241" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T241" s="9" t="str">
-        <f>IF(Q241="","",D241*(Q241-G241)*W241)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U241" s="17"/>
     </row>
     <row r="242" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T242" s="9" t="str">
-        <f>IF(Q242="","",D242*(Q242-G242)*W242)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U242" s="17"/>
     </row>
     <row r="243" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T243" s="9" t="str">
-        <f>IF(Q243="","",D243*(Q243-G243)*W243)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U243" s="17"/>
     </row>
     <row r="244" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T244" s="9" t="str">
-        <f>IF(Q244="","",D244*(Q244-G244)*W244)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U244" s="17"/>
     </row>
     <row r="245" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T245" s="9" t="str">
-        <f>IF(Q245="","",D245*(Q245-G245)*W245)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U245" s="17"/>
     </row>
     <row r="246" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T246" s="9" t="str">
-        <f>IF(Q246="","",D246*(Q246-G246)*W246)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U246" s="17"/>
     </row>
     <row r="247" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T247" s="9" t="str">
-        <f>IF(Q247="","",D247*(Q247-G247)*W247)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U247" s="17"/>
     </row>
     <row r="248" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T248" s="9" t="str">
-        <f>IF(Q248="","",D248*(Q248-G248)*W248)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U248" s="17"/>
     </row>
     <row r="249" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T249" s="9" t="str">
-        <f>IF(Q249="","",D249*(Q249-G249)*W249)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U249" s="17"/>
     </row>
     <row r="250" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T250" s="9" t="str">
-        <f>IF(Q250="","",D250*(Q250-G250)*W250)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U250" s="17"/>
     </row>
     <row r="251" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T251" s="9" t="str">
-        <f>IF(Q251="","",D251*(Q251-G251)*W251)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U251" s="17"/>
     </row>
     <row r="252" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T252" s="9" t="str">
-        <f>IF(Q252="","",D252*(Q252-G252)*W252)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U252" s="17"/>
     </row>
     <row r="253" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T253" s="9" t="str">
-        <f>IF(Q253="","",D253*(Q253-G253)*W253)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U253" s="17"/>
     </row>
     <row r="254" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T254" s="9" t="str">
-        <f>IF(Q254="","",D254*(Q254-G254)*W254)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U254" s="17"/>
     </row>
     <row r="255" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T255" s="9" t="str">
-        <f>IF(Q255="","",D255*(Q255-G255)*W255)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U255" s="17"/>
     </row>
     <row r="256" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T256" s="9" t="str">
-        <f>IF(Q256="","",D256*(Q256-G256)*W256)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
     </row>
     <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T257" s="9" t="str">
-        <f>IF(Q257="","",D257*(Q257-G257)*W257)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U257" s="17"/>
     </row>
     <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T258" s="9" t="str">
-        <f>IF(Q258="","",D258*(Q258-G258)*W258)</f>
+        <f t="shared" ref="T258:T321" si="26">IF(Q258="","",D258*(Q258-G258)*W258)</f>
         <v/>
       </c>
       <c r="U258" s="17"/>
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f>IF(Q259="","",D259*(Q259-G259)*W259)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f>IF(Q260="","",D260*(Q260-G260)*W260)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f>IF(Q261="","",D261*(Q261-G261)*W261)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f>IF(Q262="","",D262*(Q262-G262)*W262)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f>IF(Q263="","",D263*(Q263-G263)*W263)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f>IF(Q264="","",D264*(Q264-G264)*W264)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f>IF(Q265="","",D265*(Q265-G265)*W265)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f>IF(Q266="","",D266*(Q266-G266)*W266)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f>IF(Q267="","",D267*(Q267-G267)*W267)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f>IF(Q268="","",D268*(Q268-G268)*W268)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f>IF(Q269="","",D269*(Q269-G269)*W269)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f>IF(Q270="","",D270*(Q270-G270)*W270)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f>IF(Q271="","",D271*(Q271-G271)*W271)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f>IF(Q272="","",D272*(Q272-G272)*W272)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f>IF(Q273="","",D273*(Q273-G273)*W273)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f>IF(Q274="","",D274*(Q274-G274)*W274)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f>IF(Q275="","",D275*(Q275-G275)*W275)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f>IF(Q276="","",D276*(Q276-G276)*W276)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f>IF(Q277="","",D277*(Q277-G277)*W277)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f>IF(Q278="","",D278*(Q278-G278)*W278)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f>IF(Q279="","",D279*(Q279-G279)*W279)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f>IF(Q280="","",D280*(Q280-G280)*W280)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f>IF(Q281="","",D281*(Q281-G281)*W281)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f>IF(Q282="","",D282*(Q282-G282)*W282)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f>IF(Q283="","",D283*(Q283-G283)*W283)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f>IF(Q284="","",D284*(Q284-G284)*W284)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f>IF(Q285="","",D285*(Q285-G285)*W285)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f>IF(Q286="","",D286*(Q286-G286)*W286)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f>IF(Q287="","",D287*(Q287-G287)*W287)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f>IF(Q288="","",D288*(Q288-G288)*W288)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f>IF(Q289="","",D289*(Q289-G289)*W289)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f>IF(Q290="","",D290*(Q290-G290)*W290)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f>IF(Q291="","",D291*(Q291-G291)*W291)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f>IF(Q292="","",D292*(Q292-G292)*W292)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f>IF(Q293="","",D293*(Q293-G293)*W293)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f>IF(Q294="","",D294*(Q294-G294)*W294)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f>IF(Q295="","",D295*(Q295-G295)*W295)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f>IF(Q296="","",D296*(Q296-G296)*W296)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f>IF(Q297="","",D297*(Q297-G297)*W297)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f>IF(Q298="","",D298*(Q298-G298)*W298)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f>IF(Q299="","",D299*(Q299-G299)*W299)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f>IF(Q300="","",D300*(Q300-G300)*W300)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f>IF(Q301="","",D301*(Q301-G301)*W301)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f>IF(Q302="","",D302*(Q302-G302)*W302)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f>IF(Q303="","",D303*(Q303-G303)*W303)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f>IF(Q304="","",D304*(Q304-G304)*W304)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f>IF(Q305="","",D305*(Q305-G305)*W305)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f>IF(Q306="","",D306*(Q306-G306)*W306)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f>IF(Q307="","",D307*(Q307-G307)*W307)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f>IF(Q308="","",D308*(Q308-G308)*W308)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f>IF(Q309="","",D309*(Q309-G309)*W309)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f>IF(Q310="","",D310*(Q310-G310)*W310)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f>IF(Q311="","",D311*(Q311-G311)*W311)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f>IF(Q312="","",D312*(Q312-G312)*W312)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f>IF(Q313="","",D313*(Q313-G313)*W313)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f>IF(Q314="","",D314*(Q314-G314)*W314)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f>IF(Q315="","",D315*(Q315-G315)*W315)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f>IF(Q316="","",D316*(Q316-G316)*W316)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f>IF(Q317="","",D317*(Q317-G317)*W317)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f>IF(Q318="","",D318*(Q318-G318)*W318)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f>IF(Q319="","",D319*(Q319-G319)*W319)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f>IF(Q320="","",D320*(Q320-G320)*W320)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f>IF(Q321="","",D321*(Q321-G321)*W321)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f>IF(Q322="","",D322*(Q322-G322)*W322)</f>
+        <f t="shared" ref="T322:T347" si="27">IF(Q322="","",D322*(Q322-G322)*W322)</f>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f>IF(Q323="","",D323*(Q323-G323)*W323)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f>IF(Q324="","",D324*(Q324-G324)*W324)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f>IF(Q325="","",D325*(Q325-G325)*W325)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f>IF(Q326="","",D326*(Q326-G326)*W326)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f>IF(Q327="","",D327*(Q327-G327)*W327)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f>IF(Q328="","",D328*(Q328-G328)*W328)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f>IF(Q329="","",D329*(Q329-G329)*W329)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f>IF(Q330="","",D330*(Q330-G330)*W330)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f>IF(Q331="","",D331*(Q331-G331)*W331)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f>IF(Q332="","",D332*(Q332-G332)*W332)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f>IF(Q333="","",D333*(Q333-G333)*W333)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f>IF(Q334="","",D334*(Q334-G334)*W334)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f>IF(Q335="","",D335*(Q335-G335)*W335)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f>IF(Q336="","",D336*(Q336-G336)*W336)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f>IF(Q337="","",D337*(Q337-G337)*W337)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f>IF(Q338="","",D338*(Q338-G338)*W338)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f>IF(Q339="","",D339*(Q339-G339)*W339)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f>IF(Q340="","",D340*(Q340-G340)*W340)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f>IF(Q341="","",D341*(Q341-G341)*W341)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f>IF(Q342="","",D342*(Q342-G342)*W342)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f>IF(Q343="","",D343*(Q343-G343)*W343)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f>IF(Q344="","",D344*(Q344-G344)*W344)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f>IF(Q345="","",D345*(Q345-G345)*W345)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f>IF(Q346="","",D346*(Q346-G346)*W346)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f>IF(Q347="","",D347*(Q347-G347)*W347)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U347" s="17"/>
@@ -27869,20 +28562,20 @@
         <v>13</v>
       </c>
       <c r="E1" s="52"/>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B2" s="20" t="s">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="净值" sheetId="1" r:id="rId1"/>
@@ -729,9 +729,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,6 +736,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -965,11 +965,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="303008720"/>
-        <c:axId val="472638784"/>
+        <c:axId val="300805360"/>
+        <c:axId val="300803120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="303008720"/>
+        <c:axId val="300805360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,14 +1012,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472638784"/>
+        <c:crossAx val="300803120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472638784"/>
+        <c:axId val="300803120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1070,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303008720"/>
+        <c:crossAx val="300805360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2020,7 +2020,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2217,7 +2217,7 @@
       <c r="B17" s="48">
         <v>5519409</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="60">
         <f t="shared" si="0"/>
         <v>0.98482950365523281</v>
       </c>
@@ -2252,9 +2252,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG6644"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M82" sqref="M82:M91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q83" sqref="Q83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2353,11 +2353,11 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7">
         <f>COUNT(T2:T9988)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA1" s="8">
         <f>COUNTIF(T2:T9988,"&gt;0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB1" s="8">
         <f>COUNTIF(T2:T9988,"&lt;0")</f>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AC1" s="8">
         <f>SUMIF(T2:T9988,"&gt;0")</f>
-        <v>540</v>
+        <v>1919.9999999997908</v>
       </c>
       <c r="AD1" s="8">
         <f>ABS(SUMIF(T2:T9988,"&lt;0"))</f>
@@ -5629,7 +5629,7 @@
         <v>#REF!</v>
       </c>
       <c r="N64" s="1" t="e">
-        <f t="shared" ref="N64:N95" si="10">M64-D64</f>
+        <f t="shared" ref="N64:N91" si="10">M64-D64</f>
         <v>#REF!</v>
       </c>
       <c r="T64" s="9" t="str">
@@ -6621,7 +6621,7 @@
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
-      <c r="O81" s="59"/>
+      <c r="O81" s="58"/>
       <c r="T81" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -6690,9 +6690,12 @@
       <c r="O82" s="47">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="T82" s="9" t="str">
+      <c r="Q82" s="1">
+        <v>638.79999999999995</v>
+      </c>
+      <c r="T82" s="9">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1379.9999999997908</v>
       </c>
       <c r="U82" s="17"/>
       <c r="W82" s="18">
@@ -7062,7 +7065,7 @@
         <v>0.5</v>
       </c>
       <c r="K88" s="47">
-        <f t="shared" ref="K88:K101" si="17">SUM($F$87:$F$91)/SUM($J$87:$J$91)*J88</f>
+        <f t="shared" ref="K88:K91" si="17">SUM($F$87:$F$91)/SUM($J$87:$J$91)*J88</f>
         <v>3.3316666666666668E-2</v>
       </c>
       <c r="L88" s="55">
@@ -7257,7 +7260,7 @@
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="K91" s="59">
+      <c r="K91" s="58">
         <f t="shared" si="17"/>
         <v>3.3316666666666668E-2</v>
       </c>
@@ -7273,7 +7276,7 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="O91" s="59">
+      <c r="O91" s="58">
         <v>3.2800000000000003E-2</v>
       </c>
       <c r="T91" s="9" t="str">
@@ -7326,7 +7329,7 @@
         <f>SUM($F$92:$F$96)/SUM($J$92:$J$96)*J92</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="L92" s="60">
+      <c r="L92" s="59">
         <f>(X92*K92)/(W92*G92*0.15)</f>
         <v>38.026487723678741</v>
       </c>
@@ -7388,7 +7391,7 @@
         <f t="shared" ref="K93:K96" si="20">SUM($F$92:$F$96)/SUM($J$92:$J$96)*J93</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="L93" s="60">
+      <c r="L93" s="59">
         <f t="shared" ref="L93:L96" si="21">(X93*K93)/(W93*G93*0.15)</f>
         <v>66.61393596986818</v>
       </c>
@@ -7450,7 +7453,7 @@
         <f t="shared" si="20"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="L94" s="60">
+      <c r="L94" s="59">
         <f t="shared" si="21"/>
         <v>4.7536836172887673</v>
       </c>
@@ -7512,7 +7515,7 @@
         <f t="shared" si="20"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="L95" s="60">
+      <c r="L95" s="59">
         <f t="shared" si="21"/>
         <v>83.650486325666549</v>
       </c>
@@ -7574,7 +7577,7 @@
         <f t="shared" si="20"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="L96" s="60">
+      <c r="L96" s="59">
         <f t="shared" si="21"/>
         <v>22.747751223964816</v>
       </c>
@@ -7636,8 +7639,8 @@
         <f>SUM($F$97:$F$101)/SUM($J$97:$J$101)*J97</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="L97" s="60">
-        <f t="shared" ref="L92:L101" si="22">-(X97*K97)/(W97*G97*0.15)</f>
+      <c r="L97" s="59">
+        <f t="shared" ref="L97:L101" si="22">-(X97*K97)/(W97*G97*0.15)</f>
         <v>-46.097986295035106</v>
       </c>
       <c r="M97" s="57">
@@ -7698,7 +7701,7 @@
         <f t="shared" ref="K98:K101" si="23">SUM($F$97:$F$101)/SUM($J$97:$J$101)*J98</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="L98" s="60">
+      <c r="L98" s="59">
         <f t="shared" si="22"/>
         <v>-22.294053064958828</v>
       </c>
@@ -7760,7 +7763,7 @@
         <f t="shared" si="23"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="L99" s="60">
+      <c r="L99" s="59">
         <f t="shared" si="22"/>
         <v>-30.337903939796369</v>
       </c>
@@ -7822,7 +7825,7 @@
         <f t="shared" si="23"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="L100" s="60">
+      <c r="L100" s="59">
         <f t="shared" si="22"/>
         <v>-5.370819680160654</v>
       </c>
@@ -7882,7 +7885,7 @@
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="K101" s="59">
+      <c r="K101" s="58">
         <f t="shared" si="23"/>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -7898,7 +7901,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O101" s="59">
+      <c r="O101" s="58">
         <v>3.2399999999999998E-2</v>
       </c>
       <c r="T101" s="9" t="str">
@@ -28562,20 +28565,20 @@
         <v>13</v>
       </c>
       <c r="E1" s="52"/>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B2" s="20" t="s">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="净值" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="112">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -464,6 +464,10 @@
     <t>S</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -572,7 +576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -741,6 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -854,10 +859,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$18</c:f>
+              <c:f>净值!$A$5:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -900,15 +905,21 @@
                 <c:pt idx="13">
                   <c:v>43157</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>43158</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43159</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$18</c:f>
+              <c:f>净值!$B$5:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -951,6 +962,12 @@
                 <c:pt idx="13">
                   <c:v>5512178</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>5493539</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5451121</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -965,11 +982,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="300805360"/>
-        <c:axId val="300803120"/>
+        <c:axId val="620773152"/>
+        <c:axId val="620773712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="300805360"/>
+        <c:axId val="620773152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,14 +1029,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300803120"/>
+        <c:crossAx val="620773712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="300803120"/>
+        <c:axId val="620773712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1087,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300805360"/>
+        <c:crossAx val="620773152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2018,10 +2035,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2074,7 +2091,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C18" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C20" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2237,6 +2254,25 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="27">
         <v>43158</v>
+      </c>
+      <c r="B19" s="4">
+        <v>5493539</v>
+      </c>
+      <c r="C19" s="51">
+        <f t="shared" si="0"/>
+        <v>0.98021351320053718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="27">
+        <v>43159</v>
+      </c>
+      <c r="B20" s="4">
+        <v>5451121</v>
+      </c>
+      <c r="C20" s="51">
+        <f t="shared" si="0"/>
+        <v>0.97264485904099807</v>
       </c>
     </row>
   </sheetData>
@@ -2252,9 +2288,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG6644"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q83" sqref="Q83"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7922,74 +7958,591 @@
       </c>
     </row>
     <row r="102" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A102" s="27">
+        <v>43159</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="1">
+        <v>38</v>
+      </c>
+      <c r="E102" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F102" s="47">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="G102" s="1">
+        <v>640.79999999999995</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J102" s="42">
+        <f t="shared" ref="J102:J111" si="24">IF(I102="N",1,IF(C102=I102,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K102" s="47">
+        <f>SUM($F$102:$F$106)/SUM($J$102:$J$106)*J102</f>
+        <v>4.0279999999999996E-2</v>
+      </c>
+      <c r="L102" s="59">
+        <f>(X102*K102)/(W102*G102*0.15)</f>
+        <v>22.849927935913442</v>
+      </c>
+      <c r="M102" s="57">
+        <f t="shared" ref="M102:M111" si="25">ROUND(L102,0)</f>
+        <v>23</v>
+      </c>
+      <c r="N102" s="57">
+        <f t="shared" ref="N102:N111" si="26">M102-D102</f>
+        <v>-15</v>
+      </c>
+      <c r="O102" s="47">
+        <v>6.6799999999999998E-2</v>
+      </c>
       <c r="T102" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U102" s="17"/>
+      <c r="W102" s="18">
+        <f>[1]!WSD($B102,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X102" s="1">
+        <v>5452669</v>
+      </c>
     </row>
     <row r="103" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="62">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103" s="1">
+        <v>67</v>
+      </c>
+      <c r="E103" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F103" s="47">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1829</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J103" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K103" s="47">
+        <f t="shared" ref="K103:K106" si="27">SUM($F$102:$F$106)/SUM($J$102:$J$106)*J103</f>
+        <v>4.0279999999999996E-2</v>
+      </c>
+      <c r="L103" s="59">
+        <f t="shared" ref="L103:L106" si="28">(X103*K103)/(W103*G103*0.15)</f>
+        <v>80.055953096409681</v>
+      </c>
+      <c r="M103" s="57">
+        <f t="shared" si="25"/>
+        <v>80</v>
+      </c>
+      <c r="N103" s="57">
+        <f t="shared" si="26"/>
+        <v>13</v>
+      </c>
+      <c r="O103" s="47">
+        <v>3.3399999999999999E-2</v>
+      </c>
       <c r="T103" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U103" s="17"/>
+      <c r="W103" s="18">
+        <f>[1]!WSD($B103,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X103" s="1">
+        <v>5452669</v>
+      </c>
     </row>
     <row r="104" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" s="1">
+        <v>5</v>
+      </c>
+      <c r="E104" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F104" s="47">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="G104" s="1">
+        <v>12815</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J104" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K104" s="47">
+        <f t="shared" si="27"/>
+        <v>2.0139999999999998E-2</v>
+      </c>
+      <c r="L104" s="59">
+        <f t="shared" si="28"/>
+        <v>5.7129277492521782</v>
+      </c>
+      <c r="M104" s="57">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="N104" s="57">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="O104" s="47">
+        <v>1.7600000000000001E-2</v>
+      </c>
       <c r="T104" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U104" s="17"/>
+      <c r="W104" s="18">
+        <f>[1]!WSD($B104,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X104" s="1">
+        <v>5452669</v>
+      </c>
     </row>
     <row r="105" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="1">
+        <v>84</v>
+      </c>
+      <c r="E105" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F105" s="47">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="G105" s="1">
+        <v>5826</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J105" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K105" s="47">
+        <f t="shared" si="27"/>
+        <v>8.0559999999999993E-2</v>
+      </c>
+      <c r="L105" s="59">
+        <f t="shared" si="28"/>
+        <v>100.5302699713926</v>
+      </c>
+      <c r="M105" s="57">
+        <f t="shared" si="25"/>
+        <v>101</v>
+      </c>
+      <c r="N105" s="57">
+        <f t="shared" si="26"/>
+        <v>17</v>
+      </c>
+      <c r="O105" s="47">
+        <v>6.6699999999999995E-2</v>
+      </c>
       <c r="T105" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U105" s="17"/>
+      <c r="W105" s="18">
+        <f>[1]!WSD($B105,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X105" s="1">
+        <v>5452669</v>
+      </c>
     </row>
     <row r="106" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" s="1">
+        <v>23</v>
+      </c>
+      <c r="E106" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F106" s="47">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="G106" s="1">
+        <v>2678</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J106" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K106" s="47">
+        <f t="shared" si="27"/>
+        <v>2.0139999999999998E-2</v>
+      </c>
+      <c r="L106" s="59">
+        <f t="shared" si="28"/>
+        <v>27.338001906895691</v>
+      </c>
+      <c r="M106" s="57">
+        <f t="shared" si="25"/>
+        <v>27</v>
+      </c>
+      <c r="N106" s="57">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="O106" s="47">
+        <v>1.6899999999999998E-2</v>
+      </c>
       <c r="T106" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U106" s="17"/>
+      <c r="W106" s="18">
+        <f>[1]!WSD($B106,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X106" s="1">
+        <v>5452669</v>
+      </c>
     </row>
     <row r="107" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-46</v>
+      </c>
+      <c r="E107" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F107" s="47">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="G107" s="1">
+        <v>5286</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J107" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K107" s="47">
+        <f>SUM($F$107:$F$111)/SUM($J$107:$J$111)*J107</f>
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="L107" s="59">
+        <f t="shared" ref="L107:L111" si="29">-(X107*K107)/(W107*G107*0.15)</f>
+        <v>-46.143787350233325</v>
+      </c>
+      <c r="M107" s="57">
+        <f t="shared" si="25"/>
+        <v>-46</v>
+      </c>
+      <c r="N107" s="57">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O107" s="47">
+        <v>6.6100000000000006E-2</v>
+      </c>
       <c r="T107" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U107" s="17"/>
+      <c r="W107" s="18">
+        <f>[1]!WSD($B107,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X107" s="1">
+        <v>5452669</v>
+      </c>
     </row>
     <row r="108" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" s="1">
+        <v>-22</v>
+      </c>
+      <c r="E108" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F108" s="47">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G108" s="1">
+        <v>546.5</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J108" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K108" s="47">
+        <f t="shared" ref="K108:K111" si="30">SUM($F$107:$F$111)/SUM($J$107:$J$111)*J108</f>
+        <v>3.3550000000000003E-2</v>
+      </c>
+      <c r="L108" s="59">
+        <f t="shared" si="29"/>
+        <v>-22.31619944495273</v>
+      </c>
+      <c r="M108" s="57">
+        <f t="shared" si="25"/>
+        <v>-22</v>
+      </c>
+      <c r="N108" s="57">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O108" s="47">
+        <v>3.3000000000000002E-2</v>
+      </c>
       <c r="T108" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U108" s="17"/>
+      <c r="W108" s="18">
+        <f>[1]!WSD($B108,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X108" s="1">
+        <v>5452669</v>
+      </c>
     </row>
     <row r="109" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" s="1">
+        <v>-31</v>
+      </c>
+      <c r="E109" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F109" s="47">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="G109" s="1">
+        <v>4016</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J109" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K109" s="47">
+        <f t="shared" si="30"/>
+        <v>3.3550000000000003E-2</v>
+      </c>
+      <c r="L109" s="59">
+        <f t="shared" si="29"/>
+        <v>-30.368035350265608</v>
+      </c>
+      <c r="M109" s="57">
+        <f>ROUND(L109,0)-1</f>
+        <v>-31</v>
+      </c>
+      <c r="N109" s="57">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O109" s="47">
+        <v>3.2800000000000003E-2</v>
+      </c>
       <c r="T109" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U109" s="17"/>
+      <c r="W109" s="18">
+        <f>[1]!WSD($B109,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X109" s="1">
+        <v>5452669</v>
+      </c>
     </row>
     <row r="110" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D110" s="1">
+        <v>-6</v>
+      </c>
+      <c r="E110" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F110" s="47">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G110" s="1">
+        <v>2268.5</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J110" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K110" s="47">
+        <f t="shared" si="30"/>
+        <v>3.3550000000000003E-2</v>
+      </c>
+      <c r="L110" s="59">
+        <f t="shared" si="29"/>
+        <v>-5.3761529630445963</v>
+      </c>
+      <c r="M110" s="57">
+        <f>ROUND(L110,0)-1</f>
+        <v>-6</v>
+      </c>
+      <c r="N110" s="57">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O110" s="47">
+        <v>3.6999999999999998E-2</v>
+      </c>
       <c r="T110" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U110" s="17"/>
+      <c r="W110" s="18">
+        <f>[1]!WSD($B110,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X110" s="1">
+        <v>5452669</v>
+      </c>
     </row>
     <row r="111" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B111" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" s="6">
+        <v>-14</v>
+      </c>
+      <c r="E111" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F111" s="58">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="G111" s="6">
+        <v>1414</v>
+      </c>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J111" s="41">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K111" s="47">
+        <f t="shared" si="30"/>
+        <v>3.3550000000000003E-2</v>
+      </c>
+      <c r="L111" s="56">
+        <f t="shared" si="29"/>
+        <v>-14.375062466603804</v>
+      </c>
+      <c r="M111" s="6">
+        <f t="shared" ref="M111" si="31">ROUND(L111,0)</f>
+        <v>-14</v>
+      </c>
+      <c r="N111" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O111" s="58">
+        <v>3.2399999999999998E-2</v>
+      </c>
       <c r="T111" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U111" s="17"/>
+      <c r="W111" s="18">
+        <f>[1]!WSD($B111,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X111" s="1">
+        <v>5452669</v>
+      </c>
     </row>
     <row r="112" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T112" s="9" t="str">
@@ -8119,1526 +8672,1526 @@
     </row>
     <row r="130" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T130" s="9" t="str">
-        <f t="shared" ref="T130:T193" si="24">IF(Q130="","",D130*(Q130-G130)*W130)</f>
+        <f t="shared" ref="T130:T193" si="32">IF(Q130="","",D130*(Q130-G130)*W130)</f>
         <v/>
       </c>
       <c r="U130" s="17"/>
     </row>
     <row r="131" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T131" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U131" s="17"/>
     </row>
     <row r="132" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T132" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U132" s="17"/>
     </row>
     <row r="133" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T133" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U133" s="17"/>
     </row>
     <row r="134" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T134" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U134" s="17"/>
     </row>
     <row r="135" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T135" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U135" s="17"/>
     </row>
     <row r="136" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T136" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U136" s="17"/>
     </row>
     <row r="137" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T137" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U137" s="17"/>
     </row>
     <row r="138" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T138" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U138" s="17"/>
     </row>
     <row r="139" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T139" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U139" s="17"/>
     </row>
     <row r="140" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T140" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U140" s="17"/>
     </row>
     <row r="141" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T141" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U141" s="17"/>
     </row>
     <row r="142" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T142" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U142" s="17"/>
     </row>
     <row r="143" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T143" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U143" s="17"/>
     </row>
     <row r="144" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T144" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U144" s="17"/>
     </row>
     <row r="145" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T145" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U145" s="17"/>
     </row>
     <row r="146" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T146" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U146" s="17"/>
     </row>
     <row r="147" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T147" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U147" s="17"/>
     </row>
     <row r="148" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T148" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U148" s="17"/>
     </row>
     <row r="149" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T149" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U149" s="17"/>
     </row>
     <row r="150" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T150" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U150" s="17"/>
     </row>
     <row r="151" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T151" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U151" s="17"/>
     </row>
     <row r="152" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T152" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U152" s="17"/>
     </row>
     <row r="153" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T153" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U153" s="17"/>
     </row>
     <row r="154" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T154" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U154" s="17"/>
     </row>
     <row r="155" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T155" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U155" s="17"/>
     </row>
     <row r="156" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T156" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U156" s="17"/>
     </row>
     <row r="157" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T157" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U157" s="17"/>
     </row>
     <row r="158" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T158" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U158" s="17"/>
     </row>
     <row r="159" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T159" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U159" s="17"/>
     </row>
     <row r="160" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T160" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U160" s="17"/>
     </row>
     <row r="161" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T161" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U161" s="17"/>
     </row>
     <row r="162" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T162" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U162" s="17"/>
     </row>
     <row r="163" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T163" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U163" s="17"/>
     </row>
     <row r="164" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T164" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U164" s="17"/>
     </row>
     <row r="165" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T165" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U165" s="17"/>
     </row>
     <row r="166" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T166" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U166" s="17"/>
     </row>
     <row r="167" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T167" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U167" s="17"/>
     </row>
     <row r="168" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T168" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U168" s="17"/>
     </row>
     <row r="169" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T169" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U169" s="17"/>
     </row>
     <row r="170" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T170" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U170" s="17"/>
     </row>
     <row r="171" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T171" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U171" s="17"/>
     </row>
     <row r="172" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T172" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U172" s="17"/>
     </row>
     <row r="173" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T173" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U173" s="17"/>
     </row>
     <row r="174" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T174" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U174" s="17"/>
     </row>
     <row r="175" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T175" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U175" s="17"/>
     </row>
     <row r="176" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T176" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U176" s="17"/>
     </row>
     <row r="177" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T177" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U177" s="17"/>
     </row>
     <row r="178" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T178" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U178" s="17"/>
     </row>
     <row r="179" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T179" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U179" s="17"/>
     </row>
     <row r="180" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T180" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U180" s="17"/>
     </row>
     <row r="181" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T181" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U181" s="17"/>
     </row>
     <row r="182" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T182" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U182" s="17"/>
     </row>
     <row r="183" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T183" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U183" s="17"/>
     </row>
     <row r="184" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T184" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U184" s="17"/>
     </row>
     <row r="185" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T185" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U185" s="17"/>
     </row>
     <row r="186" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T186" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U186" s="17"/>
     </row>
     <row r="187" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T187" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U187" s="17"/>
     </row>
     <row r="188" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T188" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U188" s="17"/>
     </row>
     <row r="189" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T189" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U189" s="17"/>
     </row>
     <row r="190" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T190" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U190" s="17"/>
     </row>
     <row r="191" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T191" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U191" s="17"/>
     </row>
     <row r="192" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T192" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U192" s="17"/>
     </row>
     <row r="193" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T193" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U193" s="17"/>
     </row>
     <row r="194" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T194" s="9" t="str">
-        <f t="shared" ref="T194:T257" si="25">IF(Q194="","",D194*(Q194-G194)*W194)</f>
+        <f t="shared" ref="T194:T257" si="33">IF(Q194="","",D194*(Q194-G194)*W194)</f>
         <v/>
       </c>
       <c r="U194" s="17"/>
     </row>
     <row r="195" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T195" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U195" s="17"/>
     </row>
     <row r="196" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T196" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U196" s="17"/>
     </row>
     <row r="197" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T197" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U197" s="17"/>
     </row>
     <row r="198" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T198" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U198" s="17"/>
     </row>
     <row r="199" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T199" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U199" s="17"/>
     </row>
     <row r="200" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T200" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U200" s="17"/>
     </row>
     <row r="201" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T201" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U201" s="17"/>
     </row>
     <row r="202" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T202" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U202" s="17"/>
     </row>
     <row r="203" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T203" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U203" s="17"/>
     </row>
     <row r="204" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T204" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U204" s="17"/>
     </row>
     <row r="205" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T205" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U205" s="17"/>
     </row>
     <row r="206" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T206" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U206" s="17"/>
     </row>
     <row r="207" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T207" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U207" s="17"/>
     </row>
     <row r="208" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T208" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U208" s="17"/>
     </row>
     <row r="209" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T209" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U209" s="17"/>
     </row>
     <row r="210" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T210" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U210" s="17"/>
     </row>
     <row r="211" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T211" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U211" s="17"/>
     </row>
     <row r="212" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T212" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U212" s="17"/>
     </row>
     <row r="213" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T213" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U213" s="17"/>
     </row>
     <row r="214" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T214" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U214" s="17"/>
     </row>
     <row r="215" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T215" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U215" s="17"/>
     </row>
     <row r="216" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T216" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U216" s="17"/>
     </row>
     <row r="217" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T217" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U217" s="17"/>
     </row>
     <row r="218" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T218" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U218" s="17"/>
     </row>
     <row r="219" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T219" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U219" s="17"/>
     </row>
     <row r="220" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T220" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U220" s="17"/>
     </row>
     <row r="221" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T221" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U221" s="17"/>
     </row>
     <row r="222" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T222" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U222" s="17"/>
     </row>
     <row r="223" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T223" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U223" s="17"/>
     </row>
     <row r="224" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T224" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U224" s="17"/>
     </row>
     <row r="225" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T225" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U225" s="17"/>
     </row>
     <row r="226" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T226" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U226" s="17"/>
     </row>
     <row r="227" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T227" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U227" s="17"/>
     </row>
     <row r="228" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T228" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U228" s="17"/>
     </row>
     <row r="229" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T229" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U229" s="17"/>
     </row>
     <row r="230" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T230" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U230" s="17"/>
     </row>
     <row r="231" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T231" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U231" s="17"/>
     </row>
     <row r="232" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T232" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U232" s="17"/>
     </row>
     <row r="233" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T233" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U233" s="17"/>
     </row>
     <row r="234" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T234" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U234" s="17"/>
     </row>
     <row r="235" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T235" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U235" s="17"/>
     </row>
     <row r="236" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T236" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U236" s="17"/>
     </row>
     <row r="237" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T237" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U237" s="17"/>
     </row>
     <row r="238" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T238" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U238" s="17"/>
     </row>
     <row r="239" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T239" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U239" s="17"/>
     </row>
     <row r="240" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T240" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U240" s="17"/>
     </row>
     <row r="241" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T241" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U241" s="17"/>
     </row>
     <row r="242" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T242" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U242" s="17"/>
     </row>
     <row r="243" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T243" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U243" s="17"/>
     </row>
     <row r="244" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T244" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U244" s="17"/>
     </row>
     <row r="245" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T245" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U245" s="17"/>
     </row>
     <row r="246" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T246" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U246" s="17"/>
     </row>
     <row r="247" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T247" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U247" s="17"/>
     </row>
     <row r="248" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T248" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U248" s="17"/>
     </row>
     <row r="249" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T249" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U249" s="17"/>
     </row>
     <row r="250" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T250" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U250" s="17"/>
     </row>
     <row r="251" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T251" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U251" s="17"/>
     </row>
     <row r="252" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T252" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U252" s="17"/>
     </row>
     <row r="253" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T253" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U253" s="17"/>
     </row>
     <row r="254" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T254" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U254" s="17"/>
     </row>
     <row r="255" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T255" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U255" s="17"/>
     </row>
     <row r="256" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T256" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
     </row>
     <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T257" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U257" s="17"/>
     </row>
     <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T258" s="9" t="str">
-        <f t="shared" ref="T258:T321" si="26">IF(Q258="","",D258*(Q258-G258)*W258)</f>
+        <f t="shared" ref="T258:T321" si="34">IF(Q258="","",D258*(Q258-G258)*W258)</f>
         <v/>
       </c>
       <c r="U258" s="17"/>
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" ref="T322:T347" si="27">IF(Q322="","",D322*(Q322-G322)*W322)</f>
+        <f t="shared" ref="T322:T347" si="35">IF(Q322="","",D322*(Q322-G322)*W322)</f>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U347" s="17"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -742,10 +742,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -859,10 +859,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$20</c:f>
+              <c:f>净值!$A$5:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -911,15 +911,21 @@
                 <c:pt idx="15">
                   <c:v>43159</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43161</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$20</c:f>
+              <c:f>净值!$B$5:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -966,7 +972,13 @@
                   <c:v>5493539</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5451121</c:v>
+                  <c:v>5502709</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5455160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5528341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,11 +994,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="620773152"/>
-        <c:axId val="620773712"/>
+        <c:axId val="298579552"/>
+        <c:axId val="298576192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="620773152"/>
+        <c:axId val="298579552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,14 +1041,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620773712"/>
+        <c:crossAx val="298576192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="620773712"/>
+        <c:axId val="298576192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1087,7 +1099,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620773152"/>
+        <c:crossAx val="298579552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2035,10 +2047,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2091,7 +2103,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C20" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C22" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2268,11 +2280,110 @@
         <v>43159</v>
       </c>
       <c r="B20" s="4">
-        <v>5451121</v>
+        <v>5502709</v>
       </c>
       <c r="C20" s="51">
         <f t="shared" si="0"/>
-        <v>0.97264485904099807</v>
+        <v>0.98184971855305203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>43160</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5455160</v>
+      </c>
+      <c r="C21" s="51">
+        <f t="shared" si="0"/>
+        <v>0.97336553880313625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="14">
+        <v>43161</v>
+      </c>
+      <c r="B22" s="48">
+        <v>5528341</v>
+      </c>
+      <c r="C22" s="28">
+        <f t="shared" si="0"/>
+        <v>0.98642324260928538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>43164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>43165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>43166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>43167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="14">
+        <v>43168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>43171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>43172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>43173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>43174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="14">
+        <v>43175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>43178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>43179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>43180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>43182</v>
       </c>
     </row>
   </sheetData>
@@ -2289,8 +2400,8 @@
   <dimension ref="A1:AG6644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7995,7 +8106,7 @@
         <v>22.849927935913442</v>
       </c>
       <c r="M102" s="57">
-        <f t="shared" ref="M102:M111" si="25">ROUND(L102,0)</f>
+        <f t="shared" ref="M102:M108" si="25">ROUND(L102,0)</f>
         <v>23</v>
       </c>
       <c r="N102" s="57">
@@ -8019,9 +8130,7 @@
       </c>
     </row>
     <row r="103" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A103" s="62">
-        <v>0.59722222222222221</v>
-      </c>
+      <c r="A103" s="61"/>
       <c r="B103" s="1" t="s">
         <v>24</v>
       </c>
@@ -8486,6 +8595,7 @@
       </c>
     </row>
     <row r="111" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A111" s="28"/>
       <c r="B111" s="6" t="s">
         <v>101</v>
       </c>
@@ -29118,20 +29228,20 @@
         <v>13</v>
       </c>
       <c r="E1" s="52"/>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B2" s="20" t="s">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -994,11 +994,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="298579552"/>
-        <c:axId val="298576192"/>
+        <c:axId val="284195520"/>
+        <c:axId val="284349232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="298579552"/>
+        <c:axId val="284195520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,14 +1041,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298576192"/>
+        <c:crossAx val="284349232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="298576192"/>
+        <c:axId val="284349232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,7 +1099,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298579552"/>
+        <c:crossAx val="284195520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2050,7 +2050,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="116">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -468,6 +468,22 @@
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>BU1806</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -859,10 +875,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$22</c:f>
+              <c:f>净值!$A$5:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -917,15 +933,18 @@
                 <c:pt idx="17">
                   <c:v>43161</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>43164</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$22</c:f>
+              <c:f>净值!$B$5:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -980,6 +999,9 @@
                 <c:pt idx="17">
                   <c:v>5528341</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>5594705</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -994,11 +1016,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="284195520"/>
-        <c:axId val="284349232"/>
+        <c:axId val="586755968"/>
+        <c:axId val="586757088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="284195520"/>
+        <c:axId val="586755968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,14 +1063,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284349232"/>
+        <c:crossAx val="586757088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="284349232"/>
+        <c:axId val="586757088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,7 +1121,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284195520"/>
+        <c:crossAx val="586755968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2050,7 +2072,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2103,7 +2125,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C22" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C23" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2314,6 +2336,13 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>43164</v>
+      </c>
+      <c r="B23" s="4">
+        <v>5594705</v>
+      </c>
+      <c r="C23" s="51">
+        <f t="shared" si="0"/>
+        <v>0.99826458743090962</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -2400,8 +2429,8 @@
   <dimension ref="A1:AG6644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M115" sqref="M115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8094,7 +8123,7 @@
         <v>111</v>
       </c>
       <c r="J102" s="42">
-        <f t="shared" ref="J102:J111" si="24">IF(I102="N",1,IF(C102=I102,2,0.5))</f>
+        <f t="shared" ref="J102:J121" si="24">IF(I102="N",1,IF(C102=I102,2,0.5))</f>
         <v>1</v>
       </c>
       <c r="K102" s="47">
@@ -8110,7 +8139,7 @@
         <v>23</v>
       </c>
       <c r="N102" s="57">
-        <f t="shared" ref="N102:N111" si="26">M102-D102</f>
+        <f t="shared" ref="N102:N121" si="26">M102-D102</f>
         <v>-15</v>
       </c>
       <c r="O102" s="47">
@@ -8393,7 +8422,7 @@
         <v>6.7100000000000007E-2</v>
       </c>
       <c r="L107" s="59">
-        <f t="shared" ref="L107:L111" si="29">-(X107*K107)/(W107*G107*0.15)</f>
+        <f t="shared" ref="L107:L121" si="29">-(X107*K107)/(W107*G107*0.15)</f>
         <v>-46.143787350233325</v>
       </c>
       <c r="M107" s="57">
@@ -8622,7 +8651,7 @@
         <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
-      <c r="K111" s="47">
+      <c r="K111" s="58">
         <f t="shared" si="30"/>
         <v>3.3550000000000003E-2</v>
       </c>
@@ -8631,7 +8660,7 @@
         <v>-14.375062466603804</v>
       </c>
       <c r="M111" s="6">
-        <f t="shared" ref="M111" si="31">ROUND(L111,0)</f>
+        <f t="shared" ref="M111:M121" si="31">ROUND(L111,0)</f>
         <v>-14</v>
       </c>
       <c r="N111" s="6">
@@ -8655,118 +8684,633 @@
       </c>
     </row>
     <row r="112" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A112" s="27">
+        <v>43161</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" s="1">
+        <v>23</v>
+      </c>
+      <c r="E112" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F112" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G112" s="1">
+        <v>632.4</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J112" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K112" s="47">
+        <f>SUM($F$112:$F$116)/SUM($J$112:$J$116)*J112</f>
+        <v>3.0769230769230771E-2</v>
+      </c>
+      <c r="L112" s="59">
+        <f>(X112*K112)/(W112*G112*0.15)</f>
+        <v>18.175289900906602</v>
+      </c>
+      <c r="M112" s="57">
+        <f t="shared" si="31"/>
+        <v>18</v>
+      </c>
+      <c r="N112" s="57">
+        <f t="shared" si="26"/>
+        <v>-5</v>
+      </c>
+      <c r="O112" s="47">
+        <v>3.04E-2</v>
+      </c>
       <c r="T112" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U112" s="17"/>
-    </row>
-    <row r="113" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W112" s="18">
+        <f>[1]!WSD($B112,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X112" s="1">
+        <v>5603351</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D113" s="1">
+        <v>80</v>
+      </c>
+      <c r="E113" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F113" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1840</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J113" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K113" s="47">
+        <f>SUM($F$112:$F$116)/SUM($J$112:$J$116)*J113</f>
+        <v>3.0769230769230771E-2</v>
+      </c>
+      <c r="L113" s="59">
+        <f>(X113*K113)/(W113*G113*0.15)</f>
+        <v>62.467681159420295</v>
+      </c>
+      <c r="M113" s="57">
+        <f t="shared" si="31"/>
+        <v>62</v>
+      </c>
+      <c r="N113" s="57">
+        <f t="shared" si="26"/>
+        <v>-18</v>
+      </c>
+      <c r="O113" s="47">
+        <v>3.0499999999999999E-2</v>
+      </c>
       <c r="T113" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U113" s="17"/>
-    </row>
-    <row r="114" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W113" s="18">
+        <f>[1]!WSD($B113,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X113" s="1">
+        <v>5603351</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B114" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D114" s="1">
+        <v>6</v>
+      </c>
+      <c r="E114" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F114" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G114" s="1">
+        <v>13040</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J114" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K114" s="47">
+        <f t="shared" ref="K114:K116" si="32">SUM($F$112:$F$116)/SUM($J$112:$J$116)*J114</f>
+        <v>1.5384615384615385E-2</v>
+      </c>
+      <c r="L114" s="59">
+        <f>(X114*K114)/(W114*G114*0.15)</f>
+        <v>4.4072290388548065</v>
+      </c>
+      <c r="M114" s="57">
+        <f>ROUND(L114,0)+1</f>
+        <v>5</v>
+      </c>
+      <c r="N114" s="57">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="O114" s="47">
+        <v>1.7299999999999999E-2</v>
+      </c>
       <c r="T114" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U114" s="17"/>
-    </row>
-    <row r="115" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W114" s="18">
+        <f>[1]!WSD($B114,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X114" s="1">
+        <v>5603351</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115" s="1">
+        <v>101</v>
+      </c>
+      <c r="E115" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F115" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G115" s="1">
+        <v>5834</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J115" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K115" s="47">
+        <f t="shared" si="32"/>
+        <v>6.1538461538461542E-2</v>
+      </c>
+      <c r="L115" s="59">
+        <f>(X115*K115)/(W115*G115*0.15)</f>
+        <v>78.807359158953275</v>
+      </c>
+      <c r="M115" s="57">
+        <f t="shared" si="31"/>
+        <v>79</v>
+      </c>
+      <c r="N115" s="57">
+        <f t="shared" si="26"/>
+        <v>-22</v>
+      </c>
+      <c r="O115" s="47">
+        <v>6.1400000000000003E-2</v>
+      </c>
       <c r="T115" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U115" s="17"/>
-    </row>
-    <row r="116" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W115" s="18">
+        <f>[1]!WSD($B115,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X115" s="1">
+        <v>5603351</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0</v>
+      </c>
+      <c r="E116" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F116" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G116" s="1">
+        <v>2766</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J116" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K116" s="47">
+        <f t="shared" si="32"/>
+        <v>6.1538461538461542E-2</v>
+      </c>
+      <c r="L116" s="59">
+        <f>(X116*K116)/(W116*G116*0.15)</f>
+        <v>83.109568570739953</v>
+      </c>
+      <c r="M116" s="57">
+        <f t="shared" si="31"/>
+        <v>83</v>
+      </c>
+      <c r="N116" s="57">
+        <f t="shared" si="26"/>
+        <v>83</v>
+      </c>
+      <c r="O116" s="47">
+        <v>6.1699999999999998E-2</v>
+      </c>
       <c r="T116" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U116" s="17"/>
-    </row>
-    <row r="117" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W116" s="18">
+        <f>[1]!WSD($B116,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X116" s="1">
+        <v>5603351</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D117" s="1">
+        <v>-46</v>
+      </c>
+      <c r="E117" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F117" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G117" s="1">
+        <v>5228</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J117" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K117" s="47">
+        <f>SUM($F$117:$F$121)/SUM($J$117:$J$121)*J117</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L117" s="59">
+        <f t="shared" si="29"/>
+        <v>-47.635390631641592</v>
+      </c>
+      <c r="M117" s="57">
+        <f t="shared" si="31"/>
+        <v>-48</v>
+      </c>
+      <c r="N117" s="57">
+        <f t="shared" si="26"/>
+        <v>-2</v>
+      </c>
+      <c r="O117" s="47">
+        <v>6.7799999999999999E-2</v>
+      </c>
       <c r="T117" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U117" s="17"/>
-    </row>
-    <row r="118" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W117" s="18">
+        <f>[1]!WSD($B117,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X117" s="1">
+        <v>5603351</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" s="1">
+        <v>-22</v>
+      </c>
+      <c r="E118" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F118" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G118" s="1">
+        <v>531</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J118" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K118" s="47">
+        <f t="shared" ref="K118:K121" si="33">SUM($F$117:$F$121)/SUM($J$117:$J$121)*J118</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L118" s="59">
+        <f t="shared" si="29"/>
+        <v>-23.449889098137685</v>
+      </c>
+      <c r="M118" s="57">
+        <f t="shared" si="31"/>
+        <v>-23</v>
+      </c>
+      <c r="N118" s="57">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="O118" s="47">
+        <v>3.3099999999999997E-2</v>
+      </c>
       <c r="T118" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U118" s="17"/>
-    </row>
-    <row r="119" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W118" s="18">
+        <f>[1]!WSD($B118,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X118" s="1">
+        <v>5603351</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D119" s="1">
+        <v>-31</v>
+      </c>
+      <c r="E119" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F119" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G119" s="1">
+        <v>3969</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J119" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K119" s="47">
+        <f t="shared" si="33"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L119" s="59">
+        <f t="shared" si="29"/>
+        <v>-31.37286750090983</v>
+      </c>
+      <c r="M119" s="57">
+        <f t="shared" si="31"/>
+        <v>-31</v>
+      </c>
+      <c r="N119" s="57">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O119" s="47">
+        <v>3.2099999999999997E-2</v>
+      </c>
       <c r="T119" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U119" s="17"/>
-    </row>
-    <row r="120" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W119" s="18">
+        <f>[1]!WSD($B119,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X119" s="1">
+        <v>5603351</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D120" s="1">
+        <v>-6</v>
+      </c>
+      <c r="E120" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F120" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G120" s="1">
+        <v>2224</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J120" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K120" s="47">
+        <f t="shared" si="33"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L120" s="59">
+        <f t="shared" si="29"/>
+        <v>-5.5988719024780176</v>
+      </c>
+      <c r="M120" s="57">
+        <f t="shared" si="31"/>
+        <v>-6</v>
+      </c>
+      <c r="N120" s="57">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O120" s="47">
+        <v>3.5799999999999998E-2</v>
+      </c>
       <c r="T120" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U120" s="17"/>
-    </row>
-    <row r="121" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W120" s="18">
+        <f>[1]!WSD($B120,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X120" s="1">
+        <v>5603351</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A121" s="28"/>
+      <c r="B121" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D121" s="6">
+        <v>-14</v>
+      </c>
+      <c r="E121" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F121" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G121" s="6">
+        <v>1385.5</v>
+      </c>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J121" s="41">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K121" s="58">
+        <f t="shared" si="33"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L121" s="56">
+        <f t="shared" si="29"/>
+        <v>-14.978817648395419</v>
+      </c>
+      <c r="M121" s="6">
+        <f t="shared" si="31"/>
+        <v>-15</v>
+      </c>
+      <c r="N121" s="6">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="O121" s="58">
+        <v>3.3300000000000003E-2</v>
+      </c>
       <c r="T121" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U121" s="17"/>
-    </row>
-    <row r="122" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W121" s="18">
+        <f>[1]!WSD($B121,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X121" s="1">
+        <v>5603351</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T122" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U122" s="17"/>
     </row>
-    <row r="123" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T123" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U123" s="17"/>
     </row>
-    <row r="124" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T124" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U124" s="17"/>
     </row>
-    <row r="125" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T125" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U125" s="17"/>
     </row>
-    <row r="126" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T126" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U126" s="17"/>
     </row>
-    <row r="127" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T127" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U127" s="17"/>
     </row>
-    <row r="128" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T128" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -8782,1526 +9326,1526 @@
     </row>
     <row r="130" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T130" s="9" t="str">
-        <f t="shared" ref="T130:T193" si="32">IF(Q130="","",D130*(Q130-G130)*W130)</f>
+        <f t="shared" ref="T130:T193" si="34">IF(Q130="","",D130*(Q130-G130)*W130)</f>
         <v/>
       </c>
       <c r="U130" s="17"/>
     </row>
     <row r="131" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T131" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U131" s="17"/>
     </row>
     <row r="132" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T132" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U132" s="17"/>
     </row>
     <row r="133" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T133" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U133" s="17"/>
     </row>
     <row r="134" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T134" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U134" s="17"/>
     </row>
     <row r="135" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T135" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U135" s="17"/>
     </row>
     <row r="136" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T136" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U136" s="17"/>
     </row>
     <row r="137" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T137" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U137" s="17"/>
     </row>
     <row r="138" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T138" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U138" s="17"/>
     </row>
     <row r="139" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T139" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U139" s="17"/>
     </row>
     <row r="140" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T140" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U140" s="17"/>
     </row>
     <row r="141" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T141" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U141" s="17"/>
     </row>
     <row r="142" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T142" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U142" s="17"/>
     </row>
     <row r="143" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T143" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U143" s="17"/>
     </row>
     <row r="144" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T144" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U144" s="17"/>
     </row>
     <row r="145" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T145" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U145" s="17"/>
     </row>
     <row r="146" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T146" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U146" s="17"/>
     </row>
     <row r="147" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T147" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U147" s="17"/>
     </row>
     <row r="148" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T148" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U148" s="17"/>
     </row>
     <row r="149" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T149" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U149" s="17"/>
     </row>
     <row r="150" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T150" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U150" s="17"/>
     </row>
     <row r="151" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T151" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U151" s="17"/>
     </row>
     <row r="152" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T152" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U152" s="17"/>
     </row>
     <row r="153" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T153" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U153" s="17"/>
     </row>
     <row r="154" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T154" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U154" s="17"/>
     </row>
     <row r="155" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T155" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U155" s="17"/>
     </row>
     <row r="156" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T156" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U156" s="17"/>
     </row>
     <row r="157" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T157" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U157" s="17"/>
     </row>
     <row r="158" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T158" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U158" s="17"/>
     </row>
     <row r="159" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T159" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U159" s="17"/>
     </row>
     <row r="160" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T160" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U160" s="17"/>
     </row>
     <row r="161" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T161" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U161" s="17"/>
     </row>
     <row r="162" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T162" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U162" s="17"/>
     </row>
     <row r="163" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T163" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U163" s="17"/>
     </row>
     <row r="164" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T164" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U164" s="17"/>
     </row>
     <row r="165" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T165" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U165" s="17"/>
     </row>
     <row r="166" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T166" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U166" s="17"/>
     </row>
     <row r="167" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T167" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U167" s="17"/>
     </row>
     <row r="168" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T168" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U168" s="17"/>
     </row>
     <row r="169" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T169" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U169" s="17"/>
     </row>
     <row r="170" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T170" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U170" s="17"/>
     </row>
     <row r="171" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T171" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U171" s="17"/>
     </row>
     <row r="172" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T172" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U172" s="17"/>
     </row>
     <row r="173" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T173" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U173" s="17"/>
     </row>
     <row r="174" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T174" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U174" s="17"/>
     </row>
     <row r="175" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T175" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U175" s="17"/>
     </row>
     <row r="176" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T176" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U176" s="17"/>
     </row>
     <row r="177" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T177" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U177" s="17"/>
     </row>
     <row r="178" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T178" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U178" s="17"/>
     </row>
     <row r="179" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T179" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U179" s="17"/>
     </row>
     <row r="180" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T180" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U180" s="17"/>
     </row>
     <row r="181" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T181" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U181" s="17"/>
     </row>
     <row r="182" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T182" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U182" s="17"/>
     </row>
     <row r="183" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T183" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U183" s="17"/>
     </row>
     <row r="184" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T184" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U184" s="17"/>
     </row>
     <row r="185" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T185" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U185" s="17"/>
     </row>
     <row r="186" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T186" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U186" s="17"/>
     </row>
     <row r="187" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T187" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U187" s="17"/>
     </row>
     <row r="188" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T188" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U188" s="17"/>
     </row>
     <row r="189" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T189" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U189" s="17"/>
     </row>
     <row r="190" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T190" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U190" s="17"/>
     </row>
     <row r="191" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T191" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U191" s="17"/>
     </row>
     <row r="192" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T192" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U192" s="17"/>
     </row>
     <row r="193" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T193" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U193" s="17"/>
     </row>
     <row r="194" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T194" s="9" t="str">
-        <f t="shared" ref="T194:T257" si="33">IF(Q194="","",D194*(Q194-G194)*W194)</f>
+        <f t="shared" ref="T194:T257" si="35">IF(Q194="","",D194*(Q194-G194)*W194)</f>
         <v/>
       </c>
       <c r="U194" s="17"/>
     </row>
     <row r="195" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T195" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U195" s="17"/>
     </row>
     <row r="196" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T196" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U196" s="17"/>
     </row>
     <row r="197" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T197" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U197" s="17"/>
     </row>
     <row r="198" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T198" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U198" s="17"/>
     </row>
     <row r="199" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T199" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U199" s="17"/>
     </row>
     <row r="200" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T200" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U200" s="17"/>
     </row>
     <row r="201" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T201" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U201" s="17"/>
     </row>
     <row r="202" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T202" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U202" s="17"/>
     </row>
     <row r="203" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T203" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U203" s="17"/>
     </row>
     <row r="204" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T204" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U204" s="17"/>
     </row>
     <row r="205" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T205" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U205" s="17"/>
     </row>
     <row r="206" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T206" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U206" s="17"/>
     </row>
     <row r="207" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T207" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U207" s="17"/>
     </row>
     <row r="208" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T208" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U208" s="17"/>
     </row>
     <row r="209" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T209" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U209" s="17"/>
     </row>
     <row r="210" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T210" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U210" s="17"/>
     </row>
     <row r="211" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T211" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U211" s="17"/>
     </row>
     <row r="212" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T212" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U212" s="17"/>
     </row>
     <row r="213" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T213" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U213" s="17"/>
     </row>
     <row r="214" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T214" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U214" s="17"/>
     </row>
     <row r="215" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T215" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U215" s="17"/>
     </row>
     <row r="216" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T216" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U216" s="17"/>
     </row>
     <row r="217" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T217" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U217" s="17"/>
     </row>
     <row r="218" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T218" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U218" s="17"/>
     </row>
     <row r="219" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T219" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U219" s="17"/>
     </row>
     <row r="220" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T220" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U220" s="17"/>
     </row>
     <row r="221" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T221" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U221" s="17"/>
     </row>
     <row r="222" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T222" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U222" s="17"/>
     </row>
     <row r="223" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T223" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U223" s="17"/>
     </row>
     <row r="224" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T224" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U224" s="17"/>
     </row>
     <row r="225" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T225" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U225" s="17"/>
     </row>
     <row r="226" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T226" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U226" s="17"/>
     </row>
     <row r="227" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T227" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U227" s="17"/>
     </row>
     <row r="228" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T228" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U228" s="17"/>
     </row>
     <row r="229" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T229" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U229" s="17"/>
     </row>
     <row r="230" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T230" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U230" s="17"/>
     </row>
     <row r="231" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T231" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U231" s="17"/>
     </row>
     <row r="232" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T232" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U232" s="17"/>
     </row>
     <row r="233" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T233" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U233" s="17"/>
     </row>
     <row r="234" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T234" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U234" s="17"/>
     </row>
     <row r="235" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T235" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U235" s="17"/>
     </row>
     <row r="236" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T236" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U236" s="17"/>
     </row>
     <row r="237" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T237" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U237" s="17"/>
     </row>
     <row r="238" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T238" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U238" s="17"/>
     </row>
     <row r="239" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T239" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U239" s="17"/>
     </row>
     <row r="240" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T240" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U240" s="17"/>
     </row>
     <row r="241" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T241" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U241" s="17"/>
     </row>
     <row r="242" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T242" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U242" s="17"/>
     </row>
     <row r="243" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T243" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U243" s="17"/>
     </row>
     <row r="244" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T244" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U244" s="17"/>
     </row>
     <row r="245" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T245" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U245" s="17"/>
     </row>
     <row r="246" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T246" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U246" s="17"/>
     </row>
     <row r="247" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T247" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U247" s="17"/>
     </row>
     <row r="248" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T248" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U248" s="17"/>
     </row>
     <row r="249" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T249" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U249" s="17"/>
     </row>
     <row r="250" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T250" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U250" s="17"/>
     </row>
     <row r="251" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T251" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U251" s="17"/>
     </row>
     <row r="252" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T252" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U252" s="17"/>
     </row>
     <row r="253" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T253" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U253" s="17"/>
     </row>
     <row r="254" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T254" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U254" s="17"/>
     </row>
     <row r="255" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T255" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U255" s="17"/>
     </row>
     <row r="256" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T256" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
     </row>
     <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T257" s="9" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U257" s="17"/>
     </row>
     <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T258" s="9" t="str">
-        <f t="shared" ref="T258:T321" si="34">IF(Q258="","",D258*(Q258-G258)*W258)</f>
+        <f t="shared" ref="T258:T321" si="36">IF(Q258="","",D258*(Q258-G258)*W258)</f>
         <v/>
       </c>
       <c r="U258" s="17"/>
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" ref="T322:T347" si="35">IF(Q322="","",D322*(Q322-G322)*W322)</f>
+        <f t="shared" ref="T322:T347" si="37">IF(Q322="","",D322*(Q322-G322)*W322)</f>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U347" s="17"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="120">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -484,6 +484,22 @@
     <t>L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Y1805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -875,10 +891,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$23</c:f>
+              <c:f>净值!$A$5:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -936,15 +952,18 @@
                 <c:pt idx="18">
                   <c:v>43164</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>43165</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$23</c:f>
+              <c:f>净值!$B$5:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -1002,6 +1021,9 @@
                 <c:pt idx="18">
                   <c:v>5594705</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>5574198</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1016,11 +1038,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="586755968"/>
-        <c:axId val="586757088"/>
+        <c:axId val="604667008"/>
+        <c:axId val="604667568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="586755968"/>
+        <c:axId val="604667008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,14 +1085,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586757088"/>
+        <c:crossAx val="604667568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="586757088"/>
+        <c:axId val="604667568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,7 +1143,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586755968"/>
+        <c:crossAx val="604667008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2072,7 +2094,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2125,7 +2147,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C23" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C24" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2348,6 +2370,13 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>43165</v>
+      </c>
+      <c r="B24" s="4">
+        <v>5574198</v>
+      </c>
+      <c r="C24" s="51">
+        <f t="shared" si="0"/>
+        <v>0.99460551838357902</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -2429,8 +2458,8 @@
   <dimension ref="A1:AG6644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M115" sqref="M115"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O129" sqref="O129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8123,7 +8152,7 @@
         <v>111</v>
       </c>
       <c r="J102" s="42">
-        <f t="shared" ref="J102:J121" si="24">IF(I102="N",1,IF(C102=I102,2,0.5))</f>
+        <f t="shared" ref="J102:J131" si="24">IF(I102="N",1,IF(C102=I102,2,0.5))</f>
         <v>1</v>
       </c>
       <c r="K102" s="47">
@@ -8422,7 +8451,7 @@
         <v>6.7100000000000007E-2</v>
       </c>
       <c r="L107" s="59">
-        <f t="shared" ref="L107:L121" si="29">-(X107*K107)/(W107*G107*0.15)</f>
+        <f t="shared" ref="L107:L131" si="29">-(X107*K107)/(W107*G107*0.15)</f>
         <v>-46.143787350233325</v>
       </c>
       <c r="M107" s="57">
@@ -8685,7 +8714,7 @@
     </row>
     <row r="112" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="27">
-        <v>43161</v>
+        <v>43164</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>16</v>
@@ -9269,1583 +9298,2099 @@
       </c>
     </row>
     <row r="122" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A122" s="27">
+        <v>43165</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D122" s="1">
+        <v>18</v>
+      </c>
+      <c r="E122" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F122" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G122" s="1">
+        <v>624</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J122" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K122" s="47">
+        <f>SUM($F$122:$F$126)/SUM($J$122:$J$126)*J122</f>
+        <v>3.6363636363636369E-2</v>
+      </c>
+      <c r="L122" s="59">
+        <f>(X122*K122)/(W122*G122*0.15)</f>
+        <v>21.65001942501943</v>
+      </c>
+      <c r="M122" s="57">
+        <f t="shared" ref="M122:M131" si="34">ROUND(L122,0)</f>
+        <v>22</v>
+      </c>
+      <c r="N122" s="57">
+        <f t="shared" ref="N122:N131" si="35">M122-D122</f>
+        <v>4</v>
+      </c>
+      <c r="O122" s="47">
+        <v>3.6999999999999998E-2</v>
+      </c>
       <c r="T122" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U122" s="17"/>
+      <c r="W122" s="18">
+        <f>[1]!WSD($B122,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X122" s="1">
+        <v>5572715</v>
+      </c>
     </row>
     <row r="123" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D123" s="1">
+        <v>62</v>
+      </c>
+      <c r="E123" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F123" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G123" s="1">
+        <v>1869</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J123" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K123" s="47">
+        <f t="shared" ref="K123:K126" si="36">SUM($F$122:$F$126)/SUM($J$122:$J$126)*J123</f>
+        <v>3.6363636363636369E-2</v>
+      </c>
+      <c r="L123" s="59">
+        <f>(X123*K123)/(W123*G123*0.15)</f>
+        <v>72.282568866838545</v>
+      </c>
+      <c r="M123" s="57">
+        <f t="shared" si="34"/>
+        <v>72</v>
+      </c>
+      <c r="N123" s="57">
+        <f t="shared" si="35"/>
+        <v>10</v>
+      </c>
+      <c r="O123" s="47">
+        <v>3.5999999999999997E-2</v>
+      </c>
       <c r="T123" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Q123="","",D123*(Q123-G124)*W123)</f>
         <v/>
       </c>
       <c r="U123" s="17"/>
+      <c r="W123" s="18">
+        <f>[1]!WSD($B123,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X123" s="1">
+        <v>5572715</v>
+      </c>
     </row>
     <row r="124" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D124" s="1">
+        <v>5</v>
+      </c>
+      <c r="E124" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F124" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G124" s="1">
+        <v>12855</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J124" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K124" s="47">
+        <f t="shared" si="36"/>
+        <v>1.8181818181818184E-2</v>
+      </c>
+      <c r="L124" s="59">
+        <f>(X124*K124)/(W124*G124*0.15)</f>
+        <v>5.2546138161073994</v>
+      </c>
+      <c r="M124" s="57">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="N124" s="57">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O124" s="47">
+        <v>1.7600000000000001E-2</v>
+      </c>
       <c r="T124" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f>IF(Q124="","",D124*(Q124-#REF!)*W124)</f>
         <v/>
       </c>
       <c r="U124" s="17"/>
+      <c r="W124" s="18">
+        <f>[1]!WSD($B124,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X124" s="1">
+        <v>5572715</v>
+      </c>
     </row>
     <row r="125" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125" s="1">
+        <v>79</v>
+      </c>
+      <c r="E125" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F125" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G125" s="1">
+        <v>5780</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J125" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K125" s="47">
+        <f t="shared" si="36"/>
+        <v>7.2727272727272738E-2</v>
+      </c>
+      <c r="L125" s="59">
+        <f>(X125*K125)/(W125*G125*0.15)</f>
+        <v>93.492125406312269</v>
+      </c>
+      <c r="M125" s="57">
+        <f t="shared" si="34"/>
+        <v>93</v>
+      </c>
+      <c r="N125" s="57">
+        <f t="shared" si="35"/>
+        <v>14</v>
+      </c>
+      <c r="O125" s="47">
+        <v>7.2700000000000001E-2</v>
+      </c>
       <c r="T125" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U125" s="17"/>
+      <c r="W125" s="18">
+        <f>[1]!WSD($B125,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X125" s="1">
+        <v>5572715</v>
+      </c>
     </row>
     <row r="126" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D126" s="1">
+        <v>83</v>
+      </c>
+      <c r="E126" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F126" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G126" s="1">
+        <v>2710</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J126" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K126" s="47">
+        <f t="shared" si="36"/>
+        <v>3.6363636363636369E-2</v>
+      </c>
+      <c r="L126" s="59">
+        <f>(X126*K126)/(W126*G126*0.15)</f>
+        <v>49.850967236945102</v>
+      </c>
+      <c r="M126" s="57">
+        <f t="shared" si="34"/>
+        <v>50</v>
+      </c>
+      <c r="N126" s="57">
+        <f t="shared" si="35"/>
+        <v>-33</v>
+      </c>
+      <c r="O126" s="47">
+        <v>3.6999999999999998E-2</v>
+      </c>
       <c r="T126" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U126" s="17"/>
+      <c r="W126" s="18">
+        <f>[1]!WSD($B126,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X126" s="1">
+        <v>5572715</v>
+      </c>
     </row>
     <row r="127" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B127" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" s="1">
+        <v>-48</v>
+      </c>
+      <c r="E127" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F127" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G127" s="1">
+        <v>5262</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J127" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K127" s="47">
+        <f>SUM($F$127:$F$131)/SUM($J$127:$J$131)*J127</f>
+        <v>0.08</v>
+      </c>
+      <c r="L127" s="59">
+        <f t="shared" si="29"/>
+        <v>-56.482604839731408</v>
+      </c>
+      <c r="M127" s="57">
+        <f>ROUND(L127,0)-1</f>
+        <v>-57</v>
+      </c>
+      <c r="N127" s="57">
+        <f t="shared" si="35"/>
+        <v>-9</v>
+      </c>
+      <c r="O127" s="47">
+        <v>8.0299999999999996E-2</v>
+      </c>
       <c r="T127" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U127" s="17"/>
+      <c r="W127" s="18">
+        <f>[1]!WSD($B127,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X127" s="1">
+        <v>5572715</v>
+      </c>
     </row>
     <row r="128" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0</v>
+      </c>
+      <c r="E128" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F128" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G128" s="1">
+        <v>5858</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J128" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K128" s="47">
+        <f t="shared" ref="K128:K131" si="37">SUM($F$127:$F$131)/SUM($J$127:$J$131)*J128</f>
+        <v>0.04</v>
+      </c>
+      <c r="L128" s="59">
+        <f t="shared" si="29"/>
+        <v>-25.367998179128257</v>
+      </c>
+      <c r="M128" s="57">
+        <f>ROUND(L128,0)-1</f>
+        <v>-26</v>
+      </c>
+      <c r="N128" s="57">
+        <f t="shared" si="35"/>
+        <v>-26</v>
+      </c>
+      <c r="O128" s="47">
+        <v>4.0899999999999999E-2</v>
+      </c>
       <c r="T128" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U128" s="17"/>
-    </row>
-    <row r="129" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W128" s="18">
+        <f>[1]!WSD($B128,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X128" s="1">
+        <v>5572715</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B129" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D129" s="1">
+        <v>-31</v>
+      </c>
+      <c r="E129" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F129" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G129" s="1">
+        <v>3935</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J129" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K129" s="47">
+        <f t="shared" si="37"/>
+        <v>0.04</v>
+      </c>
+      <c r="L129" s="59">
+        <f t="shared" si="29"/>
+        <v>-37.765116476069466</v>
+      </c>
+      <c r="M129" s="57">
+        <f t="shared" si="34"/>
+        <v>-38</v>
+      </c>
+      <c r="N129" s="57">
+        <f t="shared" si="35"/>
+        <v>-7</v>
+      </c>
+      <c r="O129" s="47">
+        <v>4.0500000000000001E-2</v>
+      </c>
       <c r="T129" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U129" s="17"/>
-    </row>
-    <row r="130" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W129" s="18">
+        <f>[1]!WSD($B129,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X129" s="1">
+        <v>5572715</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D130" s="1">
+        <v>-6</v>
+      </c>
+      <c r="E130" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F130" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G130" s="1">
+        <v>2182</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J130" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K130" s="47">
+        <f t="shared" si="37"/>
+        <v>0.02</v>
+      </c>
+      <c r="L130" s="59">
+        <f t="shared" si="29"/>
+        <v>-3.405264283531928</v>
+      </c>
+      <c r="M130" s="57">
+        <f t="shared" si="34"/>
+        <v>-3</v>
+      </c>
+      <c r="N130" s="57">
+        <f t="shared" si="35"/>
+        <v>3</v>
+      </c>
+      <c r="O130" s="47">
+        <v>1.78E-2</v>
+      </c>
       <c r="T130" s="9" t="str">
-        <f t="shared" ref="T130:T193" si="34">IF(Q130="","",D130*(Q130-G130)*W130)</f>
+        <f t="shared" ref="T130:T193" si="38">IF(Q130="","",D130*(Q130-G130)*W130)</f>
         <v/>
       </c>
       <c r="U130" s="17"/>
-    </row>
-    <row r="131" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W130" s="18">
+        <f>[1]!WSD($B130,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X130" s="1">
+        <v>5572715</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A131" s="28"/>
+      <c r="B131" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" s="6">
+        <v>-15</v>
+      </c>
+      <c r="E131" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F131" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G131" s="6">
+        <v>1377</v>
+      </c>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J131" s="41">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K131" s="58">
+        <f t="shared" si="37"/>
+        <v>0.02</v>
+      </c>
+      <c r="L131" s="56">
+        <f t="shared" si="29"/>
+        <v>-8.9933268780763331</v>
+      </c>
+      <c r="M131" s="6">
+        <f t="shared" si="34"/>
+        <v>-9</v>
+      </c>
+      <c r="N131" s="6">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="O131" s="58">
+        <v>0.02</v>
+      </c>
       <c r="T131" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U131" s="17"/>
-    </row>
-    <row r="132" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W131" s="18">
+        <f>[1]!WSD($B131,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X131" s="1">
+        <v>5572715</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T132" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U132" s="17"/>
-    </row>
-    <row r="133" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W132" s="18"/>
+    </row>
+    <row r="133" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T133" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U133" s="17"/>
     </row>
-    <row r="134" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T134" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U134" s="17"/>
     </row>
-    <row r="135" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T135" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U135" s="17"/>
     </row>
-    <row r="136" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T136" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U136" s="17"/>
     </row>
-    <row r="137" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T137" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U137" s="17"/>
     </row>
-    <row r="138" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T138" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U138" s="17"/>
     </row>
-    <row r="139" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T139" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U139" s="17"/>
     </row>
-    <row r="140" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T140" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U140" s="17"/>
     </row>
-    <row r="141" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T141" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U141" s="17"/>
     </row>
-    <row r="142" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T142" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U142" s="17"/>
     </row>
-    <row r="143" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T143" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U143" s="17"/>
     </row>
-    <row r="144" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T144" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U144" s="17"/>
     </row>
     <row r="145" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T145" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U145" s="17"/>
     </row>
     <row r="146" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T146" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U146" s="17"/>
     </row>
     <row r="147" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T147" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U147" s="17"/>
     </row>
     <row r="148" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T148" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U148" s="17"/>
     </row>
     <row r="149" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T149" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U149" s="17"/>
     </row>
     <row r="150" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T150" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U150" s="17"/>
     </row>
     <row r="151" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T151" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U151" s="17"/>
     </row>
     <row r="152" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T152" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U152" s="17"/>
     </row>
     <row r="153" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T153" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U153" s="17"/>
     </row>
     <row r="154" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T154" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U154" s="17"/>
     </row>
     <row r="155" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T155" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U155" s="17"/>
     </row>
     <row r="156" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T156" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U156" s="17"/>
     </row>
     <row r="157" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T157" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U157" s="17"/>
     </row>
     <row r="158" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T158" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U158" s="17"/>
     </row>
     <row r="159" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T159" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U159" s="17"/>
     </row>
     <row r="160" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T160" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U160" s="17"/>
     </row>
     <row r="161" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T161" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U161" s="17"/>
     </row>
     <row r="162" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T162" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U162" s="17"/>
     </row>
     <row r="163" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T163" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U163" s="17"/>
     </row>
     <row r="164" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T164" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U164" s="17"/>
     </row>
     <row r="165" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T165" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U165" s="17"/>
     </row>
     <row r="166" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T166" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U166" s="17"/>
     </row>
     <row r="167" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T167" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U167" s="17"/>
     </row>
     <row r="168" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T168" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U168" s="17"/>
     </row>
     <row r="169" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T169" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U169" s="17"/>
     </row>
     <row r="170" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T170" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U170" s="17"/>
     </row>
     <row r="171" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T171" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U171" s="17"/>
     </row>
     <row r="172" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T172" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U172" s="17"/>
     </row>
     <row r="173" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T173" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U173" s="17"/>
     </row>
     <row r="174" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T174" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U174" s="17"/>
     </row>
     <row r="175" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T175" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U175" s="17"/>
     </row>
     <row r="176" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T176" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U176" s="17"/>
     </row>
     <row r="177" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T177" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U177" s="17"/>
     </row>
     <row r="178" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T178" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U178" s="17"/>
     </row>
     <row r="179" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T179" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U179" s="17"/>
     </row>
     <row r="180" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T180" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U180" s="17"/>
     </row>
     <row r="181" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T181" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U181" s="17"/>
     </row>
     <row r="182" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T182" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U182" s="17"/>
     </row>
     <row r="183" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T183" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U183" s="17"/>
     </row>
     <row r="184" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T184" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U184" s="17"/>
     </row>
     <row r="185" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T185" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U185" s="17"/>
     </row>
     <row r="186" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T186" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U186" s="17"/>
     </row>
     <row r="187" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T187" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U187" s="17"/>
     </row>
     <row r="188" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T188" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U188" s="17"/>
     </row>
     <row r="189" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T189" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U189" s="17"/>
     </row>
     <row r="190" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T190" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U190" s="17"/>
     </row>
     <row r="191" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T191" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U191" s="17"/>
     </row>
     <row r="192" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T192" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U192" s="17"/>
     </row>
     <row r="193" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T193" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U193" s="17"/>
     </row>
     <row r="194" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T194" s="9" t="str">
-        <f t="shared" ref="T194:T257" si="35">IF(Q194="","",D194*(Q194-G194)*W194)</f>
+        <f t="shared" ref="T194:T257" si="39">IF(Q194="","",D194*(Q194-G194)*W194)</f>
         <v/>
       </c>
       <c r="U194" s="17"/>
     </row>
     <row r="195" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T195" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U195" s="17"/>
     </row>
     <row r="196" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T196" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U196" s="17"/>
     </row>
     <row r="197" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T197" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U197" s="17"/>
     </row>
     <row r="198" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T198" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U198" s="17"/>
     </row>
     <row r="199" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T199" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U199" s="17"/>
     </row>
     <row r="200" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T200" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U200" s="17"/>
     </row>
     <row r="201" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T201" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U201" s="17"/>
     </row>
     <row r="202" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T202" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U202" s="17"/>
     </row>
     <row r="203" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T203" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U203" s="17"/>
     </row>
     <row r="204" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T204" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U204" s="17"/>
     </row>
     <row r="205" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T205" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U205" s="17"/>
     </row>
     <row r="206" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T206" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U206" s="17"/>
     </row>
     <row r="207" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T207" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U207" s="17"/>
     </row>
     <row r="208" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T208" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U208" s="17"/>
     </row>
     <row r="209" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T209" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U209" s="17"/>
     </row>
     <row r="210" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T210" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U210" s="17"/>
     </row>
     <row r="211" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T211" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U211" s="17"/>
     </row>
     <row r="212" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T212" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U212" s="17"/>
     </row>
     <row r="213" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T213" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U213" s="17"/>
     </row>
     <row r="214" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T214" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U214" s="17"/>
     </row>
     <row r="215" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T215" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U215" s="17"/>
     </row>
     <row r="216" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T216" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U216" s="17"/>
     </row>
     <row r="217" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T217" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U217" s="17"/>
     </row>
     <row r="218" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T218" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U218" s="17"/>
     </row>
     <row r="219" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T219" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U219" s="17"/>
     </row>
     <row r="220" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T220" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U220" s="17"/>
     </row>
     <row r="221" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T221" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U221" s="17"/>
     </row>
     <row r="222" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T222" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U222" s="17"/>
     </row>
     <row r="223" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T223" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U223" s="17"/>
     </row>
     <row r="224" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T224" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U224" s="17"/>
     </row>
     <row r="225" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T225" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U225" s="17"/>
     </row>
     <row r="226" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T226" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U226" s="17"/>
     </row>
     <row r="227" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T227" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U227" s="17"/>
     </row>
     <row r="228" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T228" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U228" s="17"/>
     </row>
     <row r="229" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T229" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U229" s="17"/>
     </row>
     <row r="230" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T230" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U230" s="17"/>
     </row>
     <row r="231" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T231" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U231" s="17"/>
     </row>
     <row r="232" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T232" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U232" s="17"/>
     </row>
     <row r="233" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T233" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U233" s="17"/>
     </row>
     <row r="234" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T234" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U234" s="17"/>
     </row>
     <row r="235" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T235" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U235" s="17"/>
     </row>
     <row r="236" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T236" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U236" s="17"/>
     </row>
     <row r="237" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T237" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U237" s="17"/>
     </row>
     <row r="238" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T238" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U238" s="17"/>
     </row>
     <row r="239" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T239" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U239" s="17"/>
     </row>
     <row r="240" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T240" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U240" s="17"/>
     </row>
     <row r="241" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T241" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U241" s="17"/>
     </row>
     <row r="242" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T242" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U242" s="17"/>
     </row>
     <row r="243" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T243" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U243" s="17"/>
     </row>
     <row r="244" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T244" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U244" s="17"/>
     </row>
     <row r="245" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T245" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U245" s="17"/>
     </row>
     <row r="246" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T246" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U246" s="17"/>
     </row>
     <row r="247" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T247" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U247" s="17"/>
     </row>
     <row r="248" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T248" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U248" s="17"/>
     </row>
     <row r="249" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T249" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U249" s="17"/>
     </row>
     <row r="250" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T250" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U250" s="17"/>
     </row>
     <row r="251" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T251" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U251" s="17"/>
     </row>
     <row r="252" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T252" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U252" s="17"/>
     </row>
     <row r="253" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T253" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U253" s="17"/>
     </row>
     <row r="254" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T254" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U254" s="17"/>
     </row>
     <row r="255" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T255" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U255" s="17"/>
     </row>
     <row r="256" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T256" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
     </row>
     <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T257" s="9" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="U257" s="17"/>
     </row>
     <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T258" s="9" t="str">
-        <f t="shared" ref="T258:T321" si="36">IF(Q258="","",D258*(Q258-G258)*W258)</f>
+        <f t="shared" ref="T258:T321" si="40">IF(Q258="","",D258*(Q258-G258)*W258)</f>
         <v/>
       </c>
       <c r="U258" s="17"/>
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" ref="T322:T347" si="37">IF(Q322="","",D322*(Q322-G322)*W322)</f>
+        <f t="shared" ref="T322:T347" si="41">IF(Q322="","",D322*(Q322-G322)*W322)</f>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="U347" s="17"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="123">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -500,6 +500,18 @@
     <t>S</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -891,10 +903,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$24</c:f>
+              <c:f>净值!$A$5:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -955,15 +967,18 @@
                 <c:pt idx="19">
                   <c:v>43165</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>43166</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$24</c:f>
+              <c:f>净值!$B$5:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -1024,6 +1039,9 @@
                 <c:pt idx="19">
                   <c:v>5574198</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>5604871</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1038,11 +1056,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="604667008"/>
-        <c:axId val="604667568"/>
+        <c:axId val="640696528"/>
+        <c:axId val="640697088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="604667008"/>
+        <c:axId val="640696528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,14 +1103,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604667568"/>
+        <c:crossAx val="640697088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="604667568"/>
+        <c:axId val="640697088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,7 +1161,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604667008"/>
+        <c:crossAx val="640696528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2094,7 +2112,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2147,7 +2165,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C24" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C25" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2382,6 +2400,13 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>43166</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5604871</v>
+      </c>
+      <c r="C25" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0000785093080815</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -2458,8 +2483,8 @@
   <dimension ref="A1:AG6644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O129" sqref="O129"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P134" sqref="P134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8152,7 +8177,7 @@
         <v>111</v>
       </c>
       <c r="J102" s="42">
-        <f t="shared" ref="J102:J131" si="24">IF(I102="N",1,IF(C102=I102,2,0.5))</f>
+        <f t="shared" ref="J102:J141" si="24">IF(I102="N",1,IF(C102=I102,2,0.5))</f>
         <v>1</v>
       </c>
       <c r="K102" s="47">
@@ -8451,7 +8476,7 @@
         <v>6.7100000000000007E-2</v>
       </c>
       <c r="L107" s="59">
-        <f t="shared" ref="L107:L131" si="29">-(X107*K107)/(W107*G107*0.15)</f>
+        <f t="shared" ref="L107:L141" si="29">-(X107*K107)/(W107*G107*0.15)</f>
         <v>-46.143787350233325</v>
       </c>
       <c r="M107" s="57">
@@ -9883,82 +9908,598 @@
       </c>
     </row>
     <row r="132" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A132" s="27">
+        <v>43166</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D132" s="1">
+        <v>22</v>
+      </c>
+      <c r="E132" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F132" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G132" s="1">
+        <v>620</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J132" s="42">
+        <f>IF(I132="N",1,IF(C132=I132,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K132" s="47">
+        <f>SUM($F$132:$F$136)/SUM($J$132:$J$136)*J132</f>
+        <v>0.05</v>
+      </c>
+      <c r="L132" s="59">
+        <f>(X132*K132)/(W132*G132*0.15)</f>
+        <v>29.731182795698924</v>
+      </c>
+      <c r="M132" s="57">
+        <f t="shared" ref="M132:M136" si="39">ROUND(L132,0)</f>
+        <v>30</v>
+      </c>
+      <c r="N132" s="57">
+        <f t="shared" ref="N132:N141" si="40">M132-D132</f>
+        <v>8</v>
+      </c>
+      <c r="O132" s="47">
+        <v>5.0599999999999999E-2</v>
+      </c>
       <c r="T132" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U132" s="17"/>
-      <c r="W132" s="18"/>
+      <c r="W132" s="18">
+        <f>[1]!WSD($B132,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X132" s="1">
+        <v>5530000</v>
+      </c>
     </row>
     <row r="133" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D133" s="1">
+        <v>72</v>
+      </c>
+      <c r="E133" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F133" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G133" s="1">
+        <v>1864</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J133" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K133" s="47">
+        <f t="shared" ref="K133:K136" si="41">SUM($F$132:$F$136)/SUM($J$132:$J$136)*J133</f>
+        <v>0.05</v>
+      </c>
+      <c r="L133" s="59">
+        <f t="shared" ref="L133:L136" si="42">(X133*K133)/(W133*G133*0.15)</f>
+        <v>98.891273247496429</v>
+      </c>
+      <c r="M133" s="57">
+        <f t="shared" si="39"/>
+        <v>99</v>
+      </c>
+      <c r="N133" s="57">
+        <f t="shared" si="40"/>
+        <v>27</v>
+      </c>
+      <c r="O133" s="47">
+        <v>5.0299999999999997E-2</v>
+      </c>
       <c r="T133" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U133" s="17"/>
+      <c r="W133" s="18">
+        <f>[1]!WSD($B133,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X133" s="1">
+        <v>5530000</v>
+      </c>
     </row>
     <row r="134" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D134" s="1">
+        <v>5</v>
+      </c>
+      <c r="E134" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F134" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G134" s="1">
+        <v>12865</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J134" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K134" s="47">
+        <f t="shared" si="41"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L134" s="59">
+        <f t="shared" si="42"/>
+        <v>7.1641404326985363</v>
+      </c>
+      <c r="M134" s="57">
+        <f t="shared" si="39"/>
+        <v>7</v>
+      </c>
+      <c r="N134" s="57">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="O134" s="47">
+        <v>2.4500000000000001E-2</v>
+      </c>
       <c r="T134" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U134" s="17"/>
+      <c r="W134" s="18">
+        <f>[1]!WSD($B134,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X134" s="1">
+        <v>5530000</v>
+      </c>
     </row>
     <row r="135" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135" s="1">
+        <v>93</v>
+      </c>
+      <c r="E135" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F135" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G135" s="1">
+        <v>5674</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J135" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K135" s="47">
+        <f t="shared" si="41"/>
+        <v>0.05</v>
+      </c>
+      <c r="L135" s="59">
+        <f t="shared" si="42"/>
+        <v>64.974738573610622</v>
+      </c>
+      <c r="M135" s="57">
+        <f t="shared" si="39"/>
+        <v>65</v>
+      </c>
+      <c r="N135" s="57">
+        <f t="shared" si="40"/>
+        <v>-28</v>
+      </c>
+      <c r="O135" s="47">
+        <v>5.0999999999999997E-2</v>
+      </c>
       <c r="T135" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U135" s="17"/>
+      <c r="W135" s="18">
+        <f>[1]!WSD($B135,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X135" s="1">
+        <v>5530000</v>
+      </c>
     </row>
     <row r="136" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B136" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D136" s="1">
+        <v>50</v>
+      </c>
+      <c r="E136" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F136" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G136" s="1">
+        <v>2714</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J136" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K136" s="47">
+        <f t="shared" si="41"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L136" s="59">
+        <f t="shared" si="42"/>
+        <v>33.959715057725376</v>
+      </c>
+      <c r="M136" s="57">
+        <f t="shared" si="39"/>
+        <v>34</v>
+      </c>
+      <c r="N136" s="57">
+        <f t="shared" si="40"/>
+        <v>-16</v>
+      </c>
+      <c r="O136" s="47">
+        <v>2.5100000000000001E-2</v>
+      </c>
       <c r="T136" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U136" s="17"/>
+      <c r="W136" s="18">
+        <f>[1]!WSD($B136,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X136" s="1">
+        <v>5530000</v>
+      </c>
     </row>
     <row r="137" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B137" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" s="1">
+        <v>-57</v>
+      </c>
+      <c r="E137" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F137" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G137" s="1">
+        <v>5246</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J137" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K137" s="47">
+        <f>SUM($F$137:$F$141)/SUM($J$137:$J$141)*J137</f>
+        <v>0.08</v>
+      </c>
+      <c r="L137" s="59">
+        <f t="shared" si="29"/>
+        <v>-56.220612530181725</v>
+      </c>
+      <c r="M137" s="57">
+        <f>ROUND(L137,0)-1</f>
+        <v>-57</v>
+      </c>
+      <c r="N137" s="57">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O137" s="47">
+        <v>8.1299999999999997E-2</v>
+      </c>
       <c r="T137" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U137" s="17"/>
+      <c r="W137" s="18">
+        <f>[1]!WSD($B137,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X137" s="1">
+        <v>5530000</v>
+      </c>
     </row>
     <row r="138" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D138" s="1">
+        <v>-26</v>
+      </c>
+      <c r="E138" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F138" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G138" s="1">
+        <v>5788</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J138" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K138" s="47">
+        <f t="shared" ref="K138:K141" si="43">SUM($F$137:$F$141)/SUM($J$137:$J$141)*J138</f>
+        <v>0.04</v>
+      </c>
+      <c r="L138" s="59">
+        <f t="shared" si="29"/>
+        <v>-25.478000460723337</v>
+      </c>
+      <c r="M138" s="57">
+        <f>ROUND(L138,0)-1</f>
+        <v>-26</v>
+      </c>
+      <c r="N138" s="57">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O138" s="47">
+        <v>4.1200000000000001E-2</v>
+      </c>
       <c r="T138" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U138" s="17"/>
+      <c r="W138" s="18">
+        <f>[1]!WSD($B138,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X138" s="1">
+        <v>5530000</v>
+      </c>
     </row>
     <row r="139" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B139" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D139" s="1">
+        <v>-38</v>
+      </c>
+      <c r="E139" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F139" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G139" s="1">
+        <v>3951</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J139" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K139" s="47">
+        <f t="shared" si="43"/>
+        <v>0.04</v>
+      </c>
+      <c r="L139" s="59">
+        <f t="shared" si="29"/>
+        <v>-37.323884248713405</v>
+      </c>
+      <c r="M139" s="57">
+        <f t="shared" ref="M139:M141" si="44">ROUND(L139,0)</f>
+        <v>-37</v>
+      </c>
+      <c r="N139" s="57">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="O139" s="47">
+        <v>3.9600000000000003E-2</v>
+      </c>
       <c r="T139" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U139" s="17"/>
+      <c r="W139" s="18">
+        <f>[1]!WSD($B139,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X139" s="1">
+        <v>5530000</v>
+      </c>
     </row>
     <row r="140" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D140" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E140" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F140" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G140" s="1">
+        <v>2187.5</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J140" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K140" s="47">
+        <f t="shared" si="43"/>
+        <v>0.02</v>
+      </c>
+      <c r="L140" s="59">
+        <f t="shared" si="29"/>
+        <v>-3.3706666666666667</v>
+      </c>
+      <c r="M140" s="57">
+        <f t="shared" si="44"/>
+        <v>-3</v>
+      </c>
+      <c r="N140" s="57">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O140" s="47">
+        <v>1.78E-2</v>
+      </c>
       <c r="T140" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U140" s="17"/>
+      <c r="W140" s="18">
+        <f>[1]!WSD($B140,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X140" s="1">
+        <v>5530000</v>
+      </c>
     </row>
     <row r="141" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A141" s="28"/>
+      <c r="B141" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D141" s="6">
+        <v>-9</v>
+      </c>
+      <c r="E141" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F141" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G141" s="6">
+        <v>1377</v>
+      </c>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J141" s="41">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K141" s="58">
+        <f t="shared" si="43"/>
+        <v>0.02</v>
+      </c>
+      <c r="L141" s="56">
+        <f t="shared" si="29"/>
+        <v>-8.9243928023884447</v>
+      </c>
+      <c r="M141" s="6">
+        <f t="shared" si="44"/>
+        <v>-9</v>
+      </c>
+      <c r="N141" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O141" s="58">
+        <v>2.0199999999999999E-2</v>
+      </c>
       <c r="T141" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U141" s="17"/>
+      <c r="W141" s="18">
+        <f>[1]!WSD($B141,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X141" s="1">
+        <v>5530000</v>
+      </c>
     </row>
     <row r="142" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="L142" s="59"/>
       <c r="T142" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U142" s="17"/>
+      <c r="W142" s="18"/>
     </row>
     <row r="143" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T143" s="9" t="str">
@@ -10319,1078 +10860,1078 @@
     </row>
     <row r="194" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T194" s="9" t="str">
-        <f t="shared" ref="T194:T257" si="39">IF(Q194="","",D194*(Q194-G194)*W194)</f>
+        <f t="shared" ref="T194:T257" si="45">IF(Q194="","",D194*(Q194-G194)*W194)</f>
         <v/>
       </c>
       <c r="U194" s="17"/>
     </row>
     <row r="195" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T195" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U195" s="17"/>
     </row>
     <row r="196" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T196" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U196" s="17"/>
     </row>
     <row r="197" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T197" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U197" s="17"/>
     </row>
     <row r="198" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T198" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U198" s="17"/>
     </row>
     <row r="199" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T199" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U199" s="17"/>
     </row>
     <row r="200" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T200" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U200" s="17"/>
     </row>
     <row r="201" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T201" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U201" s="17"/>
     </row>
     <row r="202" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T202" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U202" s="17"/>
     </row>
     <row r="203" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T203" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U203" s="17"/>
     </row>
     <row r="204" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T204" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U204" s="17"/>
     </row>
     <row r="205" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T205" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U205" s="17"/>
     </row>
     <row r="206" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T206" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U206" s="17"/>
     </row>
     <row r="207" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T207" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U207" s="17"/>
     </row>
     <row r="208" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T208" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U208" s="17"/>
     </row>
     <row r="209" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T209" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U209" s="17"/>
     </row>
     <row r="210" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T210" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U210" s="17"/>
     </row>
     <row r="211" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T211" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U211" s="17"/>
     </row>
     <row r="212" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T212" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U212" s="17"/>
     </row>
     <row r="213" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T213" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U213" s="17"/>
     </row>
     <row r="214" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T214" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U214" s="17"/>
     </row>
     <row r="215" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T215" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U215" s="17"/>
     </row>
     <row r="216" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T216" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U216" s="17"/>
     </row>
     <row r="217" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T217" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U217" s="17"/>
     </row>
     <row r="218" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T218" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U218" s="17"/>
     </row>
     <row r="219" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T219" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U219" s="17"/>
     </row>
     <row r="220" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T220" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U220" s="17"/>
     </row>
     <row r="221" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T221" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U221" s="17"/>
     </row>
     <row r="222" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T222" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U222" s="17"/>
     </row>
     <row r="223" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T223" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U223" s="17"/>
     </row>
     <row r="224" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T224" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U224" s="17"/>
     </row>
     <row r="225" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T225" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U225" s="17"/>
     </row>
     <row r="226" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T226" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U226" s="17"/>
     </row>
     <row r="227" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T227" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U227" s="17"/>
     </row>
     <row r="228" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T228" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U228" s="17"/>
     </row>
     <row r="229" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T229" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U229" s="17"/>
     </row>
     <row r="230" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T230" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U230" s="17"/>
     </row>
     <row r="231" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T231" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U231" s="17"/>
     </row>
     <row r="232" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T232" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U232" s="17"/>
     </row>
     <row r="233" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T233" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U233" s="17"/>
     </row>
     <row r="234" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T234" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U234" s="17"/>
     </row>
     <row r="235" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T235" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U235" s="17"/>
     </row>
     <row r="236" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T236" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U236" s="17"/>
     </row>
     <row r="237" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T237" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U237" s="17"/>
     </row>
     <row r="238" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T238" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U238" s="17"/>
     </row>
     <row r="239" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T239" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U239" s="17"/>
     </row>
     <row r="240" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T240" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U240" s="17"/>
     </row>
     <row r="241" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T241" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U241" s="17"/>
     </row>
     <row r="242" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T242" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U242" s="17"/>
     </row>
     <row r="243" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T243" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U243" s="17"/>
     </row>
     <row r="244" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T244" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U244" s="17"/>
     </row>
     <row r="245" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T245" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U245" s="17"/>
     </row>
     <row r="246" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T246" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U246" s="17"/>
     </row>
     <row r="247" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T247" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U247" s="17"/>
     </row>
     <row r="248" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T248" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U248" s="17"/>
     </row>
     <row r="249" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T249" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U249" s="17"/>
     </row>
     <row r="250" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T250" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U250" s="17"/>
     </row>
     <row r="251" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T251" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U251" s="17"/>
     </row>
     <row r="252" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T252" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U252" s="17"/>
     </row>
     <row r="253" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T253" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U253" s="17"/>
     </row>
     <row r="254" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T254" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U254" s="17"/>
     </row>
     <row r="255" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T255" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U255" s="17"/>
     </row>
     <row r="256" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T256" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
     </row>
     <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T257" s="9" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="U257" s="17"/>
     </row>
     <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T258" s="9" t="str">
-        <f t="shared" ref="T258:T321" si="40">IF(Q258="","",D258*(Q258-G258)*W258)</f>
+        <f t="shared" ref="T258:T321" si="46">IF(Q258="","",D258*(Q258-G258)*W258)</f>
         <v/>
       </c>
       <c r="U258" s="17"/>
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" ref="T322:T347" si="41">IF(Q322="","",D322*(Q322-G322)*W322)</f>
+        <f t="shared" ref="T322:T347" si="47">IF(Q322="","",D322*(Q322-G322)*W322)</f>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="U347" s="17"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="124">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -512,6 +512,10 @@
     <t>L</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>RM805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -903,10 +907,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$25</c:f>
+              <c:f>净值!$A$5:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -970,15 +974,18 @@
                 <c:pt idx="20">
                   <c:v>43166</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>43167</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$25</c:f>
+              <c:f>净值!$B$5:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -1042,6 +1049,9 @@
                 <c:pt idx="20">
                   <c:v>5604871</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>5725125</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1056,11 +1066,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="640696528"/>
-        <c:axId val="640697088"/>
+        <c:axId val="580644736"/>
+        <c:axId val="580645296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="640696528"/>
+        <c:axId val="580644736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,14 +1113,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640697088"/>
+        <c:crossAx val="580645296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="640697088"/>
+        <c:axId val="580645296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,7 +1171,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640696528"/>
+        <c:crossAx val="580644736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2112,7 +2122,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2165,7 +2175,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C25" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C26" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2412,6 +2422,13 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>43167</v>
+      </c>
+      <c r="B26" s="4">
+        <v>5725125</v>
+      </c>
+      <c r="C26" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0215354600672217</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -2483,8 +2500,8 @@
   <dimension ref="A1:AG6644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P134" sqref="P134"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O142" sqref="O142:O146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8177,7 +8194,7 @@
         <v>111</v>
       </c>
       <c r="J102" s="42">
-        <f t="shared" ref="J102:J141" si="24">IF(I102="N",1,IF(C102=I102,2,0.5))</f>
+        <f t="shared" ref="J102:J151" si="24">IF(I102="N",1,IF(C102=I102,2,0.5))</f>
         <v>1</v>
       </c>
       <c r="K102" s="47">
@@ -10493,134 +10510,648 @@
       </c>
     </row>
     <row r="142" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L142" s="59"/>
+      <c r="A142" s="27">
+        <v>43167</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D142" s="1">
+        <v>30</v>
+      </c>
+      <c r="E142" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F142" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G142" s="1">
+        <v>620.4</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J142" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K142" s="47">
+        <f>SUM($F$142:$F$146)/SUM($J$142:$J$146)*J142</f>
+        <v>0.05</v>
+      </c>
+      <c r="L142" s="56">
+        <f>(X142*K142)/(W142*G142*0.15)</f>
+        <v>30.195572748764238</v>
+      </c>
+      <c r="M142" s="6">
+        <f>ROUND(L142,0)+1</f>
+        <v>31</v>
+      </c>
+      <c r="N142" s="6">
+        <f t="shared" ref="N142:N151" si="45">M142-D142</f>
+        <v>1</v>
+      </c>
+      <c r="O142" s="47">
+        <v>5.1400000000000001E-2</v>
+      </c>
       <c r="T142" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U142" s="17"/>
-      <c r="W142" s="18"/>
+      <c r="W142" s="18">
+        <f>[1]!WSD($B142,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X142" s="1">
+        <v>5620000</v>
+      </c>
     </row>
     <row r="143" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B143" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D143" s="1">
+        <v>99</v>
+      </c>
+      <c r="E143" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F143" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G143" s="1">
+        <v>1857</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J143" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K143" s="47">
+        <f t="shared" ref="K143:K146" si="46">SUM($F$142:$F$146)/SUM($J$142:$J$146)*J143</f>
+        <v>0.05</v>
+      </c>
+      <c r="L143" s="56">
+        <f>(X143*K143)/(W143*G143*0.15)</f>
+        <v>100.87955483755161</v>
+      </c>
+      <c r="M143" s="6">
+        <f t="shared" ref="M143:M151" si="47">ROUND(L143,0)</f>
+        <v>101</v>
+      </c>
+      <c r="N143" s="6">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="O143" s="47">
+        <v>5.0299999999999997E-2</v>
+      </c>
       <c r="T143" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U143" s="17"/>
+      <c r="W143" s="18">
+        <f>[1]!WSD($B143,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X143" s="1">
+        <v>5620000</v>
+      </c>
     </row>
     <row r="144" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B144" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D144" s="1">
+        <v>7</v>
+      </c>
+      <c r="E144" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F144" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G144" s="1">
+        <v>12865</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J144" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K144" s="47">
+        <f t="shared" si="46"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L144" s="56">
+        <f>(X144*K144)/(W144*G144*0.15)</f>
+        <v>7.2807358466122558</v>
+      </c>
+      <c r="M144" s="6">
+        <f t="shared" si="47"/>
+        <v>7</v>
+      </c>
+      <c r="N144" s="6">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="O144" s="47">
+        <v>2.41E-2</v>
+      </c>
       <c r="T144" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U144" s="17"/>
-    </row>
-    <row r="145" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W144" s="18">
+        <f>[1]!WSD($B144,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X144" s="1">
+        <v>5620000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D145" s="1">
+        <v>65</v>
+      </c>
+      <c r="E145" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F145" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G145" s="1">
+        <v>5698</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J145" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K145" s="47">
+        <f t="shared" si="46"/>
+        <v>0.05</v>
+      </c>
+      <c r="L145" s="56">
+        <f>(X145*K145)/(W145*G145*0.15)</f>
+        <v>65.754065754065749</v>
+      </c>
+      <c r="M145" s="6">
+        <f t="shared" si="47"/>
+        <v>66</v>
+      </c>
+      <c r="N145" s="6">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="O145" s="47">
+        <v>5.04E-2</v>
+      </c>
       <c r="T145" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U145" s="17"/>
-    </row>
-    <row r="146" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W145" s="18">
+        <f>[1]!WSD($B145,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X145" s="1">
+        <v>5620000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B146" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D146" s="1">
+        <v>34</v>
+      </c>
+      <c r="E146" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F146" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G146" s="1">
+        <v>2710</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J146" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K146" s="47">
+        <f t="shared" si="46"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L146" s="56">
+        <f>(X146*K146)/(W146*G146*0.15)</f>
+        <v>34.563345633456336</v>
+      </c>
+      <c r="M146" s="6">
+        <f t="shared" si="47"/>
+        <v>35</v>
+      </c>
+      <c r="N146" s="6">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="O146" s="47">
+        <v>2.5399999999999999E-2</v>
+      </c>
       <c r="T146" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U146" s="17"/>
-    </row>
-    <row r="147" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W146" s="18">
+        <f>[1]!WSD($B146,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X146" s="1">
+        <v>5620000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B147" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D147" s="1">
+        <v>-57</v>
+      </c>
+      <c r="E147" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F147" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G147" s="1">
+        <v>5212</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J147" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K147" s="47">
+        <f>SUM($F$147:$F$151)/SUM($J$147:$J$151)*J147</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L147" s="56">
+        <f t="shared" ref="L147:L151" si="48">-(X147*K147)/(W147*G147*0.15)</f>
+        <v>-47.923595122367189</v>
+      </c>
+      <c r="M147" s="6">
+        <f t="shared" si="47"/>
+        <v>-48</v>
+      </c>
+      <c r="N147" s="6">
+        <f t="shared" si="45"/>
+        <v>9</v>
+      </c>
+      <c r="O147" s="47">
+        <v>6.7299999999999999E-2</v>
+      </c>
       <c r="T147" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U147" s="17"/>
-    </row>
-    <row r="148" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W147" s="18">
+        <f>[1]!WSD($B147,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X147" s="1">
+        <v>5620000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0</v>
+      </c>
+      <c r="E148" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F148" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G148" s="1">
+        <v>2553</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J148" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K148" s="47">
+        <f t="shared" ref="K148:K151" si="49">SUM($F$147:$F$151)/SUM($J$147:$J$151)*J148</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="L148" s="56">
+        <f t="shared" si="48"/>
+        <v>-24.459241850546199</v>
+      </c>
+      <c r="M148" s="6">
+        <f t="shared" si="47"/>
+        <v>-24</v>
+      </c>
+      <c r="N148" s="6">
+        <f t="shared" si="45"/>
+        <v>-24</v>
+      </c>
+      <c r="O148" s="47">
+        <v>1.6299999999999999E-2</v>
+      </c>
       <c r="T148" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U148" s="17"/>
-    </row>
-    <row r="149" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W148" s="18">
+        <f>[1]!WSD($B148,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X148" s="1">
+        <v>5620000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B149" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D149" s="1">
+        <v>-37</v>
+      </c>
+      <c r="E149" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F149" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G149" s="1">
+        <v>3890</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J149" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K149" s="47">
+        <f t="shared" si="49"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L149" s="56">
+        <f t="shared" si="48"/>
+        <v>-64.210225649814348</v>
+      </c>
+      <c r="M149" s="6">
+        <f t="shared" si="47"/>
+        <v>-64</v>
+      </c>
+      <c r="N149" s="6">
+        <f t="shared" si="45"/>
+        <v>-27</v>
+      </c>
+      <c r="O149" s="47">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="T149" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U149" s="17"/>
-    </row>
-    <row r="150" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W149" s="18">
+        <f>[1]!WSD($B149,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X149" s="1">
+        <v>5620000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D150" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E150" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F150" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G150" s="1">
+        <v>2151</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J150" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K150" s="47">
+        <f t="shared" si="49"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L150" s="56">
+        <f t="shared" si="48"/>
+        <v>-5.8060850250529477</v>
+      </c>
+      <c r="M150" s="6">
+        <f t="shared" si="47"/>
+        <v>-6</v>
+      </c>
+      <c r="N150" s="6">
+        <f t="shared" si="45"/>
+        <v>-3</v>
+      </c>
+      <c r="O150" s="47">
+        <v>3.4700000000000002E-2</v>
+      </c>
       <c r="T150" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U150" s="17"/>
-    </row>
-    <row r="151" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W150" s="18">
+        <f>[1]!WSD($B150,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X150" s="1">
+        <v>5620000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A151" s="28"/>
+      <c r="B151" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D151" s="6">
+        <v>-9</v>
+      </c>
+      <c r="E151" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F151" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G151" s="6">
+        <v>1347.5</v>
+      </c>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J151" s="41">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K151" s="58">
+        <f t="shared" si="49"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="L151" s="56">
+        <f t="shared" si="48"/>
+        <v>-7.7234934377791529</v>
+      </c>
+      <c r="M151" s="6">
+        <f t="shared" si="47"/>
+        <v>-8</v>
+      </c>
+      <c r="N151" s="6">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="O151" s="58">
+        <v>1.7600000000000001E-2</v>
+      </c>
       <c r="T151" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U151" s="17"/>
-    </row>
-    <row r="152" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W151" s="18">
+        <f>[1]!WSD($B151,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X151" s="1">
+        <v>5620000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T152" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U152" s="17"/>
-    </row>
-    <row r="153" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W152" s="18"/>
+    </row>
+    <row r="153" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T153" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U153" s="17"/>
     </row>
-    <row r="154" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T154" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U154" s="17"/>
     </row>
-    <row r="155" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T155" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U155" s="17"/>
     </row>
-    <row r="156" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T156" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U156" s="17"/>
     </row>
-    <row r="157" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T157" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U157" s="17"/>
     </row>
-    <row r="158" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T158" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U158" s="17"/>
     </row>
-    <row r="159" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T159" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U159" s="17"/>
     </row>
-    <row r="160" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T160" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
@@ -10860,1078 +11391,1078 @@
     </row>
     <row r="194" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T194" s="9" t="str">
-        <f t="shared" ref="T194:T257" si="45">IF(Q194="","",D194*(Q194-G194)*W194)</f>
+        <f t="shared" ref="T194:T257" si="50">IF(Q194="","",D194*(Q194-G194)*W194)</f>
         <v/>
       </c>
       <c r="U194" s="17"/>
     </row>
     <row r="195" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T195" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U195" s="17"/>
     </row>
     <row r="196" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T196" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U196" s="17"/>
     </row>
     <row r="197" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T197" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U197" s="17"/>
     </row>
     <row r="198" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T198" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U198" s="17"/>
     </row>
     <row r="199" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T199" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U199" s="17"/>
     </row>
     <row r="200" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T200" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U200" s="17"/>
     </row>
     <row r="201" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T201" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U201" s="17"/>
     </row>
     <row r="202" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T202" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U202" s="17"/>
     </row>
     <row r="203" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T203" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U203" s="17"/>
     </row>
     <row r="204" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T204" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U204" s="17"/>
     </row>
     <row r="205" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T205" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U205" s="17"/>
     </row>
     <row r="206" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T206" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U206" s="17"/>
     </row>
     <row r="207" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T207" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U207" s="17"/>
     </row>
     <row r="208" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T208" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U208" s="17"/>
     </row>
     <row r="209" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T209" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U209" s="17"/>
     </row>
     <row r="210" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T210" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U210" s="17"/>
     </row>
     <row r="211" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T211" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U211" s="17"/>
     </row>
     <row r="212" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T212" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U212" s="17"/>
     </row>
     <row r="213" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T213" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U213" s="17"/>
     </row>
     <row r="214" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T214" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U214" s="17"/>
     </row>
     <row r="215" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T215" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U215" s="17"/>
     </row>
     <row r="216" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T216" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U216" s="17"/>
     </row>
     <row r="217" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T217" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U217" s="17"/>
     </row>
     <row r="218" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T218" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U218" s="17"/>
     </row>
     <row r="219" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T219" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U219" s="17"/>
     </row>
     <row r="220" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T220" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U220" s="17"/>
     </row>
     <row r="221" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T221" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U221" s="17"/>
     </row>
     <row r="222" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T222" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U222" s="17"/>
     </row>
     <row r="223" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T223" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U223" s="17"/>
     </row>
     <row r="224" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T224" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U224" s="17"/>
     </row>
     <row r="225" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T225" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U225" s="17"/>
     </row>
     <row r="226" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T226" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U226" s="17"/>
     </row>
     <row r="227" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T227" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U227" s="17"/>
     </row>
     <row r="228" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T228" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U228" s="17"/>
     </row>
     <row r="229" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T229" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U229" s="17"/>
     </row>
     <row r="230" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T230" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U230" s="17"/>
     </row>
     <row r="231" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T231" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U231" s="17"/>
     </row>
     <row r="232" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T232" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U232" s="17"/>
     </row>
     <row r="233" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T233" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U233" s="17"/>
     </row>
     <row r="234" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T234" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U234" s="17"/>
     </row>
     <row r="235" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T235" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U235" s="17"/>
     </row>
     <row r="236" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T236" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U236" s="17"/>
     </row>
     <row r="237" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T237" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U237" s="17"/>
     </row>
     <row r="238" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T238" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U238" s="17"/>
     </row>
     <row r="239" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T239" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U239" s="17"/>
     </row>
     <row r="240" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T240" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U240" s="17"/>
     </row>
     <row r="241" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T241" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U241" s="17"/>
     </row>
     <row r="242" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T242" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U242" s="17"/>
     </row>
     <row r="243" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T243" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U243" s="17"/>
     </row>
     <row r="244" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T244" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U244" s="17"/>
     </row>
     <row r="245" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T245" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U245" s="17"/>
     </row>
     <row r="246" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T246" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U246" s="17"/>
     </row>
     <row r="247" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T247" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U247" s="17"/>
     </row>
     <row r="248" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T248" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U248" s="17"/>
     </row>
     <row r="249" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T249" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U249" s="17"/>
     </row>
     <row r="250" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T250" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U250" s="17"/>
     </row>
     <row r="251" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T251" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U251" s="17"/>
     </row>
     <row r="252" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T252" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U252" s="17"/>
     </row>
     <row r="253" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T253" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U253" s="17"/>
     </row>
     <row r="254" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T254" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U254" s="17"/>
     </row>
     <row r="255" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T255" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U255" s="17"/>
     </row>
     <row r="256" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T256" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
     </row>
     <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T257" s="9" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="U257" s="17"/>
     </row>
     <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T258" s="9" t="str">
-        <f t="shared" ref="T258:T321" si="46">IF(Q258="","",D258*(Q258-G258)*W258)</f>
+        <f t="shared" ref="T258:T321" si="51">IF(Q258="","",D258*(Q258-G258)*W258)</f>
         <v/>
       </c>
       <c r="U258" s="17"/>
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" ref="T322:T347" si="47">IF(Q322="","",D322*(Q322-G322)*W322)</f>
+        <f t="shared" ref="T322:T347" si="52">IF(Q322="","",D322*(Q322-G322)*W322)</f>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U347" s="17"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="126">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -516,6 +516,14 @@
     <t>RM805</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -624,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -791,6 +799,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -907,10 +918,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$26</c:f>
+              <c:f>净值!$A$5:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -977,15 +988,18 @@
                 <c:pt idx="21">
                   <c:v>43167</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>43168</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$26</c:f>
+              <c:f>净值!$B$5:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -1052,6 +1066,9 @@
                 <c:pt idx="21">
                   <c:v>5725125</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>5787555</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1066,11 +1083,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="580644736"/>
-        <c:axId val="580645296"/>
+        <c:axId val="579530640"/>
+        <c:axId val="579531200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="580644736"/>
+        <c:axId val="579530640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1113,14 +1130,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="580645296"/>
+        <c:crossAx val="579531200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="580645296"/>
+        <c:axId val="579531200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,7 +1188,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="580644736"/>
+        <c:crossAx val="579530640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2122,7 +2139,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2175,7 +2192,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C26" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C27" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2434,6 +2451,13 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
         <v>43168</v>
+      </c>
+      <c r="B27" s="4">
+        <v>5787555</v>
+      </c>
+      <c r="C27" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0326748603025</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -2500,8 +2524,8 @@
   <dimension ref="A1:AG6644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O142" sqref="O142:O146"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8194,7 +8218,7 @@
         <v>111</v>
       </c>
       <c r="J102" s="42">
-        <f t="shared" ref="J102:J151" si="24">IF(I102="N",1,IF(C102=I102,2,0.5))</f>
+        <f t="shared" ref="J102:J161" si="24">IF(I102="N",1,IF(C102=I102,2,0.5))</f>
         <v>1</v>
       </c>
       <c r="K102" s="47">
@@ -10481,15 +10505,15 @@
         <f t="shared" si="43"/>
         <v>0.02</v>
       </c>
-      <c r="L141" s="56">
+      <c r="L141" s="59">
         <f t="shared" si="29"/>
         <v>-8.9243928023884447</v>
       </c>
-      <c r="M141" s="6">
+      <c r="M141" s="57">
         <f t="shared" si="44"/>
         <v>-9</v>
       </c>
-      <c r="N141" s="6">
+      <c r="N141" s="57">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -10542,16 +10566,16 @@
         <f>SUM($F$142:$F$146)/SUM($J$142:$J$146)*J142</f>
         <v>0.05</v>
       </c>
-      <c r="L142" s="56">
+      <c r="L142" s="59">
         <f>(X142*K142)/(W142*G142*0.15)</f>
         <v>30.195572748764238</v>
       </c>
-      <c r="M142" s="6">
+      <c r="M142" s="57">
         <f>ROUND(L142,0)+1</f>
         <v>31</v>
       </c>
-      <c r="N142" s="6">
-        <f t="shared" ref="N142:N151" si="45">M142-D142</f>
+      <c r="N142" s="57">
+        <f t="shared" ref="N142:N161" si="45">M142-D142</f>
         <v>1</v>
       </c>
       <c r="O142" s="47">
@@ -10600,15 +10624,15 @@
         <f t="shared" ref="K143:K146" si="46">SUM($F$142:$F$146)/SUM($J$142:$J$146)*J143</f>
         <v>0.05</v>
       </c>
-      <c r="L143" s="56">
+      <c r="L143" s="59">
         <f>(X143*K143)/(W143*G143*0.15)</f>
         <v>100.87955483755161</v>
       </c>
-      <c r="M143" s="6">
-        <f t="shared" ref="M143:M151" si="47">ROUND(L143,0)</f>
+      <c r="M143" s="57">
+        <f t="shared" ref="M143:M161" si="47">ROUND(L143,0)</f>
         <v>101</v>
       </c>
-      <c r="N143" s="6">
+      <c r="N143" s="57">
         <f t="shared" si="45"/>
         <v>2</v>
       </c>
@@ -10658,15 +10682,15 @@
         <f t="shared" si="46"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="L144" s="56">
+      <c r="L144" s="59">
         <f>(X144*K144)/(W144*G144*0.15)</f>
         <v>7.2807358466122558</v>
       </c>
-      <c r="M144" s="6">
+      <c r="M144" s="57">
         <f t="shared" si="47"/>
         <v>7</v>
       </c>
-      <c r="N144" s="6">
+      <c r="N144" s="57">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -10716,15 +10740,15 @@
         <f t="shared" si="46"/>
         <v>0.05</v>
       </c>
-      <c r="L145" s="56">
+      <c r="L145" s="59">
         <f>(X145*K145)/(W145*G145*0.15)</f>
         <v>65.754065754065749</v>
       </c>
-      <c r="M145" s="6">
+      <c r="M145" s="57">
         <f t="shared" si="47"/>
         <v>66</v>
       </c>
-      <c r="N145" s="6">
+      <c r="N145" s="57">
         <f t="shared" si="45"/>
         <v>1</v>
       </c>
@@ -10774,15 +10798,15 @@
         <f t="shared" si="46"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="L146" s="56">
+      <c r="L146" s="59">
         <f>(X146*K146)/(W146*G146*0.15)</f>
         <v>34.563345633456336</v>
       </c>
-      <c r="M146" s="6">
+      <c r="M146" s="57">
         <f t="shared" si="47"/>
         <v>35</v>
       </c>
-      <c r="N146" s="6">
+      <c r="N146" s="57">
         <f t="shared" si="45"/>
         <v>1</v>
       </c>
@@ -10832,15 +10856,15 @@
         <f>SUM($F$147:$F$151)/SUM($J$147:$J$151)*J147</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="L147" s="56">
-        <f t="shared" ref="L147:L151" si="48">-(X147*K147)/(W147*G147*0.15)</f>
+      <c r="L147" s="59">
+        <f t="shared" ref="L147:L161" si="48">-(X147*K147)/(W147*G147*0.15)</f>
         <v>-47.923595122367189</v>
       </c>
-      <c r="M147" s="6">
+      <c r="M147" s="57">
         <f t="shared" si="47"/>
         <v>-48</v>
       </c>
-      <c r="N147" s="6">
+      <c r="N147" s="57">
         <f t="shared" si="45"/>
         <v>9</v>
       </c>
@@ -10890,15 +10914,15 @@
         <f t="shared" ref="K148:K151" si="49">SUM($F$147:$F$151)/SUM($J$147:$J$151)*J148</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="L148" s="56">
+      <c r="L148" s="59">
         <f t="shared" si="48"/>
         <v>-24.459241850546199</v>
       </c>
-      <c r="M148" s="6">
+      <c r="M148" s="57">
         <f t="shared" si="47"/>
         <v>-24</v>
       </c>
-      <c r="N148" s="6">
+      <c r="N148" s="57">
         <f t="shared" si="45"/>
         <v>-24</v>
       </c>
@@ -10948,15 +10972,15 @@
         <f t="shared" si="49"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="L149" s="56">
+      <c r="L149" s="59">
         <f t="shared" si="48"/>
         <v>-64.210225649814348</v>
       </c>
-      <c r="M149" s="6">
+      <c r="M149" s="57">
         <f t="shared" si="47"/>
         <v>-64</v>
       </c>
-      <c r="N149" s="6">
+      <c r="N149" s="57">
         <f t="shared" si="45"/>
         <v>-27</v>
       </c>
@@ -11006,15 +11030,15 @@
         <f t="shared" si="49"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="L150" s="56">
+      <c r="L150" s="59">
         <f t="shared" si="48"/>
         <v>-5.8060850250529477</v>
       </c>
-      <c r="M150" s="6">
+      <c r="M150" s="57">
         <f t="shared" si="47"/>
         <v>-6</v>
       </c>
-      <c r="N150" s="6">
+      <c r="N150" s="57">
         <f t="shared" si="45"/>
         <v>-3</v>
       </c>
@@ -11066,15 +11090,15 @@
         <f t="shared" si="49"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="L151" s="56">
+      <c r="L151" s="59">
         <f t="shared" si="48"/>
-        <v>-7.7234934377791529</v>
-      </c>
-      <c r="M151" s="6">
+        <v>-7.7509791795506082</v>
+      </c>
+      <c r="M151" s="57">
         <f t="shared" si="47"/>
         <v>-8</v>
       </c>
-      <c r="N151" s="6">
+      <c r="N151" s="57">
         <f t="shared" si="45"/>
         <v>1</v>
       </c>
@@ -11091,179 +11115,699 @@
         <v>60</v>
       </c>
       <c r="X151" s="1">
-        <v>5620000</v>
+        <v>5640000</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A152" s="27">
+        <v>43168</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D152" s="1">
+        <v>31</v>
+      </c>
+      <c r="E152" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F152" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G152" s="1">
+        <v>620.4</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J152" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K152" s="47">
+        <f>SUM($F$152:$F$156)/SUM($J$152:$J$156)*J152</f>
+        <v>0.08</v>
+      </c>
+      <c r="L152" s="59">
+        <f>(X152*K152)/(W152*G152*0.15)</f>
+        <v>49.258551472168499</v>
+      </c>
+      <c r="M152" s="57">
+        <f t="shared" si="47"/>
+        <v>49</v>
+      </c>
+      <c r="N152" s="57">
+        <f t="shared" si="45"/>
+        <v>18</v>
+      </c>
+      <c r="O152" s="47">
+        <v>7.9699999999999993E-2</v>
+      </c>
       <c r="T152" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U152" s="17"/>
-      <c r="W152" s="18"/>
+      <c r="W152" s="18">
+        <f>[1]!WSD($B152,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X152" s="1">
+        <v>5730001</v>
+      </c>
     </row>
     <row r="153" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B153" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D153" s="1">
+        <v>101</v>
+      </c>
+      <c r="E153" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F153" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G153" s="1">
+        <v>1857</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J153" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K153" s="47">
+        <f t="shared" ref="K153:K156" si="50">SUM($F$152:$F$156)/SUM($J$152:$J$156)*J153</f>
+        <v>0.04</v>
+      </c>
+      <c r="L153" s="59">
+        <f>(X153*K153)/(W153*G153*0.15)</f>
+        <v>82.283266917968049</v>
+      </c>
+      <c r="M153" s="57">
+        <f t="shared" si="47"/>
+        <v>82</v>
+      </c>
+      <c r="N153" s="57">
+        <f t="shared" si="45"/>
+        <v>-19</v>
+      </c>
+      <c r="O153" s="47">
+        <v>3.95E-2</v>
+      </c>
       <c r="T153" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U153" s="17"/>
+      <c r="W153" s="18">
+        <f>[1]!WSD($B153,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X153" s="1">
+        <v>5730001</v>
+      </c>
     </row>
     <row r="154" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D154" s="1">
+        <v>7</v>
+      </c>
+      <c r="E154" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F154" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G154" s="1">
+        <v>12865</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J154" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K154" s="47">
+        <f t="shared" si="50"/>
+        <v>0.02</v>
+      </c>
+      <c r="L154" s="59">
+        <f>(X154*K154)/(W154*G154*0.15)</f>
+        <v>5.9385941184091209</v>
+      </c>
+      <c r="M154" s="57">
+        <f t="shared" si="47"/>
+        <v>6</v>
+      </c>
+      <c r="N154" s="57">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+      <c r="O154" s="47">
+        <v>2.0199999999999999E-2</v>
+      </c>
       <c r="T154" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U154" s="17"/>
+      <c r="W154" s="18">
+        <f>[1]!WSD($B154,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X154" s="1">
+        <v>5730001</v>
+      </c>
     </row>
     <row r="155" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B155" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D155" s="1">
+        <v>66</v>
+      </c>
+      <c r="E155" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F155" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G155" s="1">
+        <v>5698</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J155" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K155" s="47">
+        <f t="shared" si="50"/>
+        <v>0.04</v>
+      </c>
+      <c r="L155" s="59">
+        <f>(X155*K155)/(W155*G155*0.15)</f>
+        <v>53.632862992862997</v>
+      </c>
+      <c r="M155" s="57">
+        <f t="shared" si="47"/>
+        <v>54</v>
+      </c>
+      <c r="N155" s="57">
+        <f t="shared" si="45"/>
+        <v>-12</v>
+      </c>
+      <c r="O155" s="47">
+        <v>0.04</v>
+      </c>
       <c r="T155" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U155" s="17"/>
+      <c r="W155" s="18">
+        <f>[1]!WSD($B155,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X155" s="1">
+        <v>5730001</v>
+      </c>
     </row>
     <row r="156" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B156" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D156" s="1">
+        <v>35</v>
+      </c>
+      <c r="E156" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F156" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G156" s="1">
+        <v>2710</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J156" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K156" s="47">
+        <f t="shared" si="50"/>
+        <v>0.02</v>
+      </c>
+      <c r="L156" s="59">
+        <f>(X156*K156)/(W156*G156*0.15)</f>
+        <v>28.191886838868388</v>
+      </c>
+      <c r="M156" s="57">
+        <f t="shared" si="47"/>
+        <v>28</v>
+      </c>
+      <c r="N156" s="57">
+        <f t="shared" si="45"/>
+        <v>-7</v>
+      </c>
+      <c r="O156" s="47">
+        <v>1.9800000000000002E-2</v>
+      </c>
       <c r="T156" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U156" s="17"/>
+      <c r="W156" s="18">
+        <f>[1]!WSD($B156,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X156" s="1">
+        <v>5730001</v>
+      </c>
     </row>
     <row r="157" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B157" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D157" s="1">
+        <v>-48</v>
+      </c>
+      <c r="E157" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F157" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G157" s="1">
+        <v>5212</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J157" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K157" s="47">
+        <f>SUM($F$157:$F$161)/SUM($J$157:$J$161)*J157</f>
+        <v>6.1538461538461542E-2</v>
+      </c>
+      <c r="L157" s="59">
+        <f t="shared" si="48"/>
+        <v>-45.103024578389125</v>
+      </c>
+      <c r="M157" s="57">
+        <f t="shared" si="47"/>
+        <v>-45</v>
+      </c>
+      <c r="N157" s="57">
+        <f t="shared" si="45"/>
+        <v>3</v>
+      </c>
+      <c r="O157" s="47">
+        <v>6.0600000000000001E-2</v>
+      </c>
       <c r="T157" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U157" s="17"/>
+      <c r="W157" s="18">
+        <f>[1]!WSD($B157,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X157" s="1">
+        <v>5730001</v>
+      </c>
     </row>
     <row r="158" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B158" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D158" s="1">
+        <v>-24</v>
+      </c>
+      <c r="E158" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F158" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G158" s="1">
+        <v>2553</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J158" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K158" s="47">
+        <f t="shared" ref="K158:K161" si="51">SUM($F$157:$F$161)/SUM($J$157:$J$161)*J158</f>
+        <v>1.5384615384615385E-2</v>
+      </c>
+      <c r="L158" s="59">
+        <f t="shared" si="48"/>
+        <v>-23.019679210983558</v>
+      </c>
+      <c r="M158" s="57">
+        <f t="shared" si="47"/>
+        <v>-23</v>
+      </c>
+      <c r="N158" s="57">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="O158" s="47">
+        <v>1.5299999999999999E-2</v>
+      </c>
       <c r="T158" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U158" s="17"/>
+      <c r="W158" s="18">
+        <f>[1]!WSD($B158,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X158" s="1">
+        <v>5730001</v>
+      </c>
     </row>
     <row r="159" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B159" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D159" s="1">
+        <v>-64</v>
+      </c>
+      <c r="E159" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F159" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G159" s="1">
+        <v>3890</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J159" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K159" s="47">
+        <f t="shared" si="51"/>
+        <v>6.1538461538461542E-2</v>
+      </c>
+      <c r="L159" s="59">
+        <f t="shared" si="48"/>
+        <v>-60.431096170324963</v>
+      </c>
+      <c r="M159" s="57">
+        <f t="shared" si="47"/>
+        <v>-60</v>
+      </c>
+      <c r="N159" s="57">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+      <c r="O159" s="47">
+        <v>6.0400000000000002E-2</v>
+      </c>
       <c r="T159" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U159" s="17"/>
+      <c r="W159" s="18">
+        <f>[1]!WSD($B159,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X159" s="1">
+        <v>5730001</v>
+      </c>
     </row>
     <row r="160" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D160" s="1">
+        <v>-6</v>
+      </c>
+      <c r="E160" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F160" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G160" s="1">
+        <v>2151</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J160" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K160" s="47">
+        <f t="shared" si="51"/>
+        <v>3.0769230769230771E-2</v>
+      </c>
+      <c r="L160" s="59">
+        <f t="shared" si="48"/>
+        <v>-5.46436457700056</v>
+      </c>
+      <c r="M160" s="57">
+        <f t="shared" si="47"/>
+        <v>-5</v>
+      </c>
+      <c r="N160" s="57">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="O160" s="47">
+        <v>3.3500000000000002E-2</v>
+      </c>
       <c r="T160" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U160" s="17"/>
-    </row>
-    <row r="161" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W160" s="18">
+        <f>[1]!WSD($B160,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X160" s="1">
+        <v>5730001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A161" s="28"/>
+      <c r="B161" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D161" s="1">
+        <v>-8</v>
+      </c>
+      <c r="E161" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F161" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G161" s="1">
+        <v>1347.5</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J161" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K161" s="47">
+        <f t="shared" si="51"/>
+        <v>3.0769230769230771E-2</v>
+      </c>
+      <c r="L161" s="59">
+        <f t="shared" si="48"/>
+        <v>-14.537845646417075</v>
+      </c>
+      <c r="M161" s="57">
+        <f t="shared" si="47"/>
+        <v>-15</v>
+      </c>
+      <c r="N161" s="57">
+        <f t="shared" si="45"/>
+        <v>-7</v>
+      </c>
+      <c r="O161" s="47">
+        <v>3.15E-2</v>
+      </c>
       <c r="T161" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U161" s="17"/>
-    </row>
-    <row r="162" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W161" s="18">
+        <f>[1]!WSD($B161,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X161" s="1">
+        <v>5730001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="L162" s="59"/>
+      <c r="M162" s="62"/>
+      <c r="N162" s="57"/>
       <c r="T162" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U162" s="17"/>
-    </row>
-    <row r="163" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W162" s="18"/>
+    </row>
+    <row r="163" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="L163" s="59"/>
+      <c r="M163" s="62"/>
+      <c r="N163" s="62"/>
       <c r="T163" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U163" s="17"/>
     </row>
-    <row r="164" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T164" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U164" s="17"/>
     </row>
-    <row r="165" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T165" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U165" s="17"/>
     </row>
-    <row r="166" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T166" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U166" s="17"/>
     </row>
-    <row r="167" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T167" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U167" s="17"/>
     </row>
-    <row r="168" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T168" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U168" s="17"/>
     </row>
-    <row r="169" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T169" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U169" s="17"/>
     </row>
-    <row r="170" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T170" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U170" s="17"/>
     </row>
-    <row r="171" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T171" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U171" s="17"/>
     </row>
-    <row r="172" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T172" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U172" s="17"/>
     </row>
-    <row r="173" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T173" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U173" s="17"/>
     </row>
-    <row r="174" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T174" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U174" s="17"/>
     </row>
-    <row r="175" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T175" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U175" s="17"/>
     </row>
-    <row r="176" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T176" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
@@ -11391,1078 +11935,1078 @@
     </row>
     <row r="194" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T194" s="9" t="str">
-        <f t="shared" ref="T194:T257" si="50">IF(Q194="","",D194*(Q194-G194)*W194)</f>
+        <f t="shared" ref="T194:T257" si="52">IF(Q194="","",D194*(Q194-G194)*W194)</f>
         <v/>
       </c>
       <c r="U194" s="17"/>
     </row>
     <row r="195" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T195" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U195" s="17"/>
     </row>
     <row r="196" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T196" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U196" s="17"/>
     </row>
     <row r="197" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T197" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U197" s="17"/>
     </row>
     <row r="198" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T198" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U198" s="17"/>
     </row>
     <row r="199" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T199" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U199" s="17"/>
     </row>
     <row r="200" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T200" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U200" s="17"/>
     </row>
     <row r="201" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T201" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U201" s="17"/>
     </row>
     <row r="202" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T202" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U202" s="17"/>
     </row>
     <row r="203" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T203" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U203" s="17"/>
     </row>
     <row r="204" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T204" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U204" s="17"/>
     </row>
     <row r="205" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T205" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U205" s="17"/>
     </row>
     <row r="206" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T206" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U206" s="17"/>
     </row>
     <row r="207" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T207" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U207" s="17"/>
     </row>
     <row r="208" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T208" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U208" s="17"/>
     </row>
     <row r="209" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T209" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U209" s="17"/>
     </row>
     <row r="210" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T210" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U210" s="17"/>
     </row>
     <row r="211" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T211" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U211" s="17"/>
     </row>
     <row r="212" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T212" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U212" s="17"/>
     </row>
     <row r="213" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T213" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U213" s="17"/>
     </row>
     <row r="214" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T214" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U214" s="17"/>
     </row>
     <row r="215" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T215" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U215" s="17"/>
     </row>
     <row r="216" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T216" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U216" s="17"/>
     </row>
     <row r="217" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T217" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U217" s="17"/>
     </row>
     <row r="218" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T218" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U218" s="17"/>
     </row>
     <row r="219" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T219" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U219" s="17"/>
     </row>
     <row r="220" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T220" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U220" s="17"/>
     </row>
     <row r="221" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T221" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U221" s="17"/>
     </row>
     <row r="222" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T222" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U222" s="17"/>
     </row>
     <row r="223" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T223" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U223" s="17"/>
     </row>
     <row r="224" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T224" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U224" s="17"/>
     </row>
     <row r="225" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T225" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U225" s="17"/>
     </row>
     <row r="226" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T226" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U226" s="17"/>
     </row>
     <row r="227" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T227" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U227" s="17"/>
     </row>
     <row r="228" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T228" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U228" s="17"/>
     </row>
     <row r="229" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T229" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U229" s="17"/>
     </row>
     <row r="230" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T230" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U230" s="17"/>
     </row>
     <row r="231" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T231" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U231" s="17"/>
     </row>
     <row r="232" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T232" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U232" s="17"/>
     </row>
     <row r="233" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T233" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U233" s="17"/>
     </row>
     <row r="234" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T234" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U234" s="17"/>
     </row>
     <row r="235" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T235" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U235" s="17"/>
     </row>
     <row r="236" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T236" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U236" s="17"/>
     </row>
     <row r="237" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T237" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U237" s="17"/>
     </row>
     <row r="238" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T238" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U238" s="17"/>
     </row>
     <row r="239" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T239" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U239" s="17"/>
     </row>
     <row r="240" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T240" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U240" s="17"/>
     </row>
     <row r="241" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T241" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U241" s="17"/>
     </row>
     <row r="242" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T242" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U242" s="17"/>
     </row>
     <row r="243" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T243" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U243" s="17"/>
     </row>
     <row r="244" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T244" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U244" s="17"/>
     </row>
     <row r="245" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T245" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U245" s="17"/>
     </row>
     <row r="246" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T246" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U246" s="17"/>
     </row>
     <row r="247" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T247" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U247" s="17"/>
     </row>
     <row r="248" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T248" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U248" s="17"/>
     </row>
     <row r="249" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T249" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U249" s="17"/>
     </row>
     <row r="250" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T250" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U250" s="17"/>
     </row>
     <row r="251" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T251" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U251" s="17"/>
     </row>
     <row r="252" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T252" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U252" s="17"/>
     </row>
     <row r="253" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T253" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U253" s="17"/>
     </row>
     <row r="254" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T254" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U254" s="17"/>
     </row>
     <row r="255" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T255" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U255" s="17"/>
     </row>
     <row r="256" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T256" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
     </row>
     <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T257" s="9" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="U257" s="17"/>
     </row>
     <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T258" s="9" t="str">
-        <f t="shared" ref="T258:T321" si="51">IF(Q258="","",D258*(Q258-G258)*W258)</f>
+        <f t="shared" ref="T258:T321" si="53">IF(Q258="","",D258*(Q258-G258)*W258)</f>
         <v/>
       </c>
       <c r="U258" s="17"/>
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" ref="T322:T347" si="52">IF(Q322="","",D322*(Q322-G322)*W322)</f>
+        <f t="shared" ref="T322:T347" si="54">IF(Q322="","",D322*(Q322-G322)*W322)</f>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U347" s="17"/>
@@ -31389,20 +31933,20 @@
         <v>13</v>
       </c>
       <c r="E1" s="52"/>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B2" s="20" t="s">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="净值" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="127">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -524,6 +524,10 @@
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -632,7 +636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -799,9 +803,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -918,10 +919,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$27</c:f>
+              <c:f>净值!$A$5:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -991,15 +992,18 @@
                 <c:pt idx="22">
                   <c:v>43168</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>43171</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$27</c:f>
+              <c:f>净值!$B$5:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -1069,6 +1073,9 @@
                 <c:pt idx="22">
                   <c:v>5787555</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>5823430</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1083,11 +1090,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="579530640"/>
-        <c:axId val="579531200"/>
+        <c:axId val="625086256"/>
+        <c:axId val="625086816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="579530640"/>
+        <c:axId val="625086256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,14 +1137,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579531200"/>
+        <c:crossAx val="625086816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="579531200"/>
+        <c:axId val="625086816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1195,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579530640"/>
+        <c:crossAx val="625086256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2138,8 +2145,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2192,7 +2199,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C27" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C28" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2452,10 +2459,10 @@
       <c r="A27" s="14">
         <v>43168</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="48">
         <v>5787555</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="60">
         <f t="shared" si="0"/>
         <v>1.0326748603025</v>
       </c>
@@ -2463,6 +2470,13 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>43171</v>
+      </c>
+      <c r="B28" s="4">
+        <v>5823430</v>
+      </c>
+      <c r="C28" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0390760453648193</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -2523,9 +2537,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG6644"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A137" sqref="A137:XFD137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2624,7 +2638,7 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7">
         <f>COUNT(T2:T9988)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA1" s="8">
         <f>COUNTIF(T2:T9988,"&gt;0")</f>
@@ -8218,7 +8232,7 @@
         <v>111</v>
       </c>
       <c r="J102" s="42">
-        <f t="shared" ref="J102:J161" si="24">IF(I102="N",1,IF(C102=I102,2,0.5))</f>
+        <f t="shared" ref="J102:J171" si="24">IF(I102="N",1,IF(C102=I102,2,0.5))</f>
         <v>1</v>
       </c>
       <c r="K102" s="47">
@@ -11651,7 +11665,7 @@
       <c r="C161" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161" s="6">
         <v>-8</v>
       </c>
       <c r="E161" s="35">
@@ -11660,35 +11674,37 @@
       <c r="F161" s="35">
         <v>0.04</v>
       </c>
-      <c r="G161" s="1">
+      <c r="G161" s="6">
         <v>1347.5</v>
       </c>
-      <c r="I161" s="1" t="s">
+      <c r="H161" s="6"/>
+      <c r="I161" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J161" s="42">
+      <c r="J161" s="41">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="K161" s="47">
+      <c r="K161" s="58">
         <f t="shared" si="51"/>
         <v>3.0769230769230771E-2</v>
       </c>
-      <c r="L161" s="59">
+      <c r="L161" s="56">
         <f t="shared" si="48"/>
         <v>-14.537845646417075</v>
       </c>
-      <c r="M161" s="57">
+      <c r="M161" s="6">
         <f t="shared" si="47"/>
         <v>-15</v>
       </c>
-      <c r="N161" s="57">
+      <c r="N161" s="6">
         <f t="shared" si="45"/>
         <v>-7</v>
       </c>
-      <c r="O161" s="47">
+      <c r="O161" s="58">
         <v>3.15E-2</v>
       </c>
+      <c r="P161" s="58"/>
       <c r="T161" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
@@ -11703,86 +11719,593 @@
       </c>
     </row>
     <row r="162" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L162" s="59"/>
-      <c r="M162" s="62"/>
-      <c r="N162" s="57"/>
-      <c r="T162" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v/>
+      <c r="A162" s="27">
+        <v>43171</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D162" s="1">
+        <v>49</v>
+      </c>
+      <c r="E162" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F162" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G162" s="1">
+        <v>613.4</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J162" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K162" s="47">
+        <f>SUM($F$162:$F$166)/SUM($J$162:$J$166)*J162</f>
+        <v>0.05</v>
+      </c>
+      <c r="L162" s="59">
+        <f>(X162*K162)/(W162*G162*0.15)</f>
+        <v>31.137930659710904</v>
+      </c>
+      <c r="M162" s="57">
+        <f t="shared" ref="M162:M171" si="52">ROUND(L162,0)</f>
+        <v>31</v>
+      </c>
+      <c r="N162" s="57">
+        <f t="shared" ref="N162:N171" si="53">M162-D162</f>
+        <v>-18</v>
+      </c>
+      <c r="O162" s="47">
+        <v>4.99E-2</v>
+      </c>
+      <c r="T162" s="9" t="e">
+        <f>IF(#REF!="","",D162*(#REF!-#REF!)*W162)</f>
+        <v>#REF!</v>
       </c>
       <c r="U162" s="17"/>
-      <c r="W162" s="18"/>
+      <c r="W162" s="18">
+        <f>[1]!WSD($B162,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X162" s="1">
+        <v>5730002</v>
+      </c>
     </row>
     <row r="163" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L163" s="59"/>
-      <c r="M163" s="62"/>
-      <c r="N163" s="62"/>
-      <c r="T163" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v/>
+      <c r="B163" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D163" s="1">
+        <v>82</v>
+      </c>
+      <c r="E163" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F163" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G163" s="1">
+        <v>1832</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J163" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K163" s="47">
+        <f t="shared" ref="K163:K166" si="54">SUM($F$162:$F$166)/SUM($J$162:$J$166)*J163</f>
+        <v>0.05</v>
+      </c>
+      <c r="L163" s="59">
+        <f>(X163*K163)/(W163*G163*0.15)</f>
+        <v>104.25769650655023</v>
+      </c>
+      <c r="M163" s="57">
+        <f t="shared" si="52"/>
+        <v>104</v>
+      </c>
+      <c r="N163" s="57">
+        <f t="shared" si="53"/>
+        <v>22</v>
+      </c>
+      <c r="O163" s="47">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="T163" s="9" t="e">
+        <f>IF(#REF!="","",D163*(#REF!-#REF!)*W163)</f>
+        <v>#REF!</v>
       </c>
       <c r="U163" s="17"/>
+      <c r="W163" s="18">
+        <f>[1]!WSD($B163,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X163" s="1">
+        <v>5730003</v>
+      </c>
     </row>
     <row r="164" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T164" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v/>
+      <c r="B164" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D164" s="1">
+        <v>6</v>
+      </c>
+      <c r="E164" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F164" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G164" s="1">
+        <v>12620</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J164" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K164" s="47">
+        <f t="shared" si="54"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L164" s="59">
+        <f>(X164*K164)/(W164*G164*0.15)</f>
+        <v>7.5673586899101961</v>
+      </c>
+      <c r="M164" s="57">
+        <f t="shared" si="52"/>
+        <v>8</v>
+      </c>
+      <c r="N164" s="57">
+        <f t="shared" si="53"/>
+        <v>2</v>
+      </c>
+      <c r="O164" s="47">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="T164" s="9" t="e">
+        <f>IF(#REF!="","",D164*(#REF!-#REF!)*W164)</f>
+        <v>#REF!</v>
       </c>
       <c r="U164" s="17"/>
+      <c r="W164" s="18">
+        <f>[1]!WSD($B164,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X164" s="1">
+        <v>5730004</v>
+      </c>
     </row>
     <row r="165" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T165" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v/>
+      <c r="B165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D165" s="1">
+        <v>54</v>
+      </c>
+      <c r="E165" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F165" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G165" s="1">
+        <v>5582</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J165" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K165" s="47">
+        <f t="shared" si="54"/>
+        <v>0.05</v>
+      </c>
+      <c r="L165" s="59">
+        <f>(X165*K165)/(W165*G165*0.15)</f>
+        <v>68.43431267168279</v>
+      </c>
+      <c r="M165" s="57">
+        <f t="shared" si="52"/>
+        <v>68</v>
+      </c>
+      <c r="N165" s="57">
+        <f t="shared" si="53"/>
+        <v>14</v>
+      </c>
+      <c r="O165" s="47">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="T165" s="9" t="e">
+        <f>IF(#REF!="","",D165*(#REF!-#REF!)*W165)</f>
+        <v>#REF!</v>
       </c>
       <c r="U165" s="17"/>
+      <c r="W165" s="18">
+        <f>[1]!WSD($B165,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X165" s="1">
+        <v>5730005</v>
+      </c>
     </row>
     <row r="166" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T166" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v/>
+      <c r="B166" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D166" s="1">
+        <v>28</v>
+      </c>
+      <c r="E166" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F166" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G166" s="1">
+        <v>2696</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J166" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K166" s="47">
+        <f t="shared" si="54"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L166" s="59">
+        <f>(X166*K166)/(W166*G166*0.15)</f>
+        <v>35.422885756676557</v>
+      </c>
+      <c r="M166" s="57">
+        <f t="shared" si="52"/>
+        <v>35</v>
+      </c>
+      <c r="N166" s="57">
+        <f t="shared" si="53"/>
+        <v>7</v>
+      </c>
+      <c r="O166" s="47">
+        <v>2.47E-2</v>
+      </c>
+      <c r="T166" s="9" t="e">
+        <f>IF(#REF!="","",D166*(#REF!-#REF!)*W166)</f>
+        <v>#REF!</v>
       </c>
       <c r="U166" s="17"/>
+      <c r="W166" s="18">
+        <f>[1]!WSD($B166,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X166" s="1">
+        <v>5730006</v>
+      </c>
     </row>
     <row r="167" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T167" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v/>
+      <c r="B167" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D167" s="1">
+        <v>-45</v>
+      </c>
+      <c r="E167" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F167" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G167" s="1">
+        <v>5064</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J167" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K167" s="47">
+        <f>SUM($F$167:$F$171)/SUM($J$167:$J$171)*J167</f>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="L167" s="59">
+        <f t="shared" ref="L167:L171" si="55">-(X167*K167)/(W167*G167*0.15)</f>
+        <v>-40.231750043882748</v>
+      </c>
+      <c r="M167" s="57">
+        <f t="shared" si="52"/>
+        <v>-40</v>
+      </c>
+      <c r="N167" s="57">
+        <f t="shared" si="53"/>
+        <v>5</v>
+      </c>
+      <c r="O167" s="47">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="T167" s="9" t="e">
+        <f>IF(#REF!="","",D167*(#REF!-#REF!)*W167)</f>
+        <v>#REF!</v>
       </c>
       <c r="U167" s="17"/>
+      <c r="W167" s="18">
+        <f>[1]!WSD($B167,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X167" s="1">
+        <v>5730007</v>
+      </c>
     </row>
     <row r="168" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T168" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v/>
+      <c r="B168" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D168" s="1">
+        <v>-23</v>
+      </c>
+      <c r="E168" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F168" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G168" s="1">
+        <v>2537</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J168" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K168" s="47">
+        <f t="shared" ref="K168:K171" si="56">SUM($F$167:$F$171)/SUM($J$167:$J$171)*J168</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="L168" s="59">
+        <f t="shared" si="55"/>
+        <v>-20.076233521657251</v>
+      </c>
+      <c r="M168" s="57">
+        <f t="shared" si="52"/>
+        <v>-20</v>
+      </c>
+      <c r="N168" s="57">
+        <f t="shared" si="53"/>
+        <v>3</v>
+      </c>
+      <c r="O168" s="47">
+        <v>1.32E-2</v>
+      </c>
+      <c r="T168" s="9" t="e">
+        <f>IF(#REF!="","",D168*(#REF!-#REF!)*W168)</f>
+        <v>#REF!</v>
       </c>
       <c r="U168" s="17"/>
+      <c r="W168" s="18">
+        <f>[1]!WSD($B168,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X168" s="1">
+        <v>5730008</v>
+      </c>
     </row>
     <row r="169" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T169" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v/>
+      <c r="B169" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D169" s="1">
+        <v>-60</v>
+      </c>
+      <c r="E169" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F169" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G169" s="1">
+        <v>3709</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J169" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K169" s="47">
+        <f t="shared" si="56"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="L169" s="59">
+        <f t="shared" si="55"/>
+        <v>-54.929537161858548</v>
+      </c>
+      <c r="M169" s="57">
+        <f t="shared" si="52"/>
+        <v>-55</v>
+      </c>
+      <c r="N169" s="57">
+        <f t="shared" si="53"/>
+        <v>5</v>
+      </c>
+      <c r="O169" s="47">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="T169" s="9" t="e">
+        <f>IF(#REF!="","",D169*(#REF!-#REF!)*W169)</f>
+        <v>#REF!</v>
       </c>
       <c r="U169" s="17"/>
+      <c r="W169" s="18">
+        <f>[1]!WSD($B169,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X169" s="1">
+        <v>5730009</v>
+      </c>
     </row>
     <row r="170" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T170" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v/>
+      <c r="B170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D170" s="1">
+        <v>-5</v>
+      </c>
+      <c r="E170" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F170" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G170" s="1">
+        <v>2035</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J170" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K170" s="47">
+        <f t="shared" si="56"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="L170" s="59">
+        <f t="shared" si="55"/>
+        <v>-10.011483483483483</v>
+      </c>
+      <c r="M170" s="57">
+        <f t="shared" si="52"/>
+        <v>-10</v>
+      </c>
+      <c r="N170" s="57">
+        <f t="shared" si="53"/>
+        <v>-5</v>
+      </c>
+      <c r="O170" s="47">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="T170" s="9" t="e">
+        <f>IF(#REF!="","",D170*(#REF!-#REF!)*W170)</f>
+        <v>#REF!</v>
       </c>
       <c r="U170" s="17"/>
+      <c r="W170" s="18">
+        <f>[1]!WSD($B170,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X170" s="1">
+        <v>5730010</v>
+      </c>
     </row>
     <row r="171" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T171" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v/>
+      <c r="A171" s="28"/>
+      <c r="B171" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D171" s="1">
+        <v>-15</v>
+      </c>
+      <c r="E171" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F171" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G171" s="1">
+        <v>1300.5</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J171" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K171" s="47">
+        <f t="shared" si="56"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="L171" s="59">
+        <f t="shared" si="55"/>
+        <v>-13.054833041422814</v>
+      </c>
+      <c r="M171" s="57">
+        <f t="shared" si="52"/>
+        <v>-13</v>
+      </c>
+      <c r="N171" s="57">
+        <f t="shared" si="53"/>
+        <v>2</v>
+      </c>
+      <c r="O171" s="47">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="T171" s="9" t="e">
+        <f>IF(#REF!="","",D171*(#REF!-#REF!)*W171)</f>
+        <v>#REF!</v>
       </c>
       <c r="U171" s="17"/>
+      <c r="W171" s="18">
+        <f>[1]!WSD($B171,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X171" s="1">
+        <v>5730011</v>
+      </c>
     </row>
     <row r="172" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T172" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v/>
+      <c r="T172" s="9">
+        <f>IF(G171="","",D172*(G171-G172)*W172)</f>
+        <v>0</v>
       </c>
       <c r="U172" s="17"/>
     </row>
@@ -11935,1078 +12458,1078 @@
     </row>
     <row r="194" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T194" s="9" t="str">
-        <f t="shared" ref="T194:T257" si="52">IF(Q194="","",D194*(Q194-G194)*W194)</f>
+        <f t="shared" ref="T194:T257" si="57">IF(Q194="","",D194*(Q194-G194)*W194)</f>
         <v/>
       </c>
       <c r="U194" s="17"/>
     </row>
     <row r="195" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T195" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U195" s="17"/>
     </row>
     <row r="196" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T196" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U196" s="17"/>
     </row>
     <row r="197" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T197" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U197" s="17"/>
     </row>
     <row r="198" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T198" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U198" s="17"/>
     </row>
     <row r="199" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T199" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U199" s="17"/>
     </row>
     <row r="200" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T200" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U200" s="17"/>
     </row>
     <row r="201" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T201" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U201" s="17"/>
     </row>
     <row r="202" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T202" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U202" s="17"/>
     </row>
     <row r="203" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T203" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U203" s="17"/>
     </row>
     <row r="204" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T204" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U204" s="17"/>
     </row>
     <row r="205" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T205" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U205" s="17"/>
     </row>
     <row r="206" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T206" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U206" s="17"/>
     </row>
     <row r="207" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T207" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U207" s="17"/>
     </row>
     <row r="208" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T208" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U208" s="17"/>
     </row>
     <row r="209" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T209" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U209" s="17"/>
     </row>
     <row r="210" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T210" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U210" s="17"/>
     </row>
     <row r="211" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T211" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U211" s="17"/>
     </row>
     <row r="212" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T212" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U212" s="17"/>
     </row>
     <row r="213" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T213" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U213" s="17"/>
     </row>
     <row r="214" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T214" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U214" s="17"/>
     </row>
     <row r="215" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T215" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U215" s="17"/>
     </row>
     <row r="216" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T216" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U216" s="17"/>
     </row>
     <row r="217" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T217" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U217" s="17"/>
     </row>
     <row r="218" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T218" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U218" s="17"/>
     </row>
     <row r="219" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T219" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U219" s="17"/>
     </row>
     <row r="220" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T220" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U220" s="17"/>
     </row>
     <row r="221" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T221" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U221" s="17"/>
     </row>
     <row r="222" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T222" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U222" s="17"/>
     </row>
     <row r="223" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T223" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U223" s="17"/>
     </row>
     <row r="224" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T224" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U224" s="17"/>
     </row>
     <row r="225" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T225" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U225" s="17"/>
     </row>
     <row r="226" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T226" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U226" s="17"/>
     </row>
     <row r="227" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T227" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U227" s="17"/>
     </row>
     <row r="228" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T228" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U228" s="17"/>
     </row>
     <row r="229" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T229" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U229" s="17"/>
     </row>
     <row r="230" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T230" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U230" s="17"/>
     </row>
     <row r="231" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T231" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U231" s="17"/>
     </row>
     <row r="232" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T232" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U232" s="17"/>
     </row>
     <row r="233" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T233" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U233" s="17"/>
     </row>
     <row r="234" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T234" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U234" s="17"/>
     </row>
     <row r="235" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T235" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U235" s="17"/>
     </row>
     <row r="236" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T236" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U236" s="17"/>
     </row>
     <row r="237" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T237" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U237" s="17"/>
     </row>
     <row r="238" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T238" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U238" s="17"/>
     </row>
     <row r="239" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T239" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U239" s="17"/>
     </row>
     <row r="240" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T240" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U240" s="17"/>
     </row>
     <row r="241" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T241" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U241" s="17"/>
     </row>
     <row r="242" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T242" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U242" s="17"/>
     </row>
     <row r="243" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T243" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U243" s="17"/>
     </row>
     <row r="244" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T244" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U244" s="17"/>
     </row>
     <row r="245" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T245" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U245" s="17"/>
     </row>
     <row r="246" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T246" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U246" s="17"/>
     </row>
     <row r="247" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T247" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U247" s="17"/>
     </row>
     <row r="248" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T248" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U248" s="17"/>
     </row>
     <row r="249" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T249" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U249" s="17"/>
     </row>
     <row r="250" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T250" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U250" s="17"/>
     </row>
     <row r="251" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T251" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U251" s="17"/>
     </row>
     <row r="252" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T252" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U252" s="17"/>
     </row>
     <row r="253" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T253" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U253" s="17"/>
     </row>
     <row r="254" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T254" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U254" s="17"/>
     </row>
     <row r="255" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T255" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U255" s="17"/>
     </row>
     <row r="256" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T256" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
     </row>
     <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T257" s="9" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="U257" s="17"/>
     </row>
     <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T258" s="9" t="str">
-        <f t="shared" ref="T258:T321" si="53">IF(Q258="","",D258*(Q258-G258)*W258)</f>
+        <f t="shared" ref="T258:T321" si="58">IF(Q258="","",D258*(Q258-G258)*W258)</f>
         <v/>
       </c>
       <c r="U258" s="17"/>
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" ref="T322:T347" si="54">IF(Q322="","",D322*(Q322-G322)*W322)</f>
+        <f t="shared" ref="T322:T347" si="59">IF(Q322="","",D322*(Q322-G322)*W322)</f>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="U347" s="17"/>
@@ -31910,6 +32433,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
@@ -31933,20 +32457,20 @@
         <v>13</v>
       </c>
       <c r="E1" s="52"/>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B2" s="20" t="s">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="127">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -866,7 +866,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1090,11 +1089,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="625086256"/>
-        <c:axId val="625086816"/>
+        <c:axId val="261180528"/>
+        <c:axId val="261177728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="625086256"/>
+        <c:axId val="261180528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,14 +1136,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625086816"/>
+        <c:crossAx val="261177728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="625086816"/>
+        <c:axId val="261177728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1195,7 +1194,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625086256"/>
+        <c:crossAx val="261180528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2538,8 +2537,8 @@
   <dimension ref="A1:AG6644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A137" sqref="A137:XFD137"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P176" sqref="P176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2642,7 +2641,7 @@
       </c>
       <c r="AA1" s="8">
         <f>COUNTIF(T2:T9988,"&gt;0")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB1" s="8">
         <f>COUNTIF(T2:T9988,"&lt;0")</f>
@@ -2650,7 +2649,7 @@
       </c>
       <c r="AC1" s="8">
         <f>SUMIF(T2:T9988,"&gt;0")</f>
-        <v>1919.9999999997908</v>
+        <v>2149910</v>
       </c>
       <c r="AD1" s="8">
         <f>ABS(SUMIF(T2:T9988,"&lt;0"))</f>
@@ -8232,7 +8231,7 @@
         <v>111</v>
       </c>
       <c r="J102" s="42">
-        <f t="shared" ref="J102:J171" si="24">IF(I102="N",1,IF(C102=I102,2,0.5))</f>
+        <f t="shared" ref="J102:J181" si="24">IF(I102="N",1,IF(C102=I102,2,0.5))</f>
         <v>1</v>
       </c>
       <c r="K102" s="47">
@@ -12251,7 +12250,7 @@
       <c r="C171" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D171" s="6">
         <v>-15</v>
       </c>
       <c r="E171" s="35">
@@ -12260,35 +12259,37 @@
       <c r="F171" s="35">
         <v>0.04</v>
       </c>
-      <c r="G171" s="1">
+      <c r="G171" s="6">
         <v>1300.5</v>
       </c>
-      <c r="I171" s="1" t="s">
+      <c r="H171" s="6"/>
+      <c r="I171" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J171" s="42">
+      <c r="J171" s="41">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="K171" s="47">
+      <c r="K171" s="58">
         <f t="shared" si="56"/>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="L171" s="59">
+      <c r="L171" s="56">
         <f t="shared" si="55"/>
         <v>-13.054833041422814</v>
       </c>
-      <c r="M171" s="57">
+      <c r="M171" s="6">
         <f t="shared" si="52"/>
         <v>-13</v>
       </c>
-      <c r="N171" s="57">
+      <c r="N171" s="6">
         <f t="shared" si="53"/>
         <v>2</v>
       </c>
-      <c r="O171" s="47">
+      <c r="O171" s="58">
         <v>2.6700000000000002E-2</v>
       </c>
+      <c r="P171" s="58"/>
       <c r="T171" s="9" t="e">
         <f>IF(#REF!="","",D171*(#REF!-#REF!)*W171)</f>
         <v>#REF!</v>
@@ -12303,146 +12304,660 @@
       </c>
     </row>
     <row r="172" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A172" s="27">
+        <v>43172</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D172" s="1">
+        <v>31</v>
+      </c>
+      <c r="E172" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F172" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G172" s="1">
+        <v>607.6</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J172" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K172" s="47">
+        <f>SUM($F$172:$F$176)/SUM($J$172:$J$176)*J172</f>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="L172" s="59">
+        <f>(X172*K172)/(W172*G172*0.15)</f>
+        <v>36.490247343176911</v>
+      </c>
+      <c r="M172" s="57">
+        <f t="shared" ref="M172:M181" si="57">ROUND(L172,0)</f>
+        <v>36</v>
+      </c>
+      <c r="N172" s="57">
+        <f t="shared" ref="N172:N181" si="58">M172-D172</f>
+        <v>5</v>
+      </c>
+      <c r="O172" s="47">
+        <v>5.6899999999999999E-2</v>
+      </c>
       <c r="T172" s="9">
         <f>IF(G171="","",D172*(G171-G172)*W172)</f>
+        <v>2147990</v>
+      </c>
+      <c r="U172" s="17"/>
+      <c r="W172" s="18">
+        <f>[1]!WSD($B172,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X172" s="1">
+        <v>5820012</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B173" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D173" s="1">
+        <v>104</v>
+      </c>
+      <c r="E173" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F173" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G173" s="1">
+        <v>1820</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J173" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K173" s="47">
+        <f t="shared" ref="K173:K176" si="59">SUM($F$172:$F$176)/SUM($J$172:$J$176)*J173</f>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="L173" s="59">
+        <f>(X173*K173)/(W173*G173*0.15)</f>
+        <v>121.82128728414445</v>
+      </c>
+      <c r="M173" s="57">
+        <f t="shared" si="57"/>
+        <v>122</v>
+      </c>
+      <c r="N173" s="57">
+        <f t="shared" si="58"/>
+        <v>18</v>
+      </c>
+      <c r="O173" s="47">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="T173" s="9" t="str">
+        <f t="shared" ref="T173:T181" si="60">IF(Q173="","",D173*(Q173-G173)*W173)</f>
+        <v/>
+      </c>
+      <c r="U173" s="17"/>
+      <c r="W173" s="18">
+        <f>[1]!WSD($B173,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X173" s="1">
+        <v>5820012</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D174" s="1">
+        <v>8</v>
+      </c>
+      <c r="E174" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F174" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G174" s="1">
+        <v>12695</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J174" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K174" s="47">
+        <f t="shared" si="59"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="L174" s="59">
+        <f>(X174*K174)/(W174*G174*0.15)</f>
+        <v>8.7323648230461952</v>
+      </c>
+      <c r="M174" s="57">
+        <f t="shared" si="57"/>
+        <v>9</v>
+      </c>
+      <c r="N174" s="57">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="O174" s="47">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="T174" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="U174" s="17"/>
+      <c r="W174" s="18">
+        <f>[1]!WSD($B174,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X174" s="1">
+        <v>5820012</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B175" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D175" s="1">
+        <v>68</v>
+      </c>
+      <c r="E175" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F175" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G175" s="1">
+        <v>5568</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J175" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K175" s="47">
+        <f t="shared" si="59"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="L175" s="59">
+        <f>(X175*K175)/(W175*G175*0.15)</f>
+        <v>39.819458128078821</v>
+      </c>
+      <c r="M175" s="57">
+        <f t="shared" si="57"/>
+        <v>40</v>
+      </c>
+      <c r="N175" s="57">
+        <f t="shared" si="58"/>
+        <v>-28</v>
+      </c>
+      <c r="O175" s="47">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="T175" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="U175" s="17"/>
+      <c r="W175" s="18">
+        <f>[1]!WSD($B175,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X175" s="1">
+        <v>5820012</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B176" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D176" s="1">
+        <v>35</v>
+      </c>
+      <c r="E176" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F176" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G176" s="1">
+        <v>2730</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J176" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K176" s="47">
+        <f t="shared" si="59"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="L176" s="59">
+        <f>(X176*K176)/(W176*G176*0.15)</f>
+        <v>40.60709576138148</v>
+      </c>
+      <c r="M176" s="57">
+        <f t="shared" si="57"/>
+        <v>41</v>
+      </c>
+      <c r="N176" s="57">
+        <f t="shared" si="58"/>
+        <v>6</v>
+      </c>
+      <c r="O176" s="47">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="T176" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="U176" s="17"/>
+      <c r="W176" s="18">
+        <f>[1]!WSD($B176,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X176" s="1">
+        <v>5820012</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B177" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D177" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E177" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F177" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G177" s="1">
+        <v>5074</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J177" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K177" s="47">
+        <f>SUM($F$177:$F$181)/SUM($J$177:$J$181)*J177</f>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="L177" s="59">
+        <f>-(X177*K177)/(W177*G177*0.15)</f>
+        <v>-40.783161214032326</v>
+      </c>
+      <c r="M177" s="57">
+        <f t="shared" si="57"/>
+        <v>-41</v>
+      </c>
+      <c r="N177" s="57">
+        <f t="shared" si="58"/>
+        <v>-1</v>
+      </c>
+      <c r="O177" s="47">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="T177" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="U177" s="17"/>
+      <c r="W177" s="18">
+        <f>[1]!WSD($B177,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X177" s="1">
+        <v>5820012</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B178" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D178" s="1">
+        <v>-20</v>
+      </c>
+      <c r="E178" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F178" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G178" s="1">
+        <v>2517</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J178" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K178" s="47">
+        <f t="shared" ref="K178:K181" si="61">SUM($F$177:$F$181)/SUM($J$177:$J$181)*J178</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="L178" s="59">
+        <f>-(X178*K178)/(W178*G178*0.15)</f>
+        <v>-20.553611442193088</v>
+      </c>
+      <c r="M178" s="57">
+        <f t="shared" si="57"/>
+        <v>-21</v>
+      </c>
+      <c r="N178" s="57">
+        <f t="shared" si="58"/>
+        <v>-1</v>
+      </c>
+      <c r="O178" s="47">
+        <v>1.37E-2</v>
+      </c>
+      <c r="T178" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="U178" s="17"/>
+      <c r="W178" s="18">
+        <f>[1]!WSD($B178,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X178" s="1">
+        <v>5820012</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B179" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D179" s="1">
+        <v>-55</v>
+      </c>
+      <c r="E179" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F179" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G179" s="1">
+        <v>3709</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J179" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K179" s="47">
+        <f t="shared" si="61"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="L179" s="59">
+        <f>-(X179*K179)/(W179*G179*0.15)</f>
+        <v>-55.792332165004048</v>
+      </c>
+      <c r="M179" s="57">
+        <f t="shared" si="57"/>
+        <v>-56</v>
+      </c>
+      <c r="N179" s="57">
+        <f t="shared" si="58"/>
+        <v>-1</v>
+      </c>
+      <c r="O179" s="47">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="T179" s="9" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="U179" s="17"/>
+      <c r="W179" s="18">
+        <f>[1]!WSD($B179,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X179" s="1">
+        <v>5820012</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B180" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D180" s="1">
+        <v>-10</v>
+      </c>
+      <c r="E180" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F180" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G180" s="1">
+        <v>2002</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J180" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K180" s="47">
+        <f t="shared" si="61"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="L180" s="59">
+        <f>-(X180*K180)/(W180*G180*0.15)</f>
+        <v>-10.336351648351648</v>
+      </c>
+      <c r="M180" s="57">
+        <f t="shared" si="57"/>
+        <v>-10</v>
+      </c>
+      <c r="N180" s="57">
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="U172" s="17"/>
-    </row>
-    <row r="173" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T173" s="9" t="str">
-        <f t="shared" si="38"/>
+      <c r="O180" s="47">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="T180" s="9" t="str">
+        <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="U173" s="17"/>
-    </row>
-    <row r="174" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T174" s="9" t="str">
-        <f t="shared" si="38"/>
+      <c r="U180" s="17"/>
+      <c r="W180" s="18">
+        <f>[1]!WSD($B180,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X180" s="1">
+        <v>5820012</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A181" s="28"/>
+      <c r="B181" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D181" s="6">
+        <v>-13</v>
+      </c>
+      <c r="E181" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F181" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G181" s="6">
+        <v>1266</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J181" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K181" s="47">
+        <f t="shared" si="61"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="L181" s="59">
+        <f>-(X181*K181)/(W181*G181*0.15)</f>
+        <v>-13.621232227488152</v>
+      </c>
+      <c r="M181" s="57">
+        <f t="shared" si="57"/>
+        <v>-14</v>
+      </c>
+      <c r="N181" s="57">
+        <f t="shared" si="58"/>
+        <v>-1</v>
+      </c>
+      <c r="O181" s="47">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="T181" s="9" t="str">
+        <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="U174" s="17"/>
-    </row>
-    <row r="175" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T175" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="U175" s="17"/>
-    </row>
-    <row r="176" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T176" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="U176" s="17"/>
-    </row>
-    <row r="177" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T177" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="U177" s="17"/>
-    </row>
-    <row r="178" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T178" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="U178" s="17"/>
-    </row>
-    <row r="179" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T179" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="U179" s="17"/>
-    </row>
-    <row r="180" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T180" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="U180" s="17"/>
-    </row>
-    <row r="181" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T181" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
       <c r="U181" s="17"/>
-    </row>
-    <row r="182" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W181" s="18">
+        <f>[1]!WSD($B181,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X181" s="1">
+        <v>5820012</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T182" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U182" s="17"/>
     </row>
-    <row r="183" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T183" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U183" s="17"/>
     </row>
-    <row r="184" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T184" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U184" s="17"/>
     </row>
-    <row r="185" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T185" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U185" s="17"/>
     </row>
-    <row r="186" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T186" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U186" s="17"/>
     </row>
-    <row r="187" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T187" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U187" s="17"/>
     </row>
-    <row r="188" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T188" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U188" s="17"/>
     </row>
-    <row r="189" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T189" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U189" s="17"/>
     </row>
-    <row r="190" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T190" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U190" s="17"/>
     </row>
-    <row r="191" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T191" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U191" s="17"/>
     </row>
-    <row r="192" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T192" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
@@ -12458,1078 +12973,1078 @@
     </row>
     <row r="194" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T194" s="9" t="str">
-        <f t="shared" ref="T194:T257" si="57">IF(Q194="","",D194*(Q194-G194)*W194)</f>
+        <f t="shared" ref="T194:T257" si="62">IF(Q194="","",D194*(Q194-G194)*W194)</f>
         <v/>
       </c>
       <c r="U194" s="17"/>
     </row>
     <row r="195" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T195" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U195" s="17"/>
     </row>
     <row r="196" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T196" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U196" s="17"/>
     </row>
     <row r="197" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T197" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U197" s="17"/>
     </row>
     <row r="198" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T198" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U198" s="17"/>
     </row>
     <row r="199" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T199" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U199" s="17"/>
     </row>
     <row r="200" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T200" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U200" s="17"/>
     </row>
     <row r="201" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T201" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U201" s="17"/>
     </row>
     <row r="202" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T202" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U202" s="17"/>
     </row>
     <row r="203" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T203" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U203" s="17"/>
     </row>
     <row r="204" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T204" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U204" s="17"/>
     </row>
     <row r="205" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T205" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U205" s="17"/>
     </row>
     <row r="206" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T206" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U206" s="17"/>
     </row>
     <row r="207" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T207" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U207" s="17"/>
     </row>
     <row r="208" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T208" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U208" s="17"/>
     </row>
     <row r="209" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T209" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U209" s="17"/>
     </row>
     <row r="210" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T210" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U210" s="17"/>
     </row>
     <row r="211" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T211" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U211" s="17"/>
     </row>
     <row r="212" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T212" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U212" s="17"/>
     </row>
     <row r="213" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T213" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U213" s="17"/>
     </row>
     <row r="214" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T214" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U214" s="17"/>
     </row>
     <row r="215" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T215" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U215" s="17"/>
     </row>
     <row r="216" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T216" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U216" s="17"/>
     </row>
     <row r="217" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T217" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U217" s="17"/>
     </row>
     <row r="218" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T218" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U218" s="17"/>
     </row>
     <row r="219" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T219" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U219" s="17"/>
     </row>
     <row r="220" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T220" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U220" s="17"/>
     </row>
     <row r="221" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T221" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U221" s="17"/>
     </row>
     <row r="222" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T222" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U222" s="17"/>
     </row>
     <row r="223" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T223" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U223" s="17"/>
     </row>
     <row r="224" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T224" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U224" s="17"/>
     </row>
     <row r="225" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T225" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U225" s="17"/>
     </row>
     <row r="226" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T226" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U226" s="17"/>
     </row>
     <row r="227" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T227" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U227" s="17"/>
     </row>
     <row r="228" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T228" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U228" s="17"/>
     </row>
     <row r="229" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T229" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U229" s="17"/>
     </row>
     <row r="230" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T230" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U230" s="17"/>
     </row>
     <row r="231" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T231" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U231" s="17"/>
     </row>
     <row r="232" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T232" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U232" s="17"/>
     </row>
     <row r="233" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T233" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U233" s="17"/>
     </row>
     <row r="234" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T234" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U234" s="17"/>
     </row>
     <row r="235" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T235" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U235" s="17"/>
     </row>
     <row r="236" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T236" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U236" s="17"/>
     </row>
     <row r="237" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T237" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U237" s="17"/>
     </row>
     <row r="238" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T238" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U238" s="17"/>
     </row>
     <row r="239" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T239" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U239" s="17"/>
     </row>
     <row r="240" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T240" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U240" s="17"/>
     </row>
     <row r="241" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T241" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U241" s="17"/>
     </row>
     <row r="242" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T242" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U242" s="17"/>
     </row>
     <row r="243" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T243" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U243" s="17"/>
     </row>
     <row r="244" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T244" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U244" s="17"/>
     </row>
     <row r="245" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T245" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U245" s="17"/>
     </row>
     <row r="246" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T246" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U246" s="17"/>
     </row>
     <row r="247" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T247" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U247" s="17"/>
     </row>
     <row r="248" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T248" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U248" s="17"/>
     </row>
     <row r="249" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T249" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U249" s="17"/>
     </row>
     <row r="250" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T250" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U250" s="17"/>
     </row>
     <row r="251" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T251" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U251" s="17"/>
     </row>
     <row r="252" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T252" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U252" s="17"/>
     </row>
     <row r="253" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T253" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U253" s="17"/>
     </row>
     <row r="254" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T254" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U254" s="17"/>
     </row>
     <row r="255" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T255" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U255" s="17"/>
     </row>
     <row r="256" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T256" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
     </row>
     <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T257" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="U257" s="17"/>
     </row>
     <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T258" s="9" t="str">
-        <f t="shared" ref="T258:T321" si="58">IF(Q258="","",D258*(Q258-G258)*W258)</f>
+        <f t="shared" ref="T258:T321" si="63">IF(Q258="","",D258*(Q258-G258)*W258)</f>
         <v/>
       </c>
       <c r="U258" s="17"/>
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" ref="T322:T347" si="59">IF(Q322="","",D322*(Q322-G322)*W322)</f>
+        <f t="shared" ref="T322:T347" si="64">IF(Q322="","",D322*(Q322-G322)*W322)</f>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="U347" s="17"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="净值" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="130">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -528,6 +528,18 @@
     <t>S</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>新开仓价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -866,6 +878,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -918,10 +931,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$28</c:f>
+              <c:f>净值!$A$5:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -994,15 +1007,21 @@
                 <c:pt idx="23">
                   <c:v>43171</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>43172</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43173</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$28</c:f>
+              <c:f>净值!$B$5:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -1075,6 +1094,12 @@
                 <c:pt idx="23">
                   <c:v>5823430</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>5837690</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5771800</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1089,11 +1114,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="261180528"/>
-        <c:axId val="261177728"/>
+        <c:axId val="595784400"/>
+        <c:axId val="595784960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="261180528"/>
+        <c:axId val="595784400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,14 +1161,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261177728"/>
+        <c:crossAx val="595784960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="261177728"/>
+        <c:axId val="595784960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,7 +1219,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261180528"/>
+        <c:crossAx val="595784400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2144,8 +2169,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2198,7 +2223,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C28" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C30" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2482,10 +2507,24 @@
       <c r="A29" s="3">
         <v>43172</v>
       </c>
+      <c r="B29" s="4">
+        <v>5837690</v>
+      </c>
+      <c r="C29" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0416204606676396</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>43173</v>
+      </c>
+      <c r="B30" s="4">
+        <v>5771800</v>
+      </c>
+      <c r="C30" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0298636917824486</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -2534,11 +2573,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG6644"/>
+  <dimension ref="A1:AG6645"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P176" sqref="P176"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P192" sqref="P192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2612,7 +2651,7 @@
         <v>106</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>8</v>
@@ -2636,23 +2675,23 @@
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
       <c r="Z1" s="7">
-        <f>COUNT(T2:T9988)</f>
+        <f>COUNT(T2:T9989)</f>
         <v>5</v>
       </c>
       <c r="AA1" s="8">
-        <f>COUNTIF(T2:T9988,"&gt;0")</f>
+        <f>COUNTIF(T2:T9989,"&gt;0")</f>
         <v>3</v>
       </c>
       <c r="AB1" s="8">
-        <f>COUNTIF(T2:T9988,"&lt;0")</f>
+        <f>COUNTIF(T2:T9989,"&lt;0")</f>
         <v>2</v>
       </c>
       <c r="AC1" s="8">
-        <f>SUMIF(T2:T9988,"&gt;0")</f>
+        <f>SUMIF(T2:T9989,"&gt;0")</f>
         <v>2149910</v>
       </c>
       <c r="AD1" s="8">
-        <f>ABS(SUMIF(T2:T9988,"&lt;0"))</f>
+        <f>ABS(SUMIF(T2:T9989,"&lt;0"))</f>
         <v>18699.749999999978</v>
       </c>
       <c r="AE1" s="8"/>
@@ -8231,7 +8270,7 @@
         <v>111</v>
       </c>
       <c r="J102" s="42">
-        <f t="shared" ref="J102:J181" si="24">IF(I102="N",1,IF(C102=I102,2,0.5))</f>
+        <f t="shared" ref="J102:J191" si="24">IF(I102="N",1,IF(C102=I102,2,0.5))</f>
         <v>1</v>
       </c>
       <c r="K102" s="47">
@@ -9889,7 +9928,7 @@
         <v>1.78E-2</v>
       </c>
       <c r="T130" s="9" t="str">
-        <f t="shared" ref="T130:T193" si="38">IF(Q130="","",D130*(Q130-G130)*W130)</f>
+        <f t="shared" ref="T130:T194" si="38">IF(Q130="","",D130*(Q130-G130)*W130)</f>
         <v/>
       </c>
       <c r="U130" s="17"/>
@@ -12848,32 +12887,34 @@
       <c r="G181" s="6">
         <v>1266</v>
       </c>
-      <c r="I181" s="1" t="s">
+      <c r="H181" s="6"/>
+      <c r="I181" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J181" s="42">
+      <c r="J181" s="41">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="K181" s="47">
+      <c r="K181" s="58">
         <f t="shared" si="61"/>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="L181" s="59">
+      <c r="L181" s="56">
         <f>-(X181*K181)/(W181*G181*0.15)</f>
         <v>-13.621232227488152</v>
       </c>
-      <c r="M181" s="57">
+      <c r="M181" s="6">
         <f t="shared" si="57"/>
         <v>-14</v>
       </c>
-      <c r="N181" s="57">
+      <c r="N181" s="6">
         <f t="shared" si="58"/>
         <v>-1</v>
       </c>
-      <c r="O181" s="47">
+      <c r="O181" s="58">
         <v>2.8000000000000001E-2</v>
       </c>
+      <c r="P181" s="58"/>
       <c r="T181" s="9" t="str">
         <f t="shared" si="60"/>
         <v/>
@@ -12888,76 +12929,614 @@
       </c>
     </row>
     <row r="182" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A182" s="27">
+        <v>43173</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D182" s="1">
+        <v>36</v>
+      </c>
+      <c r="E182" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F182" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G182" s="1">
+        <v>607.4</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J182" s="42">
+        <f>IF(I182="N",1,IF(C182=I182,2,0.5))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K182" s="47">
+        <f>SUM($F$182:$F$186)/SUM($J$182:$J$186)*J182</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L182" s="59">
+        <f>(X182*K182)/(W182*G182*0.15)</f>
+        <v>21.292990158416565</v>
+      </c>
+      <c r="M182" s="57">
+        <f t="shared" ref="M182:M191" si="62">ROUND(L182,0)</f>
+        <v>21</v>
+      </c>
+      <c r="N182" s="57">
+        <f t="shared" ref="N182:N191" si="63">M182-D182</f>
+        <v>-15</v>
+      </c>
+      <c r="O182" s="47">
+        <v>3.27E-2</v>
+      </c>
       <c r="T182" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(Q182="","",D182*(Q182-#REF!)*W182)</f>
         <v/>
       </c>
       <c r="U182" s="17"/>
+      <c r="W182" s="18">
+        <f>[1]!WSD($B182,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X182" s="1">
+        <v>5820013</v>
+      </c>
     </row>
     <row r="183" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B183" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D183" s="1">
+        <v>122</v>
+      </c>
+      <c r="E183" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F183" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G183" s="1">
+        <v>1823</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J183" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K183" s="47">
+        <f t="shared" ref="K183:K186" si="64">SUM($F$182:$F$186)/SUM($J$182:$J$186)*J183</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L183" s="59">
+        <f>(X183*K183)/(W183*G183*0.15)</f>
+        <v>141.89099774486499</v>
+      </c>
+      <c r="M183" s="57">
+        <f t="shared" si="62"/>
+        <v>142</v>
+      </c>
+      <c r="N183" s="57">
+        <f t="shared" si="63"/>
+        <v>20</v>
+      </c>
+      <c r="O183" s="47">
+        <v>6.6299999999999998E-2</v>
+      </c>
       <c r="T183" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(Q183="","",D183*(Q183-#REF!)*W183)</f>
         <v/>
       </c>
       <c r="U183" s="17"/>
+      <c r="W183" s="18">
+        <f>[1]!WSD($B183,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X183" s="1">
+        <v>5820014</v>
+      </c>
     </row>
     <row r="184" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D184" s="1">
+        <v>9</v>
+      </c>
+      <c r="E184" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F184" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G184" s="1">
+        <v>12695</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J184" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K184" s="47">
+        <f t="shared" si="64"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L184" s="59">
+        <f>(X184*K184)/(W184*G184*0.15)</f>
+        <v>10.187764211631876</v>
+      </c>
+      <c r="M184" s="57">
+        <f t="shared" si="62"/>
+        <v>10</v>
+      </c>
+      <c r="N184" s="57">
+        <f t="shared" si="63"/>
+        <v>1</v>
+      </c>
+      <c r="O184" s="47">
+        <v>3.2599999999999997E-2</v>
+      </c>
       <c r="T184" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(Q184="","",D184*(Q184-#REF!)*W184)</f>
         <v/>
       </c>
       <c r="U184" s="17"/>
+      <c r="W184" s="18">
+        <f>[1]!WSD($B184,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X184" s="1">
+        <v>5820015</v>
+      </c>
     </row>
     <row r="185" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B185" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D185" s="1">
+        <v>40</v>
+      </c>
+      <c r="E185" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F185" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G185" s="1">
+        <v>5596</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J185" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K185" s="47">
+        <f t="shared" si="64"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L185" s="59">
+        <f>(X185*K185)/(W185*G185*0.15)</f>
+        <v>46.223620046064646</v>
+      </c>
+      <c r="M185" s="57">
+        <f t="shared" si="62"/>
+        <v>46</v>
+      </c>
+      <c r="N185" s="57">
+        <f t="shared" si="63"/>
+        <v>6</v>
+      </c>
+      <c r="O185" s="47">
+        <v>3.2899999999999999E-2</v>
+      </c>
       <c r="T185" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(Q185="","",D185*(Q185-#REF!)*W185)</f>
         <v/>
       </c>
       <c r="U185" s="17"/>
+      <c r="W185" s="18">
+        <f>[1]!WSD($B185,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X185" s="1">
+        <v>5820016</v>
+      </c>
     </row>
     <row r="186" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B186" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D186" s="1">
+        <v>41</v>
+      </c>
+      <c r="E186" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F186" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G186" s="1">
+        <v>2664</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J186" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K186" s="47">
+        <f t="shared" si="64"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L186" s="59">
+        <f>(X186*K186)/(W186*G186*0.15)</f>
+        <v>48.548690357023688</v>
+      </c>
+      <c r="M186" s="57">
+        <f t="shared" si="62"/>
+        <v>49</v>
+      </c>
+      <c r="N186" s="57">
+        <f t="shared" si="63"/>
+        <v>8</v>
+      </c>
+      <c r="O186" s="47">
+        <v>3.3799999999999997E-2</v>
+      </c>
       <c r="T186" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(Q186="","",D186*(Q186-#REF!)*W186)</f>
         <v/>
       </c>
       <c r="U186" s="17"/>
+      <c r="W186" s="18">
+        <f>[1]!WSD($B186,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X186" s="1">
+        <v>5820017</v>
+      </c>
     </row>
     <row r="187" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B187" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D187" s="1">
+        <v>-41</v>
+      </c>
+      <c r="E187" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F187" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G187" s="1">
+        <v>5112</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J187" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K187" s="47">
+        <f>SUM($F$187:$F$191)/SUM($J$187:$J$191)*J187</f>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="L187" s="59">
+        <f>-(X187*K187)/(W187*G187*0.15)</f>
+        <v>-40.480041731872717</v>
+      </c>
+      <c r="M187" s="57">
+        <f t="shared" si="62"/>
+        <v>-40</v>
+      </c>
+      <c r="N187" s="57">
+        <f t="shared" si="63"/>
+        <v>1</v>
+      </c>
+      <c r="O187" s="47">
+        <v>5.2200000000000003E-2</v>
+      </c>
       <c r="T187" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(Q187="","",D187*(Q187-#REF!)*W187)</f>
         <v/>
       </c>
       <c r="U187" s="17"/>
+      <c r="W187" s="18">
+        <f>[1]!WSD($B187,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X187" s="1">
+        <v>5820018</v>
+      </c>
     </row>
     <row r="188" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B188" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D188" s="1">
+        <v>-21</v>
+      </c>
+      <c r="E188" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F188" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G188" s="1">
+        <v>2517</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J188" s="42">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="K188" s="47">
+        <f t="shared" ref="K188:K191" si="65">SUM($F$187:$F$191)/SUM($J$187:$J$191)*J188</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="L188" s="59">
+        <f>-(X188*K188)/(W188*G188*0.15)</f>
+        <v>-20.553636162980624</v>
+      </c>
+      <c r="M188" s="57">
+        <f t="shared" si="62"/>
+        <v>-21</v>
+      </c>
+      <c r="N188" s="57">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="O188" s="47">
+        <v>1.3599999999999999E-2</v>
+      </c>
       <c r="T188" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(Q188="","",D188*(Q188-#REF!)*W188)</f>
         <v/>
       </c>
       <c r="U188" s="17"/>
+      <c r="W188" s="18">
+        <f>[1]!WSD($B188,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X188" s="1">
+        <v>5820019</v>
+      </c>
     </row>
     <row r="189" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B189" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D189" s="1">
+        <v>-56</v>
+      </c>
+      <c r="E189" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F189" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G189" s="1">
+        <v>3695</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J189" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K189" s="47">
+        <f t="shared" si="65"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="L189" s="59">
+        <f>-(X189*K189)/(W189*G189*0.15)</f>
+        <v>-56.003800932190657</v>
+      </c>
+      <c r="M189" s="57">
+        <f t="shared" si="62"/>
+        <v>-56</v>
+      </c>
+      <c r="N189" s="57">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="O189" s="47">
+        <v>5.33E-2</v>
+      </c>
       <c r="T189" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(Q189="","",D189*(Q189-#REF!)*W189)</f>
         <v/>
       </c>
       <c r="U189" s="17"/>
+      <c r="W189" s="18">
+        <f>[1]!WSD($B189,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X189" s="1">
+        <v>5820020</v>
+      </c>
     </row>
     <row r="190" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B190" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D190" s="1">
+        <v>-10</v>
+      </c>
+      <c r="E190" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F190" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G190" s="1">
+        <v>1988</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J190" s="42">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="K190" s="47">
+        <f t="shared" si="65"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="L190" s="59">
+        <f>-(X190*K190)/(W190*G190*0.15)</f>
+        <v>-10.409158953722335</v>
+      </c>
+      <c r="M190" s="57">
+        <f t="shared" si="62"/>
+        <v>-10</v>
+      </c>
+      <c r="N190" s="57">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="O190" s="47">
+        <v>5.1299999999999998E-2</v>
+      </c>
       <c r="T190" s="9" t="str">
-        <f t="shared" si="38"/>
+        <f>IF(Q190="","",D190*(Q190-#REF!)*W190)</f>
         <v/>
       </c>
       <c r="U190" s="17"/>
+      <c r="W190" s="18">
+        <f>[1]!WSD($B190,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X190" s="1">
+        <v>5820021</v>
+      </c>
     </row>
     <row r="191" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T191" s="9" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
+      <c r="B191" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D191" s="1">
+        <v>0</v>
+      </c>
+      <c r="E191" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F191" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G191" s="1">
+        <v>5708</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J191" s="42">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K191" s="47">
+        <f t="shared" si="65"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="L191" s="59">
+        <f>-(X191*K191)/(W191*G191*0.15)</f>
+        <v>-18.126674453009421</v>
+      </c>
+      <c r="M191" s="57">
+        <f t="shared" si="62"/>
+        <v>-18</v>
+      </c>
+      <c r="N191" s="57">
+        <f t="shared" si="63"/>
+        <v>-18</v>
+      </c>
+      <c r="O191" s="47">
+        <v>2.64E-2</v>
+      </c>
+      <c r="T191" s="9"/>
       <c r="U191" s="17"/>
+      <c r="W191" s="18">
+        <f>[1]!WSD($B191,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X191" s="1">
+        <v>5820022</v>
+      </c>
     </row>
     <row r="192" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A192" s="28"/>
+      <c r="B192" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D192" s="6">
+        <v>0</v>
+      </c>
+      <c r="E192" s="35"/>
+      <c r="F192" s="35"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="6"/>
+      <c r="J192" s="41"/>
+      <c r="K192" s="58"/>
+      <c r="L192" s="56"/>
+      <c r="M192" s="56">
+        <v>0</v>
+      </c>
+      <c r="N192" s="58">
+        <v>0</v>
+      </c>
+      <c r="O192" s="58">
+        <v>0</v>
+      </c>
+      <c r="P192" s="58"/>
       <c r="T192" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
@@ -12973,1083 +13552,1087 @@
     </row>
     <row r="194" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T194" s="9" t="str">
-        <f t="shared" ref="T194:T257" si="62">IF(Q194="","",D194*(Q194-G194)*W194)</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U194" s="17"/>
     </row>
     <row r="195" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T195" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="T195:T258" si="66">IF(Q195="","",D195*(Q195-G195)*W195)</f>
         <v/>
       </c>
       <c r="U195" s="17"/>
     </row>
     <row r="196" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T196" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U196" s="17"/>
     </row>
     <row r="197" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T197" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U197" s="17"/>
     </row>
     <row r="198" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T198" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U198" s="17"/>
     </row>
     <row r="199" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T199" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U199" s="17"/>
     </row>
     <row r="200" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T200" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U200" s="17"/>
     </row>
     <row r="201" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T201" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U201" s="17"/>
     </row>
     <row r="202" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T202" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U202" s="17"/>
     </row>
     <row r="203" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T203" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U203" s="17"/>
     </row>
     <row r="204" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T204" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U204" s="17"/>
     </row>
     <row r="205" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T205" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U205" s="17"/>
     </row>
     <row r="206" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T206" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U206" s="17"/>
     </row>
     <row r="207" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T207" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U207" s="17"/>
     </row>
     <row r="208" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T208" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U208" s="17"/>
     </row>
     <row r="209" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T209" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U209" s="17"/>
     </row>
     <row r="210" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T210" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U210" s="17"/>
     </row>
     <row r="211" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T211" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U211" s="17"/>
     </row>
     <row r="212" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T212" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U212" s="17"/>
     </row>
     <row r="213" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T213" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U213" s="17"/>
     </row>
     <row r="214" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T214" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U214" s="17"/>
     </row>
     <row r="215" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T215" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U215" s="17"/>
     </row>
     <row r="216" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T216" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U216" s="17"/>
     </row>
     <row r="217" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T217" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U217" s="17"/>
     </row>
     <row r="218" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T218" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U218" s="17"/>
     </row>
     <row r="219" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T219" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U219" s="17"/>
     </row>
     <row r="220" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T220" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U220" s="17"/>
     </row>
     <row r="221" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T221" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U221" s="17"/>
     </row>
     <row r="222" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T222" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U222" s="17"/>
     </row>
     <row r="223" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T223" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U223" s="17"/>
     </row>
     <row r="224" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T224" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U224" s="17"/>
     </row>
     <row r="225" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T225" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U225" s="17"/>
     </row>
     <row r="226" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T226" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U226" s="17"/>
     </row>
     <row r="227" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T227" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U227" s="17"/>
     </row>
     <row r="228" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T228" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U228" s="17"/>
     </row>
     <row r="229" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T229" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U229" s="17"/>
     </row>
     <row r="230" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T230" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U230" s="17"/>
     </row>
     <row r="231" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T231" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U231" s="17"/>
     </row>
     <row r="232" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T232" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U232" s="17"/>
     </row>
     <row r="233" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T233" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U233" s="17"/>
     </row>
     <row r="234" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T234" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U234" s="17"/>
     </row>
     <row r="235" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T235" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U235" s="17"/>
     </row>
     <row r="236" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T236" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U236" s="17"/>
     </row>
     <row r="237" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T237" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U237" s="17"/>
     </row>
     <row r="238" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T238" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U238" s="17"/>
     </row>
     <row r="239" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T239" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U239" s="17"/>
     </row>
     <row r="240" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T240" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U240" s="17"/>
     </row>
     <row r="241" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T241" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U241" s="17"/>
     </row>
     <row r="242" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T242" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U242" s="17"/>
     </row>
     <row r="243" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T243" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U243" s="17"/>
     </row>
     <row r="244" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T244" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U244" s="17"/>
     </row>
     <row r="245" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T245" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U245" s="17"/>
     </row>
     <row r="246" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T246" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U246" s="17"/>
     </row>
     <row r="247" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T247" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U247" s="17"/>
     </row>
     <row r="248" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T248" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U248" s="17"/>
     </row>
     <row r="249" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T249" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U249" s="17"/>
     </row>
     <row r="250" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T250" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U250" s="17"/>
     </row>
     <row r="251" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T251" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U251" s="17"/>
     </row>
     <row r="252" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T252" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U252" s="17"/>
     </row>
     <row r="253" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T253" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U253" s="17"/>
     </row>
     <row r="254" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T254" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U254" s="17"/>
     </row>
     <row r="255" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T255" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U255" s="17"/>
     </row>
     <row r="256" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T256" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
     </row>
     <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T257" s="9" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U257" s="17"/>
     </row>
     <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T258" s="9" t="str">
-        <f t="shared" ref="T258:T321" si="63">IF(Q258="","",D258*(Q258-G258)*W258)</f>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="U258" s="17"/>
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="T259:T322" si="67">IF(Q259="","",D259*(Q259-G259)*W259)</f>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" ref="T322:T347" si="64">IF(Q322="","",D322*(Q322-G322)*W322)</f>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="T323:T348" si="68">IF(Q323="","",D323*(Q323-G323)*W323)</f>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="U347" s="17"/>
     </row>
     <row r="348" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T348" s="9" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
       <c r="U348" s="17"/>
     </row>
     <row r="349" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
@@ -32939,6 +33522,9 @@
     </row>
     <row r="6644" spans="21:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="U6644" s="17"/>
+    </row>
+    <row r="6645" spans="21:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="U6645" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -931,10 +931,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$30</c:f>
+              <c:f>净值!$A$5:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1013,15 +1013,18 @@
                 <c:pt idx="25">
                   <c:v>43173</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>43174</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$30</c:f>
+              <c:f>净值!$B$5:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -1100,6 +1103,9 @@
                 <c:pt idx="25">
                   <c:v>5771800</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>5797110</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1114,11 +1120,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="595784400"/>
-        <c:axId val="595784960"/>
+        <c:axId val="493644672"/>
+        <c:axId val="493645232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="595784400"/>
+        <c:axId val="493644672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,14 +1167,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595784960"/>
+        <c:crossAx val="493645232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="595784960"/>
+        <c:axId val="493645232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1225,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595784400"/>
+        <c:crossAx val="493644672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2170,7 +2176,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2223,7 +2229,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C30" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C31" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2530,6 +2536,13 @@
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>43174</v>
+      </c>
+      <c r="B31" s="4">
+        <v>5797110</v>
+      </c>
+      <c r="C31" s="51">
+        <f t="shared" si="0"/>
+        <v>1.034379761299586</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="143">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -540,6 +540,49 @@
     <t>S</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>C1805</t>
+  </si>
+  <si>
+    <t>RU1805</t>
+  </si>
+  <si>
+    <t>TA805</t>
+  </si>
+  <si>
+    <t>BU1806</t>
+  </si>
+  <si>
+    <t>P1805</t>
+  </si>
+  <si>
+    <t>RM805</t>
+  </si>
+  <si>
+    <t>RB1805</t>
+  </si>
+  <si>
+    <t>J1805</t>
+  </si>
+  <si>
+    <t>Y1805</t>
+  </si>
+  <si>
+    <t>ZC805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -606,7 +649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -638,6 +681,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -648,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -818,6 +872,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -931,10 +988,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$31</c:f>
+              <c:f>净值!$A$5:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1016,15 +1073,18 @@
                 <c:pt idx="26">
                   <c:v>43174</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>43175</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$31</c:f>
+              <c:f>净值!$B$5:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -1106,6 +1166,9 @@
                 <c:pt idx="26">
                   <c:v>5797110</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>5823900</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1120,11 +1183,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="493644672"/>
-        <c:axId val="493645232"/>
+        <c:axId val="543413296"/>
+        <c:axId val="300087136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493644672"/>
+        <c:axId val="543413296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1167,14 +1230,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493645232"/>
+        <c:crossAx val="300087136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493645232"/>
+        <c:axId val="300087136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,7 +1288,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493644672"/>
+        <c:crossAx val="543413296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2176,7 +2239,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2229,7 +2292,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C31" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C32" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2548,6 +2611,13 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
         <v>43175</v>
+      </c>
+      <c r="B32" s="4">
+        <v>5823900</v>
+      </c>
+      <c r="C32" s="51">
+        <f t="shared" si="0"/>
+        <v>1.03915990758027</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
@@ -2589,8 +2659,8 @@
   <dimension ref="A1:AG6645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P192" sqref="P192"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E188" sqref="E188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13532,12 +13602,11 @@
       <c r="D192" s="6">
         <v>0</v>
       </c>
-      <c r="E192" s="35"/>
-      <c r="F192" s="35"/>
+      <c r="E192" s="63"/>
+      <c r="F192" s="63"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
-      <c r="J192" s="41"/>
       <c r="K192" s="58"/>
       <c r="L192" s="56"/>
       <c r="M192" s="56">
@@ -13555,1095 +13624,1638 @@
         <v/>
       </c>
       <c r="U192" s="17"/>
-    </row>
-    <row r="193" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W192" s="18">
+        <f>[1]!WSD($B192,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X192" s="1">
+        <v>5790023</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A193" s="27">
+        <v>43175</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D193" s="1">
+        <v>21</v>
+      </c>
+      <c r="O193" s="47">
+        <v>0</v>
+      </c>
       <c r="T193" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U193" s="17"/>
-    </row>
-    <row r="194" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W193" s="18">
+        <f>[1]!WSD($B193,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X193" s="1">
+        <v>5790023</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B194" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D194" s="1">
+        <v>142</v>
+      </c>
+      <c r="E194" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F194" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G194" s="1">
+        <v>1806</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J194" s="42">
+        <f>IF(I194="N",1,IF(C194=I194,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K194" s="47">
+        <f>SUM($F$194:$F$198)/SUM($J$194:$J$198)*J194</f>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="L194" s="59">
+        <f>(X194*K194)/(W194*G194*0.15)</f>
+        <v>122.13305911511894</v>
+      </c>
+      <c r="M194" s="57">
+        <f t="shared" ref="M194:M203" si="66">ROUND(L194,0)</f>
+        <v>122</v>
+      </c>
+      <c r="N194" s="57">
+        <f t="shared" ref="N194:N203" si="67">M194-D194</f>
+        <v>-20</v>
+      </c>
+      <c r="O194" s="47">
+        <v>5.7099999999999998E-2</v>
+      </c>
       <c r="T194" s="9" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="U194" s="17"/>
-    </row>
-    <row r="195" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W194" s="18">
+        <f>[1]!WSD($B194,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X194" s="1">
+        <v>5790023</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B195" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D195" s="1">
+        <v>0</v>
+      </c>
+      <c r="E195" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F195" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G195" s="1">
+        <v>1457</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J195" s="42">
+        <f t="shared" ref="J195:J203" si="68">IF(I195="N",1,IF(C195=I195,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K195" s="47">
+        <f t="shared" ref="K195:K198" si="69">SUM($F$194:$F$198)/SUM($J$194:$J$198)*J195</f>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="L195" s="59">
+        <f>(X195*K195)/(W195*G195*0.15)</f>
+        <v>75.693996143412761</v>
+      </c>
+      <c r="M195" s="57">
+        <f t="shared" si="66"/>
+        <v>76</v>
+      </c>
+      <c r="N195" s="57">
+        <f t="shared" si="67"/>
+        <v>76</v>
+      </c>
+      <c r="O195" s="47">
+        <v>5.7500000000000002E-2</v>
+      </c>
       <c r="T195" s="9" t="str">
-        <f t="shared" ref="T195:T258" si="66">IF(Q195="","",D195*(Q195-G195)*W195)</f>
+        <f t="shared" ref="T195:T202" si="70">IF(Q195="","",D196*(Q195-G195)*W195)</f>
         <v/>
       </c>
       <c r="U195" s="17"/>
-    </row>
-    <row r="196" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W195" s="18">
+        <f>[1]!WSD($B195,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>20</v>
+      </c>
+      <c r="X195" s="1">
+        <v>5790023</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B196" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D196" s="1">
+        <v>10</v>
+      </c>
+      <c r="E196" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F196" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G196" s="1">
+        <v>12810</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J196" s="42">
+        <f t="shared" si="68"/>
+        <v>0.5</v>
+      </c>
+      <c r="K196" s="47">
+        <f t="shared" si="69"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="L196" s="59">
+        <f>(X196*K196)/(W196*G196*0.15)</f>
+        <v>8.6093795769674006</v>
+      </c>
+      <c r="M196" s="57">
+        <f t="shared" si="66"/>
+        <v>9</v>
+      </c>
+      <c r="N196" s="57">
+        <f t="shared" si="67"/>
+        <v>-1</v>
+      </c>
+      <c r="O196" s="47">
+        <v>2.98E-2</v>
+      </c>
       <c r="T196" s="9" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="U196" s="17"/>
+      <c r="W196" s="18">
+        <f>[1]!WSD($B196,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X196" s="1">
+        <v>5790023</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B197" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D197" s="1">
+        <v>46</v>
+      </c>
+      <c r="E197" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F197" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G197" s="1">
+        <v>5582</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J197" s="42">
+        <f t="shared" si="68"/>
+        <v>0.5</v>
+      </c>
+      <c r="K197" s="47">
+        <f t="shared" si="69"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="L197" s="59">
+        <f>(X197*K197)/(W197*G197*0.15)</f>
+        <v>39.514923819760803</v>
+      </c>
+      <c r="M197" s="57">
         <f t="shared" si="66"/>
+        <v>40</v>
+      </c>
+      <c r="N197" s="57">
+        <f t="shared" si="67"/>
+        <v>-6</v>
+      </c>
+      <c r="O197" s="47">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="T197" s="9" t="str">
+        <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="U196" s="17"/>
-    </row>
-    <row r="197" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T197" s="9" t="str">
+      <c r="U197" s="17"/>
+      <c r="W197" s="18">
+        <f>[1]!WSD($B197,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X197" s="1">
+        <v>5790023</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B198" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D198" s="1">
+        <v>49</v>
+      </c>
+      <c r="E198" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F198" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G198" s="1">
+        <v>2686</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J198" s="42">
+        <f t="shared" si="68"/>
+        <v>0.5</v>
+      </c>
+      <c r="K198" s="47">
+        <f t="shared" si="69"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="L198" s="59">
+        <f>(X198*K198)/(W198*G198*0.15)</f>
+        <v>41.059624862603279</v>
+      </c>
+      <c r="M198" s="57">
         <f t="shared" si="66"/>
+        <v>41</v>
+      </c>
+      <c r="N198" s="57">
+        <f t="shared" si="67"/>
+        <v>-8</v>
+      </c>
+      <c r="O198" s="47">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="T198" s="9" t="str">
+        <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="U197" s="17"/>
-    </row>
-    <row r="198" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T198" s="9" t="str">
+      <c r="U198" s="17"/>
+      <c r="W198" s="18">
+        <f>[1]!WSD($B198,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X198" s="1">
+        <v>5790023</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B199" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D199" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E199" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F199" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G199" s="1">
+        <v>5110</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J199" s="42">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+      <c r="K199" s="47">
+        <f>SUM($F$199:$F$203)/SUM($J$199:$J$203)*J199</f>
+        <v>0.05</v>
+      </c>
+      <c r="L199" s="59">
+        <f>-(X199*K199)/(W199*G199*0.15)</f>
+        <v>-37.769230267449451</v>
+      </c>
+      <c r="M199" s="57">
         <f t="shared" si="66"/>
+        <v>-38</v>
+      </c>
+      <c r="N199" s="57">
+        <f t="shared" si="67"/>
+        <v>2</v>
+      </c>
+      <c r="O199" s="47">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="T199" s="9" t="str">
+        <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="U198" s="17"/>
-    </row>
-    <row r="199" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T199" s="9" t="str">
+      <c r="U199" s="17"/>
+      <c r="W199" s="18">
+        <f>[1]!WSD($B199,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X199" s="1">
+        <v>5790023</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B200" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D200" s="1">
+        <v>-21</v>
+      </c>
+      <c r="E200" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F200" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G200" s="1">
+        <v>2494</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J200" s="42">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="K200" s="47">
+        <f t="shared" ref="K200:K203" si="71">SUM($F$199:$F$203)/SUM($J$199:$J$203)*J200</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L200" s="59">
+        <f>-(X200*K200)/(W200*G200*0.15)</f>
+        <v>-38.6930165731088</v>
+      </c>
+      <c r="M200" s="57">
         <f t="shared" si="66"/>
+        <v>-39</v>
+      </c>
+      <c r="N200" s="57">
+        <f t="shared" si="67"/>
+        <v>-18</v>
+      </c>
+      <c r="O200" s="47">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T200" s="9" t="str">
+        <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="U199" s="17"/>
-    </row>
-    <row r="200" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T200" s="9" t="str">
+      <c r="U200" s="17"/>
+      <c r="W200" s="18">
+        <f>[1]!WSD($B200,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X200" s="1">
+        <v>5790023</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B201" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D201" s="1">
+        <v>-56</v>
+      </c>
+      <c r="E201" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F201" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G201" s="1">
+        <v>3752</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J201" s="42">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+      <c r="K201" s="47">
+        <f t="shared" si="71"/>
+        <v>0.05</v>
+      </c>
+      <c r="L201" s="59">
+        <f>-(X201*K201)/(W201*G201*0.15)</f>
+        <v>-51.4394367448472</v>
+      </c>
+      <c r="M201" s="57">
         <f t="shared" si="66"/>
+        <v>-51</v>
+      </c>
+      <c r="N201" s="57">
+        <f t="shared" si="67"/>
+        <v>5</v>
+      </c>
+      <c r="O201" s="47">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="T201" s="9" t="str">
+        <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="U200" s="17"/>
-    </row>
-    <row r="201" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T201" s="9" t="str">
+      <c r="U201" s="17"/>
+      <c r="W201" s="18">
+        <f>[1]!WSD($B201,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X201" s="1">
+        <v>5790023</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B202" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D202" s="1">
+        <v>-10</v>
+      </c>
+      <c r="E202" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F202" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G202" s="1">
+        <v>1999</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J202" s="42">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+      <c r="K202" s="47">
+        <f t="shared" si="71"/>
+        <v>0.05</v>
+      </c>
+      <c r="L202" s="59">
+        <f>-(X202*K202)/(W202*G202*0.15)</f>
+        <v>-9.6548657662164423</v>
+      </c>
+      <c r="M202" s="57">
         <f t="shared" si="66"/>
+        <v>-10</v>
+      </c>
+      <c r="N202" s="57">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="O202" s="47">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="T202" s="9" t="str">
+        <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="U201" s="17"/>
-    </row>
-    <row r="202" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T202" s="9" t="str">
+      <c r="U202" s="17"/>
+      <c r="W202" s="18">
+        <f>[1]!WSD($B202,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X202" s="1">
+        <v>5790023</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A203" s="28"/>
+      <c r="B203" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D203" s="6">
+        <v>-18</v>
+      </c>
+      <c r="E203" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F203" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G203" s="6">
+        <v>5684</v>
+      </c>
+      <c r="H203" s="6"/>
+      <c r="I203" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J203" s="41">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="K203" s="58">
+        <f t="shared" si="71"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L203" s="56">
+        <f>-(X203*K203)/(W203*G203*0.15)</f>
+        <v>-16.977548088200798</v>
+      </c>
+      <c r="M203" s="6">
         <f t="shared" si="66"/>
+        <v>-17</v>
+      </c>
+      <c r="N203" s="6">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="O203" s="58">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P203" s="58"/>
+      <c r="T203" s="9" t="str">
+        <f>IF(Q203="","",#REF!*(Q203-G203)*W203)</f>
         <v/>
       </c>
-      <c r="U202" s="17"/>
-    </row>
-    <row r="203" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T203" s="9" t="str">
-        <f t="shared" si="66"/>
+      <c r="U203" s="17"/>
+      <c r="W203" s="18">
+        <f>[1]!WSD($B203,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X203" s="1">
+        <v>5790023</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T204" s="9" t="str">
+        <f t="shared" ref="T204:T258" si="72">IF(Q204="","",D204*(Q204-G204)*W204)</f>
         <v/>
       </c>
-      <c r="U203" s="17"/>
-    </row>
-    <row r="204" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T204" s="9" t="str">
-        <f t="shared" si="66"/>
+      <c r="U204" s="17"/>
+      <c r="W204" s="18"/>
+    </row>
+    <row r="205" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T205" s="9" t="str">
+        <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="U204" s="17"/>
-    </row>
-    <row r="205" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T205" s="9" t="str">
-        <f t="shared" si="66"/>
+      <c r="U205" s="17"/>
+    </row>
+    <row r="206" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T206" s="9" t="str">
+        <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="U205" s="17"/>
-    </row>
-    <row r="206" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T206" s="9" t="str">
-        <f t="shared" si="66"/>
+      <c r="U206" s="17"/>
+    </row>
+    <row r="207" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T207" s="9" t="str">
+        <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="U206" s="17"/>
-    </row>
-    <row r="207" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T207" s="9" t="str">
-        <f t="shared" si="66"/>
-        <v/>
-      </c>
       <c r="U207" s="17"/>
     </row>
-    <row r="208" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T208" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U208" s="17"/>
     </row>
     <row r="209" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T209" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U209" s="17"/>
     </row>
     <row r="210" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T210" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U210" s="17"/>
     </row>
     <row r="211" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T211" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U211" s="17"/>
     </row>
     <row r="212" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T212" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U212" s="17"/>
     </row>
     <row r="213" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T213" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U213" s="17"/>
     </row>
     <row r="214" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T214" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U214" s="17"/>
     </row>
     <row r="215" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T215" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U215" s="17"/>
     </row>
     <row r="216" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T216" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U216" s="17"/>
     </row>
     <row r="217" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T217" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U217" s="17"/>
     </row>
     <row r="218" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T218" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U218" s="17"/>
     </row>
     <row r="219" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T219" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U219" s="17"/>
     </row>
     <row r="220" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T220" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U220" s="17"/>
     </row>
     <row r="221" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T221" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U221" s="17"/>
     </row>
     <row r="222" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T222" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U222" s="17"/>
     </row>
     <row r="223" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T223" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U223" s="17"/>
     </row>
     <row r="224" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T224" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U224" s="17"/>
     </row>
     <row r="225" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T225" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U225" s="17"/>
     </row>
     <row r="226" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T226" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U226" s="17"/>
     </row>
     <row r="227" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T227" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U227" s="17"/>
     </row>
     <row r="228" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T228" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U228" s="17"/>
     </row>
     <row r="229" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T229" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U229" s="17"/>
     </row>
     <row r="230" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T230" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U230" s="17"/>
     </row>
     <row r="231" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T231" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U231" s="17"/>
     </row>
     <row r="232" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T232" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U232" s="17"/>
     </row>
     <row r="233" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T233" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U233" s="17"/>
     </row>
     <row r="234" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T234" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U234" s="17"/>
     </row>
     <row r="235" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T235" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U235" s="17"/>
     </row>
     <row r="236" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T236" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U236" s="17"/>
     </row>
     <row r="237" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T237" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U237" s="17"/>
     </row>
     <row r="238" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T238" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U238" s="17"/>
     </row>
     <row r="239" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T239" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U239" s="17"/>
     </row>
     <row r="240" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T240" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U240" s="17"/>
     </row>
     <row r="241" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T241" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U241" s="17"/>
     </row>
     <row r="242" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T242" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U242" s="17"/>
     </row>
     <row r="243" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T243" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U243" s="17"/>
     </row>
     <row r="244" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T244" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U244" s="17"/>
     </row>
     <row r="245" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T245" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U245" s="17"/>
     </row>
     <row r="246" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T246" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U246" s="17"/>
     </row>
     <row r="247" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T247" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U247" s="17"/>
     </row>
     <row r="248" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T248" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U248" s="17"/>
     </row>
     <row r="249" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T249" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U249" s="17"/>
     </row>
     <row r="250" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T250" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U250" s="17"/>
     </row>
     <row r="251" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T251" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U251" s="17"/>
     </row>
     <row r="252" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T252" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U252" s="17"/>
     </row>
     <row r="253" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T253" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U253" s="17"/>
     </row>
     <row r="254" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T254" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U254" s="17"/>
     </row>
     <row r="255" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T255" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U255" s="17"/>
     </row>
     <row r="256" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T256" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
     </row>
     <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T257" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U257" s="17"/>
     </row>
     <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T258" s="9" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="U258" s="17"/>
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f t="shared" ref="T259:T322" si="67">IF(Q259="","",D259*(Q259-G259)*W259)</f>
+        <f t="shared" ref="T259:T322" si="73">IF(Q259="","",D259*(Q259-G259)*W259)</f>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" ref="T323:T348" si="68">IF(Q323="","",D323*(Q323-G323)*W323)</f>
+        <f t="shared" ref="T323:T348" si="74">IF(Q323="","",D323*(Q323-G323)*W323)</f>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U347" s="17"/>
     </row>
     <row r="348" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T348" s="9" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="U348" s="17"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -869,10 +869,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -988,10 +988,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$32</c:f>
+              <c:f>净值!$A$5:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1076,15 +1076,18 @@
                 <c:pt idx="27">
                   <c:v>43175</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>43178</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$32</c:f>
+              <c:f>净值!$B$5:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -1169,6 +1172,9 @@
                 <c:pt idx="27">
                   <c:v>5823900</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>5944660</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1183,11 +1189,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="543413296"/>
-        <c:axId val="300087136"/>
+        <c:axId val="499493664"/>
+        <c:axId val="499494784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543413296"/>
+        <c:axId val="499493664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1230,14 +1236,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300087136"/>
+        <c:crossAx val="499494784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="300087136"/>
+        <c:axId val="499494784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,7 +1294,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543413296"/>
+        <c:crossAx val="499493664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2236,10 +2242,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2292,7 +2298,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C32" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C33" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2612,37 +2618,132 @@
       <c r="A32" s="14">
         <v>43175</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="48">
         <v>5823900</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="60">
         <f t="shared" si="0"/>
         <v>1.03915990758027</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>43178</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B33" s="4">
+        <v>5944660</v>
+      </c>
+      <c r="C33" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0607071440437039</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>43179</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>43180</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>43181</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="14">
         <v>43182</v>
+      </c>
+      <c r="B37" s="48"/>
+      <c r="C37" s="28"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
+        <v>43185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
+        <v>43186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
+        <v>43187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="3">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="14">
+        <v>43189</v>
+      </c>
+      <c r="B42" s="48"/>
+      <c r="C42" s="28"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="3">
+        <v>43192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="3">
+        <v>43193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="3">
+        <v>43194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="14">
+        <v>43196</v>
+      </c>
+      <c r="B47" s="48"/>
+      <c r="C47" s="28"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="3">
+        <v>43199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="3">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="3">
+        <v>43201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
+        <v>43202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="14">
+        <v>43203</v>
+      </c>
+      <c r="B52" s="48"/>
+      <c r="C52" s="28"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="3">
+        <v>43204</v>
       </c>
     </row>
   </sheetData>
@@ -13602,8 +13703,8 @@
       <c r="D192" s="6">
         <v>0</v>
       </c>
-      <c r="E192" s="63"/>
-      <c r="F192" s="63"/>
+      <c r="E192" s="62"/>
+      <c r="F192" s="62"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
@@ -34183,20 +34284,20 @@
         <v>13</v>
       </c>
       <c r="E1" s="52"/>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B2" s="20" t="s">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -988,10 +988,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$33</c:f>
+              <c:f>净值!$A$5:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1079,15 +1079,18 @@
                 <c:pt idx="28">
                   <c:v>43178</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>43179</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$33</c:f>
+              <c:f>净值!$B$5:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -1175,6 +1178,9 @@
                 <c:pt idx="28">
                   <c:v>5944660</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>5890890</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1189,11 +1195,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="499493664"/>
-        <c:axId val="499494784"/>
+        <c:axId val="276334064"/>
+        <c:axId val="276334624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499493664"/>
+        <c:axId val="276334064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,14 +1242,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499494784"/>
+        <c:crossAx val="276334624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="499494784"/>
+        <c:axId val="276334624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1300,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499493664"/>
+        <c:crossAx val="276334064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2245,7 +2251,7 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2298,7 +2304,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C33" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C34" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2641,6 +2647,13 @@
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>43179</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5890890</v>
+      </c>
+      <c r="C34" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0511129497356646</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="净值" sheetId="1" r:id="rId1"/>
@@ -988,10 +988,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$34</c:f>
+              <c:f>净值!$A$5:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1082,15 +1082,18 @@
                 <c:pt idx="29">
                   <c:v>43179</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>43181</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$34</c:f>
+              <c:f>净值!$B$5:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -1181,6 +1184,9 @@
                 <c:pt idx="29">
                   <c:v>5890890</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>5771330</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1195,11 +1201,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="276334064"/>
-        <c:axId val="276334624"/>
+        <c:axId val="301696448"/>
+        <c:axId val="301860464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="276334064"/>
+        <c:axId val="301696448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,14 +1248,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276334624"/>
+        <c:crossAx val="301860464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="276334624"/>
+        <c:axId val="301860464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1306,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276334064"/>
+        <c:crossAx val="301696448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2248,10 +2254,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2304,7 +2310,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C34" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C35" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2658,104 +2664,106 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
-        <v>43180</v>
+        <v>43181</v>
+      </c>
+      <c r="B35" s="4">
+        <v>5771330</v>
+      </c>
+      <c r="C35" s="51">
+        <f t="shared" si="0"/>
+        <v>1.029779829566998</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
-        <v>43181</v>
-      </c>
+      <c r="A36" s="14">
+        <v>43182</v>
+      </c>
+      <c r="B36" s="48"/>
+      <c r="C36" s="28"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="14">
-        <v>43182</v>
-      </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="28"/>
+      <c r="A37" s="3">
+        <v>43185</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
-        <v>43185</v>
+        <v>43186</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
-        <v>43186</v>
+        <v>43187</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
-        <v>43187</v>
+        <v>43188</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
-        <v>43188</v>
-      </c>
+      <c r="A41" s="14">
+        <v>43189</v>
+      </c>
+      <c r="B41" s="48"/>
+      <c r="C41" s="28"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="14">
-        <v>43189</v>
-      </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="28"/>
+      <c r="A42" s="3">
+        <v>43192</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
-        <v>43192</v>
+        <v>43193</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
-        <v>43193</v>
+        <v>43194</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
-        <v>43194</v>
+        <v>43195</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
-        <v>43195</v>
-      </c>
+      <c r="A46" s="14">
+        <v>43196</v>
+      </c>
+      <c r="B46" s="48"/>
+      <c r="C46" s="28"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="14">
-        <v>43196</v>
-      </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="28"/>
+      <c r="A47" s="3">
+        <v>43199</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
-        <v>43199</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
-        <v>43200</v>
+        <v>43201</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
-        <v>43201</v>
+        <v>43202</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
-        <v>43202</v>
-      </c>
+      <c r="A51" s="14">
+        <v>43203</v>
+      </c>
+      <c r="B51" s="48"/>
+      <c r="C51" s="28"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="14">
-        <v>43203</v>
-      </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="28"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
+      <c r="A52" s="3">
         <v>43204</v>
       </c>
     </row>
@@ -2772,9 +2780,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG6645"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E188" sqref="E188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="净值" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="148">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -583,6 +583,26 @@
     <t>S</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>ZC805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JM1805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -988,10 +1008,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$35</c:f>
+              <c:f>净值!$A$5:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1085,15 +1105,18 @@
                 <c:pt idx="30">
                   <c:v>43181</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>43182</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$35</c:f>
+              <c:f>净值!$B$5:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -1187,6 +1210,9 @@
                 <c:pt idx="30">
                   <c:v>5771330</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>5889394</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1201,11 +1227,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="301696448"/>
-        <c:axId val="301860464"/>
+        <c:axId val="507497280"/>
+        <c:axId val="507495040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="301696448"/>
+        <c:axId val="507497280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1248,14 +1274,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301860464"/>
+        <c:crossAx val="507495040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="301860464"/>
+        <c:axId val="507495040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1332,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301696448"/>
+        <c:crossAx val="507497280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2256,8 +2282,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2310,7 +2336,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C35" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C36" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2678,8 +2704,13 @@
       <c r="A36" s="14">
         <v>43182</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="28"/>
+      <c r="B36" s="48">
+        <v>5889394</v>
+      </c>
+      <c r="C36" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0508460180881878</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
@@ -2780,9 +2811,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG6645"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O204" sqref="O204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13864,7 +13895,7 @@
         <v>141</v>
       </c>
       <c r="J195" s="42">
-        <f t="shared" ref="J195:J203" si="68">IF(I195="N",1,IF(C195=I195,2,0.5))</f>
+        <f t="shared" ref="J195:J213" si="68">IF(I195="N",1,IF(C195=I195,2,0.5))</f>
         <v>1</v>
       </c>
       <c r="K195" s="47">
@@ -14158,7 +14189,7 @@
         <v>1</v>
       </c>
       <c r="K200" s="47">
-        <f t="shared" ref="K200:K203" si="71">SUM($F$199:$F$203)/SUM($J$199:$J$203)*J200</f>
+        <f t="shared" ref="K200:K213" si="71">SUM($F$199:$F$203)/SUM($J$199:$J$203)*J200</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L200" s="59">
@@ -14367,1017 +14398,1499 @@
       </c>
     </row>
     <row r="204" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A204" s="27">
+        <v>43182</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D204" s="1">
+        <v>122</v>
+      </c>
+      <c r="E204" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F204" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G204" s="1">
+        <v>1804</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J204" s="42">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="K204" s="47">
+        <f>SUM($F$204:$F$208)/SUM($J$204:$J$208)*J204</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L204" s="59">
+        <f>(X204*K204)/(W204*G204*0.15)</f>
+        <v>142.64656319290464</v>
+      </c>
+      <c r="M204" s="57">
+        <f t="shared" ref="M204:M213" si="72">ROUND(L204,0)</f>
+        <v>143</v>
+      </c>
+      <c r="N204" s="57">
+        <f t="shared" ref="N204:N213" si="73">M204-D204</f>
+        <v>21</v>
+      </c>
       <c r="T204" s="9" t="str">
-        <f t="shared" ref="T204:T258" si="72">IF(Q204="","",D204*(Q204-G204)*W204)</f>
+        <f>IF(Q204="","",D204*(Q204-#REF!)*W204)</f>
         <v/>
       </c>
       <c r="U204" s="17"/>
-      <c r="W204" s="18"/>
+      <c r="W204" s="18">
+        <f>[1]!WSD($B204,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X204" s="1">
+        <v>5790024</v>
+      </c>
     </row>
     <row r="205" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B205" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D205" s="1">
+        <v>76</v>
+      </c>
+      <c r="E205" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F205" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G205" s="1">
+        <v>1387</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J205" s="42">
+        <f t="shared" si="68"/>
+        <v>0.5</v>
+      </c>
+      <c r="K205" s="47">
+        <f t="shared" ref="K205:K208" si="74">SUM($F$204:$F$208)/SUM($J$204:$J$208)*J205</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L205" s="59">
+        <f>(X205*K205)/(W205*G205*0.15)</f>
+        <v>46.383281262517023</v>
+      </c>
+      <c r="M205" s="57">
+        <f t="shared" si="72"/>
+        <v>46</v>
+      </c>
+      <c r="N205" s="57">
+        <f t="shared" si="73"/>
+        <v>-30</v>
+      </c>
       <c r="T205" s="9" t="str">
+        <f>IF(Q205="","",D205*(Q205-G204)*W205)</f>
+        <v/>
+      </c>
+      <c r="U205" s="17"/>
+      <c r="W205" s="18">
+        <f>[1]!WSD($B205,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>20</v>
+      </c>
+      <c r="X205" s="1">
+        <v>5790025</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B206" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D206" s="1">
+        <v>9</v>
+      </c>
+      <c r="E206" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F206" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G206" s="1">
+        <v>12130</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J206" s="42">
+        <f t="shared" si="68"/>
+        <v>0.5</v>
+      </c>
+      <c r="K206" s="47">
+        <f t="shared" si="74"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L206" s="59">
+        <f>(X206*K206)/(W206*G206*0.15)</f>
+        <v>10.607357332600531</v>
+      </c>
+      <c r="M206" s="57">
         <f t="shared" si="72"/>
+        <v>11</v>
+      </c>
+      <c r="N206" s="57">
+        <f t="shared" si="73"/>
+        <v>2</v>
+      </c>
+      <c r="T206" s="9" t="str">
+        <f>IF(Q206="","",D206*(Q206-G205)*W206)</f>
         <v/>
       </c>
-      <c r="U205" s="17"/>
-    </row>
-    <row r="206" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T206" s="9" t="str">
+      <c r="U206" s="17"/>
+      <c r="W206" s="18">
+        <f>[1]!WSD($B206,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X206" s="1">
+        <v>5790026</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B207" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D207" s="1">
+        <v>40</v>
+      </c>
+      <c r="E207" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F207" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G207" s="1">
+        <v>5560</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J207" s="42">
+        <f t="shared" si="68"/>
+        <v>0.5</v>
+      </c>
+      <c r="K207" s="47">
+        <f t="shared" si="74"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L207" s="59">
+        <f>(X207*K207)/(W207*G207*0.15)</f>
+        <v>46.283189448441249</v>
+      </c>
+      <c r="M207" s="57">
         <f t="shared" si="72"/>
+        <v>46</v>
+      </c>
+      <c r="N207" s="57">
+        <f t="shared" si="73"/>
+        <v>6</v>
+      </c>
+      <c r="T207" s="9" t="str">
+        <f>IF(Q207="","",D207*(Q207-G206)*W207)</f>
         <v/>
       </c>
-      <c r="U206" s="17"/>
-    </row>
-    <row r="207" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T207" s="9" t="str">
+      <c r="U207" s="17"/>
+      <c r="W207" s="18">
+        <f>[1]!WSD($B207,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X207" s="1">
+        <v>5790027</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B208" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D208" s="1">
+        <v>0</v>
+      </c>
+      <c r="E208" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F208" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G208" s="1">
+        <v>586.6</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J208" s="42">
+        <f t="shared" si="68"/>
+        <v>0.5</v>
+      </c>
+      <c r="K208" s="47">
+        <f t="shared" si="74"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L208" s="59">
+        <f>(X208*K208)/(W208*G208*0.15)</f>
+        <v>21.934416789786717</v>
+      </c>
+      <c r="M208" s="57">
         <f t="shared" si="72"/>
+        <v>22</v>
+      </c>
+      <c r="N208" s="57">
+        <f t="shared" si="73"/>
+        <v>22</v>
+      </c>
+      <c r="T208" s="9" t="str">
+        <f t="shared" ref="T208:T258" si="75">IF(Q208="","",D208*(Q208-G208)*W208)</f>
         <v/>
       </c>
-      <c r="U207" s="17"/>
-    </row>
-    <row r="208" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T208" s="9" t="str">
+      <c r="U208" s="17"/>
+      <c r="W208" s="18">
+        <f>[1]!WSD($B208,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X208" s="1">
+        <v>5790028</v>
+      </c>
+    </row>
+    <row r="209" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B209" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D209" s="1">
+        <v>-38</v>
+      </c>
+      <c r="E209" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F209" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G209" s="1">
+        <v>5120</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J209" s="42">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+      <c r="K209" s="47">
+        <f>SUM($F$209:$F$213)/SUM($J$209:$J$213)*J209</f>
+        <v>0.05</v>
+      </c>
+      <c r="L209" s="59">
+        <f>-(X209*K209)/(W209*G209*0.15)</f>
+        <v>-37.695501302083336</v>
+      </c>
+      <c r="M209" s="57">
         <f t="shared" si="72"/>
+        <v>-38</v>
+      </c>
+      <c r="N209" s="57">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="T209" s="9" t="str">
+        <f>IF(Q209="","",D210*(Q209-G209)*W209)</f>
         <v/>
       </c>
-      <c r="U208" s="17"/>
-    </row>
-    <row r="209" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T209" s="9" t="str">
+      <c r="U209" s="17"/>
+      <c r="W209" s="18">
+        <f>[1]!WSD($B209,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X209" s="1">
+        <v>5790029</v>
+      </c>
+    </row>
+    <row r="210" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B210" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D210" s="1">
+        <v>0</v>
+      </c>
+      <c r="E210" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F210" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G210" s="1">
+        <v>1275.5</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J210" s="42">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="K210" s="47">
+        <f t="shared" ref="K210:K213" si="76">SUM($F$209:$F$213)/SUM($J$209:$J$213)*J210</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L210" s="59">
+        <f>-(X210*K210)/(W210*G210*0.15)</f>
+        <v>-12.609499542663007</v>
+      </c>
+      <c r="M210" s="57">
         <f t="shared" si="72"/>
+        <v>-13</v>
+      </c>
+      <c r="N210" s="57">
+        <f t="shared" si="73"/>
+        <v>-13</v>
+      </c>
+      <c r="T210" s="9" t="str">
+        <f>IF(Q210="","",D211*(Q210-G210)*W210)</f>
         <v/>
       </c>
-      <c r="U209" s="17"/>
-    </row>
-    <row r="210" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T210" s="9" t="str">
+      <c r="U210" s="17"/>
+      <c r="W210" s="18">
+        <f>[1]!WSD($B210,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X210" s="1">
+        <v>5790030</v>
+      </c>
+    </row>
+    <row r="211" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B211" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D211" s="1">
+        <v>-51</v>
+      </c>
+      <c r="E211" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F211" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G211" s="1">
+        <v>3619</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J211" s="42">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+      <c r="K211" s="47">
+        <f t="shared" si="76"/>
+        <v>0.05</v>
+      </c>
+      <c r="L211" s="59">
+        <f>-(X211*K211)/(W211*G211*0.15)</f>
+        <v>-53.329934604402688</v>
+      </c>
+      <c r="M211" s="57">
         <f t="shared" si="72"/>
+        <v>-53</v>
+      </c>
+      <c r="N211" s="57">
+        <f t="shared" si="73"/>
+        <v>-2</v>
+      </c>
+      <c r="T211" s="9" t="str">
+        <f>IF(Q211="","",D212*(Q211-G211)*W211)</f>
         <v/>
       </c>
-      <c r="U210" s="17"/>
-    </row>
-    <row r="211" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T211" s="9" t="str">
+      <c r="U211" s="17"/>
+      <c r="W211" s="18">
+        <f>[1]!WSD($B211,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X211" s="1">
+        <v>5790031</v>
+      </c>
+    </row>
+    <row r="212" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B212" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D212" s="1">
+        <v>-10</v>
+      </c>
+      <c r="E212" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F212" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G212" s="1">
+        <v>1964.5</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J212" s="42">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+      <c r="K212" s="47">
+        <f t="shared" si="76"/>
+        <v>0.05</v>
+      </c>
+      <c r="L212" s="59">
+        <f>-(X212*K212)/(W212*G212*0.15)</f>
+        <v>-9.8244370917112089</v>
+      </c>
+      <c r="M212" s="57">
         <f t="shared" si="72"/>
+        <v>-10</v>
+      </c>
+      <c r="N212" s="57">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="T212" s="9" t="str">
+        <f>IF(Q212="","",D213*(Q212-G212)*W212)</f>
         <v/>
       </c>
-      <c r="U211" s="17"/>
-    </row>
-    <row r="212" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T212" s="9" t="str">
+      <c r="U212" s="17"/>
+      <c r="W212" s="18">
+        <f>[1]!WSD($B212,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X212" s="1">
+        <v>5790032</v>
+      </c>
+    </row>
+    <row r="213" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B213" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D213" s="1">
+        <v>-17</v>
+      </c>
+      <c r="E213" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F213" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G213" s="1">
+        <v>5678</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J213" s="42">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="K213" s="47">
+        <f t="shared" si="76"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L213" s="56">
+        <f>-(X213*K213)/(W213*G213*0.15)</f>
+        <v>-16.995517787953506</v>
+      </c>
+      <c r="M213" s="6">
         <f t="shared" si="72"/>
+        <v>-17</v>
+      </c>
+      <c r="N213" s="6">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="T213" s="9" t="str">
+        <f>IF(Q213="","",#REF!*(Q213-G213)*W213)</f>
         <v/>
       </c>
-      <c r="U212" s="17"/>
-    </row>
-    <row r="213" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T213" s="9" t="str">
-        <f t="shared" si="72"/>
+      <c r="U213" s="17"/>
+      <c r="W213" s="18">
+        <f>[1]!WSD($B213,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X213" s="1">
+        <v>5790033</v>
+      </c>
+    </row>
+    <row r="214" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T214" s="9" t="str">
+        <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="U213" s="17"/>
-    </row>
-    <row r="214" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T214" s="9" t="str">
-        <f t="shared" si="72"/>
+      <c r="U214" s="17"/>
+    </row>
+    <row r="215" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T215" s="9" t="str">
+        <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="U214" s="17"/>
-    </row>
-    <row r="215" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T215" s="9" t="str">
-        <f t="shared" si="72"/>
+      <c r="U215" s="17"/>
+    </row>
+    <row r="216" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T216" s="9" t="str">
+        <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="U215" s="17"/>
-    </row>
-    <row r="216" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T216" s="9" t="str">
-        <f t="shared" si="72"/>
+      <c r="U216" s="17"/>
+    </row>
+    <row r="217" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T217" s="9" t="str">
+        <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="U216" s="17"/>
-    </row>
-    <row r="217" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T217" s="9" t="str">
-        <f t="shared" si="72"/>
+      <c r="U217" s="17"/>
+    </row>
+    <row r="218" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T218" s="9" t="str">
+        <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="U217" s="17"/>
-    </row>
-    <row r="218" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T218" s="9" t="str">
-        <f t="shared" si="72"/>
+      <c r="U218" s="17"/>
+    </row>
+    <row r="219" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T219" s="9" t="str">
+        <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="U218" s="17"/>
-    </row>
-    <row r="219" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T219" s="9" t="str">
-        <f t="shared" si="72"/>
+      <c r="U219" s="17"/>
+    </row>
+    <row r="220" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T220" s="9" t="str">
+        <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="U219" s="17"/>
-    </row>
-    <row r="220" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T220" s="9" t="str">
-        <f t="shared" si="72"/>
+      <c r="U220" s="17"/>
+    </row>
+    <row r="221" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T221" s="9" t="str">
+        <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="U220" s="17"/>
-    </row>
-    <row r="221" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T221" s="9" t="str">
-        <f t="shared" si="72"/>
+      <c r="U221" s="17"/>
+    </row>
+    <row r="222" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T222" s="9" t="str">
+        <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="U221" s="17"/>
-    </row>
-    <row r="222" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T222" s="9" t="str">
-        <f t="shared" si="72"/>
+      <c r="U222" s="17"/>
+    </row>
+    <row r="223" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T223" s="9" t="str">
+        <f t="shared" si="75"/>
         <v/>
       </c>
-      <c r="U222" s="17"/>
-    </row>
-    <row r="223" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T223" s="9" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
       <c r="U223" s="17"/>
     </row>
-    <row r="224" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T224" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U224" s="17"/>
     </row>
     <row r="225" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T225" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U225" s="17"/>
     </row>
     <row r="226" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T226" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U226" s="17"/>
     </row>
     <row r="227" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T227" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U227" s="17"/>
     </row>
     <row r="228" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T228" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U228" s="17"/>
     </row>
     <row r="229" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T229" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U229" s="17"/>
     </row>
     <row r="230" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T230" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U230" s="17"/>
     </row>
     <row r="231" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T231" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U231" s="17"/>
     </row>
     <row r="232" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T232" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U232" s="17"/>
     </row>
     <row r="233" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T233" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U233" s="17"/>
     </row>
     <row r="234" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T234" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U234" s="17"/>
     </row>
     <row r="235" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T235" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U235" s="17"/>
     </row>
     <row r="236" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T236" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U236" s="17"/>
     </row>
     <row r="237" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T237" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U237" s="17"/>
     </row>
     <row r="238" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T238" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U238" s="17"/>
     </row>
     <row r="239" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T239" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U239" s="17"/>
     </row>
     <row r="240" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T240" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U240" s="17"/>
     </row>
     <row r="241" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T241" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U241" s="17"/>
     </row>
     <row r="242" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T242" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U242" s="17"/>
     </row>
     <row r="243" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T243" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U243" s="17"/>
     </row>
     <row r="244" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T244" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U244" s="17"/>
     </row>
     <row r="245" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T245" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U245" s="17"/>
     </row>
     <row r="246" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T246" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U246" s="17"/>
     </row>
     <row r="247" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T247" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U247" s="17"/>
     </row>
     <row r="248" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T248" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U248" s="17"/>
     </row>
     <row r="249" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T249" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U249" s="17"/>
     </row>
     <row r="250" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T250" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U250" s="17"/>
     </row>
     <row r="251" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T251" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U251" s="17"/>
     </row>
     <row r="252" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T252" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U252" s="17"/>
     </row>
     <row r="253" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T253" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U253" s="17"/>
     </row>
     <row r="254" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T254" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U254" s="17"/>
     </row>
     <row r="255" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T255" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U255" s="17"/>
     </row>
     <row r="256" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T256" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
     </row>
     <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T257" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U257" s="17"/>
     </row>
     <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T258" s="9" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U258" s="17"/>
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f t="shared" ref="T259:T322" si="73">IF(Q259="","",D259*(Q259-G259)*W259)</f>
+        <f t="shared" ref="T259:T322" si="77">IF(Q259="","",D259*(Q259-G259)*W259)</f>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" ref="T323:T348" si="74">IF(Q323="","",D323*(Q323-G323)*W323)</f>
+        <f t="shared" ref="T323:T348" si="78">IF(Q323="","",D323*(Q323-G323)*W323)</f>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U347" s="17"/>
     </row>
     <row r="348" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T348" s="9" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="U348" s="17"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="151">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -603,6 +603,18 @@
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>SR805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1008,10 +1020,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$36</c:f>
+              <c:f>净值!$A$5:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1108,15 +1120,18 @@
                 <c:pt idx="31">
                   <c:v>43182</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>43185</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$36</c:f>
+              <c:f>净值!$B$5:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -1213,6 +1228,9 @@
                 <c:pt idx="31">
                   <c:v>5889394</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>5866400</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1227,11 +1245,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="507497280"/>
-        <c:axId val="507495040"/>
+        <c:axId val="494501328"/>
+        <c:axId val="494726192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507497280"/>
+        <c:axId val="494501328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1274,14 +1292,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507495040"/>
+        <c:crossAx val="494726192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507495040"/>
+        <c:axId val="494726192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,7 +1350,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507497280"/>
+        <c:crossAx val="494501328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2282,8 +2300,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2336,7 +2354,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C36" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C37" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2715,6 +2733,13 @@
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>43185</v>
+      </c>
+      <c r="B37" s="4">
+        <v>5866400</v>
+      </c>
+      <c r="C37" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0467431930199516</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -2809,11 +2834,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG6645"/>
+  <dimension ref="A1:AG6647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O204" sqref="O204"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2911,23 +2936,23 @@
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
       <c r="Z1" s="7">
-        <f>COUNT(T2:T9989)</f>
+        <f>COUNT(T2:T9991)</f>
         <v>5</v>
       </c>
       <c r="AA1" s="8">
-        <f>COUNTIF(T2:T9989,"&gt;0")</f>
+        <f>COUNTIF(T2:T9991,"&gt;0")</f>
         <v>3</v>
       </c>
       <c r="AB1" s="8">
-        <f>COUNTIF(T2:T9989,"&lt;0")</f>
+        <f>COUNTIF(T2:T9991,"&lt;0")</f>
         <v>2</v>
       </c>
       <c r="AC1" s="8">
-        <f>SUMIF(T2:T9989,"&gt;0")</f>
+        <f>SUMIF(T2:T9991,"&gt;0")</f>
         <v>2149910</v>
       </c>
       <c r="AD1" s="8">
-        <f>ABS(SUMIF(T2:T9989,"&lt;0"))</f>
+        <f>ABS(SUMIF(T2:T9991,"&lt;0"))</f>
         <v>18699.749999999978</v>
       </c>
       <c r="AE1" s="8"/>
@@ -13895,7 +13920,7 @@
         <v>141</v>
       </c>
       <c r="J195" s="42">
-        <f t="shared" ref="J195:J213" si="68">IF(I195="N",1,IF(C195=I195,2,0.5))</f>
+        <f t="shared" ref="J195:J225" si="68">IF(I195="N",1,IF(C195=I195,2,0.5))</f>
         <v>1</v>
       </c>
       <c r="K195" s="47">
@@ -14189,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="K200" s="47">
-        <f t="shared" ref="K200:K213" si="71">SUM($F$199:$F$203)/SUM($J$199:$J$203)*J200</f>
+        <f t="shared" ref="K200:K203" si="71">SUM($F$199:$F$203)/SUM($J$199:$J$203)*J200</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L200" s="59">
@@ -14663,7 +14688,7 @@
         <v>22</v>
       </c>
       <c r="T208" s="9" t="str">
-        <f t="shared" ref="T208:T258" si="75">IF(Q208="","",D208*(Q208-G208)*W208)</f>
+        <f t="shared" ref="T208:T260" si="75">IF(Q208="","",D208*(Q208-G208)*W208)</f>
         <v/>
       </c>
       <c r="U208" s="17"/>
@@ -14675,7 +14700,7 @@
         <v>5790028</v>
       </c>
     </row>
-    <row r="209" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B209" s="1" t="s">
         <v>134</v>
       </c>
@@ -14730,7 +14755,7 @@
         <v>5790029</v>
       </c>
     </row>
-    <row r="210" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B210" s="1" t="s">
         <v>145</v>
       </c>
@@ -14785,7 +14810,7 @@
         <v>5790030</v>
       </c>
     </row>
-    <row r="211" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B211" s="1" t="s">
         <v>136</v>
       </c>
@@ -14840,7 +14865,7 @@
         <v>5790031</v>
       </c>
     </row>
-    <row r="212" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B212" s="1" t="s">
         <v>137</v>
       </c>
@@ -14895,14 +14920,15 @@
         <v>5790032</v>
       </c>
     </row>
-    <row r="213" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A213" s="28"/>
       <c r="B213" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D213" s="1">
+      <c r="D213" s="6">
         <v>-17</v>
       </c>
       <c r="E213" s="35">
@@ -14911,23 +14937,24 @@
       <c r="F213" s="35">
         <v>0.04</v>
       </c>
-      <c r="G213" s="1">
+      <c r="G213" s="6">
         <v>5678</v>
       </c>
-      <c r="I213" s="1" t="s">
+      <c r="H213" s="6"/>
+      <c r="I213" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J213" s="42">
+      <c r="J213" s="41">
         <f t="shared" si="68"/>
         <v>1</v>
       </c>
-      <c r="K213" s="47">
+      <c r="K213" s="58">
         <f t="shared" si="76"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L213" s="56">
         <f>-(X213*K213)/(W213*G213*0.15)</f>
-        <v>-16.995517787953506</v>
+        <v>-17.171636139485734</v>
       </c>
       <c r="M213" s="6">
         <f t="shared" si="72"/>
@@ -14937,6 +14964,8 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
+      <c r="O213" s="58"/>
+      <c r="P213" s="58"/>
       <c r="T213" s="9" t="str">
         <f>IF(Q213="","",#REF!*(Q213-G213)*W213)</f>
         <v/>
@@ -14947,192 +14976,747 @@
         <v>10</v>
       </c>
       <c r="X213" s="1">
-        <v>5790033</v>
-      </c>
-    </row>
-    <row r="214" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+        <v>5850033</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A214" s="27">
+        <v>43185</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D214" s="1">
+        <v>143</v>
+      </c>
+      <c r="E214" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F214" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G214" s="1">
+        <v>1799</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J214" s="42">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="K214" s="47">
+        <f>SUM($F$214:$F$218)/SUM($J$214:$J$218)*J214</f>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="L214" s="59">
+        <f>(X214*K214)/(W214*G214*0.15)</f>
+        <v>123.87906508907065</v>
+      </c>
+      <c r="M214" s="57">
+        <f t="shared" ref="M214:M222" si="77">ROUND(L214,0)</f>
+        <v>124</v>
+      </c>
+      <c r="N214" s="57">
+        <f t="shared" ref="N214:N222" si="78">M214-D214</f>
+        <v>-19</v>
+      </c>
+      <c r="O214" s="47">
+        <v>5.6899999999999999E-2</v>
+      </c>
       <c r="T214" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f>IF(Q214="","",D214*(Q214-#REF!)*W214)</f>
         <v/>
       </c>
       <c r="U214" s="17"/>
-    </row>
-    <row r="215" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W214" s="18">
+        <f>[1]!WSD($B214,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X214" s="1">
+        <v>5850034</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B215" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D215" s="1">
+        <v>46</v>
+      </c>
+      <c r="E215" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F215" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G215" s="1">
+        <v>1375</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J215" s="42">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="K215" s="47">
+        <f t="shared" ref="K215:K218" si="79">SUM($F$214:$F$218)/SUM($J$214:$J$218)*J215</f>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="L215" s="59">
+        <f>(X215*K215)/(W215*G215*0.15)</f>
+        <v>81.039445887445893</v>
+      </c>
+      <c r="M215" s="57">
+        <f t="shared" si="77"/>
+        <v>81</v>
+      </c>
+      <c r="N215" s="57">
+        <f t="shared" si="78"/>
+        <v>35</v>
+      </c>
+      <c r="O215" s="47">
+        <v>5.6899999999999999E-2</v>
+      </c>
       <c r="T215" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="T215:T220" si="80">IF(Q215="","",D215*(Q215-G214)*W215)</f>
         <v/>
       </c>
       <c r="U215" s="17"/>
-    </row>
-    <row r="216" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W215" s="18">
+        <f>[1]!WSD($B215,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>20</v>
+      </c>
+      <c r="X215" s="1">
+        <v>5850035</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B216" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D216" s="1">
+        <v>11</v>
+      </c>
+      <c r="E216" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F216" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G216" s="1">
+        <v>11305</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J216" s="42">
+        <f t="shared" si="68"/>
+        <v>0.5</v>
+      </c>
+      <c r="K216" s="47">
+        <f t="shared" si="79"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="L216" s="59">
+        <f>(X216*K216)/(W216*G216*0.15)</f>
+        <v>9.8566348644721042</v>
+      </c>
+      <c r="M216" s="57">
+        <f t="shared" si="77"/>
+        <v>10</v>
+      </c>
+      <c r="N216" s="57">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="O216" s="47">
+        <v>2.9700000000000001E-2</v>
+      </c>
       <c r="T216" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="U216" s="17"/>
-    </row>
-    <row r="217" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W216" s="18">
+        <f>[1]!WSD($B216,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X216" s="1">
+        <v>5850036</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B217" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D217" s="1">
+        <v>46</v>
+      </c>
+      <c r="E217" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F217" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G217" s="1">
+        <v>5494</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J217" s="42">
+        <f t="shared" si="68"/>
+        <v>0.5</v>
+      </c>
+      <c r="K217" s="47">
+        <f t="shared" si="79"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="L217" s="59">
+        <f>(X217*K217)/(W217*G217*0.15)</f>
+        <v>40.563988420268004</v>
+      </c>
+      <c r="M217" s="57">
+        <f t="shared" si="77"/>
+        <v>41</v>
+      </c>
+      <c r="N217" s="57">
+        <f t="shared" si="78"/>
+        <v>-5</v>
+      </c>
+      <c r="O217" s="47">
+        <v>2.87E-2</v>
+      </c>
       <c r="T217" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="U217" s="17"/>
-    </row>
-    <row r="218" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W217" s="18">
+        <f>[1]!WSD($B217,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X217" s="1">
+        <v>5850037</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B218" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D218" s="1">
+        <v>22</v>
+      </c>
+      <c r="E218" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F218" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G218" s="1">
+        <v>574.20000000000005</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J218" s="42">
+        <f t="shared" si="68"/>
+        <v>0.5</v>
+      </c>
+      <c r="K218" s="47">
+        <f t="shared" si="79"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="L218" s="59">
+        <f>(X218*K218)/(W218*G218*0.15)</f>
+        <v>19.406007530145462</v>
+      </c>
+      <c r="M218" s="57">
+        <f t="shared" si="77"/>
+        <v>19</v>
+      </c>
+      <c r="N218" s="57">
+        <f t="shared" si="78"/>
+        <v>-3</v>
+      </c>
+      <c r="O218" s="47">
+        <v>2.7900000000000001E-2</v>
+      </c>
       <c r="T218" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="U218" s="17"/>
-    </row>
-    <row r="219" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W218" s="18">
+        <f>[1]!WSD($B218,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X218" s="1">
+        <v>5850038</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B219" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D219" s="1">
+        <v>-38</v>
+      </c>
+      <c r="E219" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F219" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G219" s="1">
+        <v>5094</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J219" s="42">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+      <c r="K219" s="47">
+        <f>SUM($F$219:$F$225)/SUM($J$219:$J$225)*J219</f>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="L219" s="59">
+        <f>-(X219*K219)/(W219*G219*0.15)</f>
+        <v>-43.749240002243539</v>
+      </c>
+      <c r="M219" s="57">
+        <f t="shared" si="77"/>
+        <v>-44</v>
+      </c>
+      <c r="N219" s="57">
+        <f t="shared" si="78"/>
+        <v>-6</v>
+      </c>
+      <c r="O219" s="47">
+        <v>5.7200000000000001E-2</v>
+      </c>
       <c r="T219" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="U219" s="17"/>
-    </row>
-    <row r="220" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W219" s="18">
+        <f>[1]!WSD($B219,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X219" s="1">
+        <v>5850039</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B220" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D220" s="1">
+        <v>-13</v>
+      </c>
+      <c r="L220" s="59"/>
+      <c r="M220" s="57"/>
+      <c r="N220" s="57"/>
       <c r="T220" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="U220" s="17"/>
-    </row>
-    <row r="221" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W220" s="18">
+        <f>[1]!WSD($B220,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X220" s="1">
+        <v>5850040</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B221" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D221" s="1">
+        <v>0</v>
+      </c>
+      <c r="E221" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F221" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G221" s="1">
+        <v>2502</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J221" s="42">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="K221" s="47">
+        <f t="shared" ref="K221:K225" si="81">SUM($F$219:$F$225)/SUM($J$219:$J$225)*J221</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="L221" s="59">
+        <f>-(X221*K221)/(W221*G221*0.15)</f>
+        <v>-44.536112062730773</v>
+      </c>
+      <c r="M221" s="57">
+        <f t="shared" si="77"/>
+        <v>-45</v>
+      </c>
+      <c r="N221" s="57">
+        <f t="shared" si="78"/>
+        <v>-45</v>
+      </c>
+      <c r="O221" s="47">
+        <v>2.9000000000000001E-2</v>
+      </c>
       <c r="T221" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f>IF(Q221="","",D221*(Q221-G221)*W221)</f>
         <v/>
       </c>
       <c r="U221" s="17"/>
-    </row>
-    <row r="222" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W221" s="18">
+        <f>[1]!WSD($B221,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X221" s="1">
+        <v>5850041</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B222" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D222" s="1">
+        <v>-53</v>
+      </c>
+      <c r="E222" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F222" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G222" s="1">
+        <v>3369</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J222" s="42">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+      <c r="K222" s="47">
+        <f t="shared" si="81"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="L222" s="59">
+        <f>-(X222*K222)/(W222*G222*0.15)</f>
+        <v>-66.14981978543868</v>
+      </c>
+      <c r="M222" s="57">
+        <f t="shared" si="77"/>
+        <v>-66</v>
+      </c>
+      <c r="N222" s="57">
+        <f t="shared" si="78"/>
+        <v>-13</v>
+      </c>
+      <c r="O222" s="47">
+        <v>5.7799999999999997E-2</v>
+      </c>
       <c r="T222" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f>IF(Q222="","",D222*(Q222-G222)*W222)</f>
         <v/>
       </c>
       <c r="U222" s="17"/>
-    </row>
-    <row r="223" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W222" s="18">
+        <f>[1]!WSD($B222,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X222" s="1">
+        <v>5850042</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B223" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D223" s="1">
+        <v>-10</v>
+      </c>
+      <c r="L223" s="59"/>
+      <c r="M223" s="57"/>
+      <c r="N223" s="57"/>
       <c r="T223" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f>IF(Q223="","",D223*(Q223-G224)*W223)</f>
         <v/>
       </c>
       <c r="U223" s="17"/>
-    </row>
-    <row r="224" spans="2:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W223" s="18">
+        <f>[1]!WSD($B223,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X223" s="1">
+        <v>5850043</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B224" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D224" s="1">
+        <v>0</v>
+      </c>
+      <c r="E224" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F224" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G224" s="1">
+        <v>5666</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J224" s="42">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="K224" s="47">
+        <f t="shared" si="81"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="L224" s="59">
+        <f>-(X224*K224)/(W224*G224*0.15)</f>
+        <v>-19.666327130922969</v>
+      </c>
+      <c r="M224" s="57">
+        <f t="shared" ref="M224:M225" si="82">ROUND(L224,0)</f>
+        <v>-20</v>
+      </c>
+      <c r="N224" s="57">
+        <f t="shared" ref="N224:N225" si="83">M224-D224</f>
+        <v>-20</v>
+      </c>
+      <c r="O224" s="47">
+        <v>2.8799999999999999E-2</v>
+      </c>
       <c r="T224" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f>IF(Q224="","",D224*(Q224-G225)*W224)</f>
         <v/>
       </c>
       <c r="U224" s="17"/>
-    </row>
-    <row r="225" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W224" s="18">
+        <f>[1]!WSD($B224,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X224" s="1">
+        <v>5850044</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A225" s="28"/>
+      <c r="B225" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D225" s="6">
+        <v>-17</v>
+      </c>
+      <c r="E225" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F225" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G225" s="6">
+        <v>5654</v>
+      </c>
+      <c r="H225" s="6"/>
+      <c r="I225" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J225" s="41">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="K225" s="58">
+        <f t="shared" si="81"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="L225" s="56">
+        <f>-(X225*K225)/(W225*G225*0.15)</f>
+        <v>-19.708070139976755</v>
+      </c>
+      <c r="M225" s="6">
+        <f t="shared" si="82"/>
+        <v>-20</v>
+      </c>
+      <c r="N225" s="6">
+        <f t="shared" si="83"/>
+        <v>-3</v>
+      </c>
+      <c r="O225" s="58">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="P225" s="58"/>
       <c r="T225" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f>IF(Q225="","",D225*(Q225-#REF!)*W225)</f>
         <v/>
       </c>
       <c r="U225" s="17"/>
-    </row>
-    <row r="226" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W225" s="18">
+        <f>[1]!WSD($B225,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X225" s="1">
+        <v>5850045</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T226" s="9" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U226" s="17"/>
-    </row>
-    <row r="227" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W226" s="18"/>
+    </row>
+    <row r="227" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T227" s="9" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U227" s="17"/>
     </row>
-    <row r="228" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T228" s="9" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U228" s="17"/>
     </row>
-    <row r="229" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T229" s="9" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U229" s="17"/>
     </row>
-    <row r="230" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T230" s="9" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U230" s="17"/>
     </row>
-    <row r="231" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T231" s="9" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U231" s="17"/>
     </row>
-    <row r="232" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T232" s="9" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U232" s="17"/>
     </row>
-    <row r="233" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T233" s="9" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U233" s="17"/>
     </row>
-    <row r="234" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T234" s="9" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U234" s="17"/>
     </row>
-    <row r="235" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T235" s="9" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U235" s="17"/>
     </row>
-    <row r="236" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T236" s="9" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U236" s="17"/>
     </row>
-    <row r="237" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T237" s="9" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U237" s="17"/>
     </row>
-    <row r="238" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T238" s="9" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U238" s="17"/>
     </row>
-    <row r="239" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T239" s="9" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U239" s="17"/>
     </row>
-    <row r="240" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T240" s="9" t="str">
         <f t="shared" si="75"/>
         <v/>
@@ -15267,638 +15851,646 @@
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f t="shared" ref="T259:T322" si="77">IF(Q259="","",D259*(Q259-G259)*W259)</f>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="T261:T324" si="84">IF(Q261="","",D261*(Q261-G261)*W261)</f>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" ref="T323:T348" si="78">IF(Q323="","",D323*(Q323-G323)*W323)</f>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="T325:T350" si="85">IF(Q325="","",D325*(Q325-G325)*W325)</f>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U347" s="17"/>
     </row>
     <row r="348" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T348" s="9" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="U348" s="17"/>
     </row>
     <row r="349" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T349" s="9" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
       <c r="U349" s="17"/>
     </row>
     <row r="350" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T350" s="9" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
       <c r="U350" s="17"/>
     </row>
     <row r="351" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
@@ -34785,6 +35377,12 @@
     </row>
     <row r="6645" spans="21:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="U6645" s="17"/>
+    </row>
+    <row r="6646" spans="21:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="U6646" s="17"/>
+    </row>
+    <row r="6647" spans="21:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="U6647" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -1020,10 +1020,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$37</c:f>
+              <c:f>净值!$A$5:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1123,15 +1123,18 @@
                 <c:pt idx="32">
                   <c:v>43185</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>43186</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$37</c:f>
+              <c:f>净值!$B$5:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -1231,6 +1234,9 @@
                 <c:pt idx="32">
                   <c:v>5866400</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>5825510</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1245,11 +1251,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="494501328"/>
-        <c:axId val="494726192"/>
+        <c:axId val="125687120"/>
+        <c:axId val="125683760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494501328"/>
+        <c:axId val="125687120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,14 +1298,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494726192"/>
+        <c:crossAx val="125683760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494726192"/>
+        <c:axId val="125683760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,7 +1356,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494501328"/>
+        <c:crossAx val="125687120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2300,8 +2306,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2354,7 +2360,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C37" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C38" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2745,6 +2751,13 @@
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>43186</v>
+      </c>
+      <c r="B38" s="4">
+        <v>5825510</v>
+      </c>
+      <c r="C38" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0394471802757497</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="154">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -615,6 +615,18 @@
     <t>S</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1020,10 +1032,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$38</c:f>
+              <c:f>净值!$A$5:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1126,15 +1138,18 @@
                 <c:pt idx="33">
                   <c:v>43186</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>43187</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$38</c:f>
+              <c:f>净值!$B$5:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>5589832</c:v>
                 </c:pt>
@@ -1237,6 +1252,9 @@
                 <c:pt idx="33">
                   <c:v>5825510</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>5813110</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1251,11 +1269,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="125687120"/>
-        <c:axId val="125683760"/>
+        <c:axId val="502403056"/>
+        <c:axId val="627655968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="125687120"/>
+        <c:axId val="502403056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,14 +1316,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125683760"/>
+        <c:crossAx val="627655968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125683760"/>
+        <c:axId val="627655968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1374,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125687120"/>
+        <c:crossAx val="502403056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2307,7 +2325,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2360,7 +2378,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C38" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C39" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2763,6 +2781,13 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>43187</v>
+      </c>
+      <c r="B39" s="4">
+        <v>5813110</v>
+      </c>
+      <c r="C39" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0372346452298191</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -2847,11 +2872,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG6647"/>
+  <dimension ref="A1:AG6645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E202" sqref="E202"/>
+      <selection pane="bottomLeft" activeCell="M231" sqref="M231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2949,23 +2974,23 @@
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
       <c r="Z1" s="7">
-        <f>COUNT(T2:T9991)</f>
+        <f>COUNT(T2:T9989)</f>
         <v>5</v>
       </c>
       <c r="AA1" s="8">
-        <f>COUNTIF(T2:T9991,"&gt;0")</f>
+        <f>COUNTIF(T2:T9989,"&gt;0")</f>
         <v>3</v>
       </c>
       <c r="AB1" s="8">
-        <f>COUNTIF(T2:T9991,"&lt;0")</f>
+        <f>COUNTIF(T2:T9989,"&lt;0")</f>
         <v>2</v>
       </c>
       <c r="AC1" s="8">
-        <f>SUMIF(T2:T9991,"&gt;0")</f>
+        <f>SUMIF(T2:T9989,"&gt;0")</f>
         <v>2149910</v>
       </c>
       <c r="AD1" s="8">
-        <f>ABS(SUMIF(T2:T9991,"&lt;0"))</f>
+        <f>ABS(SUMIF(T2:T9989,"&lt;0"))</f>
         <v>18699.749999999978</v>
       </c>
       <c r="AE1" s="8"/>
@@ -13933,7 +13958,7 @@
         <v>141</v>
       </c>
       <c r="J195" s="42">
-        <f t="shared" ref="J195:J225" si="68">IF(I195="N",1,IF(C195=I195,2,0.5))</f>
+        <f t="shared" ref="J195:J235" si="68">IF(I195="N",1,IF(C195=I195,2,0.5))</f>
         <v>1</v>
       </c>
       <c r="K195" s="47">
@@ -14701,7 +14726,7 @@
         <v>22</v>
       </c>
       <c r="T208" s="9" t="str">
-        <f t="shared" ref="T208:T260" si="75">IF(Q208="","",D208*(Q208-G208)*W208)</f>
+        <f t="shared" ref="T208" si="75">IF(Q208="","",D208*(Q208-G208)*W208)</f>
         <v/>
       </c>
       <c r="U208" s="17"/>
@@ -15631,879 +15656,1164 @@
       </c>
     </row>
     <row r="226" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A226" s="27">
+        <v>43186</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D226" s="1">
+        <v>124</v>
+      </c>
+      <c r="E226" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F226" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G226" s="1">
+        <v>1782</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J226" s="42">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="K226" s="47">
+        <f>SUM($F$226:$F$230)/SUM($J$226:$J$230)*J226</f>
+        <v>5.7142857142857148E-2</v>
+      </c>
       <c r="T226" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f>IF(Q226="","",D226*(Q226-#REF!)*W226)</f>
         <v/>
       </c>
       <c r="U226" s="17"/>
       <c r="W226" s="18"/>
     </row>
     <row r="227" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B227" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D227" s="1">
+        <v>81</v>
+      </c>
+      <c r="E227" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F227" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G227" s="1">
+        <v>1375</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J227" s="42">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="K227" s="47">
+        <f t="shared" ref="K227:K230" si="84">SUM($F$226:$F$230)/SUM($J$226:$J$230)*J227</f>
+        <v>5.7142857142857148E-2</v>
+      </c>
       <c r="T227" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f>IF(Q227="","",D227*(Q227-G226)*W227)</f>
         <v/>
       </c>
       <c r="U227" s="17"/>
     </row>
     <row r="228" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B228" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D228" s="1">
+        <v>10</v>
+      </c>
+      <c r="E228" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F228" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G228" s="1">
+        <v>11175</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J228" s="42">
+        <f t="shared" si="68"/>
+        <v>0.5</v>
+      </c>
+      <c r="K228" s="47">
+        <f t="shared" si="84"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
       <c r="T228" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f>IF(Q228="","",D228*(Q228-G227)*W228)</f>
         <v/>
       </c>
       <c r="U228" s="17"/>
     </row>
     <row r="229" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B229" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D229" s="1">
+        <v>41</v>
+      </c>
+      <c r="E229" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F229" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G229" s="1">
+        <v>5462</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J229" s="42">
+        <f t="shared" si="68"/>
+        <v>0.5</v>
+      </c>
+      <c r="K229" s="47">
+        <f t="shared" si="84"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
       <c r="T229" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f>IF(Q229="","",D229*(Q229-G228)*W229)</f>
         <v/>
       </c>
       <c r="U229" s="17"/>
     </row>
     <row r="230" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B230" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D230" s="1">
+        <v>19</v>
+      </c>
+      <c r="E230" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F230" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G230" s="1">
+        <v>580.79999999999995</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J230" s="42">
+        <f t="shared" si="68"/>
+        <v>0.5</v>
+      </c>
+      <c r="K230" s="47">
+        <f t="shared" si="84"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
       <c r="T230" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f>IF(Q230="","",D230*(Q230-G229)*W230)</f>
         <v/>
       </c>
       <c r="U230" s="17"/>
     </row>
     <row r="231" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B231" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D231" s="1">
+        <v>-44</v>
+      </c>
+      <c r="E231" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F231" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G231" s="1">
+        <v>5070</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J231" s="42">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+      <c r="K231" s="47">
+        <f>SUM($F$231:$F$235)/SUM($J$231:$J$235)*J231</f>
+        <v>5.7142857142857148E-2</v>
+      </c>
       <c r="T231" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f>IF(Q231="","",D231*(Q231-G230)*W231)</f>
         <v/>
       </c>
       <c r="U231" s="17"/>
     </row>
     <row r="232" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B232" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D232" s="1">
+        <v>-45</v>
+      </c>
+      <c r="E232" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F232" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G232" s="1">
+        <v>2481</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J232" s="42">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="K232" s="47">
+        <f t="shared" ref="K232:K235" si="85">SUM($F$231:$F$235)/SUM($J$231:$J$235)*J232</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
       <c r="T232" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f>IF(Q232="","",#REF!*(Q232-G231)*W232)</f>
         <v/>
       </c>
       <c r="U232" s="17"/>
     </row>
     <row r="233" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B233" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D233" s="1">
+        <v>-66</v>
+      </c>
+      <c r="E233" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F233" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G233" s="1">
+        <v>3433</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J233" s="42">
+        <f t="shared" si="68"/>
+        <v>2</v>
+      </c>
+      <c r="K233" s="47">
+        <f t="shared" si="85"/>
+        <v>5.7142857142857148E-2</v>
+      </c>
       <c r="T233" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f>IF(Q233="","",D232*(Q233-G232)*W233)</f>
         <v/>
       </c>
       <c r="U233" s="17"/>
     </row>
     <row r="234" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B234" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D234" s="1">
+        <v>-20</v>
+      </c>
+      <c r="E234" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F234" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G234" s="1">
+        <v>5657</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J234" s="42">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="K234" s="47">
+        <f t="shared" si="85"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
       <c r="T234" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f>IF(Q234="","",D233*(Q234-G233)*W234)</f>
         <v/>
       </c>
       <c r="U234" s="17"/>
     </row>
     <row r="235" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B235" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D235" s="1">
+        <v>-20</v>
+      </c>
+      <c r="E235" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F235" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G235" s="1">
+        <v>5630</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J235" s="42">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="K235" s="47">
+        <f t="shared" si="85"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
       <c r="T235" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f>IF(Q235="","",#REF!*(Q235-G234)*W235)</f>
         <v/>
       </c>
       <c r="U235" s="17"/>
     </row>
     <row r="236" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T236" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f>IF(Q236="","",D234*(Q236-G235)*W236)</f>
         <v/>
       </c>
       <c r="U236" s="17"/>
     </row>
     <row r="237" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T237" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="T237:T268" si="86">IF(Q237="","",D235*(Q237-G237)*W237)</f>
         <v/>
       </c>
       <c r="U237" s="17"/>
     </row>
     <row r="238" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T238" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U238" s="17"/>
     </row>
     <row r="239" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T239" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U239" s="17"/>
     </row>
     <row r="240" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T240" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U240" s="17"/>
     </row>
     <row r="241" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T241" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U241" s="17"/>
     </row>
     <row r="242" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T242" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U242" s="17"/>
     </row>
     <row r="243" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T243" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U243" s="17"/>
     </row>
     <row r="244" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T244" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U244" s="17"/>
     </row>
     <row r="245" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T245" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U245" s="17"/>
     </row>
     <row r="246" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T246" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U246" s="17"/>
     </row>
     <row r="247" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T247" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U247" s="17"/>
     </row>
     <row r="248" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T248" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U248" s="17"/>
     </row>
     <row r="249" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T249" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U249" s="17"/>
     </row>
     <row r="250" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T250" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U250" s="17"/>
     </row>
     <row r="251" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T251" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U251" s="17"/>
     </row>
     <row r="252" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T252" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U252" s="17"/>
     </row>
     <row r="253" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T253" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U253" s="17"/>
     </row>
     <row r="254" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T254" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U254" s="17"/>
     </row>
     <row r="255" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T255" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U255" s="17"/>
     </row>
     <row r="256" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T256" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
     </row>
     <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T257" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U257" s="17"/>
     </row>
     <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T258" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U258" s="17"/>
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f t="shared" ref="T261:T324" si="84">IF(Q261="","",D261*(Q261-G261)*W261)</f>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" ref="T269:T300" si="87">IF(Q269="","",D267*(Q269-G269)*W269)</f>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" ref="T301:T332" si="88">IF(Q301="","",D299*(Q301-G301)*W301)</f>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" ref="T325:T350" si="85">IF(Q325="","",D325*(Q325-G325)*W325)</f>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" ref="T333:T364" si="89">IF(Q333="","",D331*(Q333-G333)*W333)</f>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U347" s="17"/>
     </row>
     <row r="348" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T348" s="9" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="U348" s="17"/>
     </row>
     <row r="349" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T349" s="9" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
       <c r="U349" s="17"/>
     </row>
     <row r="350" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T350" s="9" t="str">
-        <f t="shared" si="85"/>
-        <v/>
-      </c>
       <c r="U350" s="17"/>
     </row>
     <row r="351" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
@@ -35390,12 +35700,6 @@
     </row>
     <row r="6645" spans="21:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="U6645" s="17"/>
-    </row>
-    <row r="6646" spans="21:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="U6646" s="17"/>
-    </row>
-    <row r="6647" spans="21:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="U6647" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="155">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -627,6 +627,10 @@
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>I1805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -746,7 +750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -916,6 +920,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1032,10 +1042,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$39</c:f>
+              <c:f>净值!$A$5:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1141,119 +1151,131 @@
                 <c:pt idx="34">
                   <c:v>43187</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43188</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43189</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$B$5:$B$39</c:f>
+              <c:f>净值!$C$5:$C$41</c:f>
               <c:numCache>
-                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>5589832</c:v>
+                  <c:v>0.99739509684390792</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5579241</c:v>
+                  <c:v>0.99550534211233932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5557681</c:v>
+                  <c:v>0.99165838601635026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5558068</c:v>
+                  <c:v>0.99172743852141276</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5556305</c:v>
+                  <c:v>0.99141286599835021</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5551055</c:v>
+                  <c:v>0.99047610720874246</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5546532</c:v>
+                  <c:v>0.98966906720771475</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5554791</c:v>
+                  <c:v>0.99114272260645198</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5550851</c:v>
+                  <c:v>0.99043970743863208</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5537479</c:v>
+                  <c:v>0.98805373819393971</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5517289</c:v>
+                  <c:v>0.98445123153447689</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5511469</c:v>
+                  <c:v>0.98341276750485462</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5519409</c:v>
+                  <c:v>0.98482950365523281</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5512178</c:v>
+                  <c:v>0.98353927454901313</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5493539</c:v>
+                  <c:v>0.98021351320053718</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5502709</c:v>
+                  <c:v>0.98184971855305203</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5455160</c:v>
+                  <c:v>0.97336553880313625</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>5528341</c:v>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>0.98642324260928538</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5594705</c:v>
+                  <c:v>0.99826458743090962</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5574198</c:v>
+                  <c:v>0.99460551838357902</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5604871</c:v>
+                  <c:v>1.0000785093080815</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5725125</c:v>
+                  <c:v>1.0215354600672217</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5787555</c:v>
+                  <c:v>1.0326748603025</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5823430</c:v>
+                  <c:v>1.0390760453648193</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5837690</c:v>
+                  <c:v>1.0416204606676396</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5771800</c:v>
+                  <c:v>1.0298636917824486</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5797110</c:v>
+                  <c:v>1.034379761299586</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5823900</c:v>
+                  <c:v>1.03915990758027</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5944660</c:v>
+                  <c:v>1.0607071440437039</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5890890</c:v>
+                  <c:v>1.0511129497356646</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5771330</c:v>
+                  <c:v>1.029779829566998</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>5889394</c:v>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>1.0508460180881878</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5866400</c:v>
+                  <c:v>1.0467431930199516</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5825510</c:v>
+                  <c:v>1.0394471802757497</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5813110</c:v>
+                  <c:v>1.0372346452298191</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0406069768724069</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>1.0240222424007004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1269,11 +1291,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="502403056"/>
-        <c:axId val="627655968"/>
+        <c:axId val="300486064"/>
+        <c:axId val="300655456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502403056"/>
+        <c:axId val="300486064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,14 +1338,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627655968"/>
+        <c:crossAx val="300655456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="627655968"/>
+        <c:axId val="300655456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,7 +1365,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1374,7 +1396,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502403056"/>
+        <c:crossAx val="300486064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2325,7 +2347,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2378,7 +2400,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C39" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C41" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2794,13 +2816,25 @@
       <c r="A40" s="3">
         <v>43188</v>
       </c>
+      <c r="B40" s="4">
+        <v>5832010</v>
+      </c>
+      <c r="C40" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0406069768724069</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
         <v>43189</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="28"/>
+      <c r="B41" s="48">
+        <v>5739062</v>
+      </c>
+      <c r="C41" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0240222424007004</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
@@ -2875,8 +2909,8 @@
   <dimension ref="A1:AG6645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M231" sqref="M231"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I232" sqref="I232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15693,7 +15727,13 @@
         <v/>
       </c>
       <c r="U226" s="17"/>
-      <c r="W226" s="18"/>
+      <c r="W226" s="18">
+        <f>[1]!WSD($B226,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X226" s="1">
+        <v>5850046</v>
+      </c>
     </row>
     <row r="227" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B227" s="1" t="s">
@@ -15730,6 +15770,13 @@
         <v/>
       </c>
       <c r="U227" s="17"/>
+      <c r="W227" s="18">
+        <f>[1]!WSD($B227,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>20</v>
+      </c>
+      <c r="X227" s="1">
+        <v>5850047</v>
+      </c>
     </row>
     <row r="228" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B228" s="1" t="s">
@@ -15766,6 +15813,13 @@
         <v/>
       </c>
       <c r="U228" s="17"/>
+      <c r="W228" s="18">
+        <f>[1]!WSD($B228,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X228" s="1">
+        <v>5850048</v>
+      </c>
     </row>
     <row r="229" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B229" s="1" t="s">
@@ -15802,6 +15856,13 @@
         <v/>
       </c>
       <c r="U229" s="17"/>
+      <c r="W229" s="18">
+        <f>[1]!WSD($B229,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X229" s="1">
+        <v>5850049</v>
+      </c>
     </row>
     <row r="230" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B230" s="1" t="s">
@@ -15838,6 +15899,13 @@
         <v/>
       </c>
       <c r="U230" s="17"/>
+      <c r="W230" s="18">
+        <f>[1]!WSD($B230,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X230" s="1">
+        <v>5850050</v>
+      </c>
     </row>
     <row r="231" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B231" s="1" t="s">
@@ -15874,6 +15942,13 @@
         <v/>
       </c>
       <c r="U231" s="17"/>
+      <c r="W231" s="18">
+        <f>[1]!WSD($B231,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X231" s="1">
+        <v>5850051</v>
+      </c>
     </row>
     <row r="232" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B232" s="1" t="s">
@@ -15910,6 +15985,13 @@
         <v/>
       </c>
       <c r="U232" s="17"/>
+      <c r="W232" s="18">
+        <f>[1]!WSD($B232,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X232" s="1">
+        <v>5850052</v>
+      </c>
     </row>
     <row r="233" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B233" s="1" t="s">
@@ -15946,6 +16028,13 @@
         <v/>
       </c>
       <c r="U233" s="17"/>
+      <c r="W233" s="18">
+        <f>[1]!WSD($B233,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X233" s="1">
+        <v>5850053</v>
+      </c>
     </row>
     <row r="234" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B234" s="1" t="s">
@@ -15982,15 +16071,23 @@
         <v/>
       </c>
       <c r="U234" s="17"/>
+      <c r="W234" s="18">
+        <f>[1]!WSD($B234,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X234" s="1">
+        <v>5850054</v>
+      </c>
     </row>
     <row r="235" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A235" s="28"/>
       <c r="B235" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D235" s="1">
+      <c r="D235" s="6">
         <v>-20</v>
       </c>
       <c r="E235" s="35">
@@ -15999,813 +16096,1327 @@
       <c r="F235" s="35">
         <v>0.04</v>
       </c>
-      <c r="G235" s="1">
+      <c r="G235" s="6">
         <v>5630</v>
       </c>
-      <c r="I235" s="1" t="s">
+      <c r="H235" s="6"/>
+      <c r="I235" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="J235" s="42">
+      <c r="J235" s="41">
         <f t="shared" si="68"/>
         <v>1</v>
       </c>
-      <c r="K235" s="47">
+      <c r="K235" s="58">
         <f t="shared" si="85"/>
         <v>2.8571428571428574E-2</v>
       </c>
+      <c r="L235" s="56"/>
+      <c r="M235" s="58"/>
+      <c r="N235" s="58"/>
+      <c r="O235" s="58"/>
+      <c r="P235" s="58"/>
       <c r="T235" s="9" t="str">
         <f>IF(Q235="","",#REF!*(Q235-G234)*W235)</f>
         <v/>
       </c>
       <c r="U235" s="17"/>
+      <c r="W235" s="18">
+        <f>[1]!WSD($B235,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X235" s="1">
+        <v>5850055</v>
+      </c>
     </row>
     <row r="236" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A236" s="27">
+        <v>43189</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D236" s="1">
+        <v>124</v>
+      </c>
+      <c r="E236" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F236" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G236" s="1">
+        <v>1785</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J236" s="42">
+        <f>IF(I236="N",1,IF(C236=I236,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K236" s="47">
+        <f>SUM($F$236:$F$240)/SUM($J$236:$J$240)*J236</f>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="L236" s="59">
+        <f>(X236*K236)/(W236*G236*0.15)</f>
+        <v>124.85113512071497</v>
+      </c>
+      <c r="M236" s="57">
+        <f t="shared" ref="M236:M241" si="86">ROUND(L236,0)</f>
+        <v>125</v>
+      </c>
+      <c r="N236" s="57">
+        <f t="shared" ref="N236:N241" si="87">M236-D236</f>
+        <v>1</v>
+      </c>
       <c r="T236" s="9" t="str">
-        <f>IF(Q236="","",D234*(Q236-G235)*W236)</f>
+        <f t="shared" ref="T236:T246" si="88">IF(Q236="","",D234*(Q236-G235)*W236)</f>
         <v/>
       </c>
       <c r="U236" s="17"/>
+      <c r="W236" s="18">
+        <f>[1]!WSD($B236,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X236" s="1">
+        <v>5850056</v>
+      </c>
     </row>
     <row r="237" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B237" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D237" s="1">
+        <v>81</v>
+      </c>
+      <c r="E237" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F237" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G237" s="1">
+        <v>1380</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J237" s="42">
+        <f t="shared" ref="J237:J245" si="89">IF(I237="N",1,IF(C237=I237,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K237" s="47">
+        <f t="shared" ref="K237:K240" si="90">SUM($F$236:$F$240)/SUM($J$236:$J$240)*J237</f>
+        <v>5.7142857142857148E-2</v>
+      </c>
+      <c r="L237" s="59">
+        <f>(X237*K237)/(W237*G237*0.15)</f>
+        <v>80.746128364389236</v>
+      </c>
+      <c r="M237" s="57">
+        <f t="shared" si="86"/>
+        <v>81</v>
+      </c>
+      <c r="N237" s="57">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
       <c r="T237" s="9" t="str">
-        <f t="shared" ref="T237:T268" si="86">IF(Q237="","",D235*(Q237-G237)*W237)</f>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U237" s="17"/>
+      <c r="W237" s="18">
+        <f>[1]!WSD($B237,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>20</v>
+      </c>
+      <c r="X237" s="1">
+        <v>5850057</v>
+      </c>
     </row>
     <row r="238" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B238" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D238" s="1">
+        <v>10</v>
+      </c>
+      <c r="E238" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F238" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G238" s="1">
+        <v>11100</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J238" s="42">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="K238" s="47">
+        <f t="shared" si="90"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="L238" s="59">
+        <f>(X238*K238)/(W238*G238*0.15)</f>
+        <v>10.038709566709567</v>
+      </c>
+      <c r="M238" s="57">
+        <f t="shared" si="86"/>
+        <v>10</v>
+      </c>
+      <c r="N238" s="57">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
       <c r="T238" s="9" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="U238" s="17"/>
+      <c r="W238" s="18">
+        <f>[1]!WSD($B238,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X238" s="1">
+        <v>5850058</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B239" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D239" s="1">
+        <v>41</v>
+      </c>
+      <c r="E239" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F239" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G239" s="1">
+        <v>5390</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J239" s="42">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="K239" s="47">
+        <f t="shared" si="90"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="L239" s="59">
+        <f>(X239*K239)/(W239*G239*0.15)</f>
+        <v>41.346825691315487</v>
+      </c>
+      <c r="M239" s="57">
         <f t="shared" si="86"/>
+        <v>41</v>
+      </c>
+      <c r="N239" s="57">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="T239" s="9" t="str">
+        <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="U238" s="17"/>
-    </row>
-    <row r="239" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T239" s="9" t="str">
+      <c r="U239" s="17"/>
+      <c r="W239" s="18">
+        <f>[1]!WSD($B239,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X239" s="1">
+        <v>5850059</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B240" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D240" s="1">
+        <v>19</v>
+      </c>
+      <c r="E240" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F240" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G240" s="1">
+        <v>577.20000000000005</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J240" s="42">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="K240" s="47">
+        <f t="shared" si="90"/>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="L240" s="59">
+        <f>(X240*K240)/(W240*G240*0.15)</f>
+        <v>19.305217305217308</v>
+      </c>
+      <c r="M240" s="57">
         <f t="shared" si="86"/>
+        <v>19</v>
+      </c>
+      <c r="N240" s="57">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="T240" s="9" t="str">
+        <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="U239" s="17"/>
-    </row>
-    <row r="240" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T240" s="9" t="str">
+      <c r="U240" s="17"/>
+      <c r="W240" s="18">
+        <f>[1]!WSD($B240,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X240" s="1">
+        <v>5850060</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B241" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D241" s="1">
+        <v>-44</v>
+      </c>
+      <c r="E241" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F241" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G241" s="1">
+        <v>5014</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J241" s="42">
+        <f t="shared" si="89"/>
+        <v>2</v>
+      </c>
+      <c r="K241" s="47">
+        <f>SUM($F$241:$F$245)/SUM($J$241:$J$245)*J241</f>
+        <v>0.05</v>
+      </c>
+      <c r="L241" s="59">
+        <f>-(X241*K241)/(W241*G241*0.15)</f>
+        <v>-38.891510437441831</v>
+      </c>
+      <c r="M241" s="57">
         <f t="shared" si="86"/>
+        <v>-39</v>
+      </c>
+      <c r="N241" s="57">
+        <f t="shared" si="87"/>
+        <v>5</v>
+      </c>
+      <c r="T241" s="9" t="str">
+        <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="U240" s="17"/>
-    </row>
-    <row r="241" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T241" s="9" t="str">
-        <f t="shared" si="86"/>
+      <c r="U241" s="17"/>
+      <c r="W241" s="18">
+        <f>[1]!WSD($B241,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X241" s="1">
+        <v>5850061</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B242" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D242" s="1">
+        <v>-45</v>
+      </c>
+      <c r="E242" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F242" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G242" s="1">
+        <v>2475</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J242" s="42">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="K242" s="47">
+        <f t="shared" ref="K242:K245" si="91">SUM($F$241:$F$245)/SUM($J$241:$J$245)*J242</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L242" s="59">
+        <f t="shared" ref="L242:L245" si="92">-(X242*K242)/(W242*G242*0.15)</f>
+        <v>-39.394356902356904</v>
+      </c>
+      <c r="M242" s="57">
+        <f t="shared" ref="M242:M245" si="93">ROUND(L242,0)</f>
+        <v>-39</v>
+      </c>
+      <c r="N242" s="57">
+        <f t="shared" ref="N242:N245" si="94">M242-D242</f>
+        <v>6</v>
+      </c>
+      <c r="T242" s="9" t="str">
+        <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="U241" s="17"/>
-    </row>
-    <row r="242" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T242" s="9" t="str">
-        <f t="shared" si="86"/>
+      <c r="U242" s="17"/>
+      <c r="W242" s="18">
+        <f>[1]!WSD($B242,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X242" s="1">
+        <v>5850062</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B243" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D243" s="1">
+        <v>-66</v>
+      </c>
+      <c r="E243" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F243" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G243" s="1">
+        <v>3479</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J243" s="42">
+        <f t="shared" si="89"/>
+        <v>2</v>
+      </c>
+      <c r="K243" s="47">
+        <f t="shared" si="91"/>
+        <v>0.05</v>
+      </c>
+      <c r="L243" s="59">
+        <f t="shared" si="92"/>
+        <v>-56.051192871514807</v>
+      </c>
+      <c r="M243" s="57">
+        <f t="shared" si="93"/>
+        <v>-56</v>
+      </c>
+      <c r="N243" s="57">
+        <f t="shared" si="94"/>
+        <v>10</v>
+      </c>
+      <c r="T243" s="9" t="str">
+        <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="U242" s="17"/>
-    </row>
-    <row r="243" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T243" s="9" t="str">
-        <f t="shared" si="86"/>
+      <c r="U243" s="17"/>
+      <c r="W243" s="18">
+        <f>[1]!WSD($B243,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X243" s="1">
+        <v>5850063</v>
+      </c>
+    </row>
+    <row r="244" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B244" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D244" s="1">
+        <v>-20</v>
+      </c>
+      <c r="E244" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F244" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G244" s="1">
+        <v>5597</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J244" s="42">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="K244" s="47">
+        <f t="shared" si="91"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L244" s="59">
+        <f t="shared" si="92"/>
+        <v>-17.420237031743195</v>
+      </c>
+      <c r="M244" s="57">
+        <f t="shared" si="93"/>
+        <v>-17</v>
+      </c>
+      <c r="N244" s="57">
+        <f t="shared" si="94"/>
+        <v>3</v>
+      </c>
+      <c r="T244" s="9" t="str">
+        <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="U243" s="17"/>
-    </row>
-    <row r="244" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T244" s="9" t="str">
-        <f t="shared" si="86"/>
+      <c r="U244" s="17"/>
+      <c r="W244" s="18">
+        <f>[1]!WSD($B244,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X244" s="1">
+        <v>5850064</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A245" s="28"/>
+      <c r="B245" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D245" s="6">
+        <v>0</v>
+      </c>
+      <c r="E245" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F245" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G245" s="6">
+        <v>441</v>
+      </c>
+      <c r="H245" s="6"/>
+      <c r="I245" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J245" s="41">
+        <f t="shared" si="89"/>
+        <v>2</v>
+      </c>
+      <c r="K245" s="58">
+        <f t="shared" si="91"/>
+        <v>0.05</v>
+      </c>
+      <c r="L245" s="56">
+        <f t="shared" si="92"/>
+        <v>-44.218178382464096</v>
+      </c>
+      <c r="M245" s="6">
+        <f t="shared" si="93"/>
+        <v>-44</v>
+      </c>
+      <c r="N245" s="6">
+        <f t="shared" si="94"/>
+        <v>-44</v>
+      </c>
+      <c r="O245" s="58"/>
+      <c r="P245" s="58"/>
+      <c r="T245" s="9" t="str">
+        <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="U244" s="17"/>
-    </row>
-    <row r="245" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T245" s="9" t="str">
-        <f t="shared" si="86"/>
+      <c r="U245" s="17"/>
+      <c r="W245" s="18">
+        <f>[1]!WSD($B245,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X245" s="1">
+        <v>5850065</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="L246" s="59"/>
+      <c r="M246" s="57"/>
+      <c r="N246" s="57"/>
+      <c r="T246" s="9" t="str">
+        <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="U245" s="17"/>
-    </row>
-    <row r="246" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T246" s="9" t="str">
-        <f t="shared" si="86"/>
+      <c r="U246" s="17"/>
+      <c r="W246" s="18"/>
+    </row>
+    <row r="247" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J247" s="63"/>
+      <c r="K247" s="64"/>
+      <c r="L247" s="59"/>
+      <c r="M247" s="57"/>
+      <c r="N247" s="57"/>
+      <c r="T247" s="9" t="str">
+        <f t="shared" ref="T247:T268" si="95">IF(Q247="","",D245*(Q247-G247)*W247)</f>
         <v/>
       </c>
-      <c r="U246" s="17"/>
-    </row>
-    <row r="247" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T247" s="9" t="str">
-        <f t="shared" si="86"/>
+      <c r="U247" s="17"/>
+    </row>
+    <row r="248" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J248" s="63"/>
+      <c r="K248" s="64"/>
+      <c r="L248" s="59"/>
+      <c r="M248" s="64"/>
+      <c r="N248" s="64"/>
+      <c r="T248" s="9" t="str">
+        <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="U247" s="17"/>
-    </row>
-    <row r="248" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T248" s="9" t="str">
-        <f t="shared" si="86"/>
+      <c r="U248" s="17"/>
+    </row>
+    <row r="249" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T249" s="9" t="str">
+        <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="U248" s="17"/>
-    </row>
-    <row r="249" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T249" s="9" t="str">
-        <f t="shared" si="86"/>
+      <c r="U249" s="17"/>
+    </row>
+    <row r="250" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T250" s="9" t="str">
+        <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="U249" s="17"/>
-    </row>
-    <row r="250" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T250" s="9" t="str">
-        <f t="shared" si="86"/>
+      <c r="U250" s="17"/>
+    </row>
+    <row r="251" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T251" s="9" t="str">
+        <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="U250" s="17"/>
-    </row>
-    <row r="251" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T251" s="9" t="str">
-        <f t="shared" si="86"/>
+      <c r="U251" s="17"/>
+    </row>
+    <row r="252" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T252" s="9" t="str">
+        <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="U251" s="17"/>
-    </row>
-    <row r="252" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T252" s="9" t="str">
-        <f t="shared" si="86"/>
+      <c r="U252" s="17"/>
+    </row>
+    <row r="253" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T253" s="9" t="str">
+        <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="U252" s="17"/>
-    </row>
-    <row r="253" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T253" s="9" t="str">
-        <f t="shared" si="86"/>
+      <c r="U253" s="17"/>
+    </row>
+    <row r="254" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T254" s="9" t="str">
+        <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="U253" s="17"/>
-    </row>
-    <row r="254" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T254" s="9" t="str">
-        <f t="shared" si="86"/>
+      <c r="U254" s="17"/>
+    </row>
+    <row r="255" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T255" s="9" t="str">
+        <f t="shared" si="95"/>
         <v/>
       </c>
-      <c r="U254" s="17"/>
-    </row>
-    <row r="255" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T255" s="9" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
       <c r="U255" s="17"/>
     </row>
-    <row r="256" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T256" s="9" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
     </row>
     <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T257" s="9" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="U257" s="17"/>
     </row>
     <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T258" s="9" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="U258" s="17"/>
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f t="shared" ref="T269:T300" si="87">IF(Q269="","",D267*(Q269-G269)*W269)</f>
+        <f t="shared" ref="T269:T300" si="96">IF(Q269="","",D267*(Q269-G269)*W269)</f>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" ref="T301:T332" si="88">IF(Q301="","",D299*(Q301-G301)*W301)</f>
+        <f t="shared" ref="T301:T332" si="97">IF(Q301="","",D299*(Q301-G301)*W301)</f>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" ref="T333:T364" si="89">IF(Q333="","",D331*(Q333-G333)*W333)</f>
+        <f t="shared" ref="T333:T348" si="98">IF(Q333="","",D331*(Q333-G333)*W333)</f>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="U347" s="17"/>
     </row>
     <row r="348" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T348" s="9" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="U348" s="17"/>
@@ -35733,20 +36344,20 @@
         <v>13</v>
       </c>
       <c r="E1" s="52"/>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63" t="s">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B2" s="20" t="s">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -1042,10 +1042,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$41</c:f>
+              <c:f>净值!$A$5:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1157,15 +1157,18 @@
                 <c:pt idx="36">
                   <c:v>43189</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43192</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$C$5:$C$41</c:f>
+              <c:f>净值!$C$5:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0.99739509684390792</c:v>
                 </c:pt>
@@ -1277,6 +1280,9 @@
                 <c:pt idx="36" formatCode="General">
                   <c:v>1.0240222424007004</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0055475747671798</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1291,11 +1297,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="300486064"/>
-        <c:axId val="300655456"/>
+        <c:axId val="503191648"/>
+        <c:axId val="503192208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="300486064"/>
+        <c:axId val="503191648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,14 +1344,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300655456"/>
+        <c:crossAx val="503192208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="300655456"/>
+        <c:axId val="503192208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +1402,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300486064"/>
+        <c:crossAx val="503191648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2347,7 +2353,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2400,7 +2406,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C41" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C42" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2839,6 +2845,13 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>43192</v>
+      </c>
+      <c r="B42" s="4">
+        <v>5635522</v>
+      </c>
+      <c r="C42" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0055475747671798</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="160">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -631,6 +631,26 @@
     <t>I1805</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>J1805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -750,7 +770,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -923,9 +943,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1042,10 +1059,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$42</c:f>
+              <c:f>净值!$A$5:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1160,15 +1177,21 @@
                 <c:pt idx="37">
                   <c:v>43192</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43193</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43194</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$C$5:$C$42</c:f>
+              <c:f>净值!$C$5:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0.99739509684390792</c:v>
                 </c:pt>
@@ -1283,6 +1306,12 @@
                 <c:pt idx="37">
                   <c:v>1.0055475747671798</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0055939666310461</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0054562184814122</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1297,11 +1326,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="503191648"/>
-        <c:axId val="503192208"/>
+        <c:axId val="502597296"/>
+        <c:axId val="502597856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="503191648"/>
+        <c:axId val="502597296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1344,14 +1373,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503192208"/>
+        <c:crossAx val="502597856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503192208"/>
+        <c:axId val="502597856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,7 +1431,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503191648"/>
+        <c:crossAx val="502597296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2352,8 +2381,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2406,7 +2435,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C42" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C44" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2858,10 +2887,24 @@
       <c r="A43" s="3">
         <v>43193</v>
       </c>
+      <c r="B43" s="4">
+        <v>5635782</v>
+      </c>
+      <c r="C43" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0055939666310461</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>43194</v>
+      </c>
+      <c r="B44" s="4">
+        <v>5635010</v>
+      </c>
+      <c r="C44" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0054562184814122</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -2922,8 +2965,8 @@
   <dimension ref="A1:AG6645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I232" sqref="I232"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y251" sqref="Y251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16223,7 +16266,7 @@
         <v>31</v>
       </c>
       <c r="J237" s="42">
-        <f t="shared" ref="J237:J245" si="89">IF(I237="N",1,IF(C237=I237,2,0.5))</f>
+        <f t="shared" ref="J237:J255" si="89">IF(I237="N",1,IF(C237=I237,2,0.5))</f>
         <v>1</v>
       </c>
       <c r="K237" s="47">
@@ -16510,11 +16553,11 @@
         <v>-39.394356902356904</v>
       </c>
       <c r="M242" s="57">
-        <f t="shared" ref="M242:M245" si="93">ROUND(L242,0)</f>
+        <f t="shared" ref="M242:M251" si="93">ROUND(L242,0)</f>
         <v>-39</v>
       </c>
       <c r="N242" s="57">
-        <f t="shared" ref="N242:N245" si="94">M242-D242</f>
+        <f t="shared" ref="N242:N251" si="94">M242-D242</f>
         <v>6</v>
       </c>
       <c r="T242" s="9" t="str">
@@ -16700,736 +16743,1209 @@
       </c>
     </row>
     <row r="246" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L246" s="59"/>
-      <c r="M246" s="57"/>
-      <c r="N246" s="57"/>
+      <c r="A246" s="27">
+        <v>43194</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D246" s="1">
+        <v>125</v>
+      </c>
+      <c r="E246" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F246" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G246" s="1">
+        <v>1776</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J246" s="42">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="K246" s="47">
+        <f>SUM($F$246:$F$250)/SUM($J$246:$J$250)*J246</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L246" s="59">
+        <f>(X246*K246)/(W246*G246*0.15)</f>
+        <v>141.19119119119119</v>
+      </c>
+      <c r="M246" s="57">
+        <f t="shared" si="93"/>
+        <v>141</v>
+      </c>
+      <c r="N246" s="57">
+        <f t="shared" si="94"/>
+        <v>16</v>
+      </c>
       <c r="T246" s="9" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="U246" s="17"/>
-      <c r="W246" s="18"/>
+      <c r="W246" s="18">
+        <f>[1]!WSD($B246,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X246" s="1">
+        <v>5642000</v>
+      </c>
     </row>
     <row r="247" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="J247" s="63"/>
-      <c r="K247" s="64"/>
-      <c r="L247" s="59"/>
-      <c r="M247" s="57"/>
-      <c r="N247" s="57"/>
+      <c r="B247" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D247" s="1">
+        <v>81</v>
+      </c>
+      <c r="E247" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F247" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G247" s="1">
+        <v>1390</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J247" s="63">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="K247" s="47">
+        <f t="shared" ref="K247:K250" si="95">SUM($F$246:$F$250)/SUM($J$246:$J$250)*J247</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L247" s="59">
+        <f>(X247*K247)/(W247*G247*0.15)</f>
+        <v>45.099920063948836</v>
+      </c>
+      <c r="M247" s="57">
+        <f t="shared" si="93"/>
+        <v>45</v>
+      </c>
+      <c r="N247" s="57">
+        <f t="shared" si="94"/>
+        <v>-36</v>
+      </c>
       <c r="T247" s="9" t="str">
-        <f t="shared" ref="T247:T268" si="95">IF(Q247="","",D245*(Q247-G247)*W247)</f>
+        <f t="shared" ref="T247:T256" si="96">IF(Q247="","",D245*(Q247-G246)*W247)</f>
         <v/>
       </c>
       <c r="U247" s="17"/>
+      <c r="W247" s="18">
+        <f>[1]!WSD($B247,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>20</v>
+      </c>
+      <c r="X247" s="1">
+        <v>5642000</v>
+      </c>
     </row>
     <row r="248" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="J248" s="63"/>
-      <c r="K248" s="64"/>
-      <c r="L248" s="59"/>
-      <c r="M248" s="64"/>
-      <c r="N248" s="64"/>
+      <c r="B248" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D248" s="1">
+        <v>10</v>
+      </c>
+      <c r="E248" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F248" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G248" s="1">
+        <v>11070</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J248" s="63">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="K248" s="47">
+        <f t="shared" si="95"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L248" s="59">
+        <f>(X248*K248)/(W248*G248*0.15)</f>
+        <v>11.325905851651109</v>
+      </c>
+      <c r="M248" s="57">
+        <f t="shared" si="93"/>
+        <v>11</v>
+      </c>
+      <c r="N248" s="57">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
       <c r="T248" s="9" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="U248" s="17"/>
+      <c r="W248" s="18">
+        <f>[1]!WSD($B248,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X248" s="1">
+        <v>5642000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B249" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D249" s="1">
+        <v>41</v>
+      </c>
+      <c r="E249" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F249" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G249" s="1">
+        <v>5456</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J249" s="42">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="K249" s="47">
         <f t="shared" si="95"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L249" s="59">
+        <f>(X249*K249)/(W249*G249*0.15)</f>
+        <v>45.959595959595958</v>
+      </c>
+      <c r="M249" s="57">
+        <f t="shared" si="93"/>
+        <v>46</v>
+      </c>
+      <c r="N249" s="57">
+        <f t="shared" si="94"/>
+        <v>5</v>
+      </c>
+      <c r="T249" s="9" t="str">
+        <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="U248" s="17"/>
-    </row>
-    <row r="249" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T249" s="9" t="str">
+      <c r="U249" s="17"/>
+      <c r="W249" s="18">
+        <f>[1]!WSD($B249,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X249" s="1">
+        <v>5642000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B250" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D250" s="1">
+        <v>19</v>
+      </c>
+      <c r="E250" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F250" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G250" s="1">
+        <v>564.20000000000005</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J250" s="42">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="K250" s="47">
         <f t="shared" si="95"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L250" s="59">
+        <f>(X250*K250)/(W250*G250*0.15)</f>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="M250" s="57">
+        <f t="shared" si="93"/>
+        <v>22</v>
+      </c>
+      <c r="N250" s="57">
+        <f t="shared" si="94"/>
+        <v>3</v>
+      </c>
+      <c r="T250" s="9" t="str">
+        <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="U249" s="17"/>
-    </row>
-    <row r="250" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T250" s="9" t="str">
-        <f t="shared" si="95"/>
+      <c r="U250" s="17"/>
+      <c r="W250" s="18">
+        <f>[1]!WSD($B250,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X250" s="1">
+        <v>5642000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B251" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D251" s="1">
+        <v>-39</v>
+      </c>
+      <c r="E251" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F251" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G251" s="1">
+        <v>5094</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J251" s="42">
+        <f t="shared" si="89"/>
+        <v>2</v>
+      </c>
+      <c r="K251" s="47">
+        <f>SUM($F$251:$F$255)/SUM($J$251:$J$255)*J251</f>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="L251" s="59">
+        <f>-(X251*K251)/(W251*G251*0.15)</f>
+        <v>-39.380534834009509</v>
+      </c>
+      <c r="M251" s="57">
+        <f t="shared" si="93"/>
+        <v>-39</v>
+      </c>
+      <c r="N251" s="57">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="T251" s="9" t="str">
+        <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="U250" s="17"/>
-    </row>
-    <row r="251" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T251" s="9" t="str">
-        <f t="shared" si="95"/>
+      <c r="U251" s="17"/>
+      <c r="W251" s="18">
+        <f>[1]!WSD($B251,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X251" s="1">
+        <v>5642000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B252" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D252" s="1">
+        <v>-39</v>
+      </c>
+      <c r="E252" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F252" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G252" s="1">
+        <v>2568</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J252" s="42">
+        <f t="shared" si="89"/>
+        <v>0.5</v>
+      </c>
+      <c r="K252" s="47">
+        <f t="shared" ref="K252:K255" si="97">SUM($F$251:$F$255)/SUM($J$251:$J$255)*J252</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="L252" s="59">
+        <f t="shared" ref="L252:L255" si="98">-(X252*K252)/(W252*G252*0.15)</f>
+        <v>-19.529248875043269</v>
+      </c>
+      <c r="M252" s="57">
+        <f t="shared" ref="M252:M255" si="99">ROUND(L252,0)</f>
+        <v>-20</v>
+      </c>
+      <c r="N252" s="57">
+        <f t="shared" ref="N252:N255" si="100">M252-D252</f>
+        <v>19</v>
+      </c>
+      <c r="T252" s="9" t="str">
+        <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="U251" s="17"/>
-    </row>
-    <row r="252" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T252" s="9" t="str">
-        <f t="shared" si="95"/>
+      <c r="U252" s="17"/>
+      <c r="W252" s="18">
+        <f>[1]!WSD($B252,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X252" s="1">
+        <v>5642000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B253" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D253" s="1">
+        <v>-56</v>
+      </c>
+      <c r="E253" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F253" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G253" s="1">
+        <v>3599</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J253" s="42">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="K253" s="47">
+        <f t="shared" si="97"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="L253" s="59">
+        <f t="shared" si="98"/>
+        <v>-27.869469914482419</v>
+      </c>
+      <c r="M253" s="57">
+        <f t="shared" si="99"/>
+        <v>-28</v>
+      </c>
+      <c r="N253" s="57">
+        <f t="shared" si="100"/>
+        <v>28</v>
+      </c>
+      <c r="T253" s="9" t="str">
+        <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="U252" s="17"/>
-    </row>
-    <row r="253" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T253" s="9" t="str">
-        <f t="shared" si="95"/>
+      <c r="U253" s="17"/>
+      <c r="W253" s="18">
+        <f>[1]!WSD($B253,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X253" s="1">
+        <v>5642000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B254" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D254" s="1">
+        <v>0</v>
+      </c>
+      <c r="E254" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F254" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G254" s="1">
+        <v>1872.5</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J254" s="42">
+        <f t="shared" si="89"/>
+        <v>2</v>
+      </c>
+      <c r="K254" s="47">
+        <f t="shared" si="97"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="L254" s="59">
+        <f t="shared" si="98"/>
+        <v>-10.713187954309451</v>
+      </c>
+      <c r="M254" s="57">
+        <f t="shared" si="99"/>
+        <v>-11</v>
+      </c>
+      <c r="N254" s="57">
+        <f t="shared" si="100"/>
+        <v>-11</v>
+      </c>
+      <c r="T254" s="9" t="str">
+        <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="U253" s="17"/>
-    </row>
-    <row r="254" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T254" s="9" t="str">
-        <f t="shared" si="95"/>
+      <c r="U254" s="17"/>
+      <c r="W254" s="18">
+        <f>[1]!WSD($B254,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X254" s="1">
+        <v>5642000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A255" s="28"/>
+      <c r="B255" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D255" s="6">
+        <v>-44</v>
+      </c>
+      <c r="E255" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F255" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G255" s="6">
+        <v>441</v>
+      </c>
+      <c r="H255" s="6"/>
+      <c r="I255" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J255" s="41">
+        <f t="shared" si="89"/>
+        <v>2</v>
+      </c>
+      <c r="K255" s="58">
+        <f t="shared" si="97"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="L255" s="56">
+        <f t="shared" si="98"/>
+        <v>-45.488536155202823</v>
+      </c>
+      <c r="M255" s="6">
+        <f t="shared" si="99"/>
+        <v>-45</v>
+      </c>
+      <c r="N255" s="6">
+        <f t="shared" si="100"/>
+        <v>-1</v>
+      </c>
+      <c r="O255" s="58"/>
+      <c r="P255" s="58"/>
+      <c r="T255" s="9" t="str">
+        <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="U254" s="17"/>
-    </row>
-    <row r="255" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T255" s="9" t="str">
-        <f t="shared" si="95"/>
-        <v/>
-      </c>
       <c r="U255" s="17"/>
+      <c r="W255" s="18">
+        <f>[1]!WSD($B255,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X255" s="1">
+        <v>5642000</v>
+      </c>
     </row>
     <row r="256" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T256" s="9" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
     </row>
     <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T257" s="9" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" ref="T257:T268" si="101">IF(Q257="","",D255*(Q257-G257)*W257)</f>
         <v/>
       </c>
       <c r="U257" s="17"/>
     </row>
     <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T258" s="9" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="U258" s="17"/>
     </row>
     <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T259" s="9" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="U259" s="17"/>
     </row>
     <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T260" s="9" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="U260" s="17"/>
     </row>
     <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T261" s="9" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="U261" s="17"/>
     </row>
     <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T262" s="9" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="U262" s="17"/>
     </row>
     <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T263" s="9" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="U263" s="17"/>
     </row>
     <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T264" s="9" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="U264" s="17"/>
     </row>
     <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T265" s="9" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="U265" s="17"/>
     </row>
     <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T266" s="9" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="U266" s="17"/>
     </row>
     <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T267" s="9" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="U267" s="17"/>
     </row>
     <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T268" s="9" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="U268" s="17"/>
     </row>
     <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T269" s="9" t="str">
-        <f t="shared" ref="T269:T300" si="96">IF(Q269="","",D267*(Q269-G269)*W269)</f>
+        <f t="shared" ref="T269:T300" si="102">IF(Q269="","",D267*(Q269-G269)*W269)</f>
         <v/>
       </c>
       <c r="U269" s="17"/>
     </row>
     <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T270" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U270" s="17"/>
     </row>
     <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T271" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U271" s="17"/>
     </row>
     <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" ref="T301:T332" si="97">IF(Q301="","",D299*(Q301-G301)*W301)</f>
+        <f t="shared" ref="T301:T332" si="103">IF(Q301="","",D299*(Q301-G301)*W301)</f>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" ref="T333:T348" si="98">IF(Q333="","",D331*(Q333-G333)*W333)</f>
+        <f t="shared" ref="T333:T348" si="104">IF(Q333="","",D331*(Q333-G333)*W333)</f>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="U347" s="17"/>
     </row>
     <row r="348" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T348" s="9" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="U348" s="17"/>
@@ -36357,20 +36873,20 @@
         <v>13</v>
       </c>
       <c r="E1" s="52"/>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65" t="s">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B2" s="20" t="s">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -1059,10 +1059,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$44</c:f>
+              <c:f>净值!$A$5:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1183,15 +1183,18 @@
                 <c:pt idx="39">
                   <c:v>43194</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>43199</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$C$5:$C$44</c:f>
+              <c:f>净值!$C$5:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0.99739509684390792</c:v>
                 </c:pt>
@@ -1312,6 +1315,9 @@
                 <c:pt idx="39">
                   <c:v>1.0054562184814122</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.99406523159978244</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1326,11 +1332,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="502597296"/>
-        <c:axId val="502597856"/>
+        <c:axId val="506947856"/>
+        <c:axId val="506951776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502597296"/>
+        <c:axId val="506947856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,14 +1379,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502597856"/>
+        <c:crossAx val="506951776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502597856"/>
+        <c:axId val="506951776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1437,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502597296"/>
+        <c:crossAx val="506947856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2379,10 +2385,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2435,7 +2441,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C44" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C45" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2896,58 +2902,53 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="A44" s="14">
         <v>43194</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="48">
         <v>5635010</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="60">
         <f t="shared" si="0"/>
         <v>1.0054562184814122</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
-        <v>43195</v>
+        <v>43199</v>
+      </c>
+      <c r="B45" s="4">
+        <v>5571170</v>
+      </c>
+      <c r="C45" s="51">
+        <f t="shared" si="0"/>
+        <v>0.99406523159978244</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="14">
-        <v>43196</v>
-      </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="28"/>
+      <c r="A46" s="3">
+        <v>43200</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
-        <v>43199</v>
+        <v>43201</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
-        <v>43200</v>
+        <v>43202</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
-        <v>43201</v>
-      </c>
+      <c r="A49" s="14">
+        <v>43203</v>
+      </c>
+      <c r="B49" s="48"/>
+      <c r="C49" s="28"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
-        <v>43202</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="14">
-        <v>43203</v>
-      </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="28"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
         <v>43204</v>
       </c>
     </row>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -1059,10 +1059,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$45</c:f>
+              <c:f>净值!$A$5:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1186,15 +1186,18 @@
                 <c:pt idx="40">
                   <c:v>43199</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>43200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$C$5:$C$45</c:f>
+              <c:f>净值!$C$5:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0.99739509684390792</c:v>
                 </c:pt>
@@ -1318,6 +1321,9 @@
                 <c:pt idx="40">
                   <c:v>0.99406523159978244</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.98877120621165648</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1332,11 +1338,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="506947856"/>
-        <c:axId val="506951776"/>
+        <c:axId val="307316736"/>
+        <c:axId val="505708608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506947856"/>
+        <c:axId val="307316736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,14 +1385,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506951776"/>
+        <c:crossAx val="505708608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506951776"/>
+        <c:axId val="505708608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,7 +1443,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506947856"/>
+        <c:crossAx val="307316736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2388,7 +2394,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2441,7 +2447,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C45" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C46" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2928,6 +2934,13 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>43200</v>
+      </c>
+      <c r="B46" s="4">
+        <v>5541500</v>
+      </c>
+      <c r="C46" s="51">
+        <f t="shared" si="0"/>
+        <v>0.98877120621165648</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="163">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -651,6 +651,18 @@
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>BU1806</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JM1805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RM805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1059,10 +1071,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$46</c:f>
+              <c:f>净值!$A$5:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1189,15 +1201,18 @@
                 <c:pt idx="41">
                   <c:v>43200</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43201</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$C$5:$C$46</c:f>
+              <c:f>净值!$C$5:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0.99739509684390792</c:v>
                 </c:pt>
@@ -1324,6 +1339,9 @@
                 <c:pt idx="41">
                   <c:v>0.98877120621165648</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0094669735428985</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1338,11 +1356,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="307316736"/>
-        <c:axId val="505708608"/>
+        <c:axId val="685109968"/>
+        <c:axId val="685110528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="307316736"/>
+        <c:axId val="685109968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,14 +1403,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505708608"/>
+        <c:crossAx val="685110528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="505708608"/>
+        <c:axId val="685110528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,7 +1461,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307316736"/>
+        <c:crossAx val="685109968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2394,7 +2412,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2447,7 +2465,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C46" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C47" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2946,6 +2964,13 @@
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>43201</v>
+      </c>
+      <c r="B47" s="4">
+        <v>5657488</v>
+      </c>
+      <c r="C47" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0094669735428985</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -2979,8 +3004,8 @@
   <dimension ref="A1:AG6645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y251" sqref="Y251"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M260" sqref="M260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17124,11 +17149,11 @@
         <v>-19.529248875043269</v>
       </c>
       <c r="M252" s="57">
-        <f t="shared" ref="M252:M255" si="99">ROUND(L252,0)</f>
+        <f t="shared" ref="M252:M261" si="99">ROUND(L252,0)</f>
         <v>-20</v>
       </c>
       <c r="N252" s="57">
-        <f t="shared" ref="N252:N255" si="100">M252-D252</f>
+        <f t="shared" ref="N252:N261" si="100">M252-D252</f>
         <v>19</v>
       </c>
       <c r="T252" s="9" t="str">
@@ -17314,652 +17339,1139 @@
       </c>
     </row>
     <row r="256" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A256" s="27">
+        <v>43194</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D256" s="1">
+        <v>141</v>
+      </c>
+      <c r="E256" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F256" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G256" s="1">
+        <v>1756</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J256" s="42">
+        <f t="shared" ref="J256:J265" si="101">IF(I256="N",1,IF(C256=I256,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K256" s="47">
+        <f>SUM($F$256:$F$260)/SUM($J$256:$J$260)*J256</f>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="L256" s="59">
+        <f>(X256*K256)/(W256*G256*0.15)</f>
+        <v>93.580696869990717</v>
+      </c>
+      <c r="M256" s="57">
+        <f t="shared" si="99"/>
+        <v>94</v>
+      </c>
+      <c r="N256" s="57">
+        <f t="shared" si="100"/>
+        <v>-47</v>
+      </c>
       <c r="T256" s="9" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="U256" s="17"/>
-    </row>
-    <row r="257" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W256" s="18">
+        <f>[1]!WSD($B256,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X256" s="1">
+        <v>5546060</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B257" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D257" s="1">
+        <v>45</v>
+      </c>
+      <c r="E257" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F257" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G257" s="1">
+        <v>1386</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J257" s="63">
+        <f t="shared" si="101"/>
+        <v>0.5</v>
+      </c>
+      <c r="K257" s="47">
+        <f t="shared" ref="K257:K260" si="102">SUM($F$256:$F$260)/SUM($J$256:$J$260)*J257</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="L257" s="59">
+        <f>(X257*K257)/(W257*G257*0.15)</f>
+        <v>29.640639196194751</v>
+      </c>
+      <c r="M257" s="57">
+        <f t="shared" si="99"/>
+        <v>30</v>
+      </c>
+      <c r="N257" s="57">
+        <f t="shared" si="100"/>
+        <v>-15</v>
+      </c>
       <c r="T257" s="9" t="str">
-        <f t="shared" ref="T257:T268" si="101">IF(Q257="","",D255*(Q257-G257)*W257)</f>
+        <f t="shared" ref="T257:T265" si="103">IF(Q257="","",D255*(Q257-G256)*W257)</f>
         <v/>
       </c>
       <c r="U257" s="17"/>
-    </row>
-    <row r="258" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W257" s="18">
+        <f>[1]!WSD($B257,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>20</v>
+      </c>
+      <c r="X257" s="1">
+        <v>5546060</v>
+      </c>
+    </row>
+    <row r="258" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B258" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D258" s="1">
+        <v>11</v>
+      </c>
+      <c r="E258" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F258" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G258" s="1">
+        <v>11185</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J258" s="63">
+        <f t="shared" si="101"/>
+        <v>0.5</v>
+      </c>
+      <c r="K258" s="47">
+        <f t="shared" si="102"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="L258" s="59">
+        <f>(X258*K258)/(W258*G258*0.15)</f>
+        <v>7.3458964552393251</v>
+      </c>
+      <c r="M258" s="57">
+        <f t="shared" si="99"/>
+        <v>7</v>
+      </c>
+      <c r="N258" s="57">
+        <f t="shared" si="100"/>
+        <v>-4</v>
+      </c>
       <c r="T258" s="9" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="U258" s="17"/>
+      <c r="W258" s="18">
+        <f>[1]!WSD($B258,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X258" s="1">
+        <v>5546060</v>
+      </c>
+    </row>
+    <row r="259" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B259" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D259" s="1">
+        <v>46</v>
+      </c>
+      <c r="E259" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F259" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G259" s="1">
+        <v>5420</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J259" s="42">
         <f t="shared" si="101"/>
+        <v>0.5</v>
+      </c>
+      <c r="K259" s="47">
+        <f t="shared" si="102"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="L259" s="59">
+        <f>(X259*K259)/(W259*G259*0.15)</f>
+        <v>30.318764520978544</v>
+      </c>
+      <c r="M259" s="57">
+        <f t="shared" si="99"/>
+        <v>30</v>
+      </c>
+      <c r="N259" s="57">
+        <f t="shared" si="100"/>
+        <v>-16</v>
+      </c>
+      <c r="T259" s="9" t="str">
+        <f t="shared" si="103"/>
         <v/>
       </c>
-      <c r="U258" s="17"/>
-    </row>
-    <row r="259" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T259" s="9" t="str">
+      <c r="U259" s="17"/>
+      <c r="W259" s="18">
+        <f>[1]!WSD($B259,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X259" s="1">
+        <v>5546060</v>
+      </c>
+    </row>
+    <row r="260" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B260" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D260" s="1">
+        <v>0</v>
+      </c>
+      <c r="E260" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F260" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G260" s="1">
+        <v>2814</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J260" s="42">
         <f t="shared" si="101"/>
+        <v>2</v>
+      </c>
+      <c r="K260" s="47">
+        <f t="shared" si="102"/>
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="L260" s="59">
+        <f>(X260*K260)/(W260*G260*0.15)</f>
+        <v>116.7929663850062</v>
+      </c>
+      <c r="M260" s="57">
+        <f t="shared" si="99"/>
+        <v>117</v>
+      </c>
+      <c r="N260" s="57">
+        <f t="shared" si="100"/>
+        <v>117</v>
+      </c>
+      <c r="T260" s="9" t="str">
+        <f t="shared" si="103"/>
         <v/>
       </c>
-      <c r="U259" s="17"/>
-    </row>
-    <row r="260" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T260" s="9" t="str">
+      <c r="U260" s="17"/>
+      <c r="W260" s="18">
+        <f>[1]!WSD($B260,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X260" s="1">
+        <v>5546060</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B261" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D261" s="1">
+        <v>0</v>
+      </c>
+      <c r="E261" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F261" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G261" s="1">
+        <v>1284.5</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J261" s="42">
         <f t="shared" si="101"/>
+        <v>2</v>
+      </c>
+      <c r="K261" s="47">
+        <f>SUM($F$261:$F$265)/SUM($J$261:$J$265)*J261</f>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="L261" s="59">
+        <f>-(X261*K261)/(W261*G261*0.15)</f>
+        <v>-25.586252036388277</v>
+      </c>
+      <c r="M261" s="57">
+        <f t="shared" si="99"/>
+        <v>-26</v>
+      </c>
+      <c r="N261" s="57">
+        <f t="shared" si="100"/>
+        <v>-26</v>
+      </c>
+      <c r="T261" s="9" t="str">
+        <f t="shared" si="103"/>
         <v/>
       </c>
-      <c r="U260" s="17"/>
-    </row>
-    <row r="261" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T261" s="9" t="str">
+      <c r="U261" s="17"/>
+      <c r="W261" s="18">
+        <f>[1]!WSD($B261,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X261" s="1">
+        <v>5546060</v>
+      </c>
+    </row>
+    <row r="262" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B262" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D262" s="1">
+        <v>-20</v>
+      </c>
+      <c r="E262" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F262" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G262" s="1">
+        <v>2674</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J262" s="42">
         <f t="shared" si="101"/>
+        <v>0.5</v>
+      </c>
+      <c r="K262" s="47">
+        <f t="shared" ref="K262:K265" si="104">SUM($F$261:$F$265)/SUM($J$261:$J$265)*J262</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="L262" s="59">
+        <f>-(X262*K262)/(W262*G262*0.15)</f>
+        <v>-18.436167206847838</v>
+      </c>
+      <c r="M262" s="57">
+        <f t="shared" ref="M262:M265" si="105">ROUND(L262,0)</f>
+        <v>-18</v>
+      </c>
+      <c r="N262" s="57">
+        <f t="shared" ref="N262:N265" si="106">M262-D262</f>
+        <v>2</v>
+      </c>
+      <c r="T262" s="9" t="str">
+        <f t="shared" si="103"/>
         <v/>
       </c>
-      <c r="U261" s="17"/>
-    </row>
-    <row r="262" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T262" s="9" t="str">
+      <c r="U262" s="17"/>
+      <c r="W262" s="18">
+        <f>[1]!WSD($B262,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X262" s="1">
+        <v>5546060</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B263" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D263" s="1">
+        <v>-28</v>
+      </c>
+      <c r="E263" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F263" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G263" s="1">
+        <v>3669</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J263" s="42">
         <f t="shared" si="101"/>
+        <v>1</v>
+      </c>
+      <c r="K263" s="47">
+        <f t="shared" si="104"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="L263" s="59">
+        <f>-(X263*K263)/(W263*G263*0.15)</f>
+        <v>-26.872886950728326</v>
+      </c>
+      <c r="M263" s="57">
+        <f t="shared" si="105"/>
+        <v>-27</v>
+      </c>
+      <c r="N263" s="57">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="T263" s="9" t="str">
+        <f t="shared" si="103"/>
         <v/>
       </c>
-      <c r="U262" s="17"/>
-    </row>
-    <row r="263" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T263" s="9" t="str">
+      <c r="U263" s="17"/>
+      <c r="W263" s="18">
+        <f>[1]!WSD($B263,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X263" s="1">
+        <v>5546060</v>
+      </c>
+    </row>
+    <row r="264" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B264" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D264" s="1">
+        <v>-11</v>
+      </c>
+      <c r="E264" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F264" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G264" s="1">
+        <v>1876.5</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J264" s="42">
         <f t="shared" si="101"/>
+        <v>2</v>
+      </c>
+      <c r="K264" s="47">
+        <f t="shared" si="104"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="L264" s="59">
+        <f>-(X264*K264)/(W264*G264*0.15)</f>
+        <v>-10.508566184089766</v>
+      </c>
+      <c r="M264" s="57">
+        <f t="shared" si="105"/>
+        <v>-11</v>
+      </c>
+      <c r="N264" s="57">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="T264" s="9" t="str">
+        <f t="shared" si="103"/>
         <v/>
       </c>
-      <c r="U263" s="17"/>
-    </row>
-    <row r="264" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T264" s="9" t="str">
+      <c r="U264" s="17"/>
+      <c r="W264" s="18">
+        <f>[1]!WSD($B264,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X264" s="1">
+        <v>5546060</v>
+      </c>
+    </row>
+    <row r="265" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A265" s="28"/>
+      <c r="B265" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D265" s="6">
+        <v>-45</v>
+      </c>
+      <c r="E265" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F265" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G265" s="6">
+        <v>441</v>
+      </c>
+      <c r="H265" s="6"/>
+      <c r="I265" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J265" s="41">
         <f t="shared" si="101"/>
+        <v>2</v>
+      </c>
+      <c r="K265" s="47">
+        <f t="shared" si="104"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="L265" s="56">
+        <f>-(X265*K265)/(W265*G265*0.15)</f>
+        <v>-44.715021415973801</v>
+      </c>
+      <c r="M265" s="6">
+        <f t="shared" si="105"/>
+        <v>-45</v>
+      </c>
+      <c r="N265" s="6">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="O265" s="58"/>
+      <c r="P265" s="58"/>
+      <c r="T265" s="9" t="str">
+        <f t="shared" si="103"/>
         <v/>
       </c>
-      <c r="U264" s="17"/>
-    </row>
-    <row r="265" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T265" s="9" t="str">
-        <f t="shared" si="101"/>
+      <c r="U265" s="17"/>
+      <c r="W265" s="18">
+        <f>[1]!WSD($B265,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X265" s="1">
+        <v>5546060</v>
+      </c>
+    </row>
+    <row r="266" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T266" s="9" t="str">
+        <f>IF(Q266="","",D264*(Q266-G266)*W266)</f>
         <v/>
       </c>
-      <c r="U265" s="17"/>
-    </row>
-    <row r="266" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T266" s="9" t="str">
-        <f t="shared" si="101"/>
+      <c r="U266" s="17"/>
+    </row>
+    <row r="267" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T267" s="9" t="str">
+        <f t="shared" ref="T267:T268" si="107">IF(Q267="","",D265*(Q267-G267)*W267)</f>
         <v/>
       </c>
-      <c r="U266" s="17"/>
-    </row>
-    <row r="267" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T267" s="9" t="str">
-        <f t="shared" si="101"/>
+      <c r="U267" s="17"/>
+    </row>
+    <row r="268" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T268" s="9" t="str">
+        <f t="shared" si="107"/>
         <v/>
       </c>
-      <c r="U267" s="17"/>
-    </row>
-    <row r="268" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T268" s="9" t="str">
-        <f t="shared" si="101"/>
+      <c r="U268" s="17"/>
+    </row>
+    <row r="269" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T269" s="9" t="str">
+        <f t="shared" ref="T269:T300" si="108">IF(Q269="","",D267*(Q269-G269)*W269)</f>
         <v/>
       </c>
-      <c r="U268" s="17"/>
-    </row>
-    <row r="269" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T269" s="9" t="str">
-        <f t="shared" ref="T269:T300" si="102">IF(Q269="","",D267*(Q269-G269)*W269)</f>
+      <c r="U269" s="17"/>
+    </row>
+    <row r="270" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T270" s="9" t="str">
+        <f t="shared" si="108"/>
         <v/>
       </c>
-      <c r="U269" s="17"/>
-    </row>
-    <row r="270" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T270" s="9" t="str">
-        <f t="shared" si="102"/>
+      <c r="U270" s="17"/>
+    </row>
+    <row r="271" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T271" s="9" t="str">
+        <f t="shared" si="108"/>
         <v/>
       </c>
-      <c r="U270" s="17"/>
-    </row>
-    <row r="271" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T271" s="9" t="str">
-        <f t="shared" si="102"/>
-        <v/>
-      </c>
       <c r="U271" s="17"/>
     </row>
-    <row r="272" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T272" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U272" s="17"/>
     </row>
     <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T273" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U273" s="17"/>
     </row>
     <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T274" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U274" s="17"/>
     </row>
     <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T275" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U275" s="17"/>
     </row>
     <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T276" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U276" s="17"/>
     </row>
     <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T277" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U277" s="17"/>
     </row>
     <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T278" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U278" s="17"/>
     </row>
     <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T279" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U279" s="17"/>
     </row>
     <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T280" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U280" s="17"/>
     </row>
     <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T281" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U281" s="17"/>
     </row>
     <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T282" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U282" s="17"/>
     </row>
     <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T283" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U283" s="17"/>
     </row>
     <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T284" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U284" s="17"/>
     </row>
     <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T285" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U285" s="17"/>
     </row>
     <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T286" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T287" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U287" s="17"/>
     </row>
     <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" ref="T301:T332" si="103">IF(Q301="","",D299*(Q301-G301)*W301)</f>
+        <f t="shared" ref="T301:T332" si="109">IF(Q301="","",D299*(Q301-G301)*W301)</f>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" ref="T333:T348" si="104">IF(Q333="","",D331*(Q333-G333)*W333)</f>
+        <f t="shared" ref="T333:T348" si="110">IF(Q333="","",D331*(Q333-G333)*W333)</f>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U347" s="17"/>
     </row>
     <row r="348" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T348" s="9" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U348" s="17"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -1071,10 +1071,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$47</c:f>
+              <c:f>净值!$A$5:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1204,15 +1204,18 @@
                 <c:pt idx="42">
                   <c:v>43201</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>43202</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$C$5:$C$47</c:f>
+              <c:f>净值!$C$5:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0.99739509684390792</c:v>
                 </c:pt>
@@ -1342,6 +1345,9 @@
                 <c:pt idx="42">
                   <c:v>1.0094669735428985</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0236468251638748</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1356,11 +1362,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="685109968"/>
-        <c:axId val="685110528"/>
+        <c:axId val="306977920"/>
+        <c:axId val="306981840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="685109968"/>
+        <c:axId val="306977920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,14 +1409,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685110528"/>
+        <c:crossAx val="306981840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="685110528"/>
+        <c:axId val="306981840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,7 +1467,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685109968"/>
+        <c:crossAx val="306977920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2411,8 +2417,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2465,7 +2471,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C47" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C48" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2976,6 +2982,13 @@
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>43202</v>
+      </c>
+      <c r="B48" s="4">
+        <v>5736958</v>
+      </c>
+      <c r="C48" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0236468251638748</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="163">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -668,10 +668,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -782,7 +783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -955,6 +956,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1071,10 +1078,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$48</c:f>
+              <c:f>净值!$A$5:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1207,15 +1214,18 @@
                 <c:pt idx="43">
                   <c:v>43202</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>43203</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$C$5:$C$48</c:f>
+              <c:f>净值!$C$5:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0.99739509684390792</c:v>
                 </c:pt>
@@ -1348,6 +1358,9 @@
                 <c:pt idx="43">
                   <c:v>1.0236468251638748</c:v>
                 </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>1.0157495024918677</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1362,11 +1375,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="306977920"/>
-        <c:axId val="306981840"/>
+        <c:axId val="744213056"/>
+        <c:axId val="744213616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="306977920"/>
+        <c:axId val="744213056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,14 +1422,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306981840"/>
+        <c:crossAx val="744213616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="306981840"/>
+        <c:axId val="744213616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,7 +1480,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306977920"/>
+        <c:crossAx val="744213056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2417,8 +2430,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2471,7 +2484,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C48" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C49" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -2995,8 +3008,13 @@
       <c r="A49" s="14">
         <v>43203</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="28"/>
+      <c r="B49" s="48">
+        <v>5692698</v>
+      </c>
+      <c r="C49" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0157495024918677</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
@@ -3017,8 +3035,8 @@
   <dimension ref="A1:AG6645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M260" sqref="M260"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F257" sqref="F257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3029,7 +3047,7 @@
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="12.5" style="36" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="36" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.375" style="42" customWidth="1"/>
@@ -17719,11 +17737,11 @@
         <v>-18.436167206847838</v>
       </c>
       <c r="M262" s="57">
-        <f t="shared" ref="M262:M265" si="105">ROUND(L262,0)</f>
+        <f t="shared" ref="M262:M271" si="105">ROUND(L262,0)</f>
         <v>-18</v>
       </c>
       <c r="N262" s="57">
-        <f t="shared" ref="N262:N265" si="106">M262-D262</f>
+        <f t="shared" ref="N262:N271" si="106">M262-D262</f>
         <v>2</v>
       </c>
       <c r="T262" s="9" t="str">
@@ -17877,7 +17895,7 @@
         <f t="shared" si="101"/>
         <v>2</v>
       </c>
-      <c r="K265" s="47">
+      <c r="K265" s="58">
         <f t="shared" si="104"/>
         <v>5.3333333333333337E-2</v>
       </c>
@@ -17909,582 +17927,1069 @@
       </c>
     </row>
     <row r="266" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A266" s="27">
+        <v>43194</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D266" s="1">
+        <v>94</v>
+      </c>
+      <c r="E266" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F266" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G266" s="64">
+        <v>1744</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J266" s="42">
+        <f t="shared" ref="J266:J275" si="107">IF(I266="N",1,IF(C266=I266,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K266" s="47">
+        <f>SUM($F$266:$F$270)/SUM($J$266:$J$270)*J266</f>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="L266" s="59">
+        <f>(X266*K266)/(W266*G266*0.15)</f>
+        <v>96.839959225280325</v>
+      </c>
+      <c r="M266" s="57">
+        <f t="shared" si="105"/>
+        <v>97</v>
+      </c>
+      <c r="N266" s="57">
+        <f t="shared" si="106"/>
+        <v>3</v>
+      </c>
       <c r="T266" s="9" t="str">
         <f>IF(Q266="","",D264*(Q266-G266)*W266)</f>
         <v/>
       </c>
       <c r="U266" s="17"/>
+      <c r="W266" s="18">
+        <f>[1]!WSD($B266,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X266" s="1">
+        <v>5700000</v>
+      </c>
     </row>
     <row r="267" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B267" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D267" s="1">
+        <v>30</v>
+      </c>
+      <c r="E267" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F267" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G267" s="64">
+        <v>1418</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J267" s="63">
+        <f t="shared" si="107"/>
+        <v>0.5</v>
+      </c>
+      <c r="K267" s="47">
+        <f t="shared" ref="K267:K270" si="108">SUM($F$266:$F$270)/SUM($J$266:$J$270)*J267</f>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="L267" s="59">
+        <f>(X267*K267)/(W267*G267*0.15)</f>
+        <v>29.775897194797054</v>
+      </c>
+      <c r="M267" s="57">
+        <f t="shared" si="105"/>
+        <v>30</v>
+      </c>
+      <c r="N267" s="57">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
       <c r="T267" s="9" t="str">
-        <f t="shared" ref="T267:T268" si="107">IF(Q267="","",D265*(Q267-G267)*W267)</f>
+        <f t="shared" ref="T267:T268" si="109">IF(Q267="","",D265*(Q267-G267)*W267)</f>
         <v/>
       </c>
       <c r="U267" s="17"/>
+      <c r="W267" s="18">
+        <f>[1]!WSD($B267,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>20</v>
+      </c>
+      <c r="X267" s="1">
+        <v>5700000</v>
+      </c>
     </row>
     <row r="268" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B268" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D268" s="1">
+        <v>7</v>
+      </c>
+      <c r="E268" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F268" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G268" s="64">
+        <v>11085</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J268" s="63">
+        <f t="shared" si="107"/>
+        <v>0.5</v>
+      </c>
+      <c r="K268" s="47">
+        <f t="shared" si="108"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="L268" s="59">
+        <f>(X268*K268)/(W268*G268*0.15)</f>
+        <v>7.6179020698641811</v>
+      </c>
+      <c r="M268" s="57">
+        <f t="shared" si="105"/>
+        <v>8</v>
+      </c>
+      <c r="N268" s="57">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
       <c r="T268" s="9" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+      <c r="U268" s="17"/>
+      <c r="W268" s="18">
+        <f>[1]!WSD($B268,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X268" s="1">
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B269" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D269" s="1">
+        <v>30</v>
+      </c>
+      <c r="E269" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F269" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G269" s="64">
+        <v>5458</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J269" s="42">
         <f t="shared" si="107"/>
+        <v>0.5</v>
+      </c>
+      <c r="K269" s="47">
+        <f t="shared" si="108"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="L269" s="59">
+        <f>(X269*K269)/(W269*G269*0.15)</f>
+        <v>30.943365498147472</v>
+      </c>
+      <c r="M269" s="57">
+        <f t="shared" si="105"/>
+        <v>31</v>
+      </c>
+      <c r="N269" s="57">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="T269" s="9" t="str">
+        <f t="shared" ref="T269:T300" si="110">IF(Q269="","",D267*(Q269-G269)*W269)</f>
         <v/>
       </c>
-      <c r="U268" s="17"/>
-    </row>
-    <row r="269" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T269" s="9" t="str">
-        <f t="shared" ref="T269:T300" si="108">IF(Q269="","",D267*(Q269-G269)*W269)</f>
+      <c r="U269" s="17"/>
+      <c r="W269" s="18">
+        <f>[1]!WSD($B269,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X269" s="1">
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B270" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D270" s="1">
+        <v>117</v>
+      </c>
+      <c r="E270" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F270" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G270" s="64">
+        <v>2842</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J270" s="42">
+        <f t="shared" si="107"/>
+        <v>2</v>
+      </c>
+      <c r="K270" s="47">
+        <f t="shared" si="108"/>
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="L270" s="59">
+        <f>(X270*K270)/(W270*G270*0.15)</f>
+        <v>118.85213855657206</v>
+      </c>
+      <c r="M270" s="57">
+        <f t="shared" si="105"/>
+        <v>119</v>
+      </c>
+      <c r="N270" s="57">
+        <f t="shared" si="106"/>
+        <v>2</v>
+      </c>
+      <c r="T270" s="9" t="str">
+        <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="U269" s="17"/>
-    </row>
-    <row r="270" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T270" s="9" t="str">
-        <f t="shared" si="108"/>
+      <c r="U270" s="17"/>
+      <c r="W270" s="18">
+        <f>[1]!WSD($B270,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X270" s="1">
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B271" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D271" s="1">
+        <v>-26</v>
+      </c>
+      <c r="E271" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F271" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G271" s="64">
+        <v>1262</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J271" s="42">
+        <f t="shared" si="107"/>
+        <v>2</v>
+      </c>
+      <c r="K271" s="47">
+        <f>SUM($F$271:$F$275)/SUM($J$271:$J$275)*J271</f>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="L271" s="59">
+        <f>-(X271*K271)/(W271*G271*0.15)</f>
+        <v>-26.765275576686037</v>
+      </c>
+      <c r="M271" s="57">
+        <f t="shared" si="105"/>
+        <v>-27</v>
+      </c>
+      <c r="N271" s="57">
+        <f t="shared" si="106"/>
+        <v>-1</v>
+      </c>
+      <c r="T271" s="9" t="str">
+        <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="U270" s="17"/>
-    </row>
-    <row r="271" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T271" s="9" t="str">
-        <f t="shared" si="108"/>
+      <c r="U271" s="17"/>
+      <c r="W271" s="18">
+        <f>[1]!WSD($B271,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X271" s="1">
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B272" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D272" s="1">
+        <v>-18</v>
+      </c>
+      <c r="E272" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F272" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G272" s="64">
+        <v>2655</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J272" s="42">
+        <f t="shared" si="107"/>
+        <v>0.5</v>
+      </c>
+      <c r="K272" s="47">
+        <f t="shared" ref="K272:K275" si="111">SUM($F$271:$F$275)/SUM($J$271:$J$275)*J272</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="L272" s="59">
+        <f>-(X272*K272)/(W272*G272*0.15)</f>
+        <v>-19.083490269930948</v>
+      </c>
+      <c r="M272" s="57">
+        <f t="shared" ref="M272:M275" si="112">ROUND(L272,0)</f>
+        <v>-19</v>
+      </c>
+      <c r="N272" s="57">
+        <f t="shared" ref="N272:N275" si="113">M272-D272</f>
+        <v>-1</v>
+      </c>
+      <c r="T272" s="9" t="str">
+        <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="U271" s="17"/>
-    </row>
-    <row r="272" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T272" s="9" t="str">
-        <f t="shared" si="108"/>
+      <c r="U272" s="17"/>
+      <c r="W272" s="18">
+        <f>[1]!WSD($B272,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X272" s="1">
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B273" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D273" s="1">
+        <v>-27</v>
+      </c>
+      <c r="E273" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F273" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G273" s="64">
+        <v>3671</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J273" s="42">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+      <c r="K273" s="47">
+        <f t="shared" si="111"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="L273" s="59">
+        <f>-(X273*K273)/(W273*G273*0.15)</f>
+        <v>-27.603741033324255</v>
+      </c>
+      <c r="M273" s="57">
+        <f t="shared" si="112"/>
+        <v>-28</v>
+      </c>
+      <c r="N273" s="57">
+        <f t="shared" si="113"/>
+        <v>-1</v>
+      </c>
+      <c r="T273" s="9" t="str">
+        <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="U272" s="17"/>
-    </row>
-    <row r="273" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T273" s="9" t="str">
-        <f t="shared" si="108"/>
+      <c r="U273" s="17"/>
+      <c r="W273" s="18">
+        <f>[1]!WSD($B273,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X273" s="1">
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B274" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D274" s="1">
+        <v>-11</v>
+      </c>
+      <c r="E274" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F274" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G274" s="64">
+        <v>1781</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J274" s="42">
+        <f t="shared" si="107"/>
+        <v>2</v>
+      </c>
+      <c r="K274" s="47">
+        <f t="shared" si="111"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="L274" s="59">
+        <f>-(X274*K274)/(W274*G274*0.15)</f>
+        <v>-11.379374883024518</v>
+      </c>
+      <c r="M274" s="57">
+        <f t="shared" si="112"/>
+        <v>-11</v>
+      </c>
+      <c r="N274" s="57">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="T274" s="9" t="str">
+        <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="U273" s="17"/>
-    </row>
-    <row r="274" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T274" s="9" t="str">
-        <f t="shared" si="108"/>
+      <c r="U274" s="17"/>
+      <c r="W274" s="18">
+        <f>[1]!WSD($B274,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X274" s="1">
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A275" s="28"/>
+      <c r="B275" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D275" s="6">
+        <v>-45</v>
+      </c>
+      <c r="E275" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F275" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G275" s="65">
+        <v>433</v>
+      </c>
+      <c r="H275" s="6"/>
+      <c r="I275" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J275" s="41">
+        <f t="shared" si="107"/>
+        <v>2</v>
+      </c>
+      <c r="K275" s="58">
+        <f t="shared" si="111"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="L275" s="56">
+        <f>-(X275*K275)/(W275*G275*0.15)</f>
+        <v>-46.805234795996924</v>
+      </c>
+      <c r="M275" s="6">
+        <f t="shared" si="112"/>
+        <v>-47</v>
+      </c>
+      <c r="N275" s="6">
+        <f t="shared" si="113"/>
+        <v>-2</v>
+      </c>
+      <c r="O275" s="58"/>
+      <c r="P275" s="58"/>
+      <c r="T275" s="9" t="str">
+        <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="U274" s="17"/>
-    </row>
-    <row r="275" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T275" s="9" t="str">
-        <f t="shared" si="108"/>
+      <c r="U275" s="17"/>
+      <c r="W275" s="18">
+        <f>[1]!WSD($B275,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X275" s="1">
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T276" s="9" t="str">
+        <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="U275" s="17"/>
-    </row>
-    <row r="276" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T276" s="9" t="str">
-        <f t="shared" si="108"/>
+      <c r="U276" s="17"/>
+    </row>
+    <row r="277" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T277" s="9" t="str">
+        <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="U276" s="17"/>
-    </row>
-    <row r="277" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T277" s="9" t="str">
-        <f t="shared" si="108"/>
+      <c r="U277" s="17"/>
+    </row>
+    <row r="278" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T278" s="9" t="str">
+        <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="U277" s="17"/>
-    </row>
-    <row r="278" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T278" s="9" t="str">
-        <f t="shared" si="108"/>
+      <c r="U278" s="17"/>
+    </row>
+    <row r="279" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T279" s="9" t="str">
+        <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="U278" s="17"/>
-    </row>
-    <row r="279" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T279" s="9" t="str">
-        <f t="shared" si="108"/>
+      <c r="U279" s="17"/>
+    </row>
+    <row r="280" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T280" s="9" t="str">
+        <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="U279" s="17"/>
-    </row>
-    <row r="280" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T280" s="9" t="str">
-        <f t="shared" si="108"/>
+      <c r="U280" s="17"/>
+    </row>
+    <row r="281" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T281" s="9" t="str">
+        <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="U280" s="17"/>
-    </row>
-    <row r="281" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T281" s="9" t="str">
-        <f t="shared" si="108"/>
+      <c r="U281" s="17"/>
+    </row>
+    <row r="282" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T282" s="9" t="str">
+        <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="U281" s="17"/>
-    </row>
-    <row r="282" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T282" s="9" t="str">
-        <f t="shared" si="108"/>
+      <c r="U282" s="17"/>
+    </row>
+    <row r="283" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T283" s="9" t="str">
+        <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="U282" s="17"/>
-    </row>
-    <row r="283" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T283" s="9" t="str">
-        <f t="shared" si="108"/>
+      <c r="U283" s="17"/>
+    </row>
+    <row r="284" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T284" s="9" t="str">
+        <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="U283" s="17"/>
-    </row>
-    <row r="284" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T284" s="9" t="str">
-        <f t="shared" si="108"/>
+      <c r="U284" s="17"/>
+    </row>
+    <row r="285" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T285" s="9" t="str">
+        <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="U284" s="17"/>
-    </row>
-    <row r="285" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T285" s="9" t="str">
-        <f t="shared" si="108"/>
+      <c r="U285" s="17"/>
+    </row>
+    <row r="286" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T286" s="9" t="str">
+        <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="U285" s="17"/>
-    </row>
-    <row r="286" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T286" s="9" t="str">
-        <f t="shared" si="108"/>
+      <c r="U286" s="17"/>
+    </row>
+    <row r="287" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="T287" s="9" t="str">
+        <f t="shared" si="110"/>
         <v/>
       </c>
-      <c r="U286" s="17"/>
-    </row>
-    <row r="287" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T287" s="9" t="str">
-        <f t="shared" si="108"/>
-        <v/>
-      </c>
       <c r="U287" s="17"/>
     </row>
-    <row r="288" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T288" s="9" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
     </row>
     <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T289" s="9" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
     </row>
     <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T290" s="9" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
     </row>
     <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T291" s="9" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
     </row>
     <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T292" s="9" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
     </row>
     <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T293" s="9" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
     </row>
     <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T294" s="9" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
     </row>
     <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T295" s="9" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
     </row>
     <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
     <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
     <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
     <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
     <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" ref="T301:T332" si="109">IF(Q301="","",D299*(Q301-G301)*W301)</f>
+        <f t="shared" ref="T301:T332" si="114">IF(Q301="","",D299*(Q301-G301)*W301)</f>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" ref="T333:T348" si="110">IF(Q333="","",D331*(Q333-G333)*W333)</f>
+        <f t="shared" ref="T333:T348" si="115">IF(Q333="","",D331*(Q333-G333)*W333)</f>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="U347" s="17"/>
     </row>
     <row r="348" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T348" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="U348" s="17"/>
@@ -37412,20 +37917,20 @@
         <v>13</v>
       </c>
       <c r="E1" s="52"/>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64" t="s">
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B2" s="20" t="s">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="净值" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="165">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -663,6 +663,14 @@
     <t>RM805</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>HC1805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1025,7 +1033,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1375,11 +1382,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="744213056"/>
-        <c:axId val="744213616"/>
+        <c:axId val="659540240"/>
+        <c:axId val="669435744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="744213056"/>
+        <c:axId val="659540240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1422,14 +1429,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="744213616"/>
+        <c:crossAx val="669435744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="744213616"/>
+        <c:axId val="669435744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,7 +1487,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="744213056"/>
+        <c:crossAx val="659540240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2430,7 +2437,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
@@ -3034,9 +3041,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG6645"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F257" sqref="F257"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I286" sqref="I286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18294,11 +18301,11 @@
         <v>-19.083490269930948</v>
       </c>
       <c r="M272" s="57">
-        <f t="shared" ref="M272:M275" si="112">ROUND(L272,0)</f>
+        <f t="shared" ref="M272:M281" si="112">ROUND(L272,0)</f>
         <v>-19</v>
       </c>
       <c r="N272" s="57">
-        <f t="shared" ref="N272:N275" si="113">M272-D272</f>
+        <f t="shared" ref="N272:N281" si="113">M272-D272</f>
         <v>-1</v>
       </c>
       <c r="T272" s="9" t="str">
@@ -18484,80 +18491,534 @@
       </c>
     </row>
     <row r="276" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T276" s="9" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
+      <c r="A276" s="27">
+        <v>43206</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D276" s="1">
+        <v>94</v>
+      </c>
+      <c r="E276" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F276" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G276" s="64">
+        <v>1750</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J276" s="42">
+        <f t="shared" ref="J276:J285" si="114">IF(I276="N",1,IF(C276=I276,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K276" s="47">
+        <f>SUM($F$276:$F$280)/SUM($J$276:$J$280)*J276</f>
+        <v>0.04</v>
+      </c>
+      <c r="L276" s="59">
+        <f>(X276*K276)/(W276*G276*0.15)</f>
+        <v>87.131428571428572</v>
+      </c>
+      <c r="M276" s="57">
+        <f t="shared" si="112"/>
+        <v>87</v>
+      </c>
+      <c r="N276" s="57">
+        <f t="shared" si="113"/>
+        <v>-7</v>
+      </c>
+      <c r="T276" s="9"/>
       <c r="U276" s="17"/>
+      <c r="W276" s="18">
+        <f>[1]!WSD($B276,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X276" s="1">
+        <v>5718000</v>
+      </c>
     </row>
     <row r="277" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T277" s="9" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
+      <c r="B277" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D277" s="1">
+        <v>30</v>
+      </c>
+      <c r="E277" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F277" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G277" s="64">
+        <v>1419</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J277" s="63">
+        <f t="shared" si="114"/>
+        <v>0.5</v>
+      </c>
+      <c r="K277" s="47">
+        <f t="shared" ref="K277:K280" si="115">SUM($F$276:$F$280)/SUM($J$276:$J$280)*J277</f>
+        <v>0.02</v>
+      </c>
+      <c r="L277" s="59">
+        <f>(X277*K277)/(W277*G277*0.15)</f>
+        <v>26.86398872445384</v>
+      </c>
+      <c r="M277" s="57">
+        <f t="shared" si="112"/>
+        <v>27</v>
+      </c>
+      <c r="N277" s="57">
+        <f t="shared" si="113"/>
+        <v>-3</v>
+      </c>
+      <c r="T277" s="9"/>
       <c r="U277" s="17"/>
+      <c r="W277" s="18">
+        <f>[1]!WSD($B277,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>20</v>
+      </c>
+      <c r="X277" s="1">
+        <v>5718000</v>
+      </c>
     </row>
     <row r="278" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T278" s="9" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
+      <c r="B278" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D278" s="1">
+        <v>7</v>
+      </c>
+      <c r="E278" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F278" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G278" s="64">
+        <v>11110</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J278" s="63">
+        <f t="shared" si="114"/>
+        <v>0.5</v>
+      </c>
+      <c r="K278" s="47">
+        <f t="shared" si="115"/>
+        <v>0.02</v>
+      </c>
+      <c r="L278" s="59">
+        <f>(X278*K278)/(W278*G278*0.15)</f>
+        <v>6.8622862286228621</v>
+      </c>
+      <c r="M278" s="57">
+        <f t="shared" si="112"/>
+        <v>7</v>
+      </c>
+      <c r="N278" s="57">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="T278" s="9"/>
       <c r="U278" s="17"/>
+      <c r="W278" s="18">
+        <f>[1]!WSD($B278,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X278" s="1">
+        <v>5718000</v>
+      </c>
     </row>
     <row r="279" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T279" s="9" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
+      <c r="B279" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D279" s="1">
+        <v>30</v>
+      </c>
+      <c r="E279" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F279" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G279" s="64">
+        <v>5450</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J279" s="42">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="K279" s="47">
+        <f t="shared" si="115"/>
+        <v>0.04</v>
+      </c>
+      <c r="L279" s="59">
+        <f>(X279*K279)/(W279*G279*0.15)</f>
+        <v>55.955963302752295</v>
+      </c>
+      <c r="M279" s="57">
+        <f t="shared" si="112"/>
+        <v>56</v>
+      </c>
+      <c r="N279" s="57">
+        <f t="shared" si="113"/>
+        <v>26</v>
+      </c>
+      <c r="T279" s="9"/>
       <c r="U279" s="17"/>
+      <c r="W279" s="18">
+        <f>[1]!WSD($B279,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X279" s="1">
+        <v>5718000</v>
+      </c>
     </row>
     <row r="280" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T280" s="9" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
+      <c r="B280" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D280" s="1">
+        <v>117</v>
+      </c>
+      <c r="E280" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F280" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G280" s="64">
+        <v>2834</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J280" s="42">
+        <f t="shared" si="114"/>
+        <v>2</v>
+      </c>
+      <c r="K280" s="47">
+        <f t="shared" si="115"/>
+        <v>0.08</v>
+      </c>
+      <c r="L280" s="59">
+        <f>(X280*K280)/(W280*G280*0.15)</f>
+        <v>107.6076217360621</v>
+      </c>
+      <c r="M280" s="57">
+        <f t="shared" si="112"/>
+        <v>108</v>
+      </c>
+      <c r="N280" s="57">
+        <f t="shared" si="113"/>
+        <v>-9</v>
+      </c>
+      <c r="T280" s="9"/>
       <c r="U280" s="17"/>
+      <c r="W280" s="18">
+        <f>[1]!WSD($B280,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X280" s="1">
+        <v>5718000</v>
+      </c>
     </row>
     <row r="281" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T281" s="9" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
+      <c r="B281" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D281" s="1">
+        <v>-26</v>
+      </c>
+      <c r="E281" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F281" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G281" s="64">
+        <v>1267</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J281" s="42">
+        <f t="shared" si="114"/>
+        <v>2</v>
+      </c>
+      <c r="K281" s="47">
+        <f>SUM($F$281:$F$285)/SUM($J$281:$J$285)*J281</f>
+        <v>0.05</v>
+      </c>
+      <c r="L281" s="59">
+        <f>-(X281*K281)/(W281*G281*0.15)</f>
+        <v>-25.072349381741645</v>
+      </c>
+      <c r="M281" s="57">
+        <f t="shared" si="112"/>
+        <v>-25</v>
+      </c>
+      <c r="N281" s="57">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="T281" s="9"/>
       <c r="U281" s="17"/>
+      <c r="W281" s="18">
+        <f>[1]!WSD($B281,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X281" s="1">
+        <v>5718000</v>
+      </c>
     </row>
     <row r="282" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T282" s="9" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
+      <c r="B282" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D282" s="1">
+        <v>0</v>
+      </c>
+      <c r="E282" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F282" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G282" s="64">
+        <v>3840</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J282" s="42">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="K282" s="47">
+        <f t="shared" ref="K282:K285" si="116">SUM($F$281:$F$285)/SUM($J$281:$J$285)*J282</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L282" s="59">
+        <f>-(X282*K282)/(W282*G282*0.15)</f>
+        <v>-24.817708333333332</v>
+      </c>
+      <c r="M282" s="57">
+        <f t="shared" ref="M282:M285" si="117">ROUND(L282,0)</f>
+        <v>-25</v>
+      </c>
+      <c r="N282" s="57">
+        <f t="shared" ref="N282:N285" si="118">M282-D282</f>
+        <v>-25</v>
+      </c>
+      <c r="T282" s="9"/>
       <c r="U282" s="17"/>
+      <c r="W282" s="18">
+        <f>[1]!WSD($B282,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X282" s="1">
+        <v>5718000</v>
+      </c>
     </row>
     <row r="283" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T283" s="9" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
+      <c r="B283" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D283" s="1">
+        <v>-27</v>
+      </c>
+      <c r="E283" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F283" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G283" s="64">
+        <v>3715</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J283" s="42">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="K283" s="47">
+        <f t="shared" si="116"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L283" s="59">
+        <f>-(X283*K283)/(W283*G283*0.15)</f>
+        <v>-25.652759084791388</v>
+      </c>
+      <c r="M283" s="57">
+        <f t="shared" si="117"/>
+        <v>-26</v>
+      </c>
+      <c r="N283" s="57">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
+      <c r="T283" s="9"/>
       <c r="U283" s="17"/>
+      <c r="W283" s="18">
+        <f>[1]!WSD($B283,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X283" s="1">
+        <v>5718000</v>
+      </c>
     </row>
     <row r="284" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T284" s="9" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
+      <c r="B284" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D284" s="1">
+        <v>-11</v>
+      </c>
+      <c r="E284" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F284" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G284" s="64">
+        <v>1783.5</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J284" s="42">
+        <f t="shared" si="114"/>
+        <v>2</v>
+      </c>
+      <c r="K284" s="47">
+        <f t="shared" si="116"/>
+        <v>0.05</v>
+      </c>
+      <c r="L284" s="59">
+        <f>-(X284*K284)/(W284*G284*0.15)</f>
+        <v>-10.686851696103169</v>
+      </c>
+      <c r="M284" s="57">
+        <f t="shared" si="117"/>
+        <v>-11</v>
+      </c>
+      <c r="N284" s="57">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="T284" s="9"/>
       <c r="U284" s="17"/>
+      <c r="W284" s="18">
+        <f>[1]!WSD($B284,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X284" s="1">
+        <v>5718000</v>
+      </c>
     </row>
     <row r="285" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T285" s="9" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
+      <c r="A285" s="28"/>
+      <c r="B285" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D285" s="6">
+        <v>-45</v>
+      </c>
+      <c r="E285" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F285" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G285" s="65">
+        <v>437</v>
+      </c>
+      <c r="H285" s="6"/>
+      <c r="I285" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J285" s="41">
+        <f t="shared" si="114"/>
+        <v>2</v>
+      </c>
+      <c r="K285" s="58">
+        <f t="shared" si="116"/>
+        <v>0.05</v>
+      </c>
+      <c r="L285" s="56">
+        <f>-(X285*K285)/(W285*G285*0.15)</f>
+        <v>-43.615560640732262</v>
+      </c>
+      <c r="M285" s="6">
+        <f t="shared" si="117"/>
+        <v>-44</v>
+      </c>
+      <c r="N285" s="6">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
+      <c r="O285" s="58"/>
+      <c r="P285" s="58"/>
+      <c r="T285" s="9"/>
       <c r="U285" s="17"/>
+      <c r="W285" s="18">
+        <f>[1]!WSD($B285,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X285" s="1">
+        <v>5718000</v>
+      </c>
     </row>
     <row r="286" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="T286" s="9" t="str">
-        <f t="shared" si="110"/>
-        <v/>
-      </c>
+      <c r="T286" s="9"/>
       <c r="U286" s="17"/>
     </row>
     <row r="287" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
@@ -18660,336 +19121,336 @@
     </row>
     <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" ref="T301:T332" si="114">IF(Q301="","",D299*(Q301-G301)*W301)</f>
+        <f t="shared" ref="T301:T332" si="119">IF(Q301="","",D299*(Q301-G301)*W301)</f>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" ref="T333:T348" si="115">IF(Q333="","",D331*(Q333-G333)*W333)</f>
+        <f t="shared" ref="T333:T348" si="120">IF(Q333="","",D331*(Q333-G333)*W333)</f>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="U347" s="17"/>
     </row>
     <row r="348" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T348" s="9" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="U348" s="17"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="净值" sheetId="1" r:id="rId1"/>
@@ -1033,6 +1033,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1085,10 +1086,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$49</c:f>
+              <c:f>净值!$A$5:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1224,15 +1225,18 @@
                 <c:pt idx="44">
                   <c:v>43203</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>43206</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$C$5:$C$49</c:f>
+              <c:f>净值!$C$5:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0.99739509684390792</c:v>
                 </c:pt>
@@ -1368,6 +1372,9 @@
                 <c:pt idx="44" formatCode="General">
                   <c:v>1.0157495024918677</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.0183856309409465</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1382,11 +1389,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="659540240"/>
-        <c:axId val="669435744"/>
+        <c:axId val="601819264"/>
+        <c:axId val="601819824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="659540240"/>
+        <c:axId val="601819264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,14 +1436,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669435744"/>
+        <c:crossAx val="601819824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="669435744"/>
+        <c:axId val="601819824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1494,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="659540240"/>
+        <c:crossAx val="601819264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2437,8 +2444,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2491,7 +2498,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C49" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C50" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -3025,7 +3032,14 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
-        <v>43204</v>
+        <v>43206</v>
+      </c>
+      <c r="B50" s="4">
+        <v>5707472</v>
+      </c>
+      <c r="C50" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0183856309409465</v>
       </c>
     </row>
   </sheetData>
@@ -3041,7 +3055,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG6645"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I286" sqref="I286"/>
     </sheetView>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -1086,10 +1086,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$50</c:f>
+              <c:f>净值!$A$5:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1228,15 +1228,18 @@
                 <c:pt idx="45">
                   <c:v>43206</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>43207</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$C$5:$C$50</c:f>
+              <c:f>净值!$C$5:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0.99739509684390792</c:v>
                 </c:pt>
@@ -1375,6 +1378,9 @@
                 <c:pt idx="45">
                   <c:v>1.0183856309409465</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0134306230195358</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1389,11 +1395,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="601819264"/>
-        <c:axId val="601819824"/>
+        <c:axId val="591424656"/>
+        <c:axId val="591425216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="601819264"/>
+        <c:axId val="591424656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,14 +1442,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601819824"/>
+        <c:crossAx val="591425216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="601819824"/>
+        <c:axId val="591425216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1494,7 +1500,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601819264"/>
+        <c:crossAx val="591424656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2442,10 +2448,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2498,7 +2504,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C50" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C51" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -3041,6 +3047,78 @@
         <f t="shared" si="0"/>
         <v>1.0183856309409465</v>
       </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
+        <v>43207</v>
+      </c>
+      <c r="B51" s="4">
+        <v>5679702</v>
+      </c>
+      <c r="C51" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0134306230195358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="3">
+        <v>43208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="3">
+        <v>43209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="14">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="3">
+        <v>43213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="3">
+        <v>43214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="3">
+        <v>43215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="3">
+        <v>43216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="14">
+        <v>43217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="3">
+        <v>43222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -1086,10 +1086,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$51</c:f>
+              <c:f>净值!$A$5:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1231,15 +1231,18 @@
                 <c:pt idx="46">
                   <c:v>43207</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43208</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$C$5:$C$51</c:f>
+              <c:f>净值!$C$5:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0.99739509684390792</c:v>
                 </c:pt>
@@ -1381,6 +1384,9 @@
                 <c:pt idx="46">
                   <c:v>1.0134306230195358</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0069232719610608</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1395,11 +1401,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="591424656"/>
-        <c:axId val="591425216"/>
+        <c:axId val="580396816"/>
+        <c:axId val="580397936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="591424656"/>
+        <c:axId val="580396816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,14 +1448,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591425216"/>
+        <c:crossAx val="580397936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="591425216"/>
+        <c:axId val="580397936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,7 +1506,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591424656"/>
+        <c:crossAx val="580396816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2451,7 +2457,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2504,7 +2510,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C51" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C52" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -3063,6 +3069,13 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>43208</v>
+      </c>
+      <c r="B52" s="4">
+        <v>5643232</v>
+      </c>
+      <c r="C52" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0069232719610608</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -1086,10 +1086,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$52</c:f>
+              <c:f>净值!$A$5:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1234,15 +1234,18 @@
                 <c:pt idx="47">
                   <c:v>43208</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>43209</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$C$5:$C$52</c:f>
+              <c:f>净值!$C$5:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0.99739509684390792</c:v>
                 </c:pt>
@@ -1387,6 +1390,9 @@
                 <c:pt idx="47">
                   <c:v>1.0069232719610608</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9986619515879489</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1401,11 +1407,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="580396816"/>
-        <c:axId val="580397936"/>
+        <c:axId val="583275216"/>
+        <c:axId val="583275776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="580396816"/>
+        <c:axId val="583275216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,14 +1454,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="580397936"/>
+        <c:crossAx val="583275776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="580397936"/>
+        <c:axId val="583275776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1506,7 +1512,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="580396816"/>
+        <c:crossAx val="583275216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2456,8 +2462,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2510,7 +2516,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C52" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C53" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -3081,6 +3087,13 @@
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>43209</v>
+      </c>
+      <c r="B53" s="4">
+        <v>5596932</v>
+      </c>
+      <c r="C53" s="51">
+        <f t="shared" si="0"/>
+        <v>0.9986619515879489</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="净值" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="169">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -669,6 +669,22 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC805</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1407,11 +1423,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="583275216"/>
-        <c:axId val="583275776"/>
+        <c:axId val="496431536"/>
+        <c:axId val="498429408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="583275216"/>
+        <c:axId val="496431536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,14 +1470,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583275776"/>
+        <c:crossAx val="498429408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="583275776"/>
+        <c:axId val="498429408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,7 +1528,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583275216"/>
+        <c:crossAx val="496431536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2462,7 +2478,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
@@ -3159,9 +3175,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG6645"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I286" sqref="I286"/>
+      <selection pane="bottomLeft" activeCell="B293" sqref="B293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18958,11 +18974,11 @@
         <v>-24.817708333333332</v>
       </c>
       <c r="M282" s="57">
-        <f t="shared" ref="M282:M285" si="117">ROUND(L282,0)</f>
+        <f t="shared" ref="M282:M291" si="117">ROUND(L282,0)</f>
         <v>-25</v>
       </c>
       <c r="N282" s="57">
-        <f t="shared" ref="N282:N285" si="118">M282-D282</f>
+        <f t="shared" ref="N282:N291" si="118">M282-D282</f>
         <v>-25</v>
       </c>
       <c r="T282" s="9"/>
@@ -19113,15 +19129,15 @@
       </c>
       <c r="L285" s="56">
         <f>-(X285*K285)/(W285*G285*0.15)</f>
-        <v>-43.615560640732262</v>
+        <v>-43.081617086193745</v>
       </c>
       <c r="M285" s="6">
         <f t="shared" si="117"/>
-        <v>-44</v>
+        <v>-43</v>
       </c>
       <c r="N285" s="6">
         <f t="shared" si="118"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O285" s="58"/>
       <c r="P285" s="58"/>
@@ -19132,443 +19148,930 @@
         <v>100</v>
       </c>
       <c r="X285" s="1">
-        <v>5718000</v>
+        <v>5648000</v>
       </c>
     </row>
     <row r="286" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A286" s="27">
+        <v>43210</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D286" s="1">
+        <v>87</v>
+      </c>
+      <c r="E286" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F286" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G286" s="64">
+        <v>1769</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J286" s="42">
+        <f t="shared" ref="J286:J295" si="119">IF(I286="N",1,IF(C286=I286,2,0.5))</f>
+        <v>1</v>
+      </c>
+      <c r="K286" s="47">
+        <f>SUM($F$286:$F$290)/SUM($J$286:$J$290)*J286</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L286" s="59">
+        <f>(X286*K286)/(W286*G286*0.15)</f>
+        <v>70.950329753156211</v>
+      </c>
+      <c r="M286" s="57">
+        <f t="shared" si="117"/>
+        <v>71</v>
+      </c>
+      <c r="N286" s="57">
+        <f t="shared" si="118"/>
+        <v>-16</v>
+      </c>
       <c r="T286" s="9"/>
       <c r="U286" s="17"/>
+      <c r="W286" s="18">
+        <f>[1]!WSD($B286,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X286" s="1">
+        <v>5648001</v>
+      </c>
     </row>
     <row r="287" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B287" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D287" s="1">
+        <v>27</v>
+      </c>
+      <c r="E287" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F287" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G287" s="64">
+        <v>1429</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J287" s="63">
+        <f t="shared" si="119"/>
+        <v>0.5</v>
+      </c>
+      <c r="K287" s="47">
+        <f t="shared" ref="K287:K290" si="120">SUM($F$286:$F$290)/SUM($J$286:$J$290)*J287</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="L287" s="59">
+        <f>(X287*K287)/(W287*G287*0.15)</f>
+        <v>21.957864862763394</v>
+      </c>
+      <c r="M287" s="57">
+        <f t="shared" si="117"/>
+        <v>22</v>
+      </c>
+      <c r="N287" s="57">
+        <f t="shared" si="118"/>
+        <v>-5</v>
+      </c>
       <c r="T287" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f>IF(Q287="","",D285*(Q287-G287)*W287)</f>
         <v/>
       </c>
       <c r="U287" s="17"/>
+      <c r="W287" s="18">
+        <f>[1]!WSD($B287,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>20</v>
+      </c>
+      <c r="X287" s="1">
+        <v>5648002</v>
+      </c>
     </row>
     <row r="288" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B288" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D288" s="1">
+        <v>7</v>
+      </c>
+      <c r="E288" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F288" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G288" s="64">
+        <v>11365</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J288" s="63">
+        <f t="shared" si="119"/>
+        <v>0.5</v>
+      </c>
+      <c r="K288" s="47">
+        <f t="shared" si="120"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="L288" s="59">
+        <f>(X288*K288)/(W288*G288*0.15)</f>
+        <v>5.5218292027178961</v>
+      </c>
+      <c r="M288" s="57">
+        <f t="shared" si="117"/>
+        <v>6</v>
+      </c>
+      <c r="N288" s="57">
+        <f t="shared" si="118"/>
+        <v>-1</v>
+      </c>
       <c r="T288" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f>IF(Q288="","",D286*(Q288-G288)*W288)</f>
         <v/>
       </c>
       <c r="U288" s="17"/>
-    </row>
-    <row r="289" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W288" s="18">
+        <f>[1]!WSD($B288,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X288" s="1">
+        <v>5648003</v>
+      </c>
+    </row>
+    <row r="289" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B289" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D289" s="1">
+        <v>56</v>
+      </c>
+      <c r="E289" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F289" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G289" s="64">
+        <v>5610</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J289" s="42">
+        <f t="shared" si="119"/>
+        <v>2</v>
+      </c>
+      <c r="K289" s="47">
+        <f t="shared" si="120"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L289" s="59">
+        <f>(X289*K289)/(W289*G289*0.15)</f>
+        <v>89.491051693404629</v>
+      </c>
+      <c r="M289" s="57">
+        <f t="shared" si="117"/>
+        <v>89</v>
+      </c>
+      <c r="N289" s="57">
+        <f t="shared" si="118"/>
+        <v>33</v>
+      </c>
       <c r="T289" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f>IF(Q289="","",D287*(Q289-G289)*W289)</f>
         <v/>
       </c>
       <c r="U289" s="17"/>
-    </row>
-    <row r="290" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W289" s="18">
+        <f>[1]!WSD($B289,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>5</v>
+      </c>
+      <c r="X289" s="1">
+        <v>5648004</v>
+      </c>
+    </row>
+    <row r="290" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B290" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D290" s="1">
+        <v>0</v>
+      </c>
+      <c r="E290" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F290" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G290" s="64">
+        <v>2710</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J290" s="42">
+        <f t="shared" si="119"/>
+        <v>2</v>
+      </c>
+      <c r="K290" s="47">
+        <f t="shared" si="120"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L290" s="59">
+        <f>(X290*K290)/(W290*G290*0.15)</f>
+        <v>92.628208282082824</v>
+      </c>
+      <c r="M290" s="57">
+        <f t="shared" si="117"/>
+        <v>93</v>
+      </c>
+      <c r="N290" s="57">
+        <f t="shared" si="118"/>
+        <v>93</v>
+      </c>
       <c r="T290" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f>IF(Q290="","",D288*(Q290-G290)*W290)</f>
         <v/>
       </c>
       <c r="U290" s="17"/>
-    </row>
-    <row r="291" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W290" s="18">
+        <f>[1]!WSD($B290,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X290" s="1">
+        <v>5648005</v>
+      </c>
+    </row>
+    <row r="291" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B291" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D291" s="1">
+        <v>-25</v>
+      </c>
+      <c r="E291" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F291" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G291" s="64">
+        <v>1275</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J291" s="42">
+        <f t="shared" si="119"/>
+        <v>2</v>
+      </c>
+      <c r="K291" s="47">
+        <f>SUM($F$291:$F$295)/SUM($J$291:$J$295)*J291</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L291" s="59">
+        <f>-(X291*K291)/(W291*G291*0.15)</f>
+        <v>-32.813397240377633</v>
+      </c>
+      <c r="M291" s="57">
+        <f t="shared" si="117"/>
+        <v>-33</v>
+      </c>
+      <c r="N291" s="57">
+        <f t="shared" si="118"/>
+        <v>-8</v>
+      </c>
       <c r="T291" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f>IF(Q291="","",D289*(Q291-G291)*W291)</f>
         <v/>
       </c>
       <c r="U291" s="17"/>
-    </row>
-    <row r="292" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W291" s="18">
+        <f>[1]!WSD($B291,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>60</v>
+      </c>
+      <c r="X291" s="1">
+        <v>5648006</v>
+      </c>
+    </row>
+    <row r="292" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B292" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D292" s="1">
+        <v>0</v>
+      </c>
+      <c r="E292" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F292" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G292" s="64">
+        <v>591.6</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J292" s="42">
+        <f t="shared" si="119"/>
+        <v>2</v>
+      </c>
+      <c r="K292" s="47">
+        <f t="shared" ref="K292:K295" si="121">SUM($F$291:$F$295)/SUM($J$291:$J$295)*J292</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L292" s="59">
+        <f>-(X292*K292)/(W292*G292*0.15)</f>
+        <v>-42.431124633761549</v>
+      </c>
+      <c r="M292" s="57">
+        <f t="shared" ref="M292:M295" si="122">ROUND(L292,0)</f>
+        <v>-42</v>
+      </c>
+      <c r="N292" s="57">
+        <f t="shared" ref="N292:N295" si="123">M292-D292</f>
+        <v>-42</v>
+      </c>
       <c r="T292" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f>IF(Q292="","",D290*(Q292-G292)*W292)</f>
         <v/>
       </c>
       <c r="U292" s="17"/>
-    </row>
-    <row r="293" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W292" s="18">
+        <f>[1]!WSD($B292,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X292" s="1">
+        <v>5648007</v>
+      </c>
+    </row>
+    <row r="293" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B293" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D293" s="1">
+        <v>-26</v>
+      </c>
+      <c r="E293" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F293" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G293" s="64">
+        <v>3779</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J293" s="42">
+        <f t="shared" si="119"/>
+        <v>0.5</v>
+      </c>
+      <c r="K293" s="47">
+        <f t="shared" si="121"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="L293" s="59">
+        <f>-(X293*K293)/(W293*G293*0.15)</f>
+        <v>-16.60641557143277</v>
+      </c>
+      <c r="M293" s="57">
+        <f t="shared" si="122"/>
+        <v>-17</v>
+      </c>
+      <c r="N293" s="57">
+        <f t="shared" si="123"/>
+        <v>9</v>
+      </c>
       <c r="T293" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f>IF(Q293="","",D291*(Q293-G293)*W293)</f>
         <v/>
       </c>
       <c r="U293" s="17"/>
-    </row>
-    <row r="294" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W293" s="18">
+        <f>[1]!WSD($B293,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>10</v>
+      </c>
+      <c r="X293" s="1">
+        <v>5648008</v>
+      </c>
+    </row>
+    <row r="294" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B294" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D294" s="1">
+        <v>-11</v>
+      </c>
+      <c r="E294" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="F294" s="36">
+        <v>0.04</v>
+      </c>
+      <c r="G294" s="64">
+        <v>1831.5</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J294" s="42">
+        <f t="shared" si="119"/>
+        <v>0.5</v>
+      </c>
+      <c r="K294" s="47">
+        <f t="shared" si="121"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="L294" s="59">
+        <f>-(X294*K294)/(W294*G294*0.15)</f>
+        <v>-3.4264622197955532</v>
+      </c>
+      <c r="M294" s="57">
+        <f t="shared" si="122"/>
+        <v>-3</v>
+      </c>
+      <c r="N294" s="57">
+        <f t="shared" si="123"/>
+        <v>8</v>
+      </c>
       <c r="T294" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f>IF(Q294="","",D292*(Q294-G294)*W294)</f>
         <v/>
       </c>
       <c r="U294" s="17"/>
-    </row>
-    <row r="295" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W294" s="18">
+        <f>[1]!WSD($B294,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X294" s="1">
+        <v>5648009</v>
+      </c>
+    </row>
+    <row r="295" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A295" s="28"/>
+      <c r="B295" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D295" s="6">
+        <v>-43</v>
+      </c>
+      <c r="E295" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="F295" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="G295" s="65">
+        <v>459.5</v>
+      </c>
+      <c r="H295" s="6"/>
+      <c r="I295" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J295" s="41">
+        <f t="shared" si="119"/>
+        <v>1</v>
+      </c>
+      <c r="K295" s="58">
+        <f t="shared" si="121"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L295" s="56">
+        <f>-(X295*K295)/(W295*G295*0.15)</f>
+        <v>-27.314762422923469</v>
+      </c>
+      <c r="M295" s="6">
+        <f t="shared" si="122"/>
+        <v>-27</v>
+      </c>
+      <c r="N295" s="6">
+        <f t="shared" si="123"/>
+        <v>16</v>
+      </c>
+      <c r="O295" s="58"/>
+      <c r="P295" s="58"/>
       <c r="T295" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f>IF(Q295="","",D293*(Q295-G295)*W295)</f>
         <v/>
       </c>
       <c r="U295" s="17"/>
-    </row>
-    <row r="296" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="W295" s="18">
+        <f>[1]!WSD($B295,"contractmultiplier",$A$2,$A$2,"TradingCalendar=SSE","rptType=1","ShowCodes=N","ShowDates=N","ShowParams=Y","cols=1;rows=1")</f>
+        <v>100</v>
+      </c>
+      <c r="X295" s="1">
+        <v>5648010</v>
+      </c>
+    </row>
+    <row r="296" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f t="shared" si="110"/>
+        <f>IF(Q296="","",D294*(Q296-G296)*W296)</f>
         <v/>
       </c>
       <c r="U296" s="17"/>
     </row>
-    <row r="297" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T297" s="9" t="str">
         <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U297" s="17"/>
     </row>
-    <row r="298" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T298" s="9" t="str">
         <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U298" s="17"/>
     </row>
-    <row r="299" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T299" s="9" t="str">
         <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U299" s="17"/>
     </row>
-    <row r="300" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T300" s="9" t="str">
         <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="U300" s="17"/>
     </row>
-    <row r="301" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" ref="T301:T332" si="119">IF(Q301="","",D299*(Q301-G301)*W301)</f>
+        <f t="shared" ref="T301:T332" si="124">IF(Q301="","",D299*(Q301-G301)*W301)</f>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
-    <row r="302" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
-    <row r="303" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
-    <row r="304" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" ref="T333:T348" si="120">IF(Q333="","",D331*(Q333-G333)*W333)</f>
+        <f t="shared" ref="T333:T348" si="125">IF(Q333="","",D331*(Q333-G333)*W333)</f>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U347" s="17"/>
     </row>
     <row r="348" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T348" s="9" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U348" s="17"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="净值" sheetId="1" r:id="rId1"/>
@@ -1102,10 +1102,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$53</c:f>
+              <c:f>净值!$A$5:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1253,15 +1253,18 @@
                 <c:pt idx="48">
                   <c:v>43209</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>43210</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$C$5:$C$53</c:f>
+              <c:f>净值!$C$5:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0.99739509684390792</c:v>
                 </c:pt>
@@ -1409,6 +1412,9 @@
                 <c:pt idx="48">
                   <c:v>0.9986619515879489</c:v>
                 </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0138882965996012</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1423,11 +1429,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="496431536"/>
-        <c:axId val="498429408"/>
+        <c:axId val="600439120"/>
+        <c:axId val="600440240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496431536"/>
+        <c:axId val="600439120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,14 +1476,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498429408"/>
+        <c:crossAx val="600440240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="498429408"/>
+        <c:axId val="600440240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1528,7 +1534,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496431536"/>
+        <c:crossAx val="600439120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2478,8 +2484,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2532,7 +2538,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C53" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C54" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -3115,6 +3121,13 @@
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="14">
         <v>43210</v>
+      </c>
+      <c r="B54" s="4">
+        <v>5682267</v>
+      </c>
+      <c r="C54" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0138882965996012</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -3175,7 +3188,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG6645"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B293" sqref="B293"/>
     </sheetView>
@@ -19249,7 +19262,7 @@
         <v>-5</v>
       </c>
       <c r="T287" s="9" t="str">
-        <f>IF(Q287="","",D285*(Q287-G287)*W287)</f>
+        <f t="shared" ref="T287:T296" si="121">IF(Q287="","",D285*(Q287-G287)*W287)</f>
         <v/>
       </c>
       <c r="U287" s="17"/>
@@ -19304,7 +19317,7 @@
         <v>-1</v>
       </c>
       <c r="T288" s="9" t="str">
-        <f>IF(Q288="","",D286*(Q288-G288)*W288)</f>
+        <f t="shared" si="121"/>
         <v/>
       </c>
       <c r="U288" s="17"/>
@@ -19359,7 +19372,7 @@
         <v>33</v>
       </c>
       <c r="T289" s="9" t="str">
-        <f>IF(Q289="","",D287*(Q289-G289)*W289)</f>
+        <f t="shared" si="121"/>
         <v/>
       </c>
       <c r="U289" s="17"/>
@@ -19414,7 +19427,7 @@
         <v>93</v>
       </c>
       <c r="T290" s="9" t="str">
-        <f>IF(Q290="","",D288*(Q290-G290)*W290)</f>
+        <f t="shared" si="121"/>
         <v/>
       </c>
       <c r="U290" s="17"/>
@@ -19469,7 +19482,7 @@
         <v>-8</v>
       </c>
       <c r="T291" s="9" t="str">
-        <f>IF(Q291="","",D289*(Q291-G291)*W291)</f>
+        <f t="shared" si="121"/>
         <v/>
       </c>
       <c r="U291" s="17"/>
@@ -19508,7 +19521,7 @@
         <v>2</v>
       </c>
       <c r="K292" s="47">
-        <f t="shared" ref="K292:K295" si="121">SUM($F$291:$F$295)/SUM($J$291:$J$295)*J292</f>
+        <f t="shared" ref="K292:K295" si="122">SUM($F$291:$F$295)/SUM($J$291:$J$295)*J292</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="L292" s="59">
@@ -19516,15 +19529,15 @@
         <v>-42.431124633761549</v>
       </c>
       <c r="M292" s="57">
-        <f t="shared" ref="M292:M295" si="122">ROUND(L292,0)</f>
+        <f t="shared" ref="M292:M295" si="123">ROUND(L292,0)</f>
         <v>-42</v>
       </c>
       <c r="N292" s="57">
-        <f t="shared" ref="N292:N295" si="123">M292-D292</f>
+        <f t="shared" ref="N292:N295" si="124">M292-D292</f>
         <v>-42</v>
       </c>
       <c r="T292" s="9" t="str">
-        <f>IF(Q292="","",D290*(Q292-G292)*W292)</f>
+        <f t="shared" si="121"/>
         <v/>
       </c>
       <c r="U292" s="17"/>
@@ -19563,7 +19576,7 @@
         <v>0.5</v>
       </c>
       <c r="K293" s="47">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="L293" s="59">
@@ -19571,15 +19584,15 @@
         <v>-16.60641557143277</v>
       </c>
       <c r="M293" s="57">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>-17</v>
       </c>
       <c r="N293" s="57">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>9</v>
       </c>
       <c r="T293" s="9" t="str">
-        <f>IF(Q293="","",D291*(Q293-G293)*W293)</f>
+        <f t="shared" si="121"/>
         <v/>
       </c>
       <c r="U293" s="17"/>
@@ -19618,7 +19631,7 @@
         <v>0.5</v>
       </c>
       <c r="K294" s="47">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="L294" s="59">
@@ -19626,15 +19639,15 @@
         <v>-3.4264622197955532</v>
       </c>
       <c r="M294" s="57">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>-3</v>
       </c>
       <c r="N294" s="57">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>8</v>
       </c>
       <c r="T294" s="9" t="str">
-        <f>IF(Q294="","",D292*(Q294-G294)*W294)</f>
+        <f t="shared" si="121"/>
         <v/>
       </c>
       <c r="U294" s="17"/>
@@ -19675,7 +19688,7 @@
         <v>1</v>
       </c>
       <c r="K295" s="58">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="L295" s="56">
@@ -19683,17 +19696,17 @@
         <v>-27.314762422923469</v>
       </c>
       <c r="M295" s="6">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>-27</v>
       </c>
       <c r="N295" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>16</v>
       </c>
       <c r="O295" s="58"/>
       <c r="P295" s="58"/>
       <c r="T295" s="9" t="str">
-        <f>IF(Q295="","",D293*(Q295-G295)*W295)</f>
+        <f t="shared" si="121"/>
         <v/>
       </c>
       <c r="U295" s="17"/>
@@ -19707,7 +19720,7 @@
     </row>
     <row r="296" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T296" s="9" t="str">
-        <f>IF(Q296="","",D294*(Q296-G296)*W296)</f>
+        <f t="shared" si="121"/>
         <v/>
       </c>
       <c r="U296" s="17"/>
@@ -19742,336 +19755,336 @@
     </row>
     <row r="301" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T301" s="9" t="str">
-        <f t="shared" ref="T301:T332" si="124">IF(Q301="","",D299*(Q301-G301)*W301)</f>
+        <f t="shared" ref="T301:T332" si="125">IF(Q301="","",D299*(Q301-G301)*W301)</f>
         <v/>
       </c>
       <c r="U301" s="17"/>
     </row>
     <row r="302" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T302" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U302" s="17"/>
     </row>
     <row r="303" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T303" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U303" s="17"/>
     </row>
     <row r="304" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T304" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U304" s="17"/>
     </row>
     <row r="305" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T305" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U305" s="17"/>
     </row>
     <row r="306" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T306" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U306" s="17"/>
     </row>
     <row r="307" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T307" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U307" s="17"/>
     </row>
     <row r="308" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T308" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U308" s="17"/>
     </row>
     <row r="309" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T309" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U309" s="17"/>
     </row>
     <row r="310" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T310" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U310" s="17"/>
     </row>
     <row r="311" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T311" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U311" s="17"/>
     </row>
     <row r="312" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T312" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U312" s="17"/>
     </row>
     <row r="313" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T313" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U313" s="17"/>
     </row>
     <row r="314" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T314" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U314" s="17"/>
     </row>
     <row r="315" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T315" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U315" s="17"/>
     </row>
     <row r="316" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T316" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U316" s="17"/>
     </row>
     <row r="317" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T317" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U317" s="17"/>
     </row>
     <row r="318" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T318" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U318" s="17"/>
     </row>
     <row r="319" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T319" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U319" s="17"/>
     </row>
     <row r="320" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T320" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U320" s="17"/>
     </row>
     <row r="321" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T321" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U321" s="17"/>
     </row>
     <row r="322" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T322" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U322" s="17"/>
     </row>
     <row r="323" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T323" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U323" s="17"/>
     </row>
     <row r="324" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T324" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U324" s="17"/>
     </row>
     <row r="325" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T325" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U325" s="17"/>
     </row>
     <row r="326" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T326" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U326" s="17"/>
     </row>
     <row r="327" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T327" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U327" s="17"/>
     </row>
     <row r="328" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T328" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U328" s="17"/>
     </row>
     <row r="329" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T329" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U329" s="17"/>
     </row>
     <row r="330" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T330" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U330" s="17"/>
     </row>
     <row r="331" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T331" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U331" s="17"/>
     </row>
     <row r="332" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T332" s="9" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="U332" s="17"/>
     </row>
     <row r="333" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T333" s="9" t="str">
-        <f t="shared" ref="T333:T348" si="125">IF(Q333="","",D331*(Q333-G333)*W333)</f>
+        <f t="shared" ref="T333:T348" si="126">IF(Q333="","",D331*(Q333-G333)*W333)</f>
         <v/>
       </c>
       <c r="U333" s="17"/>
     </row>
     <row r="334" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T334" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="U334" s="17"/>
     </row>
     <row r="335" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T335" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="U335" s="17"/>
     </row>
     <row r="336" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T336" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="U336" s="17"/>
     </row>
     <row r="337" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T337" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="U337" s="17"/>
     </row>
     <row r="338" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T338" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="U338" s="17"/>
     </row>
     <row r="339" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T339" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="U339" s="17"/>
     </row>
     <row r="340" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T340" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="U340" s="17"/>
     </row>
     <row r="341" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T341" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="U341" s="17"/>
     </row>
     <row r="342" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T342" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="U342" s="17"/>
     </row>
     <row r="343" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T343" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="U343" s="17"/>
     </row>
     <row r="344" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T344" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="U344" s="17"/>
     </row>
     <row r="345" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T345" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="U345" s="17"/>
     </row>
     <row r="346" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T346" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="U346" s="17"/>
     </row>
     <row r="347" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T347" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="U347" s="17"/>
     </row>
     <row r="348" spans="20:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="T348" s="9" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="U348" s="17"/>

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -1102,10 +1102,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$54</c:f>
+              <c:f>净值!$A$5:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1256,15 +1256,18 @@
                 <c:pt idx="49">
                   <c:v>43210</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>43213</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$C$5:$C$54</c:f>
+              <c:f>净值!$C$5:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0.99739509684390792</c:v>
                 </c:pt>
@@ -1415,6 +1418,9 @@
                 <c:pt idx="49">
                   <c:v>1.0138882965996012</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.9869221335760936</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1429,11 +1435,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="600439120"/>
-        <c:axId val="600440240"/>
+        <c:axId val="492791104"/>
+        <c:axId val="498658768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="600439120"/>
+        <c:axId val="492791104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,14 +1482,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600440240"/>
+        <c:crossAx val="498658768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="600440240"/>
+        <c:axId val="498658768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +1540,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600439120"/>
+        <c:crossAx val="492791104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2485,7 +2491,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2538,7 +2544,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C54" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C55" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -3133,6 +3139,13 @@
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>43213</v>
+      </c>
+      <c r="B55" s="4">
+        <v>5531137</v>
+      </c>
+      <c r="C55" s="51">
+        <f t="shared" si="0"/>
+        <v>0.9869221335760936</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -1102,10 +1102,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$55</c:f>
+              <c:f>净值!$A$5:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1259,15 +1259,18 @@
                 <c:pt idx="50">
                   <c:v>43213</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>43214</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$C$5:$C$55</c:f>
+              <c:f>净值!$C$5:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0.99739509684390792</c:v>
                 </c:pt>
@@ -1421,6 +1424,9 @@
                 <c:pt idx="50">
                   <c:v>0.9869221335760936</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99241064793196665</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1435,11 +1441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="492791104"/>
-        <c:axId val="498658768"/>
+        <c:axId val="518268480"/>
+        <c:axId val="518269040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492791104"/>
+        <c:axId val="518268480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,14 +1488,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498658768"/>
+        <c:crossAx val="518269040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="498658768"/>
+        <c:axId val="518269040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1540,7 +1546,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492791104"/>
+        <c:crossAx val="518268480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2491,7 +2497,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2544,7 +2550,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C55" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C56" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -3151,6 +3157,13 @@
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>43214</v>
+      </c>
+      <c r="B56" s="4">
+        <v>5561897</v>
+      </c>
+      <c r="C56" s="51">
+        <f t="shared" si="0"/>
+        <v>0.99241064793196665</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -1102,10 +1102,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$56</c:f>
+              <c:f>净值!$A$5:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1262,15 +1262,18 @@
                 <c:pt idx="51">
                   <c:v>43214</c:v>
                 </c:pt>
+                <c:pt idx="52">
+                  <c:v>43215</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$C$5:$C$56</c:f>
+              <c:f>净值!$C$5:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0.99739509684390792</c:v>
                 </c:pt>
@@ -1427,6 +1430,9 @@
                 <c:pt idx="51">
                   <c:v>0.99241064793196665</c:v>
                 </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0022867620281166</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1441,11 +1447,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="518268480"/>
-        <c:axId val="518269040"/>
+        <c:axId val="665759376"/>
+        <c:axId val="665760496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="518268480"/>
+        <c:axId val="665759376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,14 +1494,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518269040"/>
+        <c:crossAx val="665760496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518269040"/>
+        <c:axId val="665760496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,7 +1552,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518268480"/>
+        <c:crossAx val="665759376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2497,7 +2503,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2550,7 +2556,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C56" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C57" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -3169,6 +3175,13 @@
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>43215</v>
+      </c>
+      <c r="B57" s="4">
+        <v>5617247</v>
+      </c>
+      <c r="C57" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0022867620281166</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">

--- a/Simulation_Trade/Basis/Simulation_Basis.xlsx
+++ b/Simulation_Trade/Basis/Simulation_Basis.xlsx
@@ -1102,10 +1102,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>净值!$A$5:$A$57</c:f>
+              <c:f>净值!$A$5:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>43131</c:v>
                 </c:pt>
@@ -1265,15 +1265,18 @@
                 <c:pt idx="52">
                   <c:v>43215</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>43216</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>净值!$C$5:$C$57</c:f>
+              <c:f>净值!$C$5:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0.99739509684390792</c:v>
                 </c:pt>
@@ -1433,6 +1436,9 @@
                 <c:pt idx="52">
                   <c:v>1.0022867620281166</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99681252209189475</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1447,11 +1453,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="665759376"/>
-        <c:axId val="665760496"/>
+        <c:axId val="584176576"/>
+        <c:axId val="635189968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="665759376"/>
+        <c:axId val="584176576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1494,14 +1500,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="665760496"/>
+        <c:crossAx val="635189968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="665760496"/>
+        <c:axId val="635189968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1558,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="665759376"/>
+        <c:crossAx val="584176576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2503,7 +2509,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="A8" sqref="A8:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2556,7 +2562,7 @@
         <v>5589832</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C57" si="0">B5/$B$2</f>
+        <f t="shared" ref="C5:C58" si="0">B5/$B$2</f>
         <v>0.99739509684390792</v>
       </c>
     </row>
@@ -3187,6 +3193,13 @@
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>43216</v>
+      </c>
+      <c r="B58" s="4">
+        <v>5586567</v>
+      </c>
+      <c r="C58" s="51">
+        <f t="shared" si="0"/>
+        <v>0.99681252209189475</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -3228,8 +3241,8 @@
   <dimension ref="A1:AG6645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B293" sqref="B293"/>
+      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A256" sqref="A256:M262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
